--- a/TestBudget.xlsx
+++ b/TestBudget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PersonalMyCode\BudgetUpdator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17890B1B-0F23-4AC5-BC9B-58D40521E96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF3E03E-D334-41F7-B540-4CC52870C3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="2370" windowWidth="23010" windowHeight="13650" activeTab="1" xr2:uid="{AF956A61-A15A-4A6E-9A9E-CFD1D374AF1F}"/>
+    <workbookView xWindow="-28665" yWindow="15" windowWidth="28770" windowHeight="15465" activeTab="1" xr2:uid="{AF956A61-A15A-4A6E-9A9E-CFD1D374AF1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Income" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="ScratchSheet" sheetId="3" r:id="rId3"/>
     <sheet name="ScratchSheet2" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="160">
   <si>
     <t>May</t>
   </si>
@@ -123,147 +123,171 @@
     <t>Last Month:</t>
   </si>
   <si>
+    <t>Lowes</t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t>Rewards</t>
+  </si>
+  <si>
+    <t>Mason</t>
+  </si>
+  <si>
+    <t>Checking</t>
+  </si>
+  <si>
+    <t>LM After T&amp;T</t>
+  </si>
+  <si>
+    <t>LM Income After T, T, D</t>
+  </si>
+  <si>
+    <t>Regular Expenses</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>NewCar</t>
+  </si>
+  <si>
+    <t>Lexi</t>
+  </si>
+  <si>
+    <t>Cavanaughs Bou Bountiful Ut Visa</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Citi</t>
+  </si>
+  <si>
+    <t>Groceries</t>
+  </si>
+  <si>
+    <t>CC Debit Purchase : WALMART.COM 800-925-6278, AR (6649) VISA DPS</t>
+  </si>
+  <si>
+    <t>Deseret Book</t>
+  </si>
+  <si>
+    <t>Books, Liahona</t>
+  </si>
+  <si>
+    <t>Venmo</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Previous</t>
+  </si>
+  <si>
+    <t>After T&amp;T</t>
+  </si>
+  <si>
+    <t>Actual Expenses</t>
+  </si>
+  <si>
+    <t>Eating Out/Fun</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>CC Debit Purchase : WALMART.COM 800925 800-966-6546, AR (6649) VISA DPS</t>
+  </si>
+  <si>
+    <t>Squarespace</t>
+  </si>
+  <si>
+    <t>freecellultimate.com</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Dec23</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>CC Debit Purchase : AMZN Mktp US*WO7R8 Amzn.com/bill, WA (6649) VISA DPS</t>
+  </si>
+  <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>Tim Corey C# course</t>
+  </si>
+  <si>
+    <t>Plat</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>G20</t>
+  </si>
+  <si>
+    <t>If we stick to our</t>
+  </si>
+  <si>
+    <t>CC Debit Purchase : AMZN Mktp US*W78UU Amzn.com/bill, WA (6649) VISA DPS</t>
+  </si>
+  <si>
+    <t>Wendy's</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>G30</t>
+  </si>
+  <si>
+    <t>budget we'll save:</t>
+  </si>
+  <si>
+    <t>Mason and Emery</t>
+  </si>
+  <si>
+    <t>Ernie's Too Cedar City Ut Visa</t>
+  </si>
+  <si>
+    <t>Walgreens</t>
+  </si>
+  <si>
+    <t>Lexi throat prescription</t>
+  </si>
+  <si>
+    <t>Misc</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>G40</t>
+  </si>
+  <si>
+    <t>Amount Saved</t>
+  </si>
+  <si>
+    <t>Home Improvement</t>
+  </si>
+  <si>
     <t>Walmart</t>
   </si>
   <si>
-    <t>Rewards</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>Checking</t>
-  </si>
-  <si>
-    <t>LM After T&amp;T</t>
-  </si>
-  <si>
-    <t>LM Income After T, T, D</t>
-  </si>
-  <si>
-    <t>Regular Expenses</t>
-  </si>
-  <si>
-    <t>Lowes</t>
-  </si>
-  <si>
-    <t>Tools</t>
-  </si>
-  <si>
-    <t>Cavanaughs Bou Bountiful Ut Visa</t>
-  </si>
-  <si>
-    <t>Citi</t>
-  </si>
-  <si>
-    <t>Groceries</t>
-  </si>
-  <si>
-    <t>Deseret Book</t>
-  </si>
-  <si>
-    <t>Books, Liahona</t>
-  </si>
-  <si>
-    <t>Venmo</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>Previous</t>
-  </si>
-  <si>
-    <t>After T&amp;T</t>
-  </si>
-  <si>
-    <t>Actual Expenses</t>
-  </si>
-  <si>
-    <t>Eating Out/Fun</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>Squarespace</t>
-  </si>
-  <si>
-    <t>freecellultimate.com</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Dec23</t>
-  </si>
-  <si>
-    <t>G10</t>
-  </si>
-  <si>
-    <t>Lexi</t>
-  </si>
-  <si>
-    <t>Visa</t>
-  </si>
-  <si>
-    <t>Tim Corey C# course</t>
-  </si>
-  <si>
-    <t>Plat</t>
-  </si>
-  <si>
-    <t>Feb</t>
-  </si>
-  <si>
-    <t>G20</t>
-  </si>
-  <si>
-    <t>If we stick to our</t>
-  </si>
-  <si>
-    <t>Wendy's</t>
-  </si>
-  <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>G30</t>
-  </si>
-  <si>
-    <t>budget we'll save:</t>
-  </si>
-  <si>
-    <t>Mason and Emery</t>
-  </si>
-  <si>
-    <t>Walgreens</t>
-  </si>
-  <si>
-    <t>Lexi throat prescription</t>
-  </si>
-  <si>
-    <t>Misc</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Apr</t>
-  </si>
-  <si>
-    <t>G40</t>
-  </si>
-  <si>
-    <t>Amount Saved</t>
-  </si>
-  <si>
-    <t>Home Improvement</t>
-  </si>
-  <si>
     <t>Tooele City Corpor Ut Visa</t>
   </si>
   <si>
@@ -276,7 +300,7 @@
     <t>Gasoline</t>
   </si>
   <si>
-    <t>Amazon</t>
+    <t>Credit Card Payment</t>
   </si>
   <si>
     <t>Toys, mason shorts, door knob grips</t>
@@ -306,6 +330,9 @@
     <t>G80</t>
   </si>
   <si>
+    <t>Costco</t>
+  </si>
+  <si>
     <t>Mattress Firm</t>
   </si>
   <si>
@@ -318,6 +345,9 @@
     <t>G90</t>
   </si>
   <si>
+    <t>Fast Gas Convenience Store</t>
+  </si>
+  <si>
     <t>YouTube Premium</t>
   </si>
   <si>
@@ -327,6 +357,9 @@
     <t>G100</t>
   </si>
   <si>
+    <t>Mo' Bettahs</t>
+  </si>
+  <si>
     <t>Nov</t>
   </si>
   <si>
@@ -336,6 +369,12 @@
     <t>Consistent Expenses</t>
   </si>
   <si>
+    <t>Tepanyaki of Lehi Ut Visa</t>
+  </si>
+  <si>
+    <t>Eating out</t>
+  </si>
+  <si>
     <t>Phone case, cake knives</t>
   </si>
   <si>
@@ -348,12 +387,21 @@
     <t>Mortgage</t>
   </si>
   <si>
+    <t>Beehive Smart Ut Visa</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
     <t>Google Cloud</t>
   </si>
   <si>
     <t>Dominion</t>
   </si>
   <si>
+    <t>The Home Depot</t>
+  </si>
+  <si>
     <t>Families First Ped South Jordan Ut Visa</t>
   </si>
   <si>
@@ -363,12 +411,18 @@
     <t>Electricity</t>
   </si>
   <si>
+    <t>Jiffy Lube</t>
+  </si>
+  <si>
     <t>TV Mount for bedroom</t>
   </si>
   <si>
     <t>Tv Mount</t>
   </si>
   <si>
+    <t>Etsy</t>
+  </si>
+  <si>
     <t>LDS Distribution</t>
   </si>
   <si>
@@ -387,7 +441,7 @@
     <t>Phones</t>
   </si>
   <si>
-    <t>Internet</t>
+    <t>Microsoft G Wa Visa</t>
   </si>
   <si>
     <t>Allstate</t>
@@ -399,67 +453,85 @@
     <t>Rocky Mountain Power</t>
   </si>
   <si>
-    <t>CC Debit Purchase : WALMART.COM 800-925-6278, AR (6649) VISA DPS</t>
-  </si>
-  <si>
-    <t>Costco</t>
-  </si>
-  <si>
-    <t>Fast Gas Convenience Store</t>
-  </si>
-  <si>
-    <t>Mo' Bettahs</t>
+    <t>Tv</t>
+  </si>
+  <si>
+    <t>Lowe's</t>
+  </si>
+  <si>
+    <t>JOANN</t>
   </si>
   <si>
     <t>Other Expenses</t>
   </si>
   <si>
-    <t>Tepanyaki of Lehi Ut Visa</t>
-  </si>
-  <si>
-    <t>Beehive Smart Ut Visa</t>
-  </si>
-  <si>
     <t>Mothers day</t>
   </si>
   <si>
-    <t>The Home Depot</t>
-  </si>
-  <si>
-    <t>Jiffy Lube</t>
-  </si>
-  <si>
     <t>Oil change Nissan</t>
   </si>
   <si>
     <t>Emery's birthday</t>
   </si>
   <si>
-    <t>Etsy</t>
-  </si>
-  <si>
     <t>Anniversary</t>
   </si>
   <si>
     <t>HDMI dummy plug</t>
   </si>
   <si>
-    <t>Microsoft G Wa Visa</t>
-  </si>
-  <si>
     <t>Azure</t>
   </si>
   <si>
-    <t>Tv</t>
-  </si>
-  <si>
-    <t>Lowe's</t>
-  </si>
-  <si>
     <t>Lawn mower and trimmer</t>
   </si>
   <si>
-    <t>JOANN</t>
+    <t>Macey's</t>
+  </si>
+  <si>
+    <t>The Cherrington Fi Ut Visa</t>
+  </si>
+  <si>
+    <t>Dollar Tree</t>
+  </si>
+  <si>
+    <t>Oquirrh Mountain E Tooele Ut Visa</t>
+  </si>
+  <si>
+    <t>Infinite Cables Markham on Visa</t>
+  </si>
+  <si>
+    <t>International Transaction Fee</t>
+  </si>
+  <si>
+    <t>Pilot Flying J</t>
+  </si>
+  <si>
+    <t>Nitro Mall San Francisco, Ca (</t>
+  </si>
+  <si>
+    <t>Love's Travel Stops</t>
+  </si>
+  <si>
+    <t>The Creamery Ut Visa</t>
+  </si>
+  <si>
+    <t>Applebee's</t>
+  </si>
+  <si>
+    <t>GoDaddy</t>
+  </si>
+  <si>
+    <t>Crumbl Cookies</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>Zaxby's</t>
+  </si>
+  <si>
+    <t>Olive Garden</t>
   </si>
   <si>
     <t>123</t>
@@ -478,7 +550,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -644,172 +716,172 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="1" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" applyFill="1" borderId="0" xfId="0"/>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" xfId="1"/>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="0" fillId="2" applyFill="1" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="0" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" applyFill="1" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" applyFill="1" borderId="0" xfId="0"/>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="4" applyFill="1" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" applyFill="1" borderId="0" xfId="0"/>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="0" fillId="5" applyFill="1" borderId="0" xfId="0"/>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="5" applyFill="1" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" applyFill="1" borderId="0" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="3" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" applyFont="1" fillId="3" applyFill="1" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" applyFont="1" fillId="4" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="5" applyFont="1" fillId="5" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" applyFont="1" fillId="3" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="4" applyFill="1" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="2" applyFont="1" fillId="5" applyFill="1" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" applyFill="1" borderId="0" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" applyFont="1" fillId="4" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="7" applyFont="1" fillId="4" applyFill="1" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="7" applyFont="1" fillId="5" applyFill="1" borderId="0" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" applyFont="1" fillId="5" applyFill="1" borderId="0" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="7" applyFont="1" fillId="5" applyFill="1" borderId="0" xfId="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" applyFont="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" applyFill="1" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" applyFill="1" borderId="0" xfId="0"/>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="8" applyFill="1" borderId="0" xfId="1"/>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="9" applyFill="1" borderId="0" xfId="1"/>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="8" applyFill="1" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" applyFill="1" borderId="0" xfId="0"/>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="0" fillId="10" applyFill="1" borderId="0" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" applyFill="1" borderId="0" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="10" applyFill="1" borderId="0" xfId="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" applyFill="1" borderId="0" xfId="0"/>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" applyFont="1" fillId="8" applyFill="1" borderId="0" xfId="0"/>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="9" applyFill="1" borderId="0" xfId="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" applyFill="1" borderId="0" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="4" applyFill="1" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="5" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1"/>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="0" fillId="7" applyFill="1" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" applyFill="1" borderId="0" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" applyFill="1" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" applyFill="1" borderId="0" xfId="0" quotePrefix="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" applyFill="1" borderId="0" xfId="0" quotePrefix="1" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="0" fillId="2" applyFill="1" borderId="0" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="10" applyFont="1" fillId="8" applyFill="1" borderId="0" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" applyFont="1" fillId="2" applyFill="1" borderId="0" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyFont="1" fillId="8" applyFill="1" borderId="0" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="0" fillId="11" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -861,54 +933,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="0"/>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1228,13 +1252,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B13FCC-0FE2-4FD8-8445-10B3E12F8648}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -1243,39 +1267,39 @@
   <dimension ref="A1:AR200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L4" workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+      <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="2.42578125" customWidth="1"/>
-    <col min="3" max="3" bestFit="1" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="5" width="2.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1" style="1"/>
+    <col min="6" max="6" width="9.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="2.5703125" customWidth="1"/>
-    <col min="8" max="8" bestFit="1" width="19.140625" customWidth="1"/>
-    <col min="9" max="9" hidden="1" width="11.42578125" customWidth="1" style="70"/>
-    <col min="10" max="13" width="11.42578125" customWidth="1" style="70"/>
-    <col min="14" max="14" hidden="1" width="6.5703125" customWidth="1" style="71"/>
-    <col min="15" max="15" hidden="1" width="11.42578125" customWidth="1" style="70"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="70" hidden="1" customWidth="1"/>
+    <col min="10" max="13" width="11.42578125" style="70" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" style="71" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="70" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="2.5703125" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" customWidth="1" style="1"/>
+    <col min="17" max="17" width="9.140625" style="1" customWidth="1"/>
     <col min="18" max="18" width="2.5703125" customWidth="1"/>
     <col min="19" max="19" width="7.28515625" customWidth="1"/>
-    <col min="20" max="20" width="10.28515625" customWidth="1" style="72"/>
+    <col min="20" max="20" width="10.28515625" style="72" customWidth="1"/>
     <col min="21" max="22" width="31.42578125" customWidth="1"/>
     <col min="23" max="23" width="11.85546875" customWidth="1"/>
     <col min="24" max="24" width="30.42578125" customWidth="1"/>
-    <col min="25" max="25" width="11.42578125" customWidth="1" style="70"/>
+    <col min="25" max="25" width="11.42578125" style="70" customWidth="1"/>
     <col min="26" max="26" width="2.5703125" customWidth="1"/>
-    <col min="27" max="36" width="9.140625" customWidth="1" style="1"/>
-    <col min="39" max="39" bestFit="1" width="15.85546875" customWidth="1"/>
+    <col min="27" max="36" width="9.140625" style="1" customWidth="1"/>
+    <col min="39" max="39" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
+    <row r="1" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1286,7 +1310,7 @@
       <c r="T1" s="4"/>
       <c r="Y1" s="2"/>
     </row>
-    <row r="2" ht="46.5" s="1" customFormat="1">
+    <row r="2" spans="1:44" s="1" customFormat="1" ht="46.5" x14ac:dyDescent="0.7">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1302,7 +1326,7 @@
       <c r="T2" s="4"/>
       <c r="Y2" s="2"/>
     </row>
-    <row r="3" ht="26.25" s="1" customFormat="1">
+    <row r="3" spans="1:44" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="I3" s="2"/>
@@ -1315,7 +1339,7 @@
       <c r="T3" s="4"/>
       <c r="Y3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -1350,7 +1374,7 @@
       <c r="AI4" s="14"/>
       <c r="AJ4" s="14"/>
     </row>
-    <row r="5" ht="24">
+    <row r="5" spans="1:44" ht="24" x14ac:dyDescent="0.35">
       <c r="B5" s="8"/>
       <c r="C5" s="15" t="s">
         <v>1</v>
@@ -1397,7 +1421,7 @@
       <c r="AI5" s="14"/>
       <c r="AJ5" s="14"/>
     </row>
-    <row r="6" ht="24" s="28" customFormat="1">
+    <row r="6" spans="1:44" s="28" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="20"/>
       <c r="C6" s="15"/>
@@ -1414,7 +1438,7 @@
       <c r="K6" s="24"/>
       <c r="L6" s="25">
         <f>SUM(L9:L58)</f>
-        <v>327.76</v>
+        <v>15059.95</v>
       </c>
       <c r="M6" s="23"/>
       <c r="N6" s="23"/>
@@ -1430,7 +1454,7 @@
       <c r="X6" s="26"/>
       <c r="Y6" s="25">
         <f>SUM(Y8:Y199)</f>
-        <v>327.76</v>
+        <v>14939.950000000004</v>
       </c>
       <c r="Z6" s="26"/>
       <c r="AA6" s="27"/>
@@ -1444,7 +1468,7 @@
       <c r="AI6" s="27"/>
       <c r="AJ6" s="27"/>
     </row>
-    <row r="7" s="28" customFormat="1">
+    <row r="7" spans="1:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -1522,7 +1546,7 @@
         <v>Apr</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B8" s="40"/>
       <c r="C8" s="40"/>
       <c r="D8" s="40"/>
@@ -1539,23 +1563,25 @@
       <c r="P8" s="41"/>
       <c r="R8" s="45"/>
       <c r="S8" s="45">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T8" s="46">
-        <v>45412</v>
+        <v>45413</v>
       </c>
       <c r="U8" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="V8" s="47"/>
+      <c r="V8" s="47" t="s">
+        <v>21</v>
+      </c>
       <c r="W8" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X8" s="47" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y8" s="48">
-        <v>277.76</v>
+        <v>50</v>
       </c>
       <c r="Z8" s="45"/>
       <c r="AA8" s="14" t="b">
@@ -1575,29 +1601,29 @@
       <c r="AI8" s="14"/>
       <c r="AJ8" s="14"/>
       <c r="AK8" s="49" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM8" s="50" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN8" s="51" t="str">
         <f>VLOOKUP(AN7,AN11:AO22,2,FALSE)</f>
         <v>G50</v>
       </c>
     </row>
-    <row r="9" ht="15.75">
+    <row r="9" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="40"/>
       <c r="C9" s="40" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="52" cm="1">
-        <f ref="D9:D9" t="array" aca="1" ca="1">INDIRECT("Income!"&amp;AN8)</f>
+        <f t="array" aca="1" ref="D9" ca="1">INDIRECT("Income!"&amp;AN8)</f>
         <v>0</v>
       </c>
       <c r="E9" s="40"/>
       <c r="G9" s="41"/>
       <c r="H9" s="53" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I9" s="42"/>
       <c r="J9" s="54"/>
@@ -1608,24 +1634,26 @@
       <c r="O9" s="42"/>
       <c r="P9" s="41"/>
       <c r="R9" s="45"/>
-      <c r="S9" s="45"/>
+      <c r="S9" s="45">
+        <v>1483</v>
+      </c>
       <c r="T9" s="72">
-        <v>45413</v>
-      </c>
-      <c r="U9" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="V9" s="0" t="s">
+        <v>45414</v>
+      </c>
+      <c r="U9" t="s">
         <v>28</v>
       </c>
-      <c r="W9" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="X9" s="0" t="s">
-        <v>22</v>
+      <c r="V9" t="s">
+        <v>29</v>
+      </c>
+      <c r="W9" t="s">
+        <v>22</v>
+      </c>
+      <c r="X9" t="s">
+        <v>30</v>
       </c>
       <c r="Y9" s="70">
-        <v>50</v>
+        <v>15000</v>
       </c>
       <c r="Z9" s="45"/>
       <c r="AA9" s="14" t="b">
@@ -1638,14 +1666,14 @@
         <v>0</v>
       </c>
       <c r="AD9" s="47" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AE9" s="47"/>
       <c r="AF9" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG9" s="47" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AH9" s="48">
         <v>18.53</v>
@@ -1653,10 +1681,10 @@
       <c r="AI9" s="14"/>
       <c r="AJ9" s="14"/>
       <c r="AK9" s="49" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B10" s="40"/>
       <c r="C10" s="40" t="s">
         <v>2</v>
@@ -1668,32 +1696,46 @@
       <c r="E10" s="40"/>
       <c r="G10" s="41"/>
       <c r="H10" s="56" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I10" s="10" t="e" cm="1">
-        <f ref="I10:I10" t="array" aca="1" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O10")</f>
+        <f t="array" aca="1" ref="I10" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O10")</f>
         <v>#REF!</v>
       </c>
       <c r="J10" s="54">
         <v>1000</v>
       </c>
       <c r="K10" s="42" t="e">
-        <f ref="K10:K21" t="shared" si="0" ca="1">SUM(I10:J10)</f>
+        <f t="shared" ref="K10:K21" ca="1" si="0">SUM(I10:J10)</f>
         <v>#REF!</v>
       </c>
       <c r="L10" s="42">
-        <f ref="L10:L58" t="shared" si="1">SUMIF(X:X, H10, Y:Y)</f>
+        <f t="shared" ref="L10:L58" si="1">SUMIF(X:X, H10, Y:Y)</f>
         <v>0</v>
       </c>
       <c r="M10" s="42" t="e">
-        <f ref="M10:M12" t="shared" si="2" ca="1">K10-L10</f>
+        <f t="shared" ref="M10:M12" ca="1" si="2">K10-L10</f>
         <v>#REF!</v>
       </c>
       <c r="N10" s="57"/>
       <c r="O10" s="10"/>
       <c r="P10" s="41"/>
       <c r="R10" s="45"/>
-      <c r="S10" s="45"/>
+      <c r="S10" s="45">
+        <v>1484</v>
+      </c>
+      <c r="T10" s="72">
+        <v>45436</v>
+      </c>
+      <c r="U10" t="s">
+        <v>35</v>
+      </c>
+      <c r="W10" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y10" s="70">
+        <v>150.69999999999999</v>
+      </c>
       <c r="Z10" s="45"/>
       <c r="AA10" s="14" t="b">
         <v>0</v>
@@ -1705,16 +1747,16 @@
         <v>0</v>
       </c>
       <c r="AD10" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE10" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF10" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG10" s="47" t="s">
         <v>32</v>
-      </c>
-      <c r="AE10" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF10" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="AG10" s="47" t="s">
-        <v>22</v>
       </c>
       <c r="AH10" s="48">
         <v>27.45</v>
@@ -1722,41 +1764,41 @@
       <c r="AI10" s="14"/>
       <c r="AJ10" s="14"/>
       <c r="AK10" s="49" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AM10" s="50" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AN10" s="50" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AO10" s="50" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B11" s="40"/>
       <c r="C11" s="40" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D11" s="58">
         <f>Y6</f>
-        <v>327.76</v>
+        <v>14939.950000000004</v>
       </c>
       <c r="E11" s="40"/>
       <c r="G11" s="41"/>
       <c r="H11" s="56" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I11" s="10" t="e" cm="1">
-        <f ref="I11:I11" t="array" aca="1" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O11")</f>
+        <f t="array" aca="1" ref="I11" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O11")</f>
         <v>#REF!</v>
       </c>
       <c r="J11" s="54">
         <v>100</v>
       </c>
       <c r="K11" s="42" t="e">
-        <f t="shared" si="0" ca="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="L11" s="42">
@@ -1764,19 +1806,33 @@
         <v>0</v>
       </c>
       <c r="M11" s="42" t="e">
-        <f t="shared" si="2" ca="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>#REF!</v>
       </c>
       <c r="N11" s="57" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="O11" s="10" t="e">
-        <f>IF(N11="y",M11,)</f>
+        <f ca="1">IF(N11="y",M11,)</f>
         <v>#REF!</v>
       </c>
       <c r="P11" s="41"/>
       <c r="R11" s="45"/>
-      <c r="S11" s="45"/>
+      <c r="S11" s="45">
+        <v>1485</v>
+      </c>
+      <c r="T11" s="72">
+        <v>45434</v>
+      </c>
+      <c r="U11" t="s">
+        <v>45</v>
+      </c>
+      <c r="W11" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y11" s="70">
+        <v>140.80000000000001</v>
+      </c>
       <c r="Z11" s="45"/>
       <c r="AA11" s="14" t="b">
         <v>0</v>
@@ -1788,16 +1844,16 @@
         <v>0</v>
       </c>
       <c r="AD11" s="47" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AE11" s="47" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="AF11" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG11" s="47" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AH11" s="48">
         <v>12.84</v>
@@ -1805,57 +1861,71 @@
       <c r="AI11" s="14"/>
       <c r="AJ11" s="14"/>
       <c r="AK11" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM11" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>49</v>
       </c>
       <c r="AN11" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO11" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
+      </c>
+      <c r="AO11" t="s">
+        <v>51</v>
       </c>
       <c r="AR11" s="28"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="B12" s="40"/>
       <c r="C12" s="40"/>
       <c r="D12" s="60"/>
       <c r="E12" s="40"/>
       <c r="G12" s="41"/>
       <c r="H12" s="56" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="I12" s="10" t="e" cm="1">
-        <f ref="I12:I12" t="array" aca="1" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O12")</f>
+        <f t="array" aca="1" ref="I12" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O12")</f>
         <v>#REF!</v>
       </c>
       <c r="J12" s="54">
         <v>100</v>
       </c>
       <c r="K12" s="42" t="e">
-        <f t="shared" si="0" ca="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="L12" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="M12" s="42" t="e">
-        <f t="shared" si="2" ca="1"/>
+        <f t="shared" ca="1" si="2"/>
         <v>#REF!</v>
       </c>
       <c r="N12" s="57" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="O12" s="10" t="e">
-        <f ref="O12:O21" t="shared" si="3" ca="1">IF(N12="y",M12,)</f>
+        <f t="shared" ref="O12:O21" ca="1" si="3">IF(N12="y",M12,)</f>
         <v>#REF!</v>
       </c>
       <c r="P12" s="41"/>
       <c r="R12" s="45"/>
-      <c r="S12" s="45"/>
+      <c r="S12" s="45">
+        <v>1486</v>
+      </c>
+      <c r="T12" s="72">
+        <v>45434</v>
+      </c>
+      <c r="U12" t="s">
+        <v>52</v>
+      </c>
+      <c r="W12" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y12" s="70">
+        <v>66.3</v>
+      </c>
       <c r="Z12" s="45"/>
       <c r="AA12" s="14" t="b">
         <v>0</v>
@@ -1867,16 +1937,16 @@
         <v>0</v>
       </c>
       <c r="AD12" s="47" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="AE12" s="47" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="AF12" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG12" s="47" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AH12" s="48">
         <v>69.56</v>
@@ -1884,60 +1954,74 @@
       <c r="AI12" s="14"/>
       <c r="AJ12" s="14"/>
       <c r="AK12" s="49" t="s">
-        <v>50</v>
-      </c>
-      <c r="AM12" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN12" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="AO12" s="0" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>55</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="40"/>
       <c r="C13" s="40" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
       <c r="F13" s="14"/>
       <c r="G13" s="41"/>
       <c r="H13" s="56" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="I13" s="10" t="e" cm="1">
-        <f ref="I13:I13" t="array" aca="1" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O13")</f>
+        <f t="array" aca="1" ref="I13" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O13")</f>
         <v>#REF!</v>
       </c>
       <c r="J13" s="54">
         <v>100</v>
       </c>
       <c r="K13" s="42" t="e">
-        <f t="shared" si="0" ca="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="L13" s="42">
         <f t="shared" si="1"/>
-        <v>327.76</v>
+        <v>0</v>
       </c>
       <c r="M13" s="42" t="e">
-        <f>K13-L13</f>
+        <f ca="1">K13-L13</f>
         <v>#REF!</v>
       </c>
       <c r="N13" s="57" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="O13" s="10" t="e">
-        <f t="shared" si="3" ca="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>#REF!</v>
       </c>
       <c r="P13" s="41"/>
       <c r="R13" s="45"/>
-      <c r="S13" s="45"/>
+      <c r="S13" s="45">
+        <v>1487</v>
+      </c>
+      <c r="T13" s="72">
+        <v>45434</v>
+      </c>
+      <c r="U13" t="s">
+        <v>59</v>
+      </c>
+      <c r="W13" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y13" s="70">
+        <v>8.5299999999999994</v>
+      </c>
       <c r="Z13" s="45"/>
       <c r="AA13" s="14" t="b">
         <v>0</v>
@@ -1949,14 +2033,14 @@
         <v>0</v>
       </c>
       <c r="AD13" s="47" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="AE13" s="47"/>
       <c r="AF13" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG13" s="47" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AH13" s="48">
         <v>21.76</v>
@@ -1964,23 +2048,23 @@
       <c r="AI13" s="14"/>
       <c r="AJ13" s="14"/>
       <c r="AK13" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM13" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AN13" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="AO13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN13" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="14">
+      <c r="AO13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="61"/>
       <c r="C14" s="62" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D14" s="48">
         <v>-454.02</v>
@@ -1989,17 +2073,17 @@
       <c r="F14" s="14"/>
       <c r="G14" s="41"/>
       <c r="H14" s="56" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="I14" s="10" t="e" cm="1">
-        <f ref="I14:I14" t="array" aca="1" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O14")</f>
+        <f t="array" aca="1" ref="I14" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O14")</f>
         <v>#REF!</v>
       </c>
       <c r="J14" s="54">
         <v>51</v>
       </c>
       <c r="K14" s="42" t="e">
-        <f t="shared" si="0" ca="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="L14" s="42">
@@ -2007,19 +2091,33 @@
         <v>0</v>
       </c>
       <c r="M14" s="42" t="e">
-        <f ref="M14:M21" t="shared" si="4" ca="1">K14-L14</f>
+        <f t="shared" ref="M14:M21" ca="1" si="4">K14-L14</f>
         <v>#REF!</v>
       </c>
       <c r="N14" s="57" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="O14" s="10" t="e">
-        <f t="shared" si="3" ca="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>#REF!</v>
       </c>
       <c r="P14" s="41"/>
       <c r="R14" s="45"/>
-      <c r="S14" s="45"/>
+      <c r="S14" s="45">
+        <v>1488</v>
+      </c>
+      <c r="T14" s="72">
+        <v>45433</v>
+      </c>
+      <c r="U14" t="s">
+        <v>65</v>
+      </c>
+      <c r="W14" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y14" s="70">
+        <v>47.45</v>
+      </c>
       <c r="Z14" s="45"/>
       <c r="AA14" s="14" t="b">
         <v>0</v>
@@ -2031,16 +2129,16 @@
         <v>0</v>
       </c>
       <c r="AD14" s="47" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="AE14" s="47" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AF14" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG14" s="47" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="AH14" s="48">
         <v>3.22</v>
@@ -2048,43 +2146,43 @@
       <c r="AI14" s="14"/>
       <c r="AJ14" s="14"/>
       <c r="AK14" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM14" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="AN14" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="AO14" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>69</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="61"/>
       <c r="C15" s="40" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D15" s="60">
-        <f>D9-D11</f>
-        <v>-327.76</v>
+        <f ca="1">D9-D11</f>
+        <v>-14939.950000000004</v>
       </c>
       <c r="E15" s="61"/>
       <c r="F15" s="14"/>
       <c r="G15" s="41"/>
       <c r="H15" s="56" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="I15" s="10" t="e" cm="1">
-        <f ref="I15:I15" t="array" aca="1" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O15")</f>
+        <f t="array" aca="1" ref="I15" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O15")</f>
         <v>#REF!</v>
       </c>
       <c r="J15" s="54">
         <v>150</v>
       </c>
       <c r="K15" s="42" t="e">
-        <f t="shared" si="0" ca="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="L15" s="42">
@@ -2092,19 +2190,33 @@
         <v>0</v>
       </c>
       <c r="M15" s="42" t="e">
-        <f t="shared" si="4" ca="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="N15" s="57" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="O15" s="10" t="e">
-        <f t="shared" si="3" ca="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>#REF!</v>
       </c>
       <c r="P15" s="41"/>
       <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
+      <c r="S15" s="45">
+        <v>1489</v>
+      </c>
+      <c r="T15" s="72">
+        <v>45431</v>
+      </c>
+      <c r="U15" t="s">
+        <v>74</v>
+      </c>
+      <c r="W15" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y15" s="70">
+        <v>58.51</v>
+      </c>
       <c r="Z15" s="45"/>
       <c r="AA15" s="14" t="b">
         <v>0</v>
@@ -2116,32 +2228,32 @@
         <v>0</v>
       </c>
       <c r="AD15" s="47" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AE15" s="47"/>
       <c r="AF15" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG15" s="47" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="AH15" s="48">
         <v>58</v>
       </c>
       <c r="AI15" s="14"/>
       <c r="AJ15" s="14"/>
-      <c r="AM15" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN15" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="AO15" s="0" t="s">
-        <v>69</v>
+      <c r="AM15" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>77</v>
       </c>
       <c r="AR15" s="28"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="61"/>
       <c r="C16" s="63"/>
@@ -2150,17 +2262,17 @@
       <c r="F16" s="14"/>
       <c r="G16" s="41"/>
       <c r="H16" s="56" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="I16" s="10" t="e" cm="1">
-        <f ref="I16:I16" t="array" aca="1" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O16")</f>
+        <f t="array" aca="1" ref="I16" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O16")</f>
         <v>#REF!</v>
       </c>
       <c r="J16" s="54">
         <v>200</v>
       </c>
       <c r="K16" s="42" t="e">
-        <f t="shared" si="0" ca="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="L16" s="42">
@@ -2168,7 +2280,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="42" t="e">
-        <f t="shared" si="4" ca="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="N16" s="57"/>
@@ -2178,7 +2290,21 @@
       </c>
       <c r="P16" s="41"/>
       <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
+      <c r="S16" s="45">
+        <v>1490</v>
+      </c>
+      <c r="T16" s="72">
+        <v>45431</v>
+      </c>
+      <c r="U16" t="s">
+        <v>79</v>
+      </c>
+      <c r="W16" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y16" s="70">
+        <v>-2046.1</v>
+      </c>
       <c r="Z16" s="45"/>
       <c r="AA16" s="14" t="b">
         <v>0</v>
@@ -2190,33 +2316,33 @@
         <v>0</v>
       </c>
       <c r="AD16" s="47" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="AE16" s="47" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="AF16" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG16" s="47" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="AH16" s="48">
         <v>47.1</v>
       </c>
       <c r="AI16" s="14"/>
       <c r="AJ16" s="14"/>
-      <c r="AM16" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AN16" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="0" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="AM16" t="s">
+        <v>81</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="64"/>
@@ -2225,17 +2351,17 @@
       <c r="F17" s="14"/>
       <c r="G17" s="41"/>
       <c r="H17" s="56" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I17" s="10" t="e" cm="1">
-        <f ref="I17:I17" t="array" aca="1" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O17")</f>
+        <f t="array" aca="1" ref="I17" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O17")</f>
         <v>#REF!</v>
       </c>
       <c r="J17" s="54">
         <v>350</v>
       </c>
       <c r="K17" s="42" t="e">
-        <f t="shared" si="0" ca="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="L17" s="42">
@@ -2243,19 +2369,33 @@
         <v>0</v>
       </c>
       <c r="M17" s="42" t="e">
-        <f t="shared" si="4" ca="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="N17" s="57" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="O17" s="10" t="e">
-        <f t="shared" si="3" ca="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>#REF!</v>
       </c>
       <c r="P17" s="41"/>
       <c r="R17" s="45"/>
-      <c r="S17" s="45"/>
+      <c r="S17" s="45">
+        <v>1491</v>
+      </c>
+      <c r="T17" s="72">
+        <v>45430</v>
+      </c>
+      <c r="U17" t="s">
+        <v>74</v>
+      </c>
+      <c r="W17" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y17" s="70">
+        <v>5.51</v>
+      </c>
       <c r="Z17" s="45"/>
       <c r="AA17" s="14" t="b">
         <v>0</v>
@@ -2267,33 +2407,33 @@
         <v>0</v>
       </c>
       <c r="AD17" s="47" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="AE17" s="47" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AF17" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG17" s="47" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="AH17" s="48">
         <v>10.35</v>
       </c>
       <c r="AI17" s="14"/>
       <c r="AJ17" s="14"/>
-      <c r="AM17" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="AN17" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO17" s="0" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18">
+      <c r="AM17" t="s">
+        <v>84</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -2303,12 +2443,12 @@
       <c r="G18" s="41"/>
       <c r="H18" s="56"/>
       <c r="I18" s="10" t="e" cm="1">
-        <f ref="I18:I18" t="array" aca="1" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O18")</f>
+        <f t="array" aca="1" ref="I18" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O18")</f>
         <v>#REF!</v>
       </c>
       <c r="J18" s="54"/>
       <c r="K18" s="42" t="e">
-        <f t="shared" si="0" ca="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="L18" s="42">
@@ -2316,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="42" t="e">
-        <f t="shared" si="4" ca="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="N18" s="57"/>
@@ -2326,7 +2466,21 @@
       </c>
       <c r="P18" s="41"/>
       <c r="R18" s="45"/>
-      <c r="S18" s="45"/>
+      <c r="S18" s="45">
+        <v>1492</v>
+      </c>
+      <c r="T18" s="72">
+        <v>45430</v>
+      </c>
+      <c r="U18" t="s">
+        <v>60</v>
+      </c>
+      <c r="W18" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y18" s="70">
+        <v>29.07</v>
+      </c>
       <c r="Z18" s="45"/>
       <c r="AA18" s="14" t="b">
         <v>0</v>
@@ -2338,33 +2492,33 @@
         <v>0</v>
       </c>
       <c r="AD18" s="47" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="AE18" s="47" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AF18" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG18" s="47" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AH18" s="48">
         <v>17.11</v>
       </c>
       <c r="AI18" s="14"/>
       <c r="AJ18" s="14"/>
-      <c r="AM18" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="AN18" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="AO18" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19">
+      <c r="AM18" t="s">
+        <v>87</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>84</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -2374,12 +2528,12 @@
       <c r="G19" s="41"/>
       <c r="H19" s="56"/>
       <c r="I19" s="10" t="e" cm="1">
-        <f ref="I19:I19" t="array" aca="1" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O19")</f>
+        <f t="array" aca="1" ref="I19" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O19")</f>
         <v>#REF!</v>
       </c>
       <c r="J19" s="54"/>
       <c r="K19" s="42" t="e">
-        <f t="shared" si="0" ca="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="L19" s="42">
@@ -2387,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="42" t="e">
-        <f t="shared" si="4" ca="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="N19" s="57"/>
@@ -2397,7 +2551,21 @@
       </c>
       <c r="P19" s="41"/>
       <c r="R19" s="45"/>
-      <c r="S19" s="45"/>
+      <c r="S19" s="45">
+        <v>1493</v>
+      </c>
+      <c r="T19" s="72">
+        <v>45429</v>
+      </c>
+      <c r="U19" t="s">
+        <v>89</v>
+      </c>
+      <c r="W19" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y19" s="70">
+        <v>133.9</v>
+      </c>
       <c r="Z19" s="45"/>
       <c r="AA19" s="14" t="b">
         <v>0</v>
@@ -2409,32 +2577,32 @@
         <v>0</v>
       </c>
       <c r="AD19" s="47" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AE19" s="47"/>
       <c r="AF19" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG19" s="47" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="AH19" s="48">
         <v>904.99</v>
       </c>
       <c r="AI19" s="14"/>
       <c r="AJ19" s="14"/>
-      <c r="AM19" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="AN19" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="AO19" s="0" t="s">
-        <v>84</v>
+      <c r="AM19" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>93</v>
       </c>
       <c r="AR19" s="28"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -2444,12 +2612,12 @@
       <c r="G20" s="41"/>
       <c r="H20" s="56"/>
       <c r="I20" s="10" t="e" cm="1">
-        <f ref="I20:I20" t="array" aca="1" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O20")</f>
+        <f t="array" aca="1" ref="I20" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O20")</f>
         <v>#REF!</v>
       </c>
       <c r="J20" s="54"/>
       <c r="K20" s="42" t="e">
-        <f t="shared" si="0" ca="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="L20" s="42">
@@ -2457,7 +2625,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="42" t="e">
-        <f t="shared" si="4" ca="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="N20" s="57"/>
@@ -2467,7 +2635,21 @@
       </c>
       <c r="P20" s="41"/>
       <c r="R20" s="45"/>
-      <c r="S20" s="45"/>
+      <c r="S20" s="45">
+        <v>1494</v>
+      </c>
+      <c r="T20" s="72">
+        <v>45429</v>
+      </c>
+      <c r="U20" t="s">
+        <v>94</v>
+      </c>
+      <c r="W20" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y20" s="70">
+        <v>60.61</v>
+      </c>
       <c r="Z20" s="45"/>
       <c r="AA20" s="14" t="b">
         <v>0</v>
@@ -2479,33 +2661,33 @@
         <v>0</v>
       </c>
       <c r="AD20" s="47" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AE20" s="47" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AF20" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG20" s="47" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AH20" s="48">
         <v>24.71</v>
       </c>
       <c r="AI20" s="14"/>
       <c r="AJ20" s="14"/>
-      <c r="AM20" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN20" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="AO20" s="0" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="AM20" t="s">
+        <v>96</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -2515,12 +2697,12 @@
       <c r="G21" s="41"/>
       <c r="H21" s="56"/>
       <c r="I21" s="10" t="e" cm="1">
-        <f ref="I21:I21" t="array" aca="1" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O21")</f>
+        <f t="array" aca="1" ref="I21" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O21")</f>
         <v>#REF!</v>
       </c>
       <c r="J21" s="54"/>
       <c r="K21" s="42" t="e">
-        <f t="shared" si="0" ca="1"/>
+        <f t="shared" ca="1" si="0"/>
         <v>#REF!</v>
       </c>
       <c r="L21" s="42">
@@ -2528,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="42" t="e">
-        <f t="shared" si="4" ca="1"/>
+        <f t="shared" ca="1" si="4"/>
         <v>#REF!</v>
       </c>
       <c r="N21" s="57"/>
@@ -2538,7 +2720,21 @@
       </c>
       <c r="P21" s="41"/>
       <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
+      <c r="S21" s="45">
+        <v>1495</v>
+      </c>
+      <c r="T21" s="72">
+        <v>45429</v>
+      </c>
+      <c r="U21" t="s">
+        <v>98</v>
+      </c>
+      <c r="W21" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y21" s="70">
+        <v>21.67</v>
+      </c>
       <c r="Z21" s="45"/>
       <c r="AA21" s="14" t="b">
         <v>0</v>
@@ -2550,32 +2746,32 @@
         <v>0</v>
       </c>
       <c r="AD21" s="47" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="AE21" s="47"/>
       <c r="AF21" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG21" s="47" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AH21" s="48">
         <v>48.18</v>
       </c>
       <c r="AI21" s="14"/>
       <c r="AJ21" s="14"/>
-      <c r="AM21" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="AN21" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="AO21" s="0" t="s">
-        <v>89</v>
+      <c r="AM21" t="s">
+        <v>99</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>100</v>
       </c>
       <c r="AP21" s="66"/>
     </row>
-    <row r="22" ht="15.75">
+    <row r="22" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -2584,7 +2780,7 @@
       <c r="F22" s="14"/>
       <c r="G22" s="41"/>
       <c r="H22" s="67" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="I22" s="42"/>
       <c r="J22" s="54"/>
@@ -2598,7 +2794,24 @@
       <c r="O22" s="42"/>
       <c r="P22" s="41"/>
       <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
+      <c r="S22" s="45">
+        <v>1496</v>
+      </c>
+      <c r="T22" s="72">
+        <v>45428</v>
+      </c>
+      <c r="U22" t="s">
+        <v>102</v>
+      </c>
+      <c r="W22" t="s">
+        <v>22</v>
+      </c>
+      <c r="X22" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y22" s="70">
+        <v>76.67</v>
+      </c>
       <c r="Z22" s="45"/>
       <c r="AA22" s="14" t="b">
         <v>0</v>
@@ -2610,34 +2823,34 @@
         <v>0</v>
       </c>
       <c r="AD22" s="47" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="AE22" s="47" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="AF22" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG22" s="47" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="AH22" s="48">
         <v>18.16</v>
       </c>
       <c r="AI22" s="14"/>
       <c r="AJ22" s="14"/>
-      <c r="AM22" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="AN22" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO22" s="0" t="s">
-        <v>93</v>
+      <c r="AM22" t="s">
+        <v>105</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>106</v>
       </c>
       <c r="AP22" s="66"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -2646,7 +2859,7 @@
       <c r="F23" s="14"/>
       <c r="G23" s="41"/>
       <c r="H23" s="56" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="I23" s="42"/>
       <c r="J23" s="54">
@@ -2668,7 +2881,24 @@
       <c r="O23" s="42"/>
       <c r="P23" s="41"/>
       <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
+      <c r="S23" s="45">
+        <v>1497</v>
+      </c>
+      <c r="T23" s="72">
+        <v>45428</v>
+      </c>
+      <c r="U23" t="s">
+        <v>108</v>
+      </c>
+      <c r="W23" t="s">
+        <v>22</v>
+      </c>
+      <c r="X23" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y23" s="70">
+        <v>59.95</v>
+      </c>
       <c r="Z23" s="45"/>
       <c r="AA23" s="14" t="b">
         <v>0</v>
@@ -2680,14 +2910,14 @@
         <v>0</v>
       </c>
       <c r="AD23" s="47" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="AE23" s="47"/>
       <c r="AF23" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG23" s="47" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AH23" s="48">
         <v>0.06</v>
@@ -2696,7 +2926,7 @@
       <c r="AJ23" s="14"/>
       <c r="AR23" s="28"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -2705,7 +2935,7 @@
       <c r="F24" s="14"/>
       <c r="G24" s="41"/>
       <c r="H24" s="56" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="I24" s="42"/>
       <c r="J24" s="54">
@@ -2720,14 +2950,28 @@
         <v>0</v>
       </c>
       <c r="M24" s="42">
-        <f ref="M24:M32" t="shared" si="5">K24-L24</f>
+        <f t="shared" ref="M24:M32" si="5">K24-L24</f>
         <v>73</v>
       </c>
       <c r="N24" s="44"/>
       <c r="O24" s="42"/>
       <c r="P24" s="41"/>
       <c r="R24" s="45"/>
-      <c r="S24" s="45"/>
+      <c r="S24" s="45">
+        <v>1498</v>
+      </c>
+      <c r="T24" s="72">
+        <v>45428</v>
+      </c>
+      <c r="U24" t="s">
+        <v>112</v>
+      </c>
+      <c r="W24" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y24" s="70">
+        <v>13.73</v>
+      </c>
       <c r="Z24" s="45"/>
       <c r="AA24" s="14" t="b">
         <v>0</v>
@@ -2739,16 +2983,16 @@
         <v>0</v>
       </c>
       <c r="AD24" s="47" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="AE24" s="47" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="AF24" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG24" s="47" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="AH24" s="48">
         <v>10</v>
@@ -2756,7 +3000,7 @@
       <c r="AI24" s="14"/>
       <c r="AJ24" s="14"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -2765,7 +3009,7 @@
       <c r="F25" s="14"/>
       <c r="G25" s="41"/>
       <c r="H25" s="56" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="I25" s="42"/>
       <c r="J25" s="54">
@@ -2787,7 +3031,21 @@
       <c r="O25" s="42"/>
       <c r="P25" s="41"/>
       <c r="R25" s="45"/>
-      <c r="S25" s="45"/>
+      <c r="S25" s="45">
+        <v>1499</v>
+      </c>
+      <c r="T25" s="72">
+        <v>45427</v>
+      </c>
+      <c r="U25" t="s">
+        <v>116</v>
+      </c>
+      <c r="W25" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y25" s="70">
+        <v>95.58</v>
+      </c>
       <c r="Z25" s="45"/>
       <c r="AA25" s="14" t="b">
         <v>0</v>
@@ -2799,24 +3057,24 @@
         <v>0</v>
       </c>
       <c r="AD25" s="47" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="AE25" s="47" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AF25" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG25" s="47" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="AH25" s="48">
-        <v>32.09</v>
+        <v>32.090000000000003</v>
       </c>
       <c r="AI25" s="14"/>
       <c r="AJ25" s="14"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="68"/>
@@ -2825,14 +3083,14 @@
       <c r="F26" s="14"/>
       <c r="G26" s="41"/>
       <c r="H26" s="56" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="I26" s="42"/>
       <c r="J26" s="54">
         <v>100</v>
       </c>
       <c r="K26" s="42">
-        <f ref="K26:K32" t="shared" si="6">J26</f>
+        <f t="shared" ref="K26:K32" si="6">J26</f>
         <v>100</v>
       </c>
       <c r="L26" s="42">
@@ -2847,24 +3105,42 @@
       <c r="O26" s="42"/>
       <c r="P26" s="41"/>
       <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
+      <c r="S26" s="45">
+        <v>1500</v>
+      </c>
+      <c r="T26" s="72">
+        <v>45426</v>
+      </c>
+      <c r="U26" t="s">
+        <v>119</v>
+      </c>
+      <c r="W26" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y26" s="70">
+        <v>3.22</v>
+      </c>
       <c r="Z26" s="45"/>
-      <c r="AA26" s="14"/>
-      <c r="AB26" s="14"/>
-      <c r="AC26" s="46">
-        <v>45413</v>
+      <c r="AA26" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="46" t="b">
+        <v>0</v>
       </c>
       <c r="AD26" s="47" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="AE26" s="47" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="AF26" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG26" s="47" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="AH26" s="48">
         <v>129</v>
@@ -2872,7 +3148,7 @@
       <c r="AI26" s="14"/>
       <c r="AJ26" s="14"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -2881,7 +3157,7 @@
       <c r="F27" s="14"/>
       <c r="G27" s="41"/>
       <c r="H27" s="56" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="I27" s="42"/>
       <c r="J27" s="54">
@@ -2903,24 +3179,45 @@
       <c r="O27" s="42"/>
       <c r="P27" s="41"/>
       <c r="R27" s="45"/>
-      <c r="S27" s="45"/>
+      <c r="S27" s="45">
+        <v>1501</v>
+      </c>
+      <c r="T27" s="72">
+        <v>45425</v>
+      </c>
+      <c r="U27" t="s">
+        <v>112</v>
+      </c>
+      <c r="V27" t="s">
+        <v>21</v>
+      </c>
+      <c r="W27" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y27" s="70">
+        <v>86.38</v>
+      </c>
       <c r="Z27" s="45"/>
-      <c r="AA27" s="14"/>
-      <c r="AB27" s="14"/>
-      <c r="AC27" s="46">
-        <v>45413</v>
+      <c r="AA27" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="46" t="b">
+        <v>0</v>
       </c>
       <c r="AD27" s="47" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="AE27" s="47" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="AF27" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG27" s="47" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="AH27" s="48">
         <v>134.84</v>
@@ -2929,7 +3226,7 @@
       <c r="AJ27" s="14"/>
       <c r="AR27" s="28"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -2938,7 +3235,7 @@
       <c r="F28" s="14"/>
       <c r="G28" s="41"/>
       <c r="H28" s="56" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I28" s="42"/>
       <c r="J28" s="54">
@@ -2950,21 +3247,41 @@
       </c>
       <c r="L28" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>59.95</v>
       </c>
       <c r="M28" s="42">
         <f t="shared" si="5"/>
-        <v>60</v>
+        <v>4.9999999999997158E-2</v>
       </c>
       <c r="N28" s="44"/>
       <c r="O28" s="42"/>
       <c r="P28" s="41"/>
       <c r="R28" s="45"/>
-      <c r="S28" s="45"/>
+      <c r="S28" s="45">
+        <v>1502</v>
+      </c>
+      <c r="T28" s="72">
+        <v>45424</v>
+      </c>
+      <c r="U28" t="s">
+        <v>74</v>
+      </c>
+      <c r="W28" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y28" s="70">
+        <v>158.27000000000001</v>
+      </c>
       <c r="Z28" s="45"/>
-      <c r="AA28" s="14"/>
-      <c r="AB28" s="14"/>
-      <c r="AC28" s="46"/>
+      <c r="AA28" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="46" t="b">
+        <v>0</v>
+      </c>
       <c r="AD28" s="47"/>
       <c r="AE28" s="47"/>
       <c r="AF28" s="47"/>
@@ -2973,7 +3290,7 @@
       <c r="AI28" s="14"/>
       <c r="AJ28" s="14"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -2982,7 +3299,7 @@
       <c r="F29" s="14"/>
       <c r="G29" s="41"/>
       <c r="H29" s="56" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="I29" s="42"/>
       <c r="J29" s="54">
@@ -3004,11 +3321,31 @@
       <c r="O29" s="42"/>
       <c r="P29" s="41"/>
       <c r="R29" s="45"/>
-      <c r="S29" s="45"/>
+      <c r="S29" s="45">
+        <v>1503</v>
+      </c>
+      <c r="T29" s="72">
+        <v>45424</v>
+      </c>
+      <c r="U29" t="s">
+        <v>28</v>
+      </c>
+      <c r="W29" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y29" s="70">
+        <v>7.48</v>
+      </c>
       <c r="Z29" s="45"/>
-      <c r="AA29" s="14"/>
-      <c r="AB29" s="14"/>
-      <c r="AC29" s="46"/>
+      <c r="AA29" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="46" t="b">
+        <v>0</v>
+      </c>
       <c r="AD29" s="47"/>
       <c r="AE29" s="47"/>
       <c r="AF29" s="47"/>
@@ -3017,7 +3354,7 @@
       <c r="AI29" s="14"/>
       <c r="AJ29" s="14"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -3026,7 +3363,7 @@
       <c r="F30" s="14"/>
       <c r="G30" s="41"/>
       <c r="H30" s="56" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="I30" s="42"/>
       <c r="J30" s="54">
@@ -3048,32 +3385,50 @@
       <c r="O30" s="42"/>
       <c r="P30" s="41"/>
       <c r="R30" s="45"/>
-      <c r="S30" s="45"/>
+      <c r="S30" s="45">
+        <v>1504</v>
+      </c>
+      <c r="T30" s="72">
+        <v>45422</v>
+      </c>
+      <c r="U30" t="s">
+        <v>126</v>
+      </c>
+      <c r="W30" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y30" s="70">
+        <v>14.35</v>
+      </c>
       <c r="Z30" s="45"/>
-      <c r="AA30" s="14"/>
-      <c r="AB30" s="14"/>
-      <c r="AC30" s="46">
-        <v>45415</v>
+      <c r="AA30" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="46" t="b">
+        <v>0</v>
       </c>
       <c r="AD30" s="47" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="AE30" s="47" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="AF30" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG30" s="47" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="AH30" s="48">
-        <v>148.83</v>
+        <v>148.83000000000001</v>
       </c>
       <c r="AI30" s="14"/>
       <c r="AJ30" s="14"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -3082,7 +3437,7 @@
       <c r="F31" s="14"/>
       <c r="G31" s="41"/>
       <c r="H31" s="56" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="I31" s="42"/>
       <c r="J31" s="54">
@@ -3104,22 +3459,40 @@
       <c r="O31" s="42"/>
       <c r="P31" s="41"/>
       <c r="R31" s="45"/>
-      <c r="S31" s="45"/>
+      <c r="S31" s="45">
+        <v>1505</v>
+      </c>
+      <c r="T31" s="72">
+        <v>45421</v>
+      </c>
+      <c r="U31" t="s">
+        <v>74</v>
+      </c>
+      <c r="W31" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y31" s="70">
+        <v>180.94</v>
+      </c>
       <c r="Z31" s="45"/>
-      <c r="AA31" s="14"/>
-      <c r="AB31" s="14"/>
-      <c r="AC31" s="46">
-        <v>45415</v>
+      <c r="AA31" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="46" t="b">
+        <v>0</v>
       </c>
       <c r="AD31" s="47" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="AE31" s="47"/>
       <c r="AF31" s="47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG31" s="47" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="AH31" s="48">
         <v>60.89</v>
@@ -3128,7 +3501,7 @@
       <c r="AJ31" s="14"/>
       <c r="AR31" s="28"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -3155,22 +3528,40 @@
       <c r="O32" s="42"/>
       <c r="P32" s="41"/>
       <c r="R32" s="45"/>
-      <c r="S32" s="45"/>
+      <c r="S32" s="45">
+        <v>1506</v>
+      </c>
+      <c r="T32" s="72">
+        <v>45421</v>
+      </c>
+      <c r="U32" t="s">
+        <v>74</v>
+      </c>
+      <c r="W32" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y32" s="70">
+        <v>4.7300000000000004</v>
+      </c>
       <c r="Z32" s="45"/>
-      <c r="AA32" s="14"/>
-      <c r="AB32" s="14"/>
-      <c r="AC32" s="46">
-        <v>45431</v>
+      <c r="AA32" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="46" t="b">
+        <v>0</v>
       </c>
       <c r="AD32" s="47" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="AE32" s="47"/>
       <c r="AF32" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG32" s="47" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AH32" s="48">
         <v>58.51</v>
@@ -3178,7 +3569,7 @@
       <c r="AI32" s="14"/>
       <c r="AJ32" s="14"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -3205,22 +3596,40 @@
       <c r="O33" s="42"/>
       <c r="P33" s="41"/>
       <c r="R33" s="45"/>
-      <c r="S33" s="45"/>
+      <c r="S33" s="45">
+        <v>1507</v>
+      </c>
+      <c r="T33" s="72">
+        <v>45421</v>
+      </c>
+      <c r="U33" t="s">
+        <v>130</v>
+      </c>
+      <c r="W33" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y33" s="70">
+        <v>32.22</v>
+      </c>
       <c r="Z33" s="45"/>
-      <c r="AA33" s="14"/>
-      <c r="AB33" s="14"/>
-      <c r="AC33" s="46">
-        <v>45430</v>
+      <c r="AA33" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="46" t="b">
+        <v>0</v>
       </c>
       <c r="AD33" s="47" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="AE33" s="47"/>
       <c r="AF33" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG33" s="47" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AH33" s="48">
         <v>5.51</v>
@@ -3228,7 +3637,7 @@
       <c r="AI33" s="14"/>
       <c r="AJ33" s="14"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -3246,22 +3655,40 @@
       <c r="O34" s="42"/>
       <c r="P34" s="41"/>
       <c r="R34" s="45"/>
-      <c r="S34" s="45"/>
+      <c r="S34" s="45">
+        <v>1508</v>
+      </c>
+      <c r="T34" s="72">
+        <v>45421</v>
+      </c>
+      <c r="U34" t="s">
+        <v>131</v>
+      </c>
+      <c r="W34" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y34" s="70">
+        <v>780.78</v>
+      </c>
       <c r="Z34" s="45"/>
-      <c r="AA34" s="14"/>
-      <c r="AB34" s="14"/>
-      <c r="AC34" s="46">
-        <v>45430</v>
+      <c r="AA34" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="46" t="b">
+        <v>0</v>
       </c>
       <c r="AD34" s="47" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="AE34" s="47"/>
       <c r="AF34" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG34" s="47" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AH34" s="48">
         <v>29.07</v>
@@ -3269,7 +3696,7 @@
       <c r="AI34" s="14"/>
       <c r="AJ34" s="14"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -3281,7 +3708,7 @@
       <c r="I35" s="42"/>
       <c r="J35" s="54"/>
       <c r="K35" s="42">
-        <f ref="K35:K58" t="shared" si="7">J35</f>
+        <f t="shared" ref="K35:K58" si="7">J35</f>
         <v>0</v>
       </c>
       <c r="L35" s="42">
@@ -3289,29 +3716,47 @@
         <v>0</v>
       </c>
       <c r="M35" s="42">
-        <f ref="M35:M58" t="shared" si="8">K35-L35</f>
+        <f t="shared" ref="M35:M58" si="8">K35-L35</f>
         <v>0</v>
       </c>
       <c r="N35" s="44"/>
       <c r="O35" s="42"/>
       <c r="P35" s="41"/>
       <c r="R35" s="45"/>
-      <c r="S35" s="45"/>
+      <c r="S35" s="45">
+        <v>1509</v>
+      </c>
+      <c r="T35" s="72">
+        <v>45421</v>
+      </c>
+      <c r="U35" t="s">
+        <v>132</v>
+      </c>
+      <c r="W35" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y35" s="70">
+        <v>-3.42</v>
+      </c>
       <c r="Z35" s="45"/>
-      <c r="AA35" s="14"/>
-      <c r="AB35" s="14"/>
-      <c r="AC35" s="46">
-        <v>45429</v>
+      <c r="AA35" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="46" t="b">
+        <v>0</v>
       </c>
       <c r="AD35" s="47" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="AE35" s="47"/>
       <c r="AF35" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG35" s="47" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AH35" s="48">
         <v>133.9</v>
@@ -3320,7 +3765,7 @@
       <c r="AJ35" s="14"/>
       <c r="AR35" s="28"/>
     </row>
-    <row r="36" ht="15.75">
+    <row r="36" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -3347,22 +3792,40 @@
       <c r="O36" s="42"/>
       <c r="P36" s="41"/>
       <c r="R36" s="45"/>
-      <c r="S36" s="45"/>
+      <c r="S36" s="45">
+        <v>1510</v>
+      </c>
+      <c r="T36" s="72">
+        <v>45421</v>
+      </c>
+      <c r="U36" t="s">
+        <v>132</v>
+      </c>
+      <c r="W36" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y36" s="70">
+        <v>26</v>
+      </c>
       <c r="Z36" s="45"/>
-      <c r="AA36" s="14"/>
-      <c r="AB36" s="14"/>
-      <c r="AC36" s="46">
-        <v>45429</v>
+      <c r="AA36" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="46" t="b">
+        <v>0</v>
       </c>
       <c r="AD36" s="47" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="AE36" s="47"/>
       <c r="AF36" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG36" s="47" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="AH36" s="48">
         <v>60.61</v>
@@ -3370,7 +3833,7 @@
       <c r="AI36" s="14"/>
       <c r="AJ36" s="14"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -3388,22 +3851,40 @@
       <c r="O37" s="42"/>
       <c r="P37" s="41"/>
       <c r="R37" s="45"/>
-      <c r="S37" s="45"/>
+      <c r="S37" s="45">
+        <v>1511</v>
+      </c>
+      <c r="T37" s="72">
+        <v>45420</v>
+      </c>
+      <c r="U37" t="s">
+        <v>31</v>
+      </c>
+      <c r="W37" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y37" s="70">
+        <v>18.53</v>
+      </c>
       <c r="Z37" s="45"/>
-      <c r="AA37" s="14"/>
-      <c r="AB37" s="14"/>
-      <c r="AC37" s="46">
-        <v>45429</v>
+      <c r="AA37" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="46" t="b">
+        <v>0</v>
       </c>
       <c r="AD37" s="47" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="AE37" s="47"/>
       <c r="AF37" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG37" s="47" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AH37" s="48">
         <v>21.67</v>
@@ -3411,7 +3892,7 @@
       <c r="AI37" s="14"/>
       <c r="AJ37" s="14"/>
     </row>
-    <row r="38" ht="15.75">
+    <row r="38" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -3420,7 +3901,7 @@
       <c r="F38" s="14"/>
       <c r="G38" s="41"/>
       <c r="H38" s="67" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="I38" s="42"/>
       <c r="J38" s="54"/>
@@ -3440,22 +3921,40 @@
       <c r="O38" s="42"/>
       <c r="P38" s="41"/>
       <c r="R38" s="45"/>
-      <c r="S38" s="45"/>
+      <c r="S38" s="45">
+        <v>1512</v>
+      </c>
+      <c r="T38" s="72">
+        <v>45420</v>
+      </c>
+      <c r="U38" t="s">
+        <v>36</v>
+      </c>
+      <c r="W38" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y38" s="70">
+        <v>27.45</v>
+      </c>
       <c r="Z38" s="45"/>
-      <c r="AA38" s="14"/>
-      <c r="AB38" s="14"/>
-      <c r="AC38" s="46">
-        <v>45428</v>
+      <c r="AA38" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="46" t="b">
+        <v>0</v>
       </c>
       <c r="AD38" s="47" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="AE38" s="47"/>
       <c r="AF38" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG38" s="47" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="AH38" s="48">
         <v>76.67</v>
@@ -3463,7 +3962,7 @@
       <c r="AI38" s="14"/>
       <c r="AJ38" s="14"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -3472,7 +3971,7 @@
       <c r="F39" s="14"/>
       <c r="G39" s="41"/>
       <c r="H39" s="56" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I39" s="42"/>
       <c r="J39" s="54">
@@ -3494,22 +3993,40 @@
       <c r="O39" s="42"/>
       <c r="P39" s="41"/>
       <c r="R39" s="45"/>
-      <c r="S39" s="45"/>
+      <c r="S39" s="45">
+        <v>1513</v>
+      </c>
+      <c r="T39" s="72">
+        <v>45420</v>
+      </c>
+      <c r="U39" t="s">
+        <v>46</v>
+      </c>
+      <c r="W39" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y39" s="70">
+        <v>12.84</v>
+      </c>
       <c r="Z39" s="45"/>
-      <c r="AA39" s="14"/>
-      <c r="AB39" s="14"/>
-      <c r="AC39" s="46">
-        <v>45428</v>
+      <c r="AA39" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="46" t="b">
+        <v>0</v>
       </c>
       <c r="AD39" s="47" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="AE39" s="47"/>
       <c r="AF39" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG39" s="47" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AH39" s="48">
         <v>59.95</v>
@@ -3518,7 +4035,7 @@
       <c r="AJ39" s="14"/>
       <c r="AR39" s="28"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -3527,7 +4044,7 @@
       <c r="F40" s="14"/>
       <c r="G40" s="41"/>
       <c r="H40" s="56" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="I40" s="42"/>
       <c r="J40" s="54">
@@ -3549,19 +4066,37 @@
       <c r="O40" s="42"/>
       <c r="P40" s="41"/>
       <c r="R40" s="45"/>
-      <c r="S40" s="45"/>
+      <c r="S40" s="45">
+        <v>1514</v>
+      </c>
+      <c r="T40" s="72">
+        <v>45419</v>
+      </c>
+      <c r="U40" t="s">
+        <v>53</v>
+      </c>
+      <c r="W40" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y40" s="70">
+        <v>69.56</v>
+      </c>
       <c r="Z40" s="45"/>
-      <c r="AA40" s="14"/>
-      <c r="AB40" s="14"/>
-      <c r="AC40" s="46">
-        <v>45428</v>
+      <c r="AA40" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="46" t="b">
+        <v>0</v>
       </c>
       <c r="AD40" s="47" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="AE40" s="47"/>
       <c r="AF40" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG40" s="47"/>
       <c r="AH40" s="48">
@@ -3570,7 +4105,7 @@
       <c r="AI40" s="14"/>
       <c r="AJ40" s="14"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -3579,7 +4114,7 @@
       <c r="F41" s="14"/>
       <c r="G41" s="41"/>
       <c r="H41" s="56" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="I41" s="42"/>
       <c r="J41" s="54">
@@ -3601,24 +4136,42 @@
       <c r="O41" s="42"/>
       <c r="P41" s="41"/>
       <c r="R41" s="45"/>
-      <c r="S41" s="45"/>
+      <c r="S41" s="45">
+        <v>1515</v>
+      </c>
+      <c r="T41" s="72">
+        <v>45417</v>
+      </c>
+      <c r="U41" t="s">
+        <v>60</v>
+      </c>
+      <c r="W41" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y41" s="70">
+        <v>21.76</v>
+      </c>
       <c r="Z41" s="45"/>
-      <c r="AA41" s="14"/>
-      <c r="AB41" s="14"/>
-      <c r="AC41" s="46">
-        <v>45427</v>
+      <c r="AA41" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="46" t="b">
+        <v>0</v>
       </c>
       <c r="AD41" s="47" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="AE41" s="47" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="AF41" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG41" s="47" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="AH41" s="48">
         <v>95.58</v>
@@ -3626,7 +4179,7 @@
       <c r="AI41" s="14"/>
       <c r="AJ41" s="14"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -3635,7 +4188,7 @@
       <c r="F42" s="14"/>
       <c r="G42" s="41"/>
       <c r="H42" s="56" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="I42" s="42"/>
       <c r="J42" s="54">
@@ -3657,19 +4210,37 @@
       <c r="O42" s="42"/>
       <c r="P42" s="41"/>
       <c r="R42" s="45"/>
-      <c r="S42" s="45"/>
+      <c r="S42" s="45">
+        <v>1516</v>
+      </c>
+      <c r="T42" s="72">
+        <v>45417</v>
+      </c>
+      <c r="U42" t="s">
+        <v>66</v>
+      </c>
+      <c r="W42" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y42" s="70">
+        <v>3.22</v>
+      </c>
       <c r="Z42" s="45"/>
-      <c r="AA42" s="14"/>
-      <c r="AB42" s="14"/>
-      <c r="AC42" s="46">
-        <v>45426</v>
+      <c r="AA42" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="46" t="b">
+        <v>0</v>
       </c>
       <c r="AD42" s="47" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AE42" s="47"/>
       <c r="AF42" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG42" s="47"/>
       <c r="AH42" s="48">
@@ -3678,7 +4249,7 @@
       <c r="AI42" s="14"/>
       <c r="AJ42" s="14"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -3687,7 +4258,7 @@
       <c r="F43" s="14"/>
       <c r="G43" s="41"/>
       <c r="H43" s="56" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="I43" s="42"/>
       <c r="J43" s="54">
@@ -3709,19 +4280,37 @@
       <c r="O43" s="42"/>
       <c r="P43" s="41"/>
       <c r="R43" s="45"/>
-      <c r="S43" s="45"/>
+      <c r="S43" s="45">
+        <v>1517</v>
+      </c>
+      <c r="T43" s="72">
+        <v>45417</v>
+      </c>
+      <c r="U43" t="s">
+        <v>75</v>
+      </c>
+      <c r="W43" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y43" s="70">
+        <v>58</v>
+      </c>
       <c r="Z43" s="45"/>
-      <c r="AA43" s="14"/>
-      <c r="AB43" s="14"/>
-      <c r="AC43" s="46">
-        <v>45425</v>
+      <c r="AA43" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="46" t="b">
+        <v>0</v>
       </c>
       <c r="AD43" s="47" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="AE43" s="47"/>
       <c r="AF43" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG43" s="47"/>
       <c r="AH43" s="48">
@@ -3731,7 +4320,7 @@
       <c r="AJ43" s="14"/>
       <c r="AR43" s="28"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -3740,7 +4329,7 @@
       <c r="F44" s="14"/>
       <c r="G44" s="41"/>
       <c r="H44" s="56" t="s">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="I44" s="42"/>
       <c r="J44" s="54">
@@ -3762,30 +4351,48 @@
       <c r="O44" s="42"/>
       <c r="P44" s="41"/>
       <c r="R44" s="45"/>
-      <c r="S44" s="45"/>
+      <c r="S44" s="45">
+        <v>1518</v>
+      </c>
+      <c r="T44" s="72">
+        <v>45417</v>
+      </c>
+      <c r="U44" t="s">
+        <v>28</v>
+      </c>
+      <c r="W44" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y44" s="70">
+        <v>47.1</v>
+      </c>
       <c r="Z44" s="45"/>
-      <c r="AA44" s="14"/>
-      <c r="AB44" s="14"/>
-      <c r="AC44" s="46">
-        <v>45424</v>
+      <c r="AA44" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="46" t="b">
+        <v>0</v>
       </c>
       <c r="AD44" s="47" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="AE44" s="47"/>
       <c r="AF44" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG44" s="47" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AH44" s="48">
-        <v>158.27</v>
+        <v>158.27000000000001</v>
       </c>
       <c r="AI44" s="14"/>
       <c r="AJ44" s="14"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -3812,24 +4419,42 @@
       <c r="O45" s="42"/>
       <c r="P45" s="41"/>
       <c r="R45" s="45"/>
-      <c r="S45" s="45"/>
+      <c r="S45" s="45">
+        <v>1519</v>
+      </c>
+      <c r="T45" s="72">
+        <v>45417</v>
+      </c>
+      <c r="U45" t="s">
+        <v>79</v>
+      </c>
+      <c r="W45" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y45" s="70">
+        <v>-1647.72</v>
+      </c>
       <c r="Z45" s="45"/>
-      <c r="AA45" s="14"/>
-      <c r="AB45" s="14"/>
-      <c r="AC45" s="46">
-        <v>45424</v>
+      <c r="AA45" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="46" t="b">
+        <v>0</v>
       </c>
       <c r="AD45" s="47" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="AE45" s="47" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="AF45" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG45" s="47" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AH45" s="48">
         <v>7.48</v>
@@ -3837,7 +4462,7 @@
       <c r="AI45" s="14"/>
       <c r="AJ45" s="14"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -3864,24 +4489,42 @@
       <c r="O46" s="42"/>
       <c r="P46" s="41"/>
       <c r="R46" s="45"/>
-      <c r="S46" s="45"/>
+      <c r="S46" s="45">
+        <v>1520</v>
+      </c>
+      <c r="T46" s="72">
+        <v>45416</v>
+      </c>
+      <c r="U46" t="s">
+        <v>28</v>
+      </c>
+      <c r="W46" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y46" s="70">
+        <v>10.35</v>
+      </c>
       <c r="Z46" s="45"/>
-      <c r="AA46" s="14"/>
-      <c r="AB46" s="14"/>
-      <c r="AC46" s="46">
-        <v>45422</v>
+      <c r="AA46" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="46" t="b">
+        <v>0</v>
       </c>
       <c r="AD46" s="47" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AE46" s="47" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="AF46" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG46" s="47" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AH46" s="48">
         <v>14.35</v>
@@ -3889,7 +4532,7 @@
       <c r="AI46" s="14"/>
       <c r="AJ46" s="14"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -3916,22 +4559,40 @@
       <c r="O47" s="42"/>
       <c r="P47" s="41"/>
       <c r="R47" s="45"/>
-      <c r="S47" s="45"/>
+      <c r="S47" s="45">
+        <v>1521</v>
+      </c>
+      <c r="T47" s="72">
+        <v>45416</v>
+      </c>
+      <c r="U47" t="s">
+        <v>28</v>
+      </c>
+      <c r="W47" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y47" s="70">
+        <v>17.11</v>
+      </c>
       <c r="Z47" s="45"/>
-      <c r="AA47" s="14"/>
-      <c r="AB47" s="14"/>
-      <c r="AC47" s="46">
-        <v>45421</v>
+      <c r="AA47" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="46" t="b">
+        <v>0</v>
       </c>
       <c r="AD47" s="47" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="AE47" s="47"/>
       <c r="AF47" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG47" s="47" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AH47" s="48">
         <v>180.94</v>
@@ -3940,7 +4601,7 @@
       <c r="AJ47" s="14"/>
       <c r="AR47" s="28"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -3967,30 +4628,48 @@
       <c r="O48" s="42"/>
       <c r="P48" s="41"/>
       <c r="R48" s="45"/>
-      <c r="S48" s="45"/>
+      <c r="S48" s="45">
+        <v>1522</v>
+      </c>
+      <c r="T48" s="72">
+        <v>45416</v>
+      </c>
+      <c r="U48" t="s">
+        <v>90</v>
+      </c>
+      <c r="W48" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y48" s="70">
+        <v>904.99</v>
+      </c>
       <c r="Z48" s="45"/>
-      <c r="AA48" s="14"/>
-      <c r="AB48" s="14"/>
-      <c r="AC48" s="46">
-        <v>45421</v>
+      <c r="AA48" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="46" t="b">
+        <v>0</v>
       </c>
       <c r="AD48" s="47" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="AE48" s="47"/>
       <c r="AF48" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG48" s="47" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="AH48" s="48">
-        <v>4.73</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="AI48" s="14"/>
       <c r="AJ48" s="14"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -4017,19 +4696,37 @@
       <c r="O49" s="42"/>
       <c r="P49" s="41"/>
       <c r="R49" s="45"/>
-      <c r="S49" s="45"/>
+      <c r="S49" s="45">
+        <v>1523</v>
+      </c>
+      <c r="T49" s="72">
+        <v>45415</v>
+      </c>
+      <c r="U49" t="s">
+        <v>95</v>
+      </c>
+      <c r="W49" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y49" s="70">
+        <v>24.71</v>
+      </c>
       <c r="Z49" s="45"/>
-      <c r="AA49" s="14"/>
-      <c r="AB49" s="14"/>
-      <c r="AC49" s="46">
-        <v>45421</v>
+      <c r="AA49" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="46" t="b">
+        <v>0</v>
       </c>
       <c r="AD49" s="47" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AE49" s="47"/>
       <c r="AF49" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG49" s="47"/>
       <c r="AH49" s="48">
@@ -4038,7 +4735,7 @@
       <c r="AI49" s="14"/>
       <c r="AJ49" s="14"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -4065,21 +4762,39 @@
       <c r="O50" s="42"/>
       <c r="P50" s="41"/>
       <c r="R50" s="45"/>
-      <c r="S50" s="45"/>
+      <c r="S50" s="45">
+        <v>1524</v>
+      </c>
+      <c r="T50" s="72">
+        <v>45415</v>
+      </c>
+      <c r="U50" t="s">
+        <v>74</v>
+      </c>
+      <c r="W50" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y50" s="70">
+        <v>48.18</v>
+      </c>
       <c r="Z50" s="45"/>
-      <c r="AA50" s="14"/>
-      <c r="AB50" s="14"/>
-      <c r="AC50" s="46">
-        <v>45421</v>
+      <c r="AA50" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="46" t="b">
+        <v>0</v>
       </c>
       <c r="AD50" s="47" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AE50" s="47" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="AF50" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG50" s="47"/>
       <c r="AH50" s="48">
@@ -4088,7 +4803,7 @@
       <c r="AI50" s="14"/>
       <c r="AJ50" s="14"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -4115,19 +4830,37 @@
       <c r="O51" s="42"/>
       <c r="P51" s="41"/>
       <c r="R51" s="45"/>
-      <c r="S51" s="45"/>
+      <c r="S51" s="45">
+        <v>1525</v>
+      </c>
+      <c r="T51" s="72">
+        <v>45415</v>
+      </c>
+      <c r="U51" t="s">
+        <v>28</v>
+      </c>
+      <c r="W51" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y51" s="70">
+        <v>18.16</v>
+      </c>
       <c r="Z51" s="45"/>
-      <c r="AA51" s="14"/>
-      <c r="AB51" s="14"/>
-      <c r="AC51" s="46">
-        <v>45421</v>
+      <c r="AA51" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="46" t="b">
+        <v>0</v>
       </c>
       <c r="AD51" s="47" t="s">
         <v>132</v>
       </c>
       <c r="AE51" s="47"/>
       <c r="AF51" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG51" s="47"/>
       <c r="AH51" s="48">
@@ -4136,7 +4869,7 @@
       <c r="AI51" s="14"/>
       <c r="AJ51" s="14"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -4163,19 +4896,37 @@
       <c r="O52" s="42"/>
       <c r="P52" s="41"/>
       <c r="R52" s="45"/>
-      <c r="S52" s="45"/>
+      <c r="S52" s="45">
+        <v>1526</v>
+      </c>
+      <c r="T52" s="72">
+        <v>45414</v>
+      </c>
+      <c r="U52" t="s">
+        <v>110</v>
+      </c>
+      <c r="W52" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y52" s="70">
+        <v>0.06</v>
+      </c>
       <c r="Z52" s="45"/>
-      <c r="AA52" s="14"/>
-      <c r="AB52" s="14"/>
-      <c r="AC52" s="46">
-        <v>45421</v>
+      <c r="AA52" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="46" t="b">
+        <v>0</v>
       </c>
       <c r="AD52" s="47" t="s">
         <v>132</v>
       </c>
       <c r="AE52" s="47"/>
       <c r="AF52" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG52" s="47"/>
       <c r="AH52" s="48">
@@ -4184,7 +4935,7 @@
       <c r="AI52" s="14"/>
       <c r="AJ52" s="14"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -4211,24 +4962,42 @@
       <c r="O53" s="42"/>
       <c r="P53" s="41"/>
       <c r="R53" s="45"/>
-      <c r="S53" s="45"/>
+      <c r="S53" s="45">
+        <v>1527</v>
+      </c>
+      <c r="T53" s="72">
+        <v>45414</v>
+      </c>
+      <c r="U53" t="s">
+        <v>113</v>
+      </c>
+      <c r="W53" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y53" s="70">
+        <v>10</v>
+      </c>
       <c r="Z53" s="45"/>
-      <c r="AA53" s="14"/>
-      <c r="AB53" s="14"/>
-      <c r="AC53" s="46">
-        <v>45427</v>
+      <c r="AA53" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="46" t="b">
+        <v>0</v>
       </c>
       <c r="AD53" s="47" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AE53" s="47" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AF53" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG53" s="47" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AH53" s="48">
         <v>50</v>
@@ -4236,7 +5005,7 @@
       <c r="AI53" s="14"/>
       <c r="AJ53" s="14"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -4263,17 +5032,33 @@
       <c r="O54" s="42"/>
       <c r="P54" s="41"/>
       <c r="R54" s="45"/>
-      <c r="S54" s="45"/>
-      <c r="T54" s="46"/>
-      <c r="U54" s="47"/>
+      <c r="S54" s="45">
+        <v>1528</v>
+      </c>
+      <c r="T54" s="46">
+        <v>45414</v>
+      </c>
+      <c r="U54" s="47" t="s">
+        <v>28</v>
+      </c>
       <c r="V54" s="47"/>
-      <c r="W54" s="47"/>
+      <c r="W54" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X54" s="47"/>
-      <c r="Y54" s="48"/>
+      <c r="Y54" s="48">
+        <v>32.090000000000003</v>
+      </c>
       <c r="Z54" s="45"/>
-      <c r="AA54" s="14"/>
-      <c r="AB54" s="14"/>
-      <c r="AC54" s="14"/>
+      <c r="AA54" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD54" s="14"/>
       <c r="AE54" s="14"/>
       <c r="AF54" s="14"/>
@@ -4282,7 +5067,7 @@
       <c r="AI54" s="14"/>
       <c r="AJ54" s="14"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -4309,17 +5094,33 @@
       <c r="O55" s="42"/>
       <c r="P55" s="41"/>
       <c r="R55" s="45"/>
-      <c r="S55" s="45"/>
-      <c r="T55" s="46"/>
-      <c r="U55" s="47"/>
+      <c r="S55" s="45">
+        <v>1529</v>
+      </c>
+      <c r="T55" s="46">
+        <v>45413</v>
+      </c>
+      <c r="U55" s="47" t="s">
+        <v>120</v>
+      </c>
       <c r="V55" s="47"/>
-      <c r="W55" s="47"/>
+      <c r="W55" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X55" s="47"/>
-      <c r="Y55" s="48"/>
+      <c r="Y55" s="48">
+        <v>129</v>
+      </c>
       <c r="Z55" s="45"/>
-      <c r="AA55" s="14"/>
-      <c r="AB55" s="14"/>
-      <c r="AC55" s="14"/>
+      <c r="AA55" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD55" s="14"/>
       <c r="AE55" s="14"/>
       <c r="AF55" s="14"/>
@@ -4328,7 +5129,7 @@
       <c r="AI55" s="14"/>
       <c r="AJ55" s="14"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -4355,17 +5156,33 @@
       <c r="O56" s="42"/>
       <c r="P56" s="41"/>
       <c r="R56" s="45"/>
-      <c r="S56" s="45"/>
-      <c r="T56" s="46"/>
-      <c r="U56" s="47"/>
+      <c r="S56" s="45">
+        <v>1530</v>
+      </c>
+      <c r="T56" s="46">
+        <v>45413</v>
+      </c>
+      <c r="U56" s="47" t="s">
+        <v>124</v>
+      </c>
       <c r="V56" s="47"/>
-      <c r="W56" s="47"/>
+      <c r="W56" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X56" s="47"/>
-      <c r="Y56" s="48"/>
+      <c r="Y56" s="48">
+        <v>134.84</v>
+      </c>
       <c r="Z56" s="45"/>
-      <c r="AA56" s="14"/>
-      <c r="AB56" s="14"/>
-      <c r="AC56" s="14"/>
+      <c r="AA56" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD56" s="14"/>
       <c r="AE56" s="14"/>
       <c r="AF56" s="14"/>
@@ -4374,7 +5191,7 @@
       <c r="AI56" s="14"/>
       <c r="AJ56" s="14"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -4401,17 +5218,33 @@
       <c r="O57" s="42"/>
       <c r="P57" s="41"/>
       <c r="R57" s="45"/>
-      <c r="S57" s="45"/>
-      <c r="T57" s="46"/>
-      <c r="U57" s="47"/>
+      <c r="S57" s="45">
+        <v>1593</v>
+      </c>
+      <c r="T57" s="46">
+        <v>45438</v>
+      </c>
+      <c r="U57" s="47" t="s">
+        <v>74</v>
+      </c>
       <c r="V57" s="47"/>
-      <c r="W57" s="47"/>
+      <c r="W57" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X57" s="47"/>
-      <c r="Y57" s="48"/>
+      <c r="Y57" s="48">
+        <v>17.14</v>
+      </c>
       <c r="Z57" s="45"/>
-      <c r="AA57" s="14"/>
-      <c r="AB57" s="14"/>
-      <c r="AC57" s="14"/>
+      <c r="AA57" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD57" s="14"/>
       <c r="AE57" s="14"/>
       <c r="AF57" s="14"/>
@@ -4420,7 +5253,7 @@
       <c r="AI57" s="14"/>
       <c r="AJ57" s="14"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -4447,17 +5280,33 @@
       <c r="O58" s="42"/>
       <c r="P58" s="41"/>
       <c r="R58" s="45"/>
-      <c r="S58" s="45"/>
-      <c r="T58" s="46"/>
-      <c r="U58" s="47"/>
+      <c r="S58" s="45">
+        <v>1594</v>
+      </c>
+      <c r="T58" s="46">
+        <v>45438</v>
+      </c>
+      <c r="U58" s="47" t="s">
+        <v>141</v>
+      </c>
       <c r="V58" s="47"/>
-      <c r="W58" s="47"/>
+      <c r="W58" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X58" s="47"/>
-      <c r="Y58" s="48"/>
+      <c r="Y58" s="48">
+        <v>10.69</v>
+      </c>
       <c r="Z58" s="45"/>
-      <c r="AA58" s="14"/>
-      <c r="AB58" s="14"/>
-      <c r="AC58" s="14"/>
+      <c r="AA58" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD58" s="14"/>
       <c r="AE58" s="14"/>
       <c r="AF58" s="14"/>
@@ -4466,7 +5315,7 @@
       <c r="AI58" s="14"/>
       <c r="AJ58" s="14"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -4484,17 +5333,33 @@
       <c r="O59" s="2"/>
       <c r="P59" s="1"/>
       <c r="R59" s="45"/>
-      <c r="S59" s="45"/>
-      <c r="T59" s="46"/>
-      <c r="U59" s="47"/>
+      <c r="S59" s="45">
+        <v>1595</v>
+      </c>
+      <c r="T59" s="46">
+        <v>45438</v>
+      </c>
+      <c r="U59" s="47" t="s">
+        <v>141</v>
+      </c>
       <c r="V59" s="47"/>
-      <c r="W59" s="47"/>
+      <c r="W59" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X59" s="47"/>
-      <c r="Y59" s="48"/>
+      <c r="Y59" s="48">
+        <v>50.73</v>
+      </c>
       <c r="Z59" s="45"/>
-      <c r="AA59" s="14"/>
-      <c r="AB59" s="14"/>
-      <c r="AC59" s="14"/>
+      <c r="AA59" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD59" s="14"/>
       <c r="AE59" s="14"/>
       <c r="AF59" s="14"/>
@@ -4503,7 +5368,7 @@
       <c r="AI59" s="14"/>
       <c r="AJ59" s="14"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -4521,17 +5386,33 @@
       <c r="O60" s="2"/>
       <c r="P60" s="1"/>
       <c r="R60" s="45"/>
-      <c r="S60" s="45"/>
-      <c r="T60" s="46"/>
-      <c r="U60" s="47"/>
+      <c r="S60" s="45">
+        <v>1596</v>
+      </c>
+      <c r="T60" s="46">
+        <v>45438</v>
+      </c>
+      <c r="U60" s="47" t="s">
+        <v>142</v>
+      </c>
       <c r="V60" s="47"/>
-      <c r="W60" s="47"/>
+      <c r="W60" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X60" s="47"/>
-      <c r="Y60" s="48"/>
+      <c r="Y60" s="48">
+        <v>264.02999999999997</v>
+      </c>
       <c r="Z60" s="45"/>
-      <c r="AA60" s="14"/>
-      <c r="AB60" s="14"/>
-      <c r="AC60" s="14"/>
+      <c r="AA60" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD60" s="14"/>
       <c r="AE60" s="14"/>
       <c r="AF60" s="14"/>
@@ -4540,7 +5421,7 @@
       <c r="AI60" s="14"/>
       <c r="AJ60" s="14"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -4558,17 +5439,33 @@
       <c r="O61" s="2"/>
       <c r="P61" s="1"/>
       <c r="R61" s="45"/>
-      <c r="S61" s="45"/>
-      <c r="T61" s="46"/>
-      <c r="U61" s="47"/>
+      <c r="S61" s="45">
+        <v>1597</v>
+      </c>
+      <c r="T61" s="46">
+        <v>45437</v>
+      </c>
+      <c r="U61" s="47" t="s">
+        <v>143</v>
+      </c>
       <c r="V61" s="47"/>
-      <c r="W61" s="47"/>
+      <c r="W61" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X61" s="47"/>
-      <c r="Y61" s="48"/>
+      <c r="Y61" s="48">
+        <v>24.34</v>
+      </c>
       <c r="Z61" s="45"/>
-      <c r="AA61" s="14"/>
-      <c r="AB61" s="14"/>
-      <c r="AC61" s="14"/>
+      <c r="AA61" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD61" s="14"/>
       <c r="AE61" s="14"/>
       <c r="AF61" s="14"/>
@@ -4577,7 +5474,7 @@
       <c r="AI61" s="14"/>
       <c r="AJ61" s="14"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -4595,17 +5492,33 @@
       <c r="O62" s="2"/>
       <c r="P62" s="1"/>
       <c r="R62" s="45"/>
-      <c r="S62" s="45"/>
-      <c r="T62" s="46"/>
-      <c r="U62" s="47"/>
+      <c r="S62" s="45">
+        <v>1535</v>
+      </c>
+      <c r="T62" s="46">
+        <v>45407</v>
+      </c>
+      <c r="U62" s="47" t="s">
+        <v>112</v>
+      </c>
       <c r="V62" s="47"/>
-      <c r="W62" s="47"/>
+      <c r="W62" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X62" s="47"/>
-      <c r="Y62" s="48"/>
+      <c r="Y62" s="48">
+        <v>32.07</v>
+      </c>
       <c r="Z62" s="45"/>
-      <c r="AA62" s="14"/>
-      <c r="AB62" s="14"/>
-      <c r="AC62" s="14"/>
+      <c r="AA62" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD62" s="14"/>
       <c r="AE62" s="14"/>
       <c r="AF62" s="14"/>
@@ -4614,7 +5527,7 @@
       <c r="AI62" s="14"/>
       <c r="AJ62" s="14"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -4632,17 +5545,33 @@
       <c r="O63" s="2"/>
       <c r="P63" s="1"/>
       <c r="R63" s="45"/>
-      <c r="S63" s="45"/>
-      <c r="T63" s="46"/>
-      <c r="U63" s="47"/>
+      <c r="S63" s="45">
+        <v>1536</v>
+      </c>
+      <c r="T63" s="46">
+        <v>45407</v>
+      </c>
+      <c r="U63" s="47" t="s">
+        <v>112</v>
+      </c>
       <c r="V63" s="47"/>
-      <c r="W63" s="47"/>
+      <c r="W63" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X63" s="47"/>
-      <c r="Y63" s="48"/>
+      <c r="Y63" s="48">
+        <v>-9.02</v>
+      </c>
       <c r="Z63" s="45"/>
-      <c r="AA63" s="14"/>
-      <c r="AB63" s="14"/>
-      <c r="AC63" s="14"/>
+      <c r="AA63" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD63" s="14"/>
       <c r="AE63" s="14"/>
       <c r="AF63" s="14"/>
@@ -4651,7 +5580,7 @@
       <c r="AI63" s="14"/>
       <c r="AJ63" s="14"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -4669,17 +5598,33 @@
       <c r="O64" s="2"/>
       <c r="P64" s="1"/>
       <c r="R64" s="45"/>
-      <c r="S64" s="45"/>
-      <c r="T64" s="46"/>
-      <c r="U64" s="47"/>
+      <c r="S64" s="45">
+        <v>1537</v>
+      </c>
+      <c r="T64" s="46">
+        <v>45406</v>
+      </c>
+      <c r="U64" s="47" t="s">
+        <v>112</v>
+      </c>
       <c r="V64" s="47"/>
-      <c r="W64" s="47"/>
+      <c r="W64" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X64" s="47"/>
-      <c r="Y64" s="48"/>
+      <c r="Y64" s="48">
+        <v>9.02</v>
+      </c>
       <c r="Z64" s="45"/>
-      <c r="AA64" s="14"/>
-      <c r="AB64" s="14"/>
-      <c r="AC64" s="14"/>
+      <c r="AA64" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD64" s="14"/>
       <c r="AE64" s="14"/>
       <c r="AF64" s="14"/>
@@ -4688,7 +5633,7 @@
       <c r="AI64" s="14"/>
       <c r="AJ64" s="14"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
@@ -4706,17 +5651,33 @@
       <c r="O65" s="2"/>
       <c r="P65" s="1"/>
       <c r="R65" s="45"/>
-      <c r="S65" s="45"/>
-      <c r="T65" s="46"/>
-      <c r="U65" s="47"/>
+      <c r="S65" s="45">
+        <v>1538</v>
+      </c>
+      <c r="T65" s="46">
+        <v>45406</v>
+      </c>
+      <c r="U65" s="47" t="s">
+        <v>28</v>
+      </c>
       <c r="V65" s="47"/>
-      <c r="W65" s="47"/>
+      <c r="W65" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X65" s="47"/>
-      <c r="Y65" s="48"/>
+      <c r="Y65" s="48">
+        <v>13.9</v>
+      </c>
       <c r="Z65" s="45"/>
-      <c r="AA65" s="14"/>
-      <c r="AB65" s="14"/>
-      <c r="AC65" s="14"/>
+      <c r="AA65" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD65" s="14"/>
       <c r="AE65" s="14"/>
       <c r="AF65" s="14"/>
@@ -4725,7 +5686,7 @@
       <c r="AI65" s="14"/>
       <c r="AJ65" s="14"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -4743,17 +5704,33 @@
       <c r="O66" s="2"/>
       <c r="P66" s="1"/>
       <c r="R66" s="45"/>
-      <c r="S66" s="45"/>
-      <c r="T66" s="46"/>
-      <c r="U66" s="47"/>
+      <c r="S66" s="45">
+        <v>1539</v>
+      </c>
+      <c r="T66" s="46">
+        <v>45405</v>
+      </c>
+      <c r="U66" s="47" t="s">
+        <v>144</v>
+      </c>
       <c r="V66" s="47"/>
-      <c r="W66" s="47"/>
+      <c r="W66" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X66" s="47"/>
-      <c r="Y66" s="48"/>
+      <c r="Y66" s="48">
+        <v>20.6</v>
+      </c>
       <c r="Z66" s="45"/>
-      <c r="AA66" s="14"/>
-      <c r="AB66" s="14"/>
-      <c r="AC66" s="14"/>
+      <c r="AA66" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD66" s="14"/>
       <c r="AE66" s="14"/>
       <c r="AF66" s="14"/>
@@ -4762,7 +5739,7 @@
       <c r="AI66" s="14"/>
       <c r="AJ66" s="14"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -4780,17 +5757,33 @@
       <c r="O67" s="2"/>
       <c r="P67" s="1"/>
       <c r="R67" s="45"/>
-      <c r="S67" s="45"/>
-      <c r="T67" s="46"/>
-      <c r="U67" s="47"/>
+      <c r="S67" s="45">
+        <v>1540</v>
+      </c>
+      <c r="T67" s="46">
+        <v>45405</v>
+      </c>
+      <c r="U67" s="47" t="s">
+        <v>79</v>
+      </c>
       <c r="V67" s="47"/>
-      <c r="W67" s="47"/>
+      <c r="W67" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X67" s="47"/>
-      <c r="Y67" s="48"/>
+      <c r="Y67" s="48">
+        <v>-1288.77</v>
+      </c>
       <c r="Z67" s="45"/>
-      <c r="AA67" s="14"/>
-      <c r="AB67" s="14"/>
-      <c r="AC67" s="14"/>
+      <c r="AA67" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD67" s="14"/>
       <c r="AE67" s="14"/>
       <c r="AF67" s="14"/>
@@ -4799,7 +5792,7 @@
       <c r="AI67" s="14"/>
       <c r="AJ67" s="14"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -4817,17 +5810,33 @@
       <c r="O68" s="2"/>
       <c r="P68" s="1"/>
       <c r="R68" s="45"/>
-      <c r="S68" s="45"/>
-      <c r="T68" s="46"/>
-      <c r="U68" s="47"/>
+      <c r="S68" s="45">
+        <v>1541</v>
+      </c>
+      <c r="T68" s="46">
+        <v>45404</v>
+      </c>
+      <c r="U68" s="47" t="s">
+        <v>28</v>
+      </c>
       <c r="V68" s="47"/>
-      <c r="W68" s="47"/>
+      <c r="W68" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X68" s="47"/>
-      <c r="Y68" s="48"/>
+      <c r="Y68" s="48">
+        <v>32.090000000000003</v>
+      </c>
       <c r="Z68" s="45"/>
-      <c r="AA68" s="14"/>
-      <c r="AB68" s="14"/>
-      <c r="AC68" s="14"/>
+      <c r="AA68" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD68" s="14"/>
       <c r="AE68" s="14"/>
       <c r="AF68" s="14"/>
@@ -4836,7 +5845,7 @@
       <c r="AI68" s="14"/>
       <c r="AJ68" s="14"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -4854,17 +5863,33 @@
       <c r="O69" s="2"/>
       <c r="P69" s="1"/>
       <c r="R69" s="45"/>
-      <c r="S69" s="45"/>
-      <c r="T69" s="46"/>
-      <c r="U69" s="47"/>
+      <c r="S69" s="45">
+        <v>1542</v>
+      </c>
+      <c r="T69" s="46">
+        <v>45403</v>
+      </c>
+      <c r="U69" s="47" t="s">
+        <v>145</v>
+      </c>
       <c r="V69" s="47"/>
-      <c r="W69" s="47"/>
+      <c r="W69" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X69" s="47"/>
-      <c r="Y69" s="48"/>
+      <c r="Y69" s="48">
+        <v>64.459999999999994</v>
+      </c>
       <c r="Z69" s="45"/>
-      <c r="AA69" s="14"/>
-      <c r="AB69" s="14"/>
-      <c r="AC69" s="14"/>
+      <c r="AA69" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD69" s="14"/>
       <c r="AE69" s="14"/>
       <c r="AF69" s="14"/>
@@ -4873,7 +5898,7 @@
       <c r="AI69" s="14"/>
       <c r="AJ69" s="14"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -4891,17 +5916,33 @@
       <c r="O70" s="2"/>
       <c r="P70" s="1"/>
       <c r="R70" s="45"/>
-      <c r="S70" s="45"/>
-      <c r="T70" s="46"/>
-      <c r="U70" s="47"/>
+      <c r="S70" s="45">
+        <v>1543</v>
+      </c>
+      <c r="T70" s="46">
+        <v>45403</v>
+      </c>
+      <c r="U70" s="47" t="s">
+        <v>146</v>
+      </c>
       <c r="V70" s="47"/>
-      <c r="W70" s="47"/>
+      <c r="W70" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X70" s="47"/>
-      <c r="Y70" s="48"/>
+      <c r="Y70" s="48">
+        <v>0.64</v>
+      </c>
       <c r="Z70" s="45"/>
-      <c r="AA70" s="14"/>
-      <c r="AB70" s="14"/>
-      <c r="AC70" s="14"/>
+      <c r="AA70" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD70" s="14"/>
       <c r="AE70" s="14"/>
       <c r="AF70" s="14"/>
@@ -4910,7 +5951,7 @@
       <c r="AI70" s="14"/>
       <c r="AJ70" s="14"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -4928,17 +5969,33 @@
       <c r="O71" s="2"/>
       <c r="P71" s="1"/>
       <c r="R71" s="45"/>
-      <c r="S71" s="45"/>
-      <c r="T71" s="46"/>
-      <c r="U71" s="47"/>
+      <c r="S71" s="45">
+        <v>1544</v>
+      </c>
+      <c r="T71" s="46">
+        <v>45403</v>
+      </c>
+      <c r="U71" s="47" t="s">
+        <v>74</v>
+      </c>
       <c r="V71" s="47"/>
-      <c r="W71" s="47"/>
+      <c r="W71" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X71" s="47"/>
-      <c r="Y71" s="48"/>
+      <c r="Y71" s="48">
+        <v>4.13</v>
+      </c>
       <c r="Z71" s="45"/>
-      <c r="AA71" s="14"/>
-      <c r="AB71" s="14"/>
-      <c r="AC71" s="14"/>
+      <c r="AA71" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD71" s="14"/>
       <c r="AE71" s="14"/>
       <c r="AF71" s="14"/>
@@ -4947,7 +6004,7 @@
       <c r="AI71" s="14"/>
       <c r="AJ71" s="14"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -4965,17 +6022,33 @@
       <c r="O72" s="2"/>
       <c r="P72" s="1"/>
       <c r="R72" s="45"/>
-      <c r="S72" s="45"/>
-      <c r="T72" s="46"/>
-      <c r="U72" s="47"/>
+      <c r="S72" s="45">
+        <v>1545</v>
+      </c>
+      <c r="T72" s="46">
+        <v>45403</v>
+      </c>
+      <c r="U72" s="47" t="s">
+        <v>74</v>
+      </c>
       <c r="V72" s="47"/>
-      <c r="W72" s="47"/>
+      <c r="W72" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X72" s="47"/>
-      <c r="Y72" s="48"/>
+      <c r="Y72" s="48">
+        <v>96.29</v>
+      </c>
       <c r="Z72" s="45"/>
-      <c r="AA72" s="14"/>
-      <c r="AB72" s="14"/>
-      <c r="AC72" s="14"/>
+      <c r="AA72" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD72" s="14"/>
       <c r="AE72" s="14"/>
       <c r="AF72" s="14"/>
@@ -4984,7 +6057,7 @@
       <c r="AI72" s="14"/>
       <c r="AJ72" s="14"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
@@ -5002,17 +6075,33 @@
       <c r="O73" s="2"/>
       <c r="P73" s="1"/>
       <c r="R73" s="45"/>
-      <c r="S73" s="45"/>
-      <c r="T73" s="46"/>
-      <c r="U73" s="47"/>
+      <c r="S73" s="45">
+        <v>1546</v>
+      </c>
+      <c r="T73" s="46">
+        <v>45402</v>
+      </c>
+      <c r="U73" s="47" t="s">
+        <v>28</v>
+      </c>
       <c r="V73" s="47"/>
-      <c r="W73" s="47"/>
+      <c r="W73" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X73" s="47"/>
-      <c r="Y73" s="48"/>
+      <c r="Y73" s="48">
+        <v>6.94</v>
+      </c>
       <c r="Z73" s="45"/>
-      <c r="AA73" s="14"/>
-      <c r="AB73" s="14"/>
-      <c r="AC73" s="14"/>
+      <c r="AA73" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD73" s="14"/>
       <c r="AE73" s="14"/>
       <c r="AF73" s="14"/>
@@ -5021,7 +6110,7 @@
       <c r="AI73" s="14"/>
       <c r="AJ73" s="14"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -5039,17 +6128,33 @@
       <c r="O74" s="2"/>
       <c r="P74" s="1"/>
       <c r="R74" s="45"/>
-      <c r="S74" s="45"/>
-      <c r="T74" s="46"/>
-      <c r="U74" s="47"/>
+      <c r="S74" s="45">
+        <v>1547</v>
+      </c>
+      <c r="T74" s="46">
+        <v>45400</v>
+      </c>
+      <c r="U74" s="47" t="s">
+        <v>132</v>
+      </c>
       <c r="V74" s="47"/>
-      <c r="W74" s="47"/>
+      <c r="W74" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X74" s="47"/>
-      <c r="Y74" s="48"/>
+      <c r="Y74" s="48">
+        <v>3.2</v>
+      </c>
       <c r="Z74" s="45"/>
-      <c r="AA74" s="14"/>
-      <c r="AB74" s="14"/>
-      <c r="AC74" s="14"/>
+      <c r="AA74" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD74" s="14"/>
       <c r="AE74" s="14"/>
       <c r="AF74" s="14"/>
@@ -5058,7 +6163,7 @@
       <c r="AI74" s="14"/>
       <c r="AJ74" s="14"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
@@ -5076,17 +6181,33 @@
       <c r="O75" s="2"/>
       <c r="P75" s="1"/>
       <c r="R75" s="45"/>
-      <c r="S75" s="45"/>
-      <c r="T75" s="46"/>
-      <c r="U75" s="47"/>
+      <c r="S75" s="45">
+        <v>1548</v>
+      </c>
+      <c r="T75" s="46">
+        <v>45400</v>
+      </c>
+      <c r="U75" s="47" t="s">
+        <v>132</v>
+      </c>
       <c r="V75" s="47"/>
-      <c r="W75" s="47"/>
+      <c r="W75" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X75" s="47"/>
-      <c r="Y75" s="48"/>
+      <c r="Y75" s="48">
+        <v>37.85</v>
+      </c>
       <c r="Z75" s="45"/>
-      <c r="AA75" s="14"/>
-      <c r="AB75" s="14"/>
-      <c r="AC75" s="14"/>
+      <c r="AA75" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD75" s="14"/>
       <c r="AE75" s="14"/>
       <c r="AF75" s="14"/>
@@ -5095,7 +6216,7 @@
       <c r="AI75" s="14"/>
       <c r="AJ75" s="14"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
@@ -5113,17 +6234,33 @@
       <c r="O76" s="2"/>
       <c r="P76" s="1"/>
       <c r="R76" s="45"/>
-      <c r="S76" s="45"/>
-      <c r="T76" s="46"/>
-      <c r="U76" s="47"/>
+      <c r="S76" s="45">
+        <v>1549</v>
+      </c>
+      <c r="T76" s="46">
+        <v>45400</v>
+      </c>
+      <c r="U76" s="47" t="s">
+        <v>28</v>
+      </c>
       <c r="V76" s="47"/>
-      <c r="W76" s="47"/>
+      <c r="W76" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X76" s="47"/>
-      <c r="Y76" s="48"/>
+      <c r="Y76" s="48">
+        <v>-155.13999999999999</v>
+      </c>
       <c r="Z76" s="45"/>
-      <c r="AA76" s="14"/>
-      <c r="AB76" s="14"/>
-      <c r="AC76" s="14"/>
+      <c r="AA76" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB76" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC76" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD76" s="14"/>
       <c r="AE76" s="14"/>
       <c r="AF76" s="14"/>
@@ -5132,7 +6269,7 @@
       <c r="AI76" s="14"/>
       <c r="AJ76" s="14"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
@@ -5150,17 +6287,33 @@
       <c r="O77" s="2"/>
       <c r="P77" s="1"/>
       <c r="R77" s="45"/>
-      <c r="S77" s="45"/>
-      <c r="T77" s="46"/>
-      <c r="U77" s="47"/>
+      <c r="S77" s="45">
+        <v>1550</v>
+      </c>
+      <c r="T77" s="46">
+        <v>45400</v>
+      </c>
+      <c r="U77" s="47" t="s">
+        <v>28</v>
+      </c>
       <c r="V77" s="47"/>
-      <c r="W77" s="47"/>
+      <c r="W77" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X77" s="47"/>
-      <c r="Y77" s="48"/>
+      <c r="Y77" s="48">
+        <v>10.59</v>
+      </c>
       <c r="Z77" s="45"/>
-      <c r="AA77" s="14"/>
-      <c r="AB77" s="14"/>
-      <c r="AC77" s="14"/>
+      <c r="AA77" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD77" s="14"/>
       <c r="AE77" s="14"/>
       <c r="AF77" s="14"/>
@@ -5169,7 +6322,7 @@
       <c r="AI77" s="14"/>
       <c r="AJ77" s="14"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
@@ -5187,17 +6340,33 @@
       <c r="O78" s="2"/>
       <c r="P78" s="1"/>
       <c r="R78" s="45"/>
-      <c r="S78" s="45"/>
-      <c r="T78" s="46"/>
-      <c r="U78" s="47"/>
+      <c r="S78" s="45">
+        <v>1551</v>
+      </c>
+      <c r="T78" s="46">
+        <v>45399</v>
+      </c>
+      <c r="U78" s="47" t="s">
+        <v>74</v>
+      </c>
       <c r="V78" s="47"/>
-      <c r="W78" s="47"/>
+      <c r="W78" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X78" s="47"/>
-      <c r="Y78" s="48"/>
+      <c r="Y78" s="48">
+        <v>99.96</v>
+      </c>
       <c r="Z78" s="45"/>
-      <c r="AA78" s="14"/>
-      <c r="AB78" s="14"/>
-      <c r="AC78" s="14"/>
+      <c r="AA78" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB78" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC78" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD78" s="14"/>
       <c r="AE78" s="14"/>
       <c r="AF78" s="14"/>
@@ -5206,7 +6375,7 @@
       <c r="AI78" s="14"/>
       <c r="AJ78" s="14"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -5224,17 +6393,33 @@
       <c r="O79" s="2"/>
       <c r="P79" s="1"/>
       <c r="R79" s="45"/>
-      <c r="S79" s="45"/>
-      <c r="T79" s="46"/>
-      <c r="U79" s="47"/>
+      <c r="S79" s="45">
+        <v>1552</v>
+      </c>
+      <c r="T79" s="46">
+        <v>45399</v>
+      </c>
+      <c r="U79" s="47" t="s">
+        <v>147</v>
+      </c>
       <c r="V79" s="47"/>
-      <c r="W79" s="47"/>
+      <c r="W79" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X79" s="47"/>
-      <c r="Y79" s="48"/>
+      <c r="Y79" s="48">
+        <v>66.59</v>
+      </c>
       <c r="Z79" s="45"/>
-      <c r="AA79" s="14"/>
-      <c r="AB79" s="14"/>
-      <c r="AC79" s="14"/>
+      <c r="AA79" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB79" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC79" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD79" s="14"/>
       <c r="AE79" s="14"/>
       <c r="AF79" s="14"/>
@@ -5243,7 +6428,7 @@
       <c r="AI79" s="14"/>
       <c r="AJ79" s="14"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
@@ -5261,17 +6446,33 @@
       <c r="O80" s="2"/>
       <c r="P80" s="1"/>
       <c r="R80" s="45"/>
-      <c r="S80" s="45"/>
-      <c r="T80" s="46"/>
-      <c r="U80" s="47"/>
+      <c r="S80" s="45">
+        <v>1553</v>
+      </c>
+      <c r="T80" s="46">
+        <v>45398</v>
+      </c>
+      <c r="U80" s="47" t="s">
+        <v>108</v>
+      </c>
       <c r="V80" s="47"/>
-      <c r="W80" s="47"/>
+      <c r="W80" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X80" s="47"/>
-      <c r="Y80" s="48"/>
+      <c r="Y80" s="48">
+        <v>59.95</v>
+      </c>
       <c r="Z80" s="45"/>
-      <c r="AA80" s="14"/>
-      <c r="AB80" s="14"/>
-      <c r="AC80" s="14"/>
+      <c r="AA80" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB80" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC80" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD80" s="14"/>
       <c r="AE80" s="14"/>
       <c r="AF80" s="14"/>
@@ -5280,7 +6481,7 @@
       <c r="AI80" s="14"/>
       <c r="AJ80" s="14"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
@@ -5298,17 +6499,33 @@
       <c r="O81" s="2"/>
       <c r="P81" s="1"/>
       <c r="R81" s="45"/>
-      <c r="S81" s="45"/>
-      <c r="T81" s="46"/>
-      <c r="U81" s="47"/>
+      <c r="S81" s="45">
+        <v>1554</v>
+      </c>
+      <c r="T81" s="46">
+        <v>45398</v>
+      </c>
+      <c r="U81" s="47" t="s">
+        <v>28</v>
+      </c>
       <c r="V81" s="47"/>
-      <c r="W81" s="47"/>
+      <c r="W81" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X81" s="47"/>
-      <c r="Y81" s="48"/>
+      <c r="Y81" s="48">
+        <v>75.86</v>
+      </c>
       <c r="Z81" s="45"/>
-      <c r="AA81" s="14"/>
-      <c r="AB81" s="14"/>
-      <c r="AC81" s="14"/>
+      <c r="AA81" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD81" s="14"/>
       <c r="AE81" s="14"/>
       <c r="AF81" s="14"/>
@@ -5317,7 +6534,7 @@
       <c r="AI81" s="14"/>
       <c r="AJ81" s="14"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
@@ -5335,17 +6552,33 @@
       <c r="O82" s="2"/>
       <c r="P82" s="1"/>
       <c r="R82" s="45"/>
-      <c r="S82" s="45"/>
-      <c r="T82" s="46"/>
-      <c r="U82" s="47"/>
+      <c r="S82" s="45">
+        <v>1555</v>
+      </c>
+      <c r="T82" s="46">
+        <v>45396</v>
+      </c>
+      <c r="U82" s="47" t="s">
+        <v>148</v>
+      </c>
       <c r="V82" s="47"/>
-      <c r="W82" s="47"/>
+      <c r="W82" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X82" s="47"/>
-      <c r="Y82" s="48"/>
+      <c r="Y82" s="48">
+        <v>4.34</v>
+      </c>
       <c r="Z82" s="45"/>
-      <c r="AA82" s="14"/>
-      <c r="AB82" s="14"/>
-      <c r="AC82" s="14"/>
+      <c r="AA82" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB82" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC82" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD82" s="14"/>
       <c r="AE82" s="14"/>
       <c r="AF82" s="14"/>
@@ -5354,7 +6587,7 @@
       <c r="AI82" s="14"/>
       <c r="AJ82" s="14"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
@@ -5372,17 +6605,33 @@
       <c r="O83" s="2"/>
       <c r="P83" s="1"/>
       <c r="R83" s="45"/>
-      <c r="S83" s="45"/>
-      <c r="T83" s="46"/>
-      <c r="U83" s="47"/>
+      <c r="S83" s="45">
+        <v>1556</v>
+      </c>
+      <c r="T83" s="46">
+        <v>45395</v>
+      </c>
+      <c r="U83" s="47" t="s">
+        <v>149</v>
+      </c>
       <c r="V83" s="47"/>
-      <c r="W83" s="47"/>
+      <c r="W83" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X83" s="47"/>
-      <c r="Y83" s="48"/>
+      <c r="Y83" s="48">
+        <v>54.05</v>
+      </c>
       <c r="Z83" s="45"/>
-      <c r="AA83" s="14"/>
-      <c r="AB83" s="14"/>
-      <c r="AC83" s="14"/>
+      <c r="AA83" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB83" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD83" s="14"/>
       <c r="AE83" s="14"/>
       <c r="AF83" s="14"/>
@@ -5391,7 +6640,7 @@
       <c r="AI83" s="14"/>
       <c r="AJ83" s="14"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -5407,17 +6656,33 @@
       <c r="O84" s="2"/>
       <c r="P84" s="1"/>
       <c r="R84" s="45"/>
-      <c r="S84" s="45"/>
-      <c r="T84" s="46"/>
-      <c r="U84" s="47"/>
+      <c r="S84" s="45">
+        <v>1557</v>
+      </c>
+      <c r="T84" s="46">
+        <v>45395</v>
+      </c>
+      <c r="U84" s="47" t="s">
+        <v>150</v>
+      </c>
       <c r="V84" s="47"/>
-      <c r="W84" s="47"/>
+      <c r="W84" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X84" s="47"/>
-      <c r="Y84" s="48"/>
+      <c r="Y84" s="48">
+        <v>15.17</v>
+      </c>
       <c r="Z84" s="45"/>
-      <c r="AA84" s="14"/>
-      <c r="AB84" s="14"/>
-      <c r="AC84" s="14"/>
+      <c r="AA84" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD84" s="14"/>
       <c r="AE84" s="14"/>
       <c r="AF84" s="14"/>
@@ -5426,7 +6691,7 @@
       <c r="AI84" s="14"/>
       <c r="AJ84" s="14"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -5442,17 +6707,33 @@
       <c r="O85" s="2"/>
       <c r="P85" s="1"/>
       <c r="R85" s="45"/>
-      <c r="S85" s="45"/>
-      <c r="T85" s="46"/>
-      <c r="U85" s="47"/>
+      <c r="S85" s="45">
+        <v>1558</v>
+      </c>
+      <c r="T85" s="46">
+        <v>45395</v>
+      </c>
+      <c r="U85" s="47" t="s">
+        <v>89</v>
+      </c>
       <c r="V85" s="47"/>
-      <c r="W85" s="47"/>
+      <c r="W85" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X85" s="47"/>
-      <c r="Y85" s="48"/>
+      <c r="Y85" s="48">
+        <v>59.73</v>
+      </c>
       <c r="Z85" s="45"/>
-      <c r="AA85" s="14"/>
-      <c r="AB85" s="14"/>
-      <c r="AC85" s="14"/>
+      <c r="AA85" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD85" s="14"/>
       <c r="AE85" s="14"/>
       <c r="AF85" s="14"/>
@@ -5461,7 +6742,7 @@
       <c r="AI85" s="14"/>
       <c r="AJ85" s="14"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -5477,17 +6758,33 @@
       <c r="O86" s="2"/>
       <c r="P86" s="1"/>
       <c r="R86" s="45"/>
-      <c r="S86" s="45"/>
-      <c r="T86" s="46"/>
-      <c r="U86" s="47"/>
+      <c r="S86" s="45">
+        <v>1559</v>
+      </c>
+      <c r="T86" s="46">
+        <v>45394</v>
+      </c>
+      <c r="U86" s="47" t="s">
+        <v>74</v>
+      </c>
       <c r="V86" s="47"/>
-      <c r="W86" s="47"/>
+      <c r="W86" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X86" s="47"/>
-      <c r="Y86" s="48"/>
+      <c r="Y86" s="48">
+        <v>43.34</v>
+      </c>
       <c r="Z86" s="45"/>
-      <c r="AA86" s="14"/>
-      <c r="AB86" s="14"/>
-      <c r="AC86" s="14"/>
+      <c r="AA86" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD86" s="14"/>
       <c r="AE86" s="14"/>
       <c r="AF86" s="14"/>
@@ -5496,7 +6793,7 @@
       <c r="AI86" s="14"/>
       <c r="AJ86" s="14"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -5512,17 +6809,33 @@
       <c r="O87" s="2"/>
       <c r="P87" s="1"/>
       <c r="R87" s="45"/>
-      <c r="S87" s="45"/>
-      <c r="T87" s="46"/>
-      <c r="U87" s="47"/>
+      <c r="S87" s="45">
+        <v>1560</v>
+      </c>
+      <c r="T87" s="46">
+        <v>45394</v>
+      </c>
+      <c r="U87" s="47" t="s">
+        <v>74</v>
+      </c>
       <c r="V87" s="47"/>
-      <c r="W87" s="47"/>
+      <c r="W87" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X87" s="47"/>
-      <c r="Y87" s="48"/>
+      <c r="Y87" s="48">
+        <v>72.150000000000006</v>
+      </c>
       <c r="Z87" s="45"/>
-      <c r="AA87" s="14"/>
-      <c r="AB87" s="14"/>
-      <c r="AC87" s="14"/>
+      <c r="AA87" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD87" s="14"/>
       <c r="AE87" s="14"/>
       <c r="AF87" s="14"/>
@@ -5531,7 +6844,7 @@
       <c r="AI87" s="14"/>
       <c r="AJ87" s="14"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -5547,17 +6860,33 @@
       <c r="O88" s="2"/>
       <c r="P88" s="1"/>
       <c r="R88" s="45"/>
-      <c r="S88" s="45"/>
-      <c r="T88" s="46"/>
-      <c r="U88" s="47"/>
+      <c r="S88" s="45">
+        <v>1561</v>
+      </c>
+      <c r="T88" s="46">
+        <v>45393</v>
+      </c>
+      <c r="U88" s="47" t="s">
+        <v>74</v>
+      </c>
       <c r="V88" s="47"/>
-      <c r="W88" s="47"/>
+      <c r="W88" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X88" s="47"/>
-      <c r="Y88" s="48"/>
+      <c r="Y88" s="48">
+        <v>72.09</v>
+      </c>
       <c r="Z88" s="45"/>
-      <c r="AA88" s="14"/>
-      <c r="AB88" s="14"/>
-      <c r="AC88" s="14"/>
+      <c r="AA88" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD88" s="14"/>
       <c r="AE88" s="14"/>
       <c r="AF88" s="14"/>
@@ -5566,7 +6895,7 @@
       <c r="AI88" s="14"/>
       <c r="AJ88" s="14"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -5582,17 +6911,33 @@
       <c r="O89" s="2"/>
       <c r="P89" s="1"/>
       <c r="R89" s="45"/>
-      <c r="S89" s="45"/>
-      <c r="T89" s="46"/>
-      <c r="U89" s="47"/>
+      <c r="S89" s="45">
+        <v>1562</v>
+      </c>
+      <c r="T89" s="46">
+        <v>45393</v>
+      </c>
+      <c r="U89" s="47" t="s">
+        <v>112</v>
+      </c>
       <c r="V89" s="47"/>
-      <c r="W89" s="47"/>
+      <c r="W89" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X89" s="47"/>
-      <c r="Y89" s="48"/>
+      <c r="Y89" s="48">
+        <v>10.68</v>
+      </c>
       <c r="Z89" s="45"/>
-      <c r="AA89" s="14"/>
-      <c r="AB89" s="14"/>
-      <c r="AC89" s="14"/>
+      <c r="AA89" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB89" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD89" s="14"/>
       <c r="AE89" s="14"/>
       <c r="AF89" s="14"/>
@@ -5601,7 +6946,7 @@
       <c r="AI89" s="14"/>
       <c r="AJ89" s="14"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -5617,17 +6962,33 @@
       <c r="O90" s="2"/>
       <c r="P90" s="1"/>
       <c r="R90" s="45"/>
-      <c r="S90" s="45"/>
-      <c r="T90" s="46"/>
-      <c r="U90" s="47"/>
+      <c r="S90" s="45">
+        <v>1563</v>
+      </c>
+      <c r="T90" s="46">
+        <v>45393</v>
+      </c>
+      <c r="U90" s="47" t="s">
+        <v>151</v>
+      </c>
       <c r="V90" s="47"/>
-      <c r="W90" s="47"/>
+      <c r="W90" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X90" s="47"/>
-      <c r="Y90" s="48"/>
+      <c r="Y90" s="48">
+        <v>41.67</v>
+      </c>
       <c r="Z90" s="45"/>
-      <c r="AA90" s="14"/>
-      <c r="AB90" s="14"/>
-      <c r="AC90" s="14"/>
+      <c r="AA90" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB90" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC90" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD90" s="14"/>
       <c r="AE90" s="14"/>
       <c r="AF90" s="14"/>
@@ -5636,7 +6997,7 @@
       <c r="AI90" s="14"/>
       <c r="AJ90" s="14"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -5652,17 +7013,33 @@
       <c r="O91" s="2"/>
       <c r="P91" s="1"/>
       <c r="R91" s="45"/>
-      <c r="S91" s="45"/>
-      <c r="T91" s="46"/>
-      <c r="U91" s="47"/>
+      <c r="S91" s="45">
+        <v>1564</v>
+      </c>
+      <c r="T91" s="46">
+        <v>45392</v>
+      </c>
+      <c r="U91" s="47" t="s">
+        <v>74</v>
+      </c>
       <c r="V91" s="47"/>
-      <c r="W91" s="47"/>
+      <c r="W91" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X91" s="47"/>
-      <c r="Y91" s="48"/>
+      <c r="Y91" s="48">
+        <v>16.02</v>
+      </c>
       <c r="Z91" s="45"/>
-      <c r="AA91" s="14"/>
-      <c r="AB91" s="14"/>
-      <c r="AC91" s="14"/>
+      <c r="AA91" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD91" s="14"/>
       <c r="AE91" s="14"/>
       <c r="AF91" s="14"/>
@@ -5671,7 +7048,7 @@
       <c r="AI91" s="14"/>
       <c r="AJ91" s="14"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -5687,17 +7064,33 @@
       <c r="O92" s="2"/>
       <c r="P92" s="1"/>
       <c r="R92" s="45"/>
-      <c r="S92" s="45"/>
-      <c r="T92" s="46"/>
-      <c r="U92" s="47"/>
+      <c r="S92" s="45">
+        <v>1565</v>
+      </c>
+      <c r="T92" s="46">
+        <v>45392</v>
+      </c>
+      <c r="U92" s="47" t="s">
+        <v>152</v>
+      </c>
       <c r="V92" s="47"/>
-      <c r="W92" s="47"/>
+      <c r="W92" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X92" s="47"/>
-      <c r="Y92" s="48"/>
+      <c r="Y92" s="48">
+        <v>22.17</v>
+      </c>
       <c r="Z92" s="45"/>
-      <c r="AA92" s="14"/>
-      <c r="AB92" s="14"/>
-      <c r="AC92" s="14"/>
+      <c r="AA92" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD92" s="14"/>
       <c r="AE92" s="14"/>
       <c r="AF92" s="14"/>
@@ -5706,7 +7099,7 @@
       <c r="AI92" s="14"/>
       <c r="AJ92" s="14"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -5722,17 +7115,33 @@
       <c r="O93" s="2"/>
       <c r="P93" s="1"/>
       <c r="R93" s="45"/>
-      <c r="S93" s="45"/>
-      <c r="T93" s="46"/>
-      <c r="U93" s="47"/>
+      <c r="S93" s="45">
+        <v>1566</v>
+      </c>
+      <c r="T93" s="46">
+        <v>45392</v>
+      </c>
+      <c r="U93" s="47" t="s">
+        <v>153</v>
+      </c>
       <c r="V93" s="47"/>
-      <c r="W93" s="47"/>
+      <c r="W93" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X93" s="47"/>
-      <c r="Y93" s="48"/>
+      <c r="Y93" s="48">
+        <v>15.44</v>
+      </c>
       <c r="Z93" s="45"/>
-      <c r="AA93" s="14"/>
-      <c r="AB93" s="14"/>
-      <c r="AC93" s="14"/>
+      <c r="AA93" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD93" s="14"/>
       <c r="AE93" s="14"/>
       <c r="AF93" s="14"/>
@@ -5741,7 +7150,7 @@
       <c r="AI93" s="14"/>
       <c r="AJ93" s="14"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -5757,17 +7166,33 @@
       <c r="O94" s="2"/>
       <c r="P94" s="1"/>
       <c r="R94" s="45"/>
-      <c r="S94" s="45"/>
-      <c r="T94" s="46"/>
-      <c r="U94" s="47"/>
+      <c r="S94" s="45">
+        <v>1567</v>
+      </c>
+      <c r="T94" s="46">
+        <v>45391</v>
+      </c>
+      <c r="U94" s="47" t="s">
+        <v>154</v>
+      </c>
       <c r="V94" s="47"/>
-      <c r="W94" s="47"/>
+      <c r="W94" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X94" s="47"/>
-      <c r="Y94" s="48"/>
+      <c r="Y94" s="48">
+        <v>2.8</v>
+      </c>
       <c r="Z94" s="45"/>
-      <c r="AA94" s="14"/>
-      <c r="AB94" s="14"/>
-      <c r="AC94" s="14"/>
+      <c r="AA94" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD94" s="14"/>
       <c r="AE94" s="14"/>
       <c r="AF94" s="14"/>
@@ -5776,7 +7201,7 @@
       <c r="AI94" s="14"/>
       <c r="AJ94" s="14"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -5792,17 +7217,33 @@
       <c r="O95" s="2"/>
       <c r="P95" s="1"/>
       <c r="R95" s="45"/>
-      <c r="S95" s="45"/>
-      <c r="T95" s="46"/>
-      <c r="U95" s="47"/>
+      <c r="S95" s="45">
+        <v>1568</v>
+      </c>
+      <c r="T95" s="46">
+        <v>45390</v>
+      </c>
+      <c r="U95" s="47" t="s">
+        <v>28</v>
+      </c>
       <c r="V95" s="47"/>
-      <c r="W95" s="47"/>
+      <c r="W95" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X95" s="47"/>
-      <c r="Y95" s="48"/>
+      <c r="Y95" s="48">
+        <v>155.13999999999999</v>
+      </c>
       <c r="Z95" s="45"/>
-      <c r="AA95" s="14"/>
-      <c r="AB95" s="14"/>
-      <c r="AC95" s="14"/>
+      <c r="AA95" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB95" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC95" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD95" s="14"/>
       <c r="AE95" s="14"/>
       <c r="AF95" s="14"/>
@@ -5811,7 +7252,7 @@
       <c r="AI95" s="14"/>
       <c r="AJ95" s="14"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -5827,17 +7268,33 @@
       <c r="O96" s="2"/>
       <c r="P96" s="1"/>
       <c r="R96" s="45"/>
-      <c r="S96" s="45"/>
-      <c r="T96" s="46"/>
-      <c r="U96" s="47"/>
+      <c r="S96" s="45">
+        <v>1569</v>
+      </c>
+      <c r="T96" s="46">
+        <v>45389</v>
+      </c>
+      <c r="U96" s="47" t="s">
+        <v>28</v>
+      </c>
       <c r="V96" s="47"/>
-      <c r="W96" s="47"/>
+      <c r="W96" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X96" s="47"/>
-      <c r="Y96" s="48"/>
+      <c r="Y96" s="48">
+        <v>36.369999999999997</v>
+      </c>
       <c r="Z96" s="45"/>
-      <c r="AA96" s="14"/>
-      <c r="AB96" s="14"/>
-      <c r="AC96" s="14"/>
+      <c r="AA96" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD96" s="14"/>
       <c r="AE96" s="14"/>
       <c r="AF96" s="14"/>
@@ -5846,7 +7303,7 @@
       <c r="AI96" s="14"/>
       <c r="AJ96" s="14"/>
     </row>
-    <row r="97">
+    <row r="97" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -5862,17 +7319,33 @@
       <c r="O97" s="2"/>
       <c r="P97" s="1"/>
       <c r="R97" s="45"/>
-      <c r="S97" s="45"/>
-      <c r="T97" s="46"/>
-      <c r="U97" s="47"/>
+      <c r="S97" s="45">
+        <v>1570</v>
+      </c>
+      <c r="T97" s="46">
+        <v>45389</v>
+      </c>
+      <c r="U97" s="47" t="s">
+        <v>28</v>
+      </c>
       <c r="V97" s="47"/>
-      <c r="W97" s="47"/>
+      <c r="W97" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X97" s="47"/>
-      <c r="Y97" s="48"/>
+      <c r="Y97" s="48">
+        <v>10.43</v>
+      </c>
       <c r="Z97" s="45"/>
-      <c r="AA97" s="14"/>
-      <c r="AB97" s="14"/>
-      <c r="AC97" s="14"/>
+      <c r="AA97" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD97" s="14"/>
       <c r="AE97" s="14"/>
       <c r="AF97" s="14"/>
@@ -5881,7 +7354,7 @@
       <c r="AI97" s="14"/>
       <c r="AJ97" s="14"/>
     </row>
-    <row r="98">
+    <row r="98" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -5897,17 +7370,33 @@
       <c r="O98" s="2"/>
       <c r="P98" s="1"/>
       <c r="R98" s="45"/>
-      <c r="S98" s="45"/>
-      <c r="T98" s="46"/>
-      <c r="U98" s="47"/>
+      <c r="S98" s="45">
+        <v>1571</v>
+      </c>
+      <c r="T98" s="46">
+        <v>45389</v>
+      </c>
+      <c r="U98" s="47" t="s">
+        <v>112</v>
+      </c>
       <c r="V98" s="47"/>
-      <c r="W98" s="47"/>
+      <c r="W98" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X98" s="47"/>
-      <c r="Y98" s="48"/>
+      <c r="Y98" s="48">
+        <v>11.75</v>
+      </c>
       <c r="Z98" s="45"/>
-      <c r="AA98" s="14"/>
-      <c r="AB98" s="14"/>
-      <c r="AC98" s="14"/>
+      <c r="AA98" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD98" s="14"/>
       <c r="AE98" s="14"/>
       <c r="AF98" s="14"/>
@@ -5916,7 +7405,7 @@
       <c r="AI98" s="14"/>
       <c r="AJ98" s="14"/>
     </row>
-    <row r="99">
+    <row r="99" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -5932,17 +7421,33 @@
       <c r="O99" s="2"/>
       <c r="P99" s="1"/>
       <c r="R99" s="45"/>
-      <c r="S99" s="45"/>
-      <c r="T99" s="46"/>
-      <c r="U99" s="47"/>
+      <c r="S99" s="45">
+        <v>1572</v>
+      </c>
+      <c r="T99" s="46">
+        <v>45389</v>
+      </c>
+      <c r="U99" s="47" t="s">
+        <v>155</v>
+      </c>
       <c r="V99" s="47"/>
-      <c r="W99" s="47"/>
+      <c r="W99" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X99" s="47"/>
-      <c r="Y99" s="48"/>
+      <c r="Y99" s="48">
+        <v>15.44</v>
+      </c>
       <c r="Z99" s="45"/>
-      <c r="AA99" s="14"/>
-      <c r="AB99" s="14"/>
-      <c r="AC99" s="14"/>
+      <c r="AA99" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD99" s="14"/>
       <c r="AE99" s="14"/>
       <c r="AF99" s="14"/>
@@ -5951,7 +7456,7 @@
       <c r="AI99" s="14"/>
       <c r="AJ99" s="14"/>
     </row>
-    <row r="100">
+    <row r="100" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -5967,17 +7472,33 @@
       <c r="O100" s="2"/>
       <c r="P100" s="1"/>
       <c r="R100" s="45"/>
-      <c r="S100" s="45"/>
-      <c r="T100" s="46"/>
-      <c r="U100" s="47"/>
+      <c r="S100" s="45">
+        <v>1573</v>
+      </c>
+      <c r="T100" s="46">
+        <v>45388</v>
+      </c>
+      <c r="U100" s="47" t="s">
+        <v>74</v>
+      </c>
       <c r="V100" s="47"/>
-      <c r="W100" s="47"/>
+      <c r="W100" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X100" s="47"/>
-      <c r="Y100" s="48"/>
+      <c r="Y100" s="48">
+        <v>6.41</v>
+      </c>
       <c r="Z100" s="45"/>
-      <c r="AA100" s="14"/>
-      <c r="AB100" s="14"/>
-      <c r="AC100" s="14"/>
+      <c r="AA100" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD100" s="14"/>
       <c r="AE100" s="14"/>
       <c r="AF100" s="14"/>
@@ -5986,7 +7507,7 @@
       <c r="AI100" s="14"/>
       <c r="AJ100" s="14"/>
     </row>
-    <row r="101">
+    <row r="101" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -6002,17 +7523,33 @@
       <c r="O101" s="2"/>
       <c r="P101" s="1"/>
       <c r="R101" s="45"/>
-      <c r="S101" s="45"/>
-      <c r="T101" s="46"/>
-      <c r="U101" s="47"/>
+      <c r="S101" s="45">
+        <v>1574</v>
+      </c>
+      <c r="T101" s="46">
+        <v>45388</v>
+      </c>
+      <c r="U101" s="47" t="s">
+        <v>74</v>
+      </c>
       <c r="V101" s="47"/>
-      <c r="W101" s="47"/>
+      <c r="W101" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X101" s="47"/>
-      <c r="Y101" s="48"/>
+      <c r="Y101" s="48">
+        <v>79.42</v>
+      </c>
       <c r="Z101" s="45"/>
-      <c r="AA101" s="14"/>
-      <c r="AB101" s="14"/>
-      <c r="AC101" s="14"/>
+      <c r="AA101" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD101" s="14"/>
       <c r="AE101" s="14"/>
       <c r="AF101" s="14"/>
@@ -6021,7 +7558,7 @@
       <c r="AI101" s="14"/>
       <c r="AJ101" s="14"/>
     </row>
-    <row r="102">
+    <row r="102" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -6037,17 +7574,33 @@
       <c r="O102" s="2"/>
       <c r="P102" s="1"/>
       <c r="R102" s="45"/>
-      <c r="S102" s="45"/>
-      <c r="T102" s="46"/>
-      <c r="U102" s="47"/>
+      <c r="S102" s="45">
+        <v>1575</v>
+      </c>
+      <c r="T102" s="46">
+        <v>45388</v>
+      </c>
+      <c r="U102" s="47" t="s">
+        <v>74</v>
+      </c>
       <c r="V102" s="47"/>
-      <c r="W102" s="47"/>
+      <c r="W102" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X102" s="47"/>
-      <c r="Y102" s="48"/>
+      <c r="Y102" s="48">
+        <v>3.29</v>
+      </c>
       <c r="Z102" s="45"/>
-      <c r="AA102" s="14"/>
-      <c r="AB102" s="14"/>
-      <c r="AC102" s="14"/>
+      <c r="AA102" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD102" s="14"/>
       <c r="AE102" s="14"/>
       <c r="AF102" s="14"/>
@@ -6056,7 +7609,7 @@
       <c r="AI102" s="14"/>
       <c r="AJ102" s="14"/>
     </row>
-    <row r="103">
+    <row r="103" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -6072,17 +7625,33 @@
       <c r="O103" s="2"/>
       <c r="P103" s="1"/>
       <c r="R103" s="45"/>
-      <c r="S103" s="45"/>
-      <c r="T103" s="46"/>
-      <c r="U103" s="47"/>
+      <c r="S103" s="45">
+        <v>1576</v>
+      </c>
+      <c r="T103" s="46">
+        <v>45387</v>
+      </c>
+      <c r="U103" s="47" t="s">
+        <v>75</v>
+      </c>
       <c r="V103" s="47"/>
-      <c r="W103" s="47"/>
+      <c r="W103" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X103" s="47"/>
-      <c r="Y103" s="48"/>
+      <c r="Y103" s="48">
+        <v>51.25</v>
+      </c>
       <c r="Z103" s="45"/>
-      <c r="AA103" s="14"/>
-      <c r="AB103" s="14"/>
-      <c r="AC103" s="14"/>
+      <c r="AA103" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB103" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC103" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD103" s="14"/>
       <c r="AE103" s="14"/>
       <c r="AF103" s="14"/>
@@ -6091,7 +7660,7 @@
       <c r="AI103" s="14"/>
       <c r="AJ103" s="14"/>
     </row>
-    <row r="104">
+    <row r="104" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -6107,17 +7676,33 @@
       <c r="O104" s="2"/>
       <c r="P104" s="1"/>
       <c r="R104" s="45"/>
-      <c r="S104" s="45"/>
-      <c r="T104" s="46"/>
-      <c r="U104" s="47"/>
+      <c r="S104" s="45">
+        <v>1577</v>
+      </c>
+      <c r="T104" s="46">
+        <v>45387</v>
+      </c>
+      <c r="U104" s="47" t="s">
+        <v>28</v>
+      </c>
       <c r="V104" s="47"/>
-      <c r="W104" s="47"/>
+      <c r="W104" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X104" s="47"/>
-      <c r="Y104" s="48"/>
+      <c r="Y104" s="48">
+        <v>181.89</v>
+      </c>
       <c r="Z104" s="45"/>
-      <c r="AA104" s="14"/>
-      <c r="AB104" s="14"/>
-      <c r="AC104" s="14"/>
+      <c r="AA104" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB104" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC104" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD104" s="14"/>
       <c r="AE104" s="14"/>
       <c r="AF104" s="14"/>
@@ -6126,7 +7711,7 @@
       <c r="AI104" s="14"/>
       <c r="AJ104" s="14"/>
     </row>
-    <row r="105">
+    <row r="105" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -6142,17 +7727,33 @@
       <c r="O105" s="2"/>
       <c r="P105" s="1"/>
       <c r="R105" s="45"/>
-      <c r="S105" s="45"/>
-      <c r="T105" s="46"/>
-      <c r="U105" s="47"/>
+      <c r="S105" s="45">
+        <v>1578</v>
+      </c>
+      <c r="T105" s="46">
+        <v>45387</v>
+      </c>
+      <c r="U105" s="47" t="s">
+        <v>110</v>
+      </c>
       <c r="V105" s="47"/>
-      <c r="W105" s="47"/>
+      <c r="W105" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X105" s="47"/>
-      <c r="Y105" s="48"/>
+      <c r="Y105" s="48">
+        <v>-1.4</v>
+      </c>
       <c r="Z105" s="45"/>
-      <c r="AA105" s="14"/>
-      <c r="AB105" s="14"/>
-      <c r="AC105" s="14"/>
+      <c r="AA105" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB105" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC105" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD105" s="14"/>
       <c r="AE105" s="14"/>
       <c r="AF105" s="14"/>
@@ -6161,7 +7762,7 @@
       <c r="AI105" s="14"/>
       <c r="AJ105" s="14"/>
     </row>
-    <row r="106">
+    <row r="106" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -6177,17 +7778,33 @@
       <c r="O106" s="2"/>
       <c r="P106" s="1"/>
       <c r="R106" s="45"/>
-      <c r="S106" s="45"/>
-      <c r="T106" s="46"/>
-      <c r="U106" s="47"/>
+      <c r="S106" s="45">
+        <v>1579</v>
+      </c>
+      <c r="T106" s="46">
+        <v>45387</v>
+      </c>
+      <c r="U106" s="47" t="s">
+        <v>110</v>
+      </c>
       <c r="V106" s="47"/>
-      <c r="W106" s="47"/>
+      <c r="W106" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X106" s="47"/>
-      <c r="Y106" s="48"/>
+      <c r="Y106" s="48">
+        <v>-98.6</v>
+      </c>
       <c r="Z106" s="45"/>
-      <c r="AA106" s="14"/>
-      <c r="AB106" s="14"/>
-      <c r="AC106" s="14"/>
+      <c r="AA106" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB106" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC106" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD106" s="14"/>
       <c r="AE106" s="14"/>
       <c r="AF106" s="14"/>
@@ -6196,7 +7813,7 @@
       <c r="AI106" s="14"/>
       <c r="AJ106" s="14"/>
     </row>
-    <row r="107">
+    <row r="107" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -6212,17 +7829,33 @@
       <c r="O107" s="2"/>
       <c r="P107" s="1"/>
       <c r="R107" s="45"/>
-      <c r="S107" s="45"/>
-      <c r="T107" s="46"/>
-      <c r="U107" s="47"/>
+      <c r="S107" s="45">
+        <v>1580</v>
+      </c>
+      <c r="T107" s="46">
+        <v>45387</v>
+      </c>
+      <c r="U107" s="47" t="s">
+        <v>60</v>
+      </c>
       <c r="V107" s="47"/>
-      <c r="W107" s="47"/>
+      <c r="W107" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X107" s="47"/>
-      <c r="Y107" s="48"/>
+      <c r="Y107" s="48">
+        <v>4.32</v>
+      </c>
       <c r="Z107" s="45"/>
-      <c r="AA107" s="14"/>
-      <c r="AB107" s="14"/>
-      <c r="AC107" s="14"/>
+      <c r="AA107" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB107" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC107" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD107" s="14"/>
       <c r="AE107" s="14"/>
       <c r="AF107" s="14"/>
@@ -6231,7 +7864,7 @@
       <c r="AI107" s="14"/>
       <c r="AJ107" s="14"/>
     </row>
-    <row r="108">
+    <row r="108" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -6247,17 +7880,33 @@
       <c r="O108" s="2"/>
       <c r="P108" s="1"/>
       <c r="R108" s="45"/>
-      <c r="S108" s="45"/>
-      <c r="T108" s="46"/>
-      <c r="U108" s="47"/>
+      <c r="S108" s="45">
+        <v>1581</v>
+      </c>
+      <c r="T108" s="46">
+        <v>45387</v>
+      </c>
+      <c r="U108" s="47" t="s">
+        <v>79</v>
+      </c>
       <c r="V108" s="47"/>
-      <c r="W108" s="47"/>
+      <c r="W108" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X108" s="47"/>
-      <c r="Y108" s="48"/>
+      <c r="Y108" s="48">
+        <v>-1400.07</v>
+      </c>
       <c r="Z108" s="45"/>
-      <c r="AA108" s="14"/>
-      <c r="AB108" s="14"/>
-      <c r="AC108" s="14"/>
+      <c r="AA108" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB108" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC108" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD108" s="14"/>
       <c r="AE108" s="14"/>
       <c r="AF108" s="14"/>
@@ -6266,7 +7915,7 @@
       <c r="AI108" s="14"/>
       <c r="AJ108" s="14"/>
     </row>
-    <row r="109">
+    <row r="109" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -6282,17 +7931,33 @@
       <c r="O109" s="2"/>
       <c r="P109" s="1"/>
       <c r="R109" s="45"/>
-      <c r="S109" s="45"/>
-      <c r="T109" s="46"/>
-      <c r="U109" s="47"/>
+      <c r="S109" s="45">
+        <v>1582</v>
+      </c>
+      <c r="T109" s="46">
+        <v>45386</v>
+      </c>
+      <c r="U109" s="47" t="s">
+        <v>112</v>
+      </c>
       <c r="V109" s="47"/>
-      <c r="W109" s="47"/>
+      <c r="W109" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X109" s="47"/>
-      <c r="Y109" s="48"/>
+      <c r="Y109" s="48">
+        <v>26.15</v>
+      </c>
       <c r="Z109" s="45"/>
-      <c r="AA109" s="14"/>
-      <c r="AB109" s="14"/>
-      <c r="AC109" s="14"/>
+      <c r="AA109" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB109" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC109" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD109" s="14"/>
       <c r="AE109" s="14"/>
       <c r="AF109" s="14"/>
@@ -6301,7 +7966,7 @@
       <c r="AI109" s="14"/>
       <c r="AJ109" s="14"/>
     </row>
-    <row r="110">
+    <row r="110" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -6317,17 +7982,33 @@
       <c r="O110" s="2"/>
       <c r="P110" s="1"/>
       <c r="R110" s="45"/>
-      <c r="S110" s="45"/>
-      <c r="T110" s="46"/>
-      <c r="U110" s="47"/>
+      <c r="S110" s="45">
+        <v>1583</v>
+      </c>
+      <c r="T110" s="46">
+        <v>45386</v>
+      </c>
+      <c r="U110" s="47" t="s">
+        <v>74</v>
+      </c>
       <c r="V110" s="47"/>
-      <c r="W110" s="47"/>
+      <c r="W110" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X110" s="47"/>
-      <c r="Y110" s="48"/>
+      <c r="Y110" s="48">
+        <v>-3.17</v>
+      </c>
       <c r="Z110" s="45"/>
-      <c r="AA110" s="14"/>
-      <c r="AB110" s="14"/>
-      <c r="AC110" s="14"/>
+      <c r="AA110" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB110" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC110" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD110" s="14"/>
       <c r="AE110" s="14"/>
       <c r="AF110" s="14"/>
@@ -6336,7 +8017,7 @@
       <c r="AI110" s="14"/>
       <c r="AJ110" s="14"/>
     </row>
-    <row r="111">
+    <row r="111" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -6352,17 +8033,33 @@
       <c r="O111" s="2"/>
       <c r="P111" s="1"/>
       <c r="R111" s="45"/>
-      <c r="S111" s="45"/>
-      <c r="T111" s="46"/>
-      <c r="U111" s="47"/>
+      <c r="S111" s="45">
+        <v>1584</v>
+      </c>
+      <c r="T111" s="46">
+        <v>45386</v>
+      </c>
+      <c r="U111" s="47" t="s">
+        <v>28</v>
+      </c>
       <c r="V111" s="47"/>
-      <c r="W111" s="47"/>
+      <c r="W111" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X111" s="47"/>
-      <c r="Y111" s="48"/>
+      <c r="Y111" s="48">
+        <v>37.44</v>
+      </c>
       <c r="Z111" s="45"/>
-      <c r="AA111" s="14"/>
-      <c r="AB111" s="14"/>
-      <c r="AC111" s="14"/>
+      <c r="AA111" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB111" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC111" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD111" s="14"/>
       <c r="AE111" s="14"/>
       <c r="AF111" s="14"/>
@@ -6371,7 +8068,7 @@
       <c r="AI111" s="14"/>
       <c r="AJ111" s="14"/>
     </row>
-    <row r="112">
+    <row r="112" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -6387,17 +8084,33 @@
       <c r="O112" s="2"/>
       <c r="P112" s="1"/>
       <c r="R112" s="45"/>
-      <c r="S112" s="45"/>
-      <c r="T112" s="46"/>
-      <c r="U112" s="47"/>
+      <c r="S112" s="45">
+        <v>1585</v>
+      </c>
+      <c r="T112" s="46">
+        <v>45385</v>
+      </c>
+      <c r="U112" s="47" t="s">
+        <v>156</v>
+      </c>
       <c r="V112" s="47"/>
-      <c r="W112" s="47"/>
+      <c r="W112" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X112" s="47"/>
-      <c r="Y112" s="48"/>
+      <c r="Y112" s="48">
+        <v>19.2</v>
+      </c>
       <c r="Z112" s="45"/>
-      <c r="AA112" s="14"/>
-      <c r="AB112" s="14"/>
-      <c r="AC112" s="14"/>
+      <c r="AA112" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB112" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC112" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD112" s="14"/>
       <c r="AE112" s="14"/>
       <c r="AF112" s="14"/>
@@ -6406,7 +8119,7 @@
       <c r="AI112" s="14"/>
       <c r="AJ112" s="14"/>
     </row>
-    <row r="113">
+    <row r="113" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -6422,17 +8135,33 @@
       <c r="O113" s="2"/>
       <c r="P113" s="1"/>
       <c r="R113" s="45"/>
-      <c r="S113" s="45"/>
-      <c r="T113" s="46"/>
-      <c r="U113" s="47"/>
+      <c r="S113" s="45">
+        <v>1586</v>
+      </c>
+      <c r="T113" s="46">
+        <v>45385</v>
+      </c>
+      <c r="U113" s="47" t="s">
+        <v>28</v>
+      </c>
       <c r="V113" s="47"/>
-      <c r="W113" s="47"/>
+      <c r="W113" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X113" s="47"/>
-      <c r="Y113" s="48"/>
+      <c r="Y113" s="48">
+        <v>9.6199999999999992</v>
+      </c>
       <c r="Z113" s="45"/>
-      <c r="AA113" s="14"/>
-      <c r="AB113" s="14"/>
-      <c r="AC113" s="14"/>
+      <c r="AA113" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB113" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC113" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD113" s="14"/>
       <c r="AE113" s="14"/>
       <c r="AF113" s="14"/>
@@ -6441,7 +8170,7 @@
       <c r="AI113" s="14"/>
       <c r="AJ113" s="14"/>
     </row>
-    <row r="114">
+    <row r="114" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -6457,17 +8186,33 @@
       <c r="O114" s="2"/>
       <c r="P114" s="1"/>
       <c r="R114" s="45"/>
-      <c r="S114" s="45"/>
-      <c r="T114" s="46"/>
-      <c r="U114" s="47"/>
+      <c r="S114" s="45">
+        <v>1587</v>
+      </c>
+      <c r="T114" s="46">
+        <v>45385</v>
+      </c>
+      <c r="U114" s="47" t="s">
+        <v>28</v>
+      </c>
       <c r="V114" s="47"/>
-      <c r="W114" s="47"/>
+      <c r="W114" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X114" s="47"/>
-      <c r="Y114" s="48"/>
+      <c r="Y114" s="48">
+        <v>31.77</v>
+      </c>
       <c r="Z114" s="45"/>
-      <c r="AA114" s="14"/>
-      <c r="AB114" s="14"/>
-      <c r="AC114" s="14"/>
+      <c r="AA114" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB114" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC114" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD114" s="14"/>
       <c r="AE114" s="14"/>
       <c r="AF114" s="14"/>
@@ -6476,7 +8221,7 @@
       <c r="AI114" s="14"/>
       <c r="AJ114" s="14"/>
     </row>
-    <row r="115">
+    <row r="115" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -6492,17 +8237,33 @@
       <c r="O115" s="2"/>
       <c r="P115" s="1"/>
       <c r="R115" s="45"/>
-      <c r="S115" s="45"/>
-      <c r="T115" s="46"/>
-      <c r="U115" s="47"/>
+      <c r="S115" s="45">
+        <v>1588</v>
+      </c>
+      <c r="T115" s="46">
+        <v>45385</v>
+      </c>
+      <c r="U115" s="47" t="s">
+        <v>74</v>
+      </c>
       <c r="V115" s="47"/>
-      <c r="W115" s="47"/>
+      <c r="W115" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X115" s="47"/>
-      <c r="Y115" s="48"/>
+      <c r="Y115" s="48">
+        <v>173.5</v>
+      </c>
       <c r="Z115" s="45"/>
-      <c r="AA115" s="14"/>
-      <c r="AB115" s="14"/>
-      <c r="AC115" s="14"/>
+      <c r="AA115" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB115" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC115" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD115" s="14"/>
       <c r="AE115" s="14"/>
       <c r="AF115" s="14"/>
@@ -6511,7 +8272,7 @@
       <c r="AI115" s="14"/>
       <c r="AJ115" s="14"/>
     </row>
-    <row r="116">
+    <row r="116" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -6527,17 +8288,33 @@
       <c r="O116" s="2"/>
       <c r="P116" s="1"/>
       <c r="R116" s="45"/>
-      <c r="S116" s="45"/>
-      <c r="T116" s="46"/>
-      <c r="U116" s="47"/>
+      <c r="S116" s="45">
+        <v>1589</v>
+      </c>
+      <c r="T116" s="46">
+        <v>45385</v>
+      </c>
+      <c r="U116" s="47" t="s">
+        <v>74</v>
+      </c>
       <c r="V116" s="47"/>
-      <c r="W116" s="47"/>
+      <c r="W116" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X116" s="47"/>
-      <c r="Y116" s="48"/>
+      <c r="Y116" s="48">
+        <v>-0.02</v>
+      </c>
       <c r="Z116" s="45"/>
-      <c r="AA116" s="14"/>
-      <c r="AB116" s="14"/>
-      <c r="AC116" s="14"/>
+      <c r="AA116" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB116" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC116" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD116" s="14"/>
       <c r="AE116" s="14"/>
       <c r="AF116" s="14"/>
@@ -6546,7 +8323,7 @@
       <c r="AI116" s="14"/>
       <c r="AJ116" s="14"/>
     </row>
-    <row r="117">
+    <row r="117" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -6562,17 +8339,33 @@
       <c r="O117" s="2"/>
       <c r="P117" s="1"/>
       <c r="R117" s="45"/>
-      <c r="S117" s="45"/>
-      <c r="T117" s="46"/>
-      <c r="U117" s="47"/>
+      <c r="S117" s="45">
+        <v>1590</v>
+      </c>
+      <c r="T117" s="46">
+        <v>45385</v>
+      </c>
+      <c r="U117" s="47" t="s">
+        <v>95</v>
+      </c>
       <c r="V117" s="47"/>
-      <c r="W117" s="47"/>
+      <c r="W117" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X117" s="47"/>
-      <c r="Y117" s="48"/>
+      <c r="Y117" s="48">
+        <v>24.71</v>
+      </c>
       <c r="Z117" s="45"/>
-      <c r="AA117" s="14"/>
-      <c r="AB117" s="14"/>
-      <c r="AC117" s="14"/>
+      <c r="AA117" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB117" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC117" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD117" s="14"/>
       <c r="AE117" s="14"/>
       <c r="AF117" s="14"/>
@@ -6581,7 +8374,7 @@
       <c r="AI117" s="14"/>
       <c r="AJ117" s="14"/>
     </row>
-    <row r="118">
+    <row r="118" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -6597,17 +8390,33 @@
       <c r="O118" s="2"/>
       <c r="P118" s="1"/>
       <c r="R118" s="45"/>
-      <c r="S118" s="45"/>
-      <c r="T118" s="46"/>
-      <c r="U118" s="47"/>
+      <c r="S118" s="45">
+        <v>1591</v>
+      </c>
+      <c r="T118" s="46">
+        <v>45384</v>
+      </c>
+      <c r="U118" s="47" t="s">
+        <v>110</v>
+      </c>
       <c r="V118" s="47"/>
-      <c r="W118" s="47"/>
+      <c r="W118" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X118" s="47"/>
-      <c r="Y118" s="48"/>
+      <c r="Y118" s="48">
+        <v>1.4</v>
+      </c>
       <c r="Z118" s="45"/>
-      <c r="AA118" s="14"/>
-      <c r="AB118" s="14"/>
-      <c r="AC118" s="14"/>
+      <c r="AA118" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB118" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC118" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD118" s="14"/>
       <c r="AE118" s="14"/>
       <c r="AF118" s="14"/>
@@ -6616,7 +8425,7 @@
       <c r="AI118" s="14"/>
       <c r="AJ118" s="14"/>
     </row>
-    <row r="119">
+    <row r="119" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -6632,17 +8441,33 @@
       <c r="O119" s="2"/>
       <c r="P119" s="1"/>
       <c r="R119" s="45"/>
-      <c r="S119" s="45"/>
-      <c r="T119" s="46"/>
-      <c r="U119" s="47"/>
+      <c r="S119" s="45">
+        <v>1592</v>
+      </c>
+      <c r="T119" s="46">
+        <v>45384</v>
+      </c>
+      <c r="U119" s="47" t="s">
+        <v>89</v>
+      </c>
       <c r="V119" s="47"/>
-      <c r="W119" s="47"/>
+      <c r="W119" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X119" s="47"/>
-      <c r="Y119" s="48"/>
+      <c r="Y119" s="48">
+        <v>381.86</v>
+      </c>
       <c r="Z119" s="45"/>
-      <c r="AA119" s="14"/>
-      <c r="AB119" s="14"/>
-      <c r="AC119" s="14"/>
+      <c r="AA119" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB119" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC119" s="14" t="b">
+        <v>0</v>
+      </c>
       <c r="AD119" s="14"/>
       <c r="AE119" s="14"/>
       <c r="AF119" s="14"/>
@@ -6651,7 +8476,7 @@
       <c r="AI119" s="14"/>
       <c r="AJ119" s="14"/>
     </row>
-    <row r="120">
+    <row r="120" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -6686,7 +8511,7 @@
       <c r="AI120" s="14"/>
       <c r="AJ120" s="14"/>
     </row>
-    <row r="121">
+    <row r="121" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -6721,7 +8546,7 @@
       <c r="AI121" s="14"/>
       <c r="AJ121" s="14"/>
     </row>
-    <row r="122">
+    <row r="122" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -6756,7 +8581,7 @@
       <c r="AI122" s="14"/>
       <c r="AJ122" s="14"/>
     </row>
-    <row r="123">
+    <row r="123" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -6791,7 +8616,7 @@
       <c r="AI123" s="14"/>
       <c r="AJ123" s="14"/>
     </row>
-    <row r="124">
+    <row r="124" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -6826,7 +8651,7 @@
       <c r="AI124" s="14"/>
       <c r="AJ124" s="14"/>
     </row>
-    <row r="125">
+    <row r="125" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -6861,7 +8686,7 @@
       <c r="AI125" s="14"/>
       <c r="AJ125" s="14"/>
     </row>
-    <row r="126">
+    <row r="126" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -6896,7 +8721,7 @@
       <c r="AI126" s="14"/>
       <c r="AJ126" s="14"/>
     </row>
-    <row r="127">
+    <row r="127" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -6931,7 +8756,7 @@
       <c r="AI127" s="14"/>
       <c r="AJ127" s="14"/>
     </row>
-    <row r="128">
+    <row r="128" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -6966,7 +8791,7 @@
       <c r="AI128" s="14"/>
       <c r="AJ128" s="14"/>
     </row>
-    <row r="129">
+    <row r="129" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -7001,7 +8826,7 @@
       <c r="AI129" s="14"/>
       <c r="AJ129" s="14"/>
     </row>
-    <row r="130">
+    <row r="130" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -7036,7 +8861,7 @@
       <c r="AI130" s="14"/>
       <c r="AJ130" s="14"/>
     </row>
-    <row r="131">
+    <row r="131" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -7071,7 +8896,7 @@
       <c r="AI131" s="14"/>
       <c r="AJ131" s="14"/>
     </row>
-    <row r="132">
+    <row r="132" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -7106,7 +8931,7 @@
       <c r="AI132" s="14"/>
       <c r="AJ132" s="14"/>
     </row>
-    <row r="133">
+    <row r="133" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -7141,7 +8966,7 @@
       <c r="AI133" s="14"/>
       <c r="AJ133" s="14"/>
     </row>
-    <row r="134">
+    <row r="134" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -7176,7 +9001,7 @@
       <c r="AI134" s="14"/>
       <c r="AJ134" s="14"/>
     </row>
-    <row r="135">
+    <row r="135" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -7211,7 +9036,7 @@
       <c r="AI135" s="14"/>
       <c r="AJ135" s="14"/>
     </row>
-    <row r="136">
+    <row r="136" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -7246,7 +9071,7 @@
       <c r="AI136" s="14"/>
       <c r="AJ136" s="14"/>
     </row>
-    <row r="137">
+    <row r="137" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -7281,7 +9106,7 @@
       <c r="AI137" s="14"/>
       <c r="AJ137" s="14"/>
     </row>
-    <row r="138">
+    <row r="138" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -7316,7 +9141,7 @@
       <c r="AI138" s="14"/>
       <c r="AJ138" s="14"/>
     </row>
-    <row r="139">
+    <row r="139" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -7351,7 +9176,7 @@
       <c r="AI139" s="14"/>
       <c r="AJ139" s="14"/>
     </row>
-    <row r="140">
+    <row r="140" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -7386,7 +9211,7 @@
       <c r="AI140" s="14"/>
       <c r="AJ140" s="14"/>
     </row>
-    <row r="141">
+    <row r="141" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -7421,7 +9246,7 @@
       <c r="AI141" s="14"/>
       <c r="AJ141" s="14"/>
     </row>
-    <row r="142">
+    <row r="142" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -7456,7 +9281,7 @@
       <c r="AI142" s="14"/>
       <c r="AJ142" s="14"/>
     </row>
-    <row r="143">
+    <row r="143" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -7491,7 +9316,7 @@
       <c r="AI143" s="14"/>
       <c r="AJ143" s="14"/>
     </row>
-    <row r="144">
+    <row r="144" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -7526,7 +9351,7 @@
       <c r="AI144" s="14"/>
       <c r="AJ144" s="14"/>
     </row>
-    <row r="145">
+    <row r="145" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -7561,7 +9386,7 @@
       <c r="AI145" s="14"/>
       <c r="AJ145" s="14"/>
     </row>
-    <row r="146">
+    <row r="146" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -7596,7 +9421,7 @@
       <c r="AI146" s="14"/>
       <c r="AJ146" s="14"/>
     </row>
-    <row r="147">
+    <row r="147" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -7631,7 +9456,7 @@
       <c r="AI147" s="14"/>
       <c r="AJ147" s="14"/>
     </row>
-    <row r="148">
+    <row r="148" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -7666,7 +9491,7 @@
       <c r="AI148" s="14"/>
       <c r="AJ148" s="14"/>
     </row>
-    <row r="149">
+    <row r="149" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -7701,7 +9526,7 @@
       <c r="AI149" s="14"/>
       <c r="AJ149" s="14"/>
     </row>
-    <row r="150">
+    <row r="150" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -7736,7 +9561,7 @@
       <c r="AI150" s="14"/>
       <c r="AJ150" s="14"/>
     </row>
-    <row r="151">
+    <row r="151" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -7771,7 +9596,7 @@
       <c r="AI151" s="14"/>
       <c r="AJ151" s="14"/>
     </row>
-    <row r="152">
+    <row r="152" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -7806,7 +9631,7 @@
       <c r="AI152" s="14"/>
       <c r="AJ152" s="14"/>
     </row>
-    <row r="153">
+    <row r="153" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -7841,7 +9666,7 @@
       <c r="AI153" s="14"/>
       <c r="AJ153" s="14"/>
     </row>
-    <row r="154">
+    <row r="154" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -7876,7 +9701,7 @@
       <c r="AI154" s="14"/>
       <c r="AJ154" s="14"/>
     </row>
-    <row r="155">
+    <row r="155" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -7911,7 +9736,7 @@
       <c r="AI155" s="14"/>
       <c r="AJ155" s="14"/>
     </row>
-    <row r="156">
+    <row r="156" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -7946,7 +9771,7 @@
       <c r="AI156" s="14"/>
       <c r="AJ156" s="14"/>
     </row>
-    <row r="157">
+    <row r="157" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -7981,7 +9806,7 @@
       <c r="AI157" s="14"/>
       <c r="AJ157" s="14"/>
     </row>
-    <row r="158">
+    <row r="158" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -8016,7 +9841,7 @@
       <c r="AI158" s="14"/>
       <c r="AJ158" s="14"/>
     </row>
-    <row r="159">
+    <row r="159" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -8051,7 +9876,7 @@
       <c r="AI159" s="14"/>
       <c r="AJ159" s="14"/>
     </row>
-    <row r="160">
+    <row r="160" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -8086,7 +9911,7 @@
       <c r="AI160" s="14"/>
       <c r="AJ160" s="14"/>
     </row>
-    <row r="161">
+    <row r="161" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -8121,7 +9946,7 @@
       <c r="AI161" s="14"/>
       <c r="AJ161" s="14"/>
     </row>
-    <row r="162">
+    <row r="162" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -8156,7 +9981,7 @@
       <c r="AI162" s="14"/>
       <c r="AJ162" s="14"/>
     </row>
-    <row r="163">
+    <row r="163" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -8191,7 +10016,7 @@
       <c r="AI163" s="14"/>
       <c r="AJ163" s="14"/>
     </row>
-    <row r="164">
+    <row r="164" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -8226,7 +10051,7 @@
       <c r="AI164" s="14"/>
       <c r="AJ164" s="14"/>
     </row>
-    <row r="165">
+    <row r="165" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -8261,7 +10086,7 @@
       <c r="AI165" s="14"/>
       <c r="AJ165" s="14"/>
     </row>
-    <row r="166">
+    <row r="166" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -8296,7 +10121,7 @@
       <c r="AI166" s="14"/>
       <c r="AJ166" s="14"/>
     </row>
-    <row r="167">
+    <row r="167" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -8331,7 +10156,7 @@
       <c r="AI167" s="14"/>
       <c r="AJ167" s="14"/>
     </row>
-    <row r="168">
+    <row r="168" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -8366,7 +10191,7 @@
       <c r="AI168" s="14"/>
       <c r="AJ168" s="14"/>
     </row>
-    <row r="169">
+    <row r="169" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -8401,7 +10226,7 @@
       <c r="AI169" s="14"/>
       <c r="AJ169" s="14"/>
     </row>
-    <row r="170">
+    <row r="170" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -8436,7 +10261,7 @@
       <c r="AI170" s="14"/>
       <c r="AJ170" s="14"/>
     </row>
-    <row r="171">
+    <row r="171" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -8471,7 +10296,7 @@
       <c r="AI171" s="14"/>
       <c r="AJ171" s="14"/>
     </row>
-    <row r="172">
+    <row r="172" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -8506,7 +10331,7 @@
       <c r="AI172" s="14"/>
       <c r="AJ172" s="14"/>
     </row>
-    <row r="173">
+    <row r="173" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -8541,7 +10366,7 @@
       <c r="AI173" s="14"/>
       <c r="AJ173" s="14"/>
     </row>
-    <row r="174">
+    <row r="174" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -8576,7 +10401,7 @@
       <c r="AI174" s="14"/>
       <c r="AJ174" s="14"/>
     </row>
-    <row r="175">
+    <row r="175" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -8611,7 +10436,7 @@
       <c r="AI175" s="14"/>
       <c r="AJ175" s="14"/>
     </row>
-    <row r="176">
+    <row r="176" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -8646,7 +10471,7 @@
       <c r="AI176" s="14"/>
       <c r="AJ176" s="14"/>
     </row>
-    <row r="177">
+    <row r="177" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -8681,7 +10506,7 @@
       <c r="AI177" s="14"/>
       <c r="AJ177" s="14"/>
     </row>
-    <row r="178">
+    <row r="178" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -8716,7 +10541,7 @@
       <c r="AI178" s="14"/>
       <c r="AJ178" s="14"/>
     </row>
-    <row r="179">
+    <row r="179" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -8751,7 +10576,7 @@
       <c r="AI179" s="14"/>
       <c r="AJ179" s="14"/>
     </row>
-    <row r="180">
+    <row r="180" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -8786,7 +10611,7 @@
       <c r="AI180" s="14"/>
       <c r="AJ180" s="14"/>
     </row>
-    <row r="181">
+    <row r="181" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -8821,7 +10646,7 @@
       <c r="AI181" s="14"/>
       <c r="AJ181" s="14"/>
     </row>
-    <row r="182">
+    <row r="182" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -8856,7 +10681,7 @@
       <c r="AI182" s="14"/>
       <c r="AJ182" s="14"/>
     </row>
-    <row r="183">
+    <row r="183" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -8891,7 +10716,7 @@
       <c r="AI183" s="14"/>
       <c r="AJ183" s="14"/>
     </row>
-    <row r="184">
+    <row r="184" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -8926,7 +10751,7 @@
       <c r="AI184" s="14"/>
       <c r="AJ184" s="14"/>
     </row>
-    <row r="185">
+    <row r="185" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -8961,7 +10786,7 @@
       <c r="AI185" s="14"/>
       <c r="AJ185" s="14"/>
     </row>
-    <row r="186">
+    <row r="186" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -8996,7 +10821,7 @@
       <c r="AI186" s="14"/>
       <c r="AJ186" s="14"/>
     </row>
-    <row r="187">
+    <row r="187" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -9031,7 +10856,7 @@
       <c r="AI187" s="14"/>
       <c r="AJ187" s="14"/>
     </row>
-    <row r="188">
+    <row r="188" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -9066,7 +10891,7 @@
       <c r="AI188" s="14"/>
       <c r="AJ188" s="14"/>
     </row>
-    <row r="189">
+    <row r="189" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -9101,7 +10926,7 @@
       <c r="AI189" s="14"/>
       <c r="AJ189" s="14"/>
     </row>
-    <row r="190">
+    <row r="190" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -9136,7 +10961,7 @@
       <c r="AI190" s="14"/>
       <c r="AJ190" s="14"/>
     </row>
-    <row r="191">
+    <row r="191" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -9171,7 +10996,7 @@
       <c r="AI191" s="14"/>
       <c r="AJ191" s="14"/>
     </row>
-    <row r="192">
+    <row r="192" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -9206,7 +11031,7 @@
       <c r="AI192" s="14"/>
       <c r="AJ192" s="14"/>
     </row>
-    <row r="193">
+    <row r="193" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -9241,7 +11066,7 @@
       <c r="AI193" s="14"/>
       <c r="AJ193" s="14"/>
     </row>
-    <row r="194">
+    <row r="194" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -9276,7 +11101,7 @@
       <c r="AI194" s="14"/>
       <c r="AJ194" s="14"/>
     </row>
-    <row r="195">
+    <row r="195" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -9311,7 +11136,7 @@
       <c r="AI195" s="14"/>
       <c r="AJ195" s="14"/>
     </row>
-    <row r="196">
+    <row r="196" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -9346,7 +11171,7 @@
       <c r="AI196" s="14"/>
       <c r="AJ196" s="14"/>
     </row>
-    <row r="197">
+    <row r="197" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -9381,7 +11206,7 @@
       <c r="AI197" s="14"/>
       <c r="AJ197" s="14"/>
     </row>
-    <row r="198">
+    <row r="198" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -9416,7 +11241,7 @@
       <c r="AI198" s="14"/>
       <c r="AJ198" s="14"/>
     </row>
-    <row r="199">
+    <row r="199" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -9451,7 +11276,7 @@
       <c r="AI199" s="14"/>
       <c r="AJ199" s="14"/>
     </row>
-    <row r="200">
+    <row r="200" spans="2:36" x14ac:dyDescent="0.25">
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -9487,12 +11312,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A331E5F6-21CB-43B3-ACD6-0CD72E3DB9B9}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
@@ -9501,7 +11326,6 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
@@ -9515,24 +11339,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="7" width="9.140625" customWidth="1" style="59"/>
+    <col min="3" max="7" width="9.140625" style="59" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C2" s="73"/>
       <c r="D2" s="73"/>
       <c r="E2" s="73"/>
       <c r="F2" s="73"/>
       <c r="G2" s="73"/>
     </row>
-    <row r="3">
+    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C3" s="73"/>
       <c r="D3" s="73"/>
       <c r="E3" s="73"/>
       <c r="F3" s="73"/>
       <c r="G3" s="73"/>
     </row>
-    <row r="4">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C4" s="73" t="s">
         <v>13</v>
       </c>
@@ -9549,111 +11373,111 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C5" s="73" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="D5" s="73" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E5" s="73">
         <v>50.4</v>
       </c>
       <c r="F5" s="73" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="G5" s="73" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C6" s="73" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="D6" s="73" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="E6" s="73">
         <v>87.53</v>
       </c>
       <c r="F6" s="73" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G6" s="73" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C7" s="73"/>
       <c r="D7" s="73"/>
       <c r="E7" s="73"/>
       <c r="F7" s="73"/>
       <c r="G7" s="73"/>
     </row>
-    <row r="8">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C8" s="73"/>
       <c r="D8" s="73"/>
       <c r="E8" s="73"/>
       <c r="F8" s="73"/>
       <c r="G8" s="73"/>
     </row>
-    <row r="9">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C9" s="73"/>
       <c r="D9" s="73"/>
       <c r="E9" s="73"/>
       <c r="F9" s="73"/>
       <c r="G9" s="73"/>
     </row>
-    <row r="10">
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C10" s="73"/>
       <c r="D10" s="73"/>
       <c r="E10" s="73"/>
       <c r="F10" s="73"/>
       <c r="G10" s="73"/>
     </row>
-    <row r="11">
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C11" s="73"/>
       <c r="D11" s="73"/>
       <c r="E11" s="73"/>
       <c r="F11" s="73"/>
       <c r="G11" s="73"/>
     </row>
-    <row r="12">
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C12" s="73"/>
       <c r="D12" s="73"/>
       <c r="E12" s="73"/>
       <c r="F12" s="73"/>
       <c r="G12" s="73"/>
     </row>
-    <row r="13">
+    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C13" s="73"/>
       <c r="D13" s="73"/>
       <c r="E13" s="73"/>
       <c r="F13" s="73"/>
       <c r="G13" s="73"/>
     </row>
-    <row r="14">
+    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C14" s="73"/>
       <c r="D14" s="73"/>
       <c r="E14" s="73"/>
       <c r="F14" s="73"/>
       <c r="G14" s="73"/>
     </row>
-    <row r="15">
+    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C15" s="73"/>
       <c r="D15" s="73"/>
       <c r="E15" s="73"/>
       <c r="F15" s="73"/>
       <c r="G15" s="73"/>
     </row>
-    <row r="16">
+    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C16" s="73"/>
       <c r="D16" s="73"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="73"/>
     </row>
-    <row r="17">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C17" s="73"/>
       <c r="D17" s="73"/>
       <c r="E17" s="73"/>
@@ -9662,6 +11486,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/TestBudget.xlsx
+++ b/TestBudget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PersonalMyCode\BudgetUpdator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF3E03E-D334-41F7-B540-4CC52870C3B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E059BD1F-0ECC-4656-B348-A5C084B88084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28665" yWindow="15" windowWidth="28770" windowHeight="15465" activeTab="1" xr2:uid="{AF956A61-A15A-4A6E-9A9E-CFD1D374AF1F}"/>
+    <workbookView xWindow="330" yWindow="0" windowWidth="28770" windowHeight="15465" activeTab="1" xr2:uid="{AF956A61-A15A-4A6E-9A9E-CFD1D374AF1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Income" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="ScratchSheet" sheetId="3" r:id="rId3"/>
     <sheet name="ScratchSheet2" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>May</t>
   </si>
@@ -123,418 +123,304 @@
     <t>Last Month:</t>
   </si>
   <si>
-    <t>Lowes</t>
+    <t>Walmart</t>
+  </si>
+  <si>
+    <t>Rewards</t>
+  </si>
+  <si>
+    <t>Checking</t>
+  </si>
+  <si>
+    <t>LM After T&amp;T</t>
+  </si>
+  <si>
+    <t>LM Income After T, T, D</t>
+  </si>
+  <si>
+    <t>Regular Expenses</t>
+  </si>
+  <si>
+    <t>Macey's</t>
+  </si>
+  <si>
+    <t>Citi</t>
+  </si>
+  <si>
+    <t>Groceries</t>
+  </si>
+  <si>
+    <t>Venmo</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Previous</t>
+  </si>
+  <si>
+    <t>After T&amp;T</t>
+  </si>
+  <si>
+    <t>Actual Expenses</t>
+  </si>
+  <si>
+    <t>Eating Out/Fun</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>The Cherrington Fi Ut Visa</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Dec23</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>Lexi</t>
+  </si>
+  <si>
+    <t>Dollar Tree</t>
+  </si>
+  <si>
+    <t>Plat</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>G20</t>
+  </si>
+  <si>
+    <t>If we stick to our</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>G30</t>
+  </si>
+  <si>
+    <t>budget we'll save:</t>
+  </si>
+  <si>
+    <t>Mason and Emery</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>G40</t>
+  </si>
+  <si>
+    <t>Amount Saved</t>
+  </si>
+  <si>
+    <t>Home Improvement</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>G50</t>
+  </si>
+  <si>
+    <t>Gasoline</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>G60</t>
+  </si>
+  <si>
+    <t>Misc</t>
+  </si>
+  <si>
+    <t>Ernie's Too Cedar City Ut Visa</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>G70</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>G80</t>
+  </si>
+  <si>
+    <t>Credit Card Payment</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>G90</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>G100</t>
+  </si>
+  <si>
+    <t>Wendy's</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>G110</t>
+  </si>
+  <si>
+    <t>Consistent Expenses</t>
+  </si>
+  <si>
+    <t>Costco</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>G120</t>
+  </si>
+  <si>
+    <t>Mortgage</t>
+  </si>
+  <si>
+    <t>Fast Gas Convenience Store</t>
+  </si>
+  <si>
+    <t>Dominion</t>
+  </si>
+  <si>
+    <t>Mo' Bettahs</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Tepanyaki of Lehi Ut Visa</t>
+  </si>
+  <si>
+    <t>Utilities</t>
+  </si>
+  <si>
+    <t>Beehive Smart Ut Visa</t>
+  </si>
+  <si>
+    <t>Car Insurance</t>
+  </si>
+  <si>
+    <t>The Home Depot</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Jiffy Lube</t>
+  </si>
+  <si>
+    <t>Phones</t>
+  </si>
+  <si>
+    <t>Etsy</t>
+  </si>
+  <si>
+    <t>YouTube Premium</t>
+  </si>
+  <si>
+    <t>Fast Offerings</t>
+  </si>
+  <si>
+    <t>Microsoft G Wa Visa</t>
+  </si>
+  <si>
+    <t>Tv</t>
+  </si>
+  <si>
+    <t>Lowe's</t>
+  </si>
+  <si>
+    <t>Other Expenses</t>
+  </si>
+  <si>
+    <t>JOANN</t>
+  </si>
+  <si>
+    <t>Matress</t>
+  </si>
+  <si>
+    <t>Mothers day</t>
+  </si>
+  <si>
+    <t>Cavanaughs Bou Bountiful Ut Visa</t>
+  </si>
+  <si>
+    <t>Tv Mount</t>
+  </si>
+  <si>
+    <t>Deseret Book</t>
+  </si>
+  <si>
+    <t>Emery's birthday</t>
+  </si>
+  <si>
+    <t>Squarespace</t>
+  </si>
+  <si>
+    <t>Anniversary</t>
+  </si>
+  <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>Garments</t>
+  </si>
+  <si>
+    <t>Walgreens</t>
+  </si>
+  <si>
+    <t>Tooele City Corpor Ut Visa</t>
+  </si>
+  <si>
+    <t>Mattress Firm</t>
+  </si>
+  <si>
+    <t>Google Cloud</t>
+  </si>
+  <si>
+    <t>Families First Ped South Jordan Ut Visa</t>
+  </si>
+  <si>
+    <t>LDS Distribution</t>
+  </si>
+  <si>
+    <t>Xfinity Mobile</t>
+  </si>
+  <si>
+    <t>123</t>
   </si>
   <si>
     <t>Tools</t>
-  </si>
-  <si>
-    <t>Rewards</t>
-  </si>
-  <si>
-    <t>Mason</t>
-  </si>
-  <si>
-    <t>Checking</t>
-  </si>
-  <si>
-    <t>LM After T&amp;T</t>
-  </si>
-  <si>
-    <t>LM Income After T, T, D</t>
-  </si>
-  <si>
-    <t>Regular Expenses</t>
-  </si>
-  <si>
-    <t>Amazon</t>
-  </si>
-  <si>
-    <t>NewCar</t>
-  </si>
-  <si>
-    <t>Lexi</t>
-  </si>
-  <si>
-    <t>Cavanaughs Bou Bountiful Ut Visa</t>
-  </si>
-  <si>
-    <t>James</t>
-  </si>
-  <si>
-    <t>Citi</t>
-  </si>
-  <si>
-    <t>Groceries</t>
-  </si>
-  <si>
-    <t>CC Debit Purchase : WALMART.COM 800-925-6278, AR (6649) VISA DPS</t>
-  </si>
-  <si>
-    <t>Deseret Book</t>
-  </si>
-  <si>
-    <t>Books, Liahona</t>
-  </si>
-  <si>
-    <t>Venmo</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
-  <si>
-    <t>Previous</t>
-  </si>
-  <si>
-    <t>After T&amp;T</t>
-  </si>
-  <si>
-    <t>Actual Expenses</t>
-  </si>
-  <si>
-    <t>Eating Out/Fun</t>
-  </si>
-  <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>CC Debit Purchase : WALMART.COM 800925 800-966-6546, AR (6649) VISA DPS</t>
-  </si>
-  <si>
-    <t>Squarespace</t>
-  </si>
-  <si>
-    <t>freecellultimate.com</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Dec23</t>
-  </si>
-  <si>
-    <t>G10</t>
-  </si>
-  <si>
-    <t>CC Debit Purchase : AMZN Mktp US*WO7R8 Amzn.com/bill, WA (6649) VISA DPS</t>
-  </si>
-  <si>
-    <t>Visa</t>
-  </si>
-  <si>
-    <t>Tim Corey C# course</t>
-  </si>
-  <si>
-    <t>Plat</t>
-  </si>
-  <si>
-    <t>Feb</t>
-  </si>
-  <si>
-    <t>G20</t>
-  </si>
-  <si>
-    <t>If we stick to our</t>
-  </si>
-  <si>
-    <t>CC Debit Purchase : AMZN Mktp US*W78UU Amzn.com/bill, WA (6649) VISA DPS</t>
-  </si>
-  <si>
-    <t>Wendy's</t>
-  </si>
-  <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>G30</t>
-  </si>
-  <si>
-    <t>budget we'll save:</t>
-  </si>
-  <si>
-    <t>Mason and Emery</t>
-  </si>
-  <si>
-    <t>Ernie's Too Cedar City Ut Visa</t>
-  </si>
-  <si>
-    <t>Walgreens</t>
-  </si>
-  <si>
-    <t>Lexi throat prescription</t>
-  </si>
-  <si>
-    <t>Misc</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Apr</t>
-  </si>
-  <si>
-    <t>G40</t>
-  </si>
-  <si>
-    <t>Amount Saved</t>
-  </si>
-  <si>
-    <t>Home Improvement</t>
-  </si>
-  <si>
-    <t>Walmart</t>
-  </si>
-  <si>
-    <t>Tooele City Corpor Ut Visa</t>
-  </si>
-  <si>
-    <t>Utilities</t>
-  </si>
-  <si>
-    <t>G50</t>
-  </si>
-  <si>
-    <t>Gasoline</t>
-  </si>
-  <si>
-    <t>Credit Card Payment</t>
-  </si>
-  <si>
-    <t>Toys, mason shorts, door knob grips</t>
-  </si>
-  <si>
-    <t>Jun</t>
-  </si>
-  <si>
-    <t>G60</t>
-  </si>
-  <si>
-    <t>Can opener</t>
-  </si>
-  <si>
-    <t>Jul</t>
-  </si>
-  <si>
-    <t>G70</t>
-  </si>
-  <si>
-    <t>gigabit network switch</t>
-  </si>
-  <si>
-    <t>Aug</t>
-  </si>
-  <si>
-    <t>G80</t>
-  </si>
-  <si>
-    <t>Costco</t>
-  </si>
-  <si>
-    <t>Mattress Firm</t>
-  </si>
-  <si>
-    <t>Matress</t>
-  </si>
-  <si>
-    <t>Sep</t>
-  </si>
-  <si>
-    <t>G90</t>
-  </si>
-  <si>
-    <t>Fast Gas Convenience Store</t>
-  </si>
-  <si>
-    <t>YouTube Premium</t>
-  </si>
-  <si>
-    <t>Oct</t>
-  </si>
-  <si>
-    <t>G100</t>
-  </si>
-  <si>
-    <t>Mo' Bettahs</t>
-  </si>
-  <si>
-    <t>Nov</t>
-  </si>
-  <si>
-    <t>G110</t>
-  </si>
-  <si>
-    <t>Consistent Expenses</t>
-  </si>
-  <si>
-    <t>Tepanyaki of Lehi Ut Visa</t>
-  </si>
-  <si>
-    <t>Eating out</t>
-  </si>
-  <si>
-    <t>Phone case, cake knives</t>
-  </si>
-  <si>
-    <t>Dec</t>
-  </si>
-  <si>
-    <t>G120</t>
-  </si>
-  <si>
-    <t>Mortgage</t>
-  </si>
-  <si>
-    <t>Beehive Smart Ut Visa</t>
-  </si>
-  <si>
-    <t>Internet</t>
-  </si>
-  <si>
-    <t>Google Cloud</t>
-  </si>
-  <si>
-    <t>Dominion</t>
-  </si>
-  <si>
-    <t>The Home Depot</t>
-  </si>
-  <si>
-    <t>Families First Ped South Jordan Ut Visa</t>
-  </si>
-  <si>
-    <t>Co pay mason checkup</t>
-  </si>
-  <si>
-    <t>Electricity</t>
-  </si>
-  <si>
-    <t>Jiffy Lube</t>
-  </si>
-  <si>
-    <t>TV Mount for bedroom</t>
-  </si>
-  <si>
-    <t>Tv Mount</t>
-  </si>
-  <si>
-    <t>Etsy</t>
-  </si>
-  <si>
-    <t>LDS Distribution</t>
-  </si>
-  <si>
-    <t>Lexi garments</t>
-  </si>
-  <si>
-    <t>Garments</t>
-  </si>
-  <si>
-    <t>Car Insurance</t>
-  </si>
-  <si>
-    <t>Xfinity Mobile</t>
-  </si>
-  <si>
-    <t>Phones</t>
-  </si>
-  <si>
-    <t>Microsoft G Wa Visa</t>
-  </si>
-  <si>
-    <t>Allstate</t>
-  </si>
-  <si>
-    <t>Fast Offerings</t>
-  </si>
-  <si>
-    <t>Rocky Mountain Power</t>
-  </si>
-  <si>
-    <t>Tv</t>
-  </si>
-  <si>
-    <t>Lowe's</t>
-  </si>
-  <si>
-    <t>JOANN</t>
-  </si>
-  <si>
-    <t>Other Expenses</t>
-  </si>
-  <si>
-    <t>Mothers day</t>
-  </si>
-  <si>
-    <t>Oil change Nissan</t>
-  </si>
-  <si>
-    <t>Emery's birthday</t>
-  </si>
-  <si>
-    <t>Anniversary</t>
-  </si>
-  <si>
-    <t>HDMI dummy plug</t>
-  </si>
-  <si>
-    <t>Azure</t>
-  </si>
-  <si>
-    <t>Lawn mower and trimmer</t>
-  </si>
-  <si>
-    <t>Macey's</t>
-  </si>
-  <si>
-    <t>The Cherrington Fi Ut Visa</t>
-  </si>
-  <si>
-    <t>Dollar Tree</t>
-  </si>
-  <si>
-    <t>Oquirrh Mountain E Tooele Ut Visa</t>
-  </si>
-  <si>
-    <t>Infinite Cables Markham on Visa</t>
-  </si>
-  <si>
-    <t>International Transaction Fee</t>
-  </si>
-  <si>
-    <t>Pilot Flying J</t>
-  </si>
-  <si>
-    <t>Nitro Mall San Francisco, Ca (</t>
-  </si>
-  <si>
-    <t>Love's Travel Stops</t>
-  </si>
-  <si>
-    <t>The Creamery Ut Visa</t>
-  </si>
-  <si>
-    <t>Applebee's</t>
-  </si>
-  <si>
-    <t>GoDaddy</t>
-  </si>
-  <si>
-    <t>Crumbl Cookies</t>
-  </si>
-  <si>
-    <t>Microsoft</t>
-  </si>
-  <si>
-    <t>Zaxby's</t>
-  </si>
-  <si>
-    <t>Olive Garden</t>
-  </si>
-  <si>
-    <t>123</t>
   </si>
   <si>
     <t>124</t>
@@ -550,7 +436,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -716,172 +602,172 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="1" applyFont="0" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" xfId="1"/>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="14" applyNumberFormat="1" fontId="0" fillId="2" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="0" xfId="0" applyProtection="1" applyAlignment="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" applyFont="1" fillId="2" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" applyFont="1" fillId="2" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="4" applyFill="1" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="0" fillId="5" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="5" applyFill="1" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" applyFill="1" borderId="0" xfId="0" applyProtection="1" applyAlignment="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="3" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" applyFont="1" fillId="3" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" applyFont="1" fillId="4" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" applyNumberFormat="1" fontId="5" applyFont="1" fillId="5" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" applyFont="1" fillId="3" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="4" applyFill="1" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" applyNumberFormat="1" fontId="2" applyFont="1" fillId="4" applyFill="1" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" applyNumberFormat="1" fontId="2" applyFont="1" fillId="5" applyFill="1" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" applyFill="1" borderId="0" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" applyFont="1" fillId="4" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" applyNumberFormat="1" fontId="7" applyFont="1" fillId="4" applyFill="1" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" applyNumberFormat="1" fontId="7" applyFont="1" fillId="5" applyFill="1" borderId="0" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" applyFont="1" fillId="5" applyFill="1" borderId="0" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="44" applyNumberFormat="1" fontId="7" applyFont="1" fillId="5" applyFill="1" borderId="0" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" applyFont="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" applyFill="1" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="8" applyFill="1" borderId="0" xfId="1"/>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="9" applyFill="1" borderId="0" xfId="1"/>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="8" applyFill="1" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="10" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="0" fillId="10" applyFill="1" borderId="0" xfId="0" applyProtection="1" applyAlignment="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="10" applyFill="1" borderId="0" xfId="0" applyProtection="1" applyAlignment="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="10" applyFill="1" borderId="0" xfId="1" applyProtection="1" applyAlignment="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" applyFont="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" applyFont="1" fillId="8" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="9" applyFill="1" borderId="0" xfId="1" applyProtection="1" applyAlignment="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="4" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" applyFill="1" borderId="0" xfId="0" applyProtection="1" applyAlignment="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="4" applyFill="1" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="5" applyFill="1" borderId="0" applyBorder="1" xfId="1" applyProtection="1" applyAlignment="1"/>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="0" fillId="7" applyFill="1" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" applyFill="1" borderId="0" xfId="0" applyProtection="1" applyAlignment="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="7" applyFill="1" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" applyFill="1" borderId="0" xfId="0" quotePrefix="1" applyProtection="1" applyAlignment="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="2" applyFill="1" borderId="0" xfId="0" quotePrefix="1" applyProtection="1" applyAlignment="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="44" applyNumberFormat="1" fontId="0" fillId="2" applyFill="1" borderId="0" xfId="0" applyProtection="1" applyAlignment="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" applyFont="1" fillId="8" applyFill="1" borderId="0" xfId="0" applyProtection="1" applyAlignment="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" applyFont="1" fillId="2" applyFill="1" borderId="0" xfId="0" applyProtection="1" applyAlignment="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" applyFont="1" fillId="8" applyFill="1" borderId="0" xfId="0" applyProtection="1" applyAlignment="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="44" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="0" fillId="11" applyFill="1" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -933,6 +819,54 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="0"/>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1252,13 +1186,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B13FCC-0FE2-4FD8-8445-10B3E12F8648}">
-  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -1266,40 +1200,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46617975-4435-450D-8E4F-CA1A567C5B3E}">
   <dimension ref="A1:AR200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L4" workbookViewId="0">
-      <selection activeCell="V20" sqref="V20"/>
+    <sheetView tabSelected="1" topLeftCell="L23" workbookViewId="0">
+      <selection activeCell="AC44" sqref="AC44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1" style="1"/>
     <col min="2" max="2" width="2.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="20.42578125" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="5" width="2.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1" style="1"/>
     <col min="7" max="7" width="2.5703125" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="70" hidden="1" customWidth="1"/>
-    <col min="10" max="13" width="11.42578125" style="70" customWidth="1"/>
-    <col min="14" max="14" width="6.5703125" style="71" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" style="70" hidden="1" customWidth="1"/>
+    <col min="8" max="8" bestFit="1" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" hidden="1" width="11.42578125" customWidth="1" style="70"/>
+    <col min="10" max="13" width="11.42578125" customWidth="1" style="70"/>
+    <col min="14" max="14" hidden="1" width="6.5703125" customWidth="1" style="71"/>
+    <col min="15" max="15" hidden="1" width="11.42578125" customWidth="1" style="70"/>
     <col min="16" max="16" width="2.5703125" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" customWidth="1" style="1"/>
     <col min="18" max="18" width="2.5703125" customWidth="1"/>
     <col min="19" max="19" width="7.28515625" customWidth="1"/>
-    <col min="20" max="20" width="10.28515625" style="72" customWidth="1"/>
+    <col min="20" max="20" width="10.28515625" customWidth="1" style="72"/>
     <col min="21" max="22" width="31.42578125" customWidth="1"/>
     <col min="23" max="23" width="11.85546875" customWidth="1"/>
     <col min="24" max="24" width="30.42578125" customWidth="1"/>
-    <col min="25" max="25" width="11.42578125" style="70" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" customWidth="1" style="70"/>
     <col min="26" max="26" width="2.5703125" customWidth="1"/>
-    <col min="27" max="36" width="9.140625" style="1" customWidth="1"/>
-    <col min="39" max="39" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="36" width="9.140625" customWidth="1" style="1"/>
+    <col min="39" max="39" bestFit="1" width="15.85546875" customWidth="1"/>
     <col min="40" max="40" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1">
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1310,7 +1244,7 @@
       <c r="T1" s="4"/>
       <c r="Y1" s="2"/>
     </row>
-    <row r="2" spans="1:44" s="1" customFormat="1" ht="46.5" x14ac:dyDescent="0.7">
+    <row r="2" ht="46.5" s="1" customFormat="1">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1326,7 +1260,7 @@
       <c r="T2" s="4"/>
       <c r="Y2" s="2"/>
     </row>
-    <row r="3" spans="1:44" s="1" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="3" ht="26.25" s="1" customFormat="1">
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="I3" s="2"/>
@@ -1339,7 +1273,7 @@
       <c r="T3" s="4"/>
       <c r="Y3" s="2"/>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -1365,16 +1299,10 @@
       <c r="Z4" s="11"/>
       <c r="AA4" s="14"/>
       <c r="AB4" s="14"/>
-      <c r="AC4" s="14"/>
-      <c r="AD4" s="14"/>
-      <c r="AE4" s="14"/>
-      <c r="AF4" s="14"/>
-      <c r="AG4" s="14"/>
-      <c r="AH4" s="14"/>
       <c r="AI4" s="14"/>
       <c r="AJ4" s="14"/>
     </row>
-    <row r="5" spans="1:44" ht="24" x14ac:dyDescent="0.35">
+    <row r="5" ht="24">
       <c r="B5" s="8"/>
       <c r="C5" s="15" t="s">
         <v>1</v>
@@ -1412,16 +1340,10 @@
       <c r="Z5" s="11"/>
       <c r="AA5" s="14"/>
       <c r="AB5" s="14"/>
-      <c r="AC5" s="14"/>
-      <c r="AD5" s="14"/>
-      <c r="AE5" s="14"/>
-      <c r="AF5" s="14"/>
-      <c r="AG5" s="14"/>
-      <c r="AH5" s="14"/>
       <c r="AI5" s="14"/>
       <c r="AJ5" s="14"/>
     </row>
-    <row r="6" spans="1:44" s="28" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="6" ht="24" s="28" customFormat="1">
       <c r="A6" s="19"/>
       <c r="B6" s="20"/>
       <c r="C6" s="15"/>
@@ -1438,7 +1360,7 @@
       <c r="K6" s="24"/>
       <c r="L6" s="25">
         <f>SUM(L9:L58)</f>
-        <v>15059.95</v>
+        <v>0</v>
       </c>
       <c r="M6" s="23"/>
       <c r="N6" s="23"/>
@@ -1454,21 +1376,21 @@
       <c r="X6" s="26"/>
       <c r="Y6" s="25">
         <f>SUM(Y8:Y199)</f>
-        <v>14939.950000000004</v>
+        <v>809.3600000000002</v>
       </c>
       <c r="Z6" s="26"/>
       <c r="AA6" s="27"/>
       <c r="AB6" s="27"/>
-      <c r="AC6" s="27"/>
-      <c r="AD6" s="27"/>
-      <c r="AE6" s="27"/>
-      <c r="AF6" s="27"/>
-      <c r="AG6" s="27"/>
-      <c r="AH6" s="27"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
       <c r="AI6" s="27"/>
       <c r="AJ6" s="27"/>
     </row>
-    <row r="7" spans="1:44" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" s="28" customFormat="1">
       <c r="A7" s="19"/>
       <c r="B7" s="20"/>
       <c r="C7" s="20"/>
@@ -1527,12 +1449,12 @@
       <c r="Z7" s="26"/>
       <c r="AA7" s="27"/>
       <c r="AB7" s="27"/>
-      <c r="AC7" s="27"/>
-      <c r="AD7" s="27"/>
-      <c r="AE7" s="27"/>
-      <c r="AF7" s="27"/>
-      <c r="AG7" s="27"/>
-      <c r="AH7" s="27"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
       <c r="AI7" s="27"/>
       <c r="AJ7" s="27"/>
       <c r="AK7" s="37" t="s">
@@ -1546,7 +1468,7 @@
         <v>Apr</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="B8" s="40"/>
       <c r="C8" s="40"/>
       <c r="D8" s="40"/>
@@ -1563,67 +1485,51 @@
       <c r="P8" s="41"/>
       <c r="R8" s="45"/>
       <c r="S8" s="45">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T8" s="46">
-        <v>45413</v>
+        <v>45438</v>
       </c>
       <c r="U8" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="V8" s="47" t="s">
+      <c r="V8" s="47"/>
+      <c r="W8" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="W8" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="X8" s="47" t="s">
-        <v>23</v>
-      </c>
+      <c r="X8" s="47"/>
       <c r="Y8" s="48">
-        <v>50</v>
+        <v>17.14</v>
       </c>
       <c r="Z8" s="45"/>
-      <c r="AA8" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="14"/>
-      <c r="AE8" s="14"/>
-      <c r="AF8" s="14"/>
-      <c r="AG8" s="14"/>
-      <c r="AH8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
       <c r="AI8" s="14"/>
       <c r="AJ8" s="14"/>
       <c r="AK8" s="49" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AM8" s="50" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AN8" s="51" t="str">
         <f>VLOOKUP(AN7,AN11:AO22,2,FALSE)</f>
         <v>G50</v>
       </c>
     </row>
-    <row r="9" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" ht="15.75">
       <c r="B9" s="40"/>
       <c r="C9" s="40" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" s="52" cm="1">
-        <f t="array" aca="1" ref="D9" ca="1">INDIRECT("Income!"&amp;AN8)</f>
+        <f ref="D9:D9" t="array" aca="1" ca="1">INDIRECT("Income!"&amp;AN8)</f>
         <v>0</v>
       </c>
       <c r="E9" s="40"/>
       <c r="G9" s="41"/>
       <c r="H9" s="53" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I9" s="42"/>
       <c r="J9" s="54"/>
@@ -1635,56 +1541,30 @@
       <c r="P9" s="41"/>
       <c r="R9" s="45"/>
       <c r="S9" s="45">
-        <v>1483</v>
+        <v>2</v>
       </c>
       <c r="T9" s="72">
-        <v>45414</v>
-      </c>
-      <c r="U9" t="s">
-        <v>28</v>
-      </c>
-      <c r="V9" t="s">
-        <v>29</v>
-      </c>
-      <c r="W9" t="s">
-        <v>22</v>
-      </c>
-      <c r="X9" t="s">
-        <v>30</v>
+        <v>45438</v>
+      </c>
+      <c r="U9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="W9" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="Y9" s="70">
-        <v>15000</v>
+        <v>10.69</v>
       </c>
       <c r="Z9" s="45"/>
-      <c r="AA9" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE9" s="47"/>
-      <c r="AF9" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG9" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH9" s="48">
-        <v>18.53</v>
-      </c>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
       <c r="AI9" s="14"/>
       <c r="AJ9" s="14"/>
       <c r="AK9" s="49" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="B10" s="40"/>
       <c r="C10" s="40" t="s">
         <v>2</v>
@@ -1696,25 +1576,25 @@
       <c r="E10" s="40"/>
       <c r="G10" s="41"/>
       <c r="H10" s="56" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I10" s="10" t="e" cm="1">
-        <f t="array" aca="1" ref="I10" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O10")</f>
+        <f ref="I10:I10" t="array" aca="1" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O10")</f>
         <v>#REF!</v>
       </c>
       <c r="J10" s="54">
         <v>1000</v>
       </c>
       <c r="K10" s="42" t="e">
-        <f t="shared" ref="K10:K21" ca="1" si="0">SUM(I10:J10)</f>
+        <f ref="K10:K21" t="shared" si="0" ca="1">SUM(I10:J10)</f>
         <v>#REF!</v>
       </c>
       <c r="L10" s="42">
-        <f t="shared" ref="L10:L58" si="1">SUMIF(X:X, H10, Y:Y)</f>
+        <f ref="L10:L58" t="shared" si="1">SUMIF(X:X, H10, Y:Y)</f>
         <v>0</v>
       </c>
       <c r="M10" s="42" t="e">
-        <f t="shared" ref="M10:M12" ca="1" si="2">K10-L10</f>
+        <f ref="M10:M12" t="shared" si="2" ca="1">K10-L10</f>
         <v>#REF!</v>
       </c>
       <c r="N10" s="57"/>
@@ -1722,83 +1602,61 @@
       <c r="P10" s="41"/>
       <c r="R10" s="45"/>
       <c r="S10" s="45">
-        <v>1484</v>
+        <v>3</v>
       </c>
       <c r="T10" s="72">
-        <v>45436</v>
-      </c>
-      <c r="U10" t="s">
-        <v>35</v>
-      </c>
-      <c r="W10" t="s">
-        <v>22</v>
+        <v>45438</v>
+      </c>
+      <c r="U10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="W10" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="Y10" s="70">
-        <v>150.69999999999999</v>
+        <v>50.73</v>
       </c>
       <c r="Z10" s="45"/>
-      <c r="AA10" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="AE10" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="AF10" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG10" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH10" s="48">
-        <v>27.45</v>
-      </c>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
       <c r="AI10" s="14"/>
       <c r="AJ10" s="14"/>
       <c r="AK10" s="49" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AM10" s="50" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="AN10" s="50" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="AO10" s="50" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="B11" s="40"/>
       <c r="C11" s="40" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D11" s="58">
         <f>Y6</f>
-        <v>14939.950000000004</v>
+        <v>809.3600000000002</v>
       </c>
       <c r="E11" s="40"/>
       <c r="G11" s="41"/>
       <c r="H11" s="56" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="I11" s="10" t="e" cm="1">
-        <f t="array" aca="1" ref="I11" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O11")</f>
+        <f ref="I11:I11" t="array" aca="1" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O11")</f>
         <v>#REF!</v>
       </c>
       <c r="J11" s="54">
         <v>100</v>
       </c>
       <c r="K11" s="42" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0" ca="1"/>
         <v>#REF!</v>
       </c>
       <c r="L11" s="42">
@@ -1806,188 +1664,144 @@
         <v>0</v>
       </c>
       <c r="M11" s="42" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2" ca="1"/>
         <v>#REF!</v>
       </c>
       <c r="N11" s="57" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="O11" s="10" t="e">
-        <f ca="1">IF(N11="y",M11,)</f>
+        <f>IF(N11="y",M11,)</f>
         <v>#REF!</v>
       </c>
       <c r="P11" s="41"/>
       <c r="R11" s="45"/>
       <c r="S11" s="45">
-        <v>1485</v>
+        <v>4</v>
       </c>
       <c r="T11" s="72">
-        <v>45434</v>
-      </c>
-      <c r="U11" t="s">
-        <v>45</v>
-      </c>
-      <c r="W11" t="s">
-        <v>22</v>
+        <v>45438</v>
+      </c>
+      <c r="U11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="W11" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="Y11" s="70">
-        <v>140.80000000000001</v>
+        <v>264.03</v>
       </c>
       <c r="Z11" s="45"/>
-      <c r="AA11" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE11" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="AF11" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG11" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH11" s="48">
-        <v>12.84</v>
-      </c>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
       <c r="AI11" s="14"/>
       <c r="AJ11" s="14"/>
       <c r="AK11" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>49</v>
+        <v>37</v>
+      </c>
+      <c r="AM11" s="0" t="s">
+        <v>38</v>
       </c>
       <c r="AN11" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="AO11" t="s">
-        <v>51</v>
+        <v>39</v>
+      </c>
+      <c r="AO11" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="AR11" s="28"/>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="B12" s="40"/>
       <c r="C12" s="40"/>
       <c r="D12" s="60"/>
       <c r="E12" s="40"/>
       <c r="G12" s="41"/>
       <c r="H12" s="56" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="I12" s="10" t="e" cm="1">
-        <f t="array" aca="1" ref="I12" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O12")</f>
+        <f ref="I12:I12" t="array" aca="1" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O12")</f>
         <v>#REF!</v>
       </c>
       <c r="J12" s="54">
         <v>100</v>
       </c>
       <c r="K12" s="42" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0" ca="1"/>
         <v>#REF!</v>
       </c>
       <c r="L12" s="42">
         <f t="shared" si="1"/>
-        <v>15000</v>
+        <v>0</v>
       </c>
       <c r="M12" s="42" t="e">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" si="2" ca="1"/>
         <v>#REF!</v>
       </c>
       <c r="N12" s="57" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="O12" s="10" t="e">
-        <f t="shared" ref="O12:O21" ca="1" si="3">IF(N12="y",M12,)</f>
+        <f ref="O12:O21" t="shared" si="3" ca="1">IF(N12="y",M12,)</f>
         <v>#REF!</v>
       </c>
       <c r="P12" s="41"/>
       <c r="R12" s="45"/>
       <c r="S12" s="45">
-        <v>1486</v>
+        <v>5</v>
       </c>
       <c r="T12" s="72">
-        <v>45434</v>
-      </c>
-      <c r="U12" t="s">
-        <v>52</v>
-      </c>
-      <c r="W12" t="s">
-        <v>22</v>
+        <v>45437</v>
+      </c>
+      <c r="U12" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="W12" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="Y12" s="70">
-        <v>66.3</v>
+        <v>24.34</v>
       </c>
       <c r="Z12" s="45"/>
-      <c r="AA12" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE12" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF12" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG12" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH12" s="48">
-        <v>69.56</v>
-      </c>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
       <c r="AI12" s="14"/>
       <c r="AJ12" s="14"/>
       <c r="AK12" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>56</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>49</v>
-      </c>
-      <c r="AO12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="AM12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN12" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO12" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14"/>
       <c r="B13" s="40"/>
       <c r="C13" s="40" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
       <c r="F13" s="14"/>
       <c r="G13" s="41"/>
       <c r="H13" s="56" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="I13" s="10" t="e" cm="1">
-        <f t="array" aca="1" ref="I13" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O13")</f>
+        <f ref="I13:I13" t="array" aca="1" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O13")</f>
         <v>#REF!</v>
       </c>
       <c r="J13" s="54">
         <v>100</v>
       </c>
       <c r="K13" s="42" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0" ca="1"/>
         <v>#REF!</v>
       </c>
       <c r="L13" s="42">
@@ -1995,76 +1809,56 @@
         <v>0</v>
       </c>
       <c r="M13" s="42" t="e">
-        <f ca="1">K13-L13</f>
+        <f>K13-L13</f>
         <v>#REF!</v>
       </c>
       <c r="N13" s="57" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="O13" s="10" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3" ca="1"/>
         <v>#REF!</v>
       </c>
       <c r="P13" s="41"/>
       <c r="R13" s="45"/>
       <c r="S13" s="45">
-        <v>1487</v>
+        <v>6</v>
       </c>
       <c r="T13" s="72">
-        <v>45434</v>
-      </c>
-      <c r="U13" t="s">
-        <v>59</v>
-      </c>
-      <c r="W13" t="s">
-        <v>22</v>
+        <v>45436</v>
+      </c>
+      <c r="U13" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="W13" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="Y13" s="70">
-        <v>8.5299999999999994</v>
+        <v>150.7</v>
       </c>
       <c r="Z13" s="45"/>
-      <c r="AA13" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE13" s="47"/>
-      <c r="AF13" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG13" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH13" s="48">
-        <v>21.76</v>
-      </c>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
       <c r="AI13" s="14"/>
       <c r="AJ13" s="14"/>
       <c r="AK13" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="AM13" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN13" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO13" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14"/>
       <c r="B14" s="61"/>
       <c r="C14" s="62" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D14" s="48">
         <v>-454.02</v>
@@ -2073,17 +1867,17 @@
       <c r="F14" s="14"/>
       <c r="G14" s="41"/>
       <c r="H14" s="56" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="I14" s="10" t="e" cm="1">
-        <f t="array" aca="1" ref="I14" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O14")</f>
+        <f ref="I14:I14" t="array" aca="1" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O14")</f>
         <v>#REF!</v>
       </c>
       <c r="J14" s="54">
         <v>51</v>
       </c>
       <c r="K14" s="42" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0" ca="1"/>
         <v>#REF!</v>
       </c>
       <c r="L14" s="42">
@@ -2091,98 +1885,76 @@
         <v>0</v>
       </c>
       <c r="M14" s="42" t="e">
-        <f t="shared" ref="M14:M21" ca="1" si="4">K14-L14</f>
+        <f ref="M14:M21" t="shared" si="4" ca="1">K14-L14</f>
         <v>#REF!</v>
       </c>
       <c r="N14" s="57" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="O14" s="10" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3" ca="1"/>
         <v>#REF!</v>
       </c>
       <c r="P14" s="41"/>
       <c r="R14" s="45"/>
       <c r="S14" s="45">
-        <v>1488</v>
+        <v>7</v>
       </c>
       <c r="T14" s="72">
-        <v>45433</v>
-      </c>
-      <c r="U14" t="s">
-        <v>65</v>
-      </c>
-      <c r="W14" t="s">
-        <v>22</v>
+        <v>45434</v>
+      </c>
+      <c r="U14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="W14" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="Y14" s="70">
-        <v>47.45</v>
+        <v>140.8</v>
       </c>
       <c r="Z14" s="45"/>
-      <c r="AA14" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE14" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="AF14" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG14" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH14" s="48">
-        <v>3.22</v>
-      </c>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
       <c r="AI14" s="14"/>
       <c r="AJ14" s="14"/>
       <c r="AK14" s="49" t="s">
-        <v>69</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>61</v>
-      </c>
-      <c r="AO14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="AM14" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN14" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO14" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="14"/>
       <c r="B15" s="61"/>
       <c r="C15" s="40" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="D15" s="60">
-        <f ca="1">D9-D11</f>
-        <v>-14939.950000000004</v>
+        <f>D9-D11</f>
+        <v>-809.3600000000002</v>
       </c>
       <c r="E15" s="61"/>
       <c r="F15" s="14"/>
       <c r="G15" s="41"/>
       <c r="H15" s="56" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="I15" s="10" t="e" cm="1">
-        <f t="array" aca="1" ref="I15" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O15")</f>
+        <f ref="I15:I15" t="array" aca="1" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O15")</f>
         <v>#REF!</v>
       </c>
       <c r="J15" s="54">
         <v>150</v>
       </c>
       <c r="K15" s="42" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0" ca="1"/>
         <v>#REF!</v>
       </c>
       <c r="L15" s="42">
@@ -2190,70 +1962,50 @@
         <v>0</v>
       </c>
       <c r="M15" s="42" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4" ca="1"/>
         <v>#REF!</v>
       </c>
       <c r="N15" s="57" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="O15" s="10" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3" ca="1"/>
         <v>#REF!</v>
       </c>
       <c r="P15" s="41"/>
       <c r="R15" s="45"/>
       <c r="S15" s="45">
-        <v>1489</v>
+        <v>8</v>
       </c>
       <c r="T15" s="72">
-        <v>45431</v>
-      </c>
-      <c r="U15" t="s">
-        <v>74</v>
-      </c>
-      <c r="W15" t="s">
-        <v>22</v>
+        <v>45434</v>
+      </c>
+      <c r="U15" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="W15" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="Y15" s="70">
-        <v>58.51</v>
+        <v>66.3</v>
       </c>
       <c r="Z15" s="45"/>
-      <c r="AA15" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="AE15" s="47"/>
-      <c r="AF15" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG15" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH15" s="48">
-        <v>58</v>
-      </c>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
       <c r="AI15" s="14"/>
       <c r="AJ15" s="14"/>
-      <c r="AM15" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN15" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO15" t="s">
-        <v>77</v>
+      <c r="AM15" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO15" s="0" t="s">
+        <v>58</v>
       </c>
       <c r="AR15" s="28"/>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" s="14"/>
       <c r="B16" s="61"/>
       <c r="C16" s="63"/>
@@ -2262,17 +2014,17 @@
       <c r="F16" s="14"/>
       <c r="G16" s="41"/>
       <c r="H16" s="56" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="I16" s="10" t="e" cm="1">
-        <f t="array" aca="1" ref="I16" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O16")</f>
+        <f ref="I16:I16" t="array" aca="1" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O16")</f>
         <v>#REF!</v>
       </c>
       <c r="J16" s="54">
         <v>200</v>
       </c>
       <c r="K16" s="42" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0" ca="1"/>
         <v>#REF!</v>
       </c>
       <c r="L16" s="42">
@@ -2280,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="42" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4" ca="1"/>
         <v>#REF!</v>
       </c>
       <c r="N16" s="57"/>
@@ -2291,58 +2043,36 @@
       <c r="P16" s="41"/>
       <c r="R16" s="45"/>
       <c r="S16" s="45">
-        <v>1490</v>
+        <v>9</v>
       </c>
       <c r="T16" s="72">
-        <v>45431</v>
-      </c>
-      <c r="U16" t="s">
-        <v>79</v>
-      </c>
-      <c r="W16" t="s">
-        <v>22</v>
+        <v>45434</v>
+      </c>
+      <c r="U16" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="W16" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="Y16" s="70">
-        <v>-2046.1</v>
+        <v>8.53</v>
       </c>
       <c r="Z16" s="45"/>
-      <c r="AA16" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE16" s="47" t="s">
-        <v>80</v>
-      </c>
-      <c r="AF16" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG16" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH16" s="48">
-        <v>47.1</v>
-      </c>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
       <c r="AI16" s="14"/>
       <c r="AJ16" s="14"/>
-      <c r="AM16" t="s">
-        <v>81</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>0</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AM16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN16" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="64"/>
@@ -2351,17 +2081,17 @@
       <c r="F17" s="14"/>
       <c r="G17" s="41"/>
       <c r="H17" s="56" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="I17" s="10" t="e" cm="1">
-        <f t="array" aca="1" ref="I17" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O17")</f>
+        <f ref="I17:I17" t="array" aca="1" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O17")</f>
         <v>#REF!</v>
       </c>
       <c r="J17" s="54">
         <v>350</v>
       </c>
       <c r="K17" s="42" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0" ca="1"/>
         <v>#REF!</v>
       </c>
       <c r="L17" s="42">
@@ -2369,71 +2099,49 @@
         <v>0</v>
       </c>
       <c r="M17" s="42" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4" ca="1"/>
         <v>#REF!</v>
       </c>
       <c r="N17" s="57" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="O17" s="10" t="e">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3" ca="1"/>
         <v>#REF!</v>
       </c>
       <c r="P17" s="41"/>
       <c r="R17" s="45"/>
       <c r="S17" s="45">
-        <v>1491</v>
+        <v>10</v>
       </c>
       <c r="T17" s="72">
-        <v>45430</v>
-      </c>
-      <c r="U17" t="s">
-        <v>74</v>
-      </c>
-      <c r="W17" t="s">
-        <v>22</v>
+        <v>45433</v>
+      </c>
+      <c r="U17" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="W17" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="Y17" s="70">
-        <v>5.51</v>
+        <v>47.45</v>
       </c>
       <c r="Z17" s="45"/>
-      <c r="AA17" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE17" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF17" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG17" s="47" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH17" s="48">
-        <v>10.35</v>
-      </c>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
       <c r="AI17" s="14"/>
       <c r="AJ17" s="14"/>
-      <c r="AM17" t="s">
-        <v>84</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>81</v>
-      </c>
-      <c r="AO17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AM17" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN17" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO17" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -2443,12 +2151,12 @@
       <c r="G18" s="41"/>
       <c r="H18" s="56"/>
       <c r="I18" s="10" t="e" cm="1">
-        <f t="array" aca="1" ref="I18" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O18")</f>
+        <f ref="I18:I18" t="array" aca="1" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O18")</f>
         <v>#REF!</v>
       </c>
       <c r="J18" s="54"/>
       <c r="K18" s="42" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0" ca="1"/>
         <v>#REF!</v>
       </c>
       <c r="L18" s="42">
@@ -2456,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="42" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4" ca="1"/>
         <v>#REF!</v>
       </c>
       <c r="N18" s="57"/>
@@ -2467,58 +2175,36 @@
       <c r="P18" s="41"/>
       <c r="R18" s="45"/>
       <c r="S18" s="45">
-        <v>1492</v>
+        <v>11</v>
       </c>
       <c r="T18" s="72">
-        <v>45430</v>
-      </c>
-      <c r="U18" t="s">
-        <v>60</v>
-      </c>
-      <c r="W18" t="s">
-        <v>22</v>
+        <v>45431</v>
+      </c>
+      <c r="U18" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="W18" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="Y18" s="70">
-        <v>29.07</v>
+        <v>58.51</v>
       </c>
       <c r="Z18" s="45"/>
-      <c r="AA18" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE18" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF18" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG18" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH18" s="48">
-        <v>17.11</v>
-      </c>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
       <c r="AI18" s="14"/>
       <c r="AJ18" s="14"/>
-      <c r="AM18" t="s">
-        <v>87</v>
-      </c>
-      <c r="AN18" t="s">
-        <v>84</v>
-      </c>
-      <c r="AO18" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AM18" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN18" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO18" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -2528,12 +2214,12 @@
       <c r="G19" s="41"/>
       <c r="H19" s="56"/>
       <c r="I19" s="10" t="e" cm="1">
-        <f t="array" aca="1" ref="I19" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O19")</f>
+        <f ref="I19:I19" t="array" aca="1" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O19")</f>
         <v>#REF!</v>
       </c>
       <c r="J19" s="54"/>
       <c r="K19" s="42" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0" ca="1"/>
         <v>#REF!</v>
       </c>
       <c r="L19" s="42">
@@ -2541,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="42" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4" ca="1"/>
         <v>#REF!</v>
       </c>
       <c r="N19" s="57"/>
@@ -2552,57 +2238,37 @@
       <c r="P19" s="41"/>
       <c r="R19" s="45"/>
       <c r="S19" s="45">
-        <v>1493</v>
+        <v>12</v>
       </c>
       <c r="T19" s="72">
-        <v>45429</v>
-      </c>
-      <c r="U19" t="s">
-        <v>89</v>
-      </c>
-      <c r="W19" t="s">
-        <v>22</v>
+        <v>45431</v>
+      </c>
+      <c r="U19" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="W19" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="Y19" s="70">
-        <v>133.9</v>
+        <v>-2046.1</v>
       </c>
       <c r="Z19" s="45"/>
-      <c r="AA19" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="47" t="s">
-        <v>90</v>
-      </c>
-      <c r="AE19" s="47"/>
-      <c r="AF19" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG19" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH19" s="48">
-        <v>904.99</v>
-      </c>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
       <c r="AI19" s="14"/>
       <c r="AJ19" s="14"/>
-      <c r="AM19" t="s">
-        <v>92</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO19" t="s">
-        <v>93</v>
+      <c r="AM19" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN19" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO19" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="AR19" s="28"/>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
@@ -2612,12 +2278,12 @@
       <c r="G20" s="41"/>
       <c r="H20" s="56"/>
       <c r="I20" s="10" t="e" cm="1">
-        <f t="array" aca="1" ref="I20" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O20")</f>
+        <f ref="I20:I20" t="array" aca="1" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O20")</f>
         <v>#REF!</v>
       </c>
       <c r="J20" s="54"/>
       <c r="K20" s="42" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0" ca="1"/>
         <v>#REF!</v>
       </c>
       <c r="L20" s="42">
@@ -2625,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="42" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4" ca="1"/>
         <v>#REF!</v>
       </c>
       <c r="N20" s="57"/>
@@ -2636,58 +2302,36 @@
       <c r="P20" s="41"/>
       <c r="R20" s="45"/>
       <c r="S20" s="45">
-        <v>1494</v>
+        <v>13</v>
       </c>
       <c r="T20" s="72">
-        <v>45429</v>
-      </c>
-      <c r="U20" t="s">
-        <v>94</v>
-      </c>
-      <c r="W20" t="s">
-        <v>22</v>
+        <v>45430</v>
+      </c>
+      <c r="U20" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="W20" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="Y20" s="70">
-        <v>60.61</v>
+        <v>5.51</v>
       </c>
       <c r="Z20" s="45"/>
-      <c r="AA20" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="AE20" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF20" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG20" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="AH20" s="48">
-        <v>24.71</v>
-      </c>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
       <c r="AI20" s="14"/>
       <c r="AJ20" s="14"/>
-      <c r="AM20" t="s">
-        <v>96</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AM20" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN20" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO20" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
@@ -2697,12 +2341,12 @@
       <c r="G21" s="41"/>
       <c r="H21" s="56"/>
       <c r="I21" s="10" t="e" cm="1">
-        <f t="array" aca="1" ref="I21" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O21")</f>
+        <f ref="I21:I21" t="array" aca="1" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O21")</f>
         <v>#REF!</v>
       </c>
       <c r="J21" s="54"/>
       <c r="K21" s="42" t="e">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" si="0" ca="1"/>
         <v>#REF!</v>
       </c>
       <c r="L21" s="42">
@@ -2710,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="42" t="e">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4" ca="1"/>
         <v>#REF!</v>
       </c>
       <c r="N21" s="57"/>
@@ -2721,57 +2365,37 @@
       <c r="P21" s="41"/>
       <c r="R21" s="45"/>
       <c r="S21" s="45">
-        <v>1495</v>
+        <v>14</v>
       </c>
       <c r="T21" s="72">
-        <v>45429</v>
-      </c>
-      <c r="U21" t="s">
-        <v>98</v>
-      </c>
-      <c r="W21" t="s">
-        <v>22</v>
+        <v>45430</v>
+      </c>
+      <c r="U21" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="W21" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="Y21" s="70">
-        <v>21.67</v>
+        <v>29.07</v>
       </c>
       <c r="Z21" s="45"/>
-      <c r="AA21" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE21" s="47"/>
-      <c r="AF21" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG21" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH21" s="48">
-        <v>48.18</v>
-      </c>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
       <c r="AI21" s="14"/>
       <c r="AJ21" s="14"/>
-      <c r="AM21" t="s">
-        <v>99</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>96</v>
-      </c>
-      <c r="AO21" t="s">
-        <v>100</v>
+      <c r="AM21" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN21" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO21" s="0" t="s">
+        <v>75</v>
       </c>
       <c r="AP21" s="66"/>
     </row>
-    <row r="22" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" ht="15.75">
       <c r="A22" s="14"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -2780,7 +2404,7 @@
       <c r="F22" s="14"/>
       <c r="G22" s="41"/>
       <c r="H22" s="67" t="s">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="I22" s="42"/>
       <c r="J22" s="54"/>
@@ -2795,62 +2419,37 @@
       <c r="P22" s="41"/>
       <c r="R22" s="45"/>
       <c r="S22" s="45">
-        <v>1496</v>
+        <v>15</v>
       </c>
       <c r="T22" s="72">
-        <v>45428</v>
-      </c>
-      <c r="U22" t="s">
-        <v>102</v>
-      </c>
-      <c r="W22" t="s">
-        <v>22</v>
-      </c>
-      <c r="X22" t="s">
-        <v>103</v>
+        <v>45429</v>
+      </c>
+      <c r="U22" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="W22" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="Y22" s="70">
-        <v>76.67</v>
+        <v>133.9</v>
       </c>
       <c r="Z22" s="45"/>
-      <c r="AA22" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE22" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="AF22" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG22" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="AH22" s="48">
-        <v>18.16</v>
-      </c>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
       <c r="AI22" s="14"/>
       <c r="AJ22" s="14"/>
-      <c r="AM22" t="s">
-        <v>105</v>
-      </c>
-      <c r="AN22" t="s">
-        <v>99</v>
-      </c>
-      <c r="AO22" t="s">
-        <v>106</v>
+      <c r="AM22" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="AN22" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="AO22" s="0" t="s">
+        <v>79</v>
       </c>
       <c r="AP22" s="66"/>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
       <c r="C23" s="14"/>
@@ -2859,7 +2458,7 @@
       <c r="F23" s="14"/>
       <c r="G23" s="41"/>
       <c r="H23" s="56" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="I23" s="42"/>
       <c r="J23" s="54">
@@ -2882,51 +2481,28 @@
       <c r="P23" s="41"/>
       <c r="R23" s="45"/>
       <c r="S23" s="45">
-        <v>1497</v>
+        <v>16</v>
       </c>
       <c r="T23" s="72">
-        <v>45428</v>
-      </c>
-      <c r="U23" t="s">
-        <v>108</v>
-      </c>
-      <c r="W23" t="s">
-        <v>22</v>
-      </c>
-      <c r="X23" t="s">
-        <v>109</v>
+        <v>45429</v>
+      </c>
+      <c r="U23" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="W23" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="Y23" s="70">
-        <v>59.95</v>
+        <v>60.61</v>
       </c>
       <c r="Z23" s="45"/>
-      <c r="AA23" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="AE23" s="47"/>
-      <c r="AF23" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG23" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH23" s="48">
-        <v>0.06</v>
-      </c>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
       <c r="AI23" s="14"/>
       <c r="AJ23" s="14"/>
       <c r="AR23" s="28"/>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="14"/>
@@ -2935,7 +2511,7 @@
       <c r="F24" s="14"/>
       <c r="G24" s="41"/>
       <c r="H24" s="56" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="I24" s="42"/>
       <c r="J24" s="54">
@@ -2950,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="42">
-        <f t="shared" ref="M24:M32" si="5">K24-L24</f>
+        <f ref="M24:M32" t="shared" si="5">K24-L24</f>
         <v>73</v>
       </c>
       <c r="N24" s="44"/>
@@ -2958,49 +2534,27 @@
       <c r="P24" s="41"/>
       <c r="R24" s="45"/>
       <c r="S24" s="45">
-        <v>1498</v>
+        <v>17</v>
       </c>
       <c r="T24" s="72">
-        <v>45428</v>
-      </c>
-      <c r="U24" t="s">
-        <v>112</v>
-      </c>
-      <c r="W24" t="s">
-        <v>22</v>
+        <v>45429</v>
+      </c>
+      <c r="U24" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="W24" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="Y24" s="70">
-        <v>13.73</v>
+        <v>21.67</v>
       </c>
       <c r="Z24" s="45"/>
-      <c r="AA24" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="AE24" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF24" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG24" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH24" s="48">
-        <v>10</v>
-      </c>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
       <c r="AI24" s="14"/>
       <c r="AJ24" s="14"/>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -3009,7 +2563,7 @@
       <c r="F25" s="14"/>
       <c r="G25" s="41"/>
       <c r="H25" s="56" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="I25" s="42"/>
       <c r="J25" s="54">
@@ -3032,49 +2586,27 @@
       <c r="P25" s="41"/>
       <c r="R25" s="45"/>
       <c r="S25" s="45">
-        <v>1499</v>
+        <v>18</v>
       </c>
       <c r="T25" s="72">
-        <v>45427</v>
-      </c>
-      <c r="U25" t="s">
-        <v>116</v>
-      </c>
-      <c r="W25" t="s">
-        <v>22</v>
+        <v>45428</v>
+      </c>
+      <c r="U25" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="W25" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="Y25" s="70">
-        <v>95.58</v>
+        <v>76.67</v>
       </c>
       <c r="Z25" s="45"/>
-      <c r="AA25" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE25" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF25" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG25" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="AH25" s="48">
-        <v>32.090000000000003</v>
-      </c>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
       <c r="AI25" s="14"/>
       <c r="AJ25" s="14"/>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
       <c r="C26" s="68"/>
@@ -3083,14 +2615,14 @@
       <c r="F26" s="14"/>
       <c r="G26" s="41"/>
       <c r="H26" s="56" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I26" s="42"/>
       <c r="J26" s="54">
         <v>100</v>
       </c>
       <c r="K26" s="42">
-        <f t="shared" ref="K26:K32" si="6">J26</f>
+        <f ref="K26:K32" t="shared" si="6">J26</f>
         <v>100</v>
       </c>
       <c r="L26" s="42">
@@ -3106,49 +2638,27 @@
       <c r="P26" s="41"/>
       <c r="R26" s="45"/>
       <c r="S26" s="45">
-        <v>1500</v>
+        <v>19</v>
       </c>
       <c r="T26" s="72">
-        <v>45426</v>
-      </c>
-      <c r="U26" t="s">
-        <v>119</v>
-      </c>
-      <c r="W26" t="s">
-        <v>22</v>
+        <v>45428</v>
+      </c>
+      <c r="U26" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="W26" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="Y26" s="70">
-        <v>3.22</v>
+        <v>59.95</v>
       </c>
       <c r="Z26" s="45"/>
-      <c r="AA26" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="AE26" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="AF26" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG26" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH26" s="48">
-        <v>129</v>
-      </c>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
       <c r="AI26" s="14"/>
       <c r="AJ26" s="14"/>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -3157,7 +2667,7 @@
       <c r="F27" s="14"/>
       <c r="G27" s="41"/>
       <c r="H27" s="56" t="s">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="I27" s="42"/>
       <c r="J27" s="54">
@@ -3180,53 +2690,28 @@
       <c r="P27" s="41"/>
       <c r="R27" s="45"/>
       <c r="S27" s="45">
-        <v>1501</v>
+        <v>20</v>
       </c>
       <c r="T27" s="72">
-        <v>45425</v>
-      </c>
-      <c r="U27" t="s">
-        <v>112</v>
-      </c>
-      <c r="V27" t="s">
+        <v>45428</v>
+      </c>
+      <c r="U27" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="W27" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="W27" t="s">
-        <v>22</v>
-      </c>
       <c r="Y27" s="70">
-        <v>86.38</v>
+        <v>13.73</v>
       </c>
       <c r="Z27" s="45"/>
-      <c r="AA27" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="AE27" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="AF27" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG27" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="AH27" s="48">
-        <v>134.84</v>
-      </c>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14"/>
       <c r="AI27" s="14"/>
       <c r="AJ27" s="14"/>
       <c r="AR27" s="28"/>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="14"/>
@@ -3235,7 +2720,7 @@
       <c r="F28" s="14"/>
       <c r="G28" s="41"/>
       <c r="H28" s="56" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="I28" s="42"/>
       <c r="J28" s="54">
@@ -3247,50 +2732,38 @@
       </c>
       <c r="L28" s="42">
         <f t="shared" si="1"/>
-        <v>59.95</v>
+        <v>0</v>
       </c>
       <c r="M28" s="42">
         <f t="shared" si="5"/>
-        <v>4.9999999999997158E-2</v>
+        <v>60</v>
       </c>
       <c r="N28" s="44"/>
       <c r="O28" s="42"/>
       <c r="P28" s="41"/>
       <c r="R28" s="45"/>
       <c r="S28" s="45">
-        <v>1502</v>
+        <v>21</v>
       </c>
       <c r="T28" s="72">
-        <v>45424</v>
-      </c>
-      <c r="U28" t="s">
-        <v>74</v>
-      </c>
-      <c r="W28" t="s">
-        <v>22</v>
+        <v>45427</v>
+      </c>
+      <c r="U28" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="W28" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="Y28" s="70">
-        <v>158.27000000000001</v>
+        <v>95.58</v>
       </c>
       <c r="Z28" s="45"/>
-      <c r="AA28" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="47"/>
-      <c r="AE28" s="47"/>
-      <c r="AF28" s="47"/>
-      <c r="AG28" s="47"/>
-      <c r="AH28" s="48"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="14"/>
       <c r="AI28" s="14"/>
       <c r="AJ28" s="14"/>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
       <c r="C29" s="14"/>
@@ -3299,7 +2772,7 @@
       <c r="F29" s="14"/>
       <c r="G29" s="41"/>
       <c r="H29" s="56" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="I29" s="42"/>
       <c r="J29" s="54">
@@ -3322,39 +2795,27 @@
       <c r="P29" s="41"/>
       <c r="R29" s="45"/>
       <c r="S29" s="45">
-        <v>1503</v>
+        <v>22</v>
       </c>
       <c r="T29" s="72">
-        <v>45424</v>
-      </c>
-      <c r="U29" t="s">
-        <v>28</v>
-      </c>
-      <c r="W29" t="s">
-        <v>22</v>
+        <v>45426</v>
+      </c>
+      <c r="U29" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="W29" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="Y29" s="70">
-        <v>7.48</v>
+        <v>3.22</v>
       </c>
       <c r="Z29" s="45"/>
-      <c r="AA29" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="47"/>
-      <c r="AE29" s="47"/>
-      <c r="AF29" s="47"/>
-      <c r="AG29" s="47"/>
-      <c r="AH29" s="48"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="14"/>
       <c r="AI29" s="14"/>
       <c r="AJ29" s="14"/>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="30">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="14"/>
@@ -3363,7 +2824,7 @@
       <c r="F30" s="14"/>
       <c r="G30" s="41"/>
       <c r="H30" s="56" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I30" s="42"/>
       <c r="J30" s="54">
@@ -3386,49 +2847,27 @@
       <c r="P30" s="41"/>
       <c r="R30" s="45"/>
       <c r="S30" s="45">
-        <v>1504</v>
+        <v>23</v>
       </c>
       <c r="T30" s="72">
-        <v>45422</v>
-      </c>
-      <c r="U30" t="s">
-        <v>126</v>
-      </c>
-      <c r="W30" t="s">
-        <v>22</v>
+        <v>45425</v>
+      </c>
+      <c r="U30" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="W30" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="Y30" s="70">
-        <v>14.35</v>
+        <v>86.38</v>
       </c>
       <c r="Z30" s="45"/>
-      <c r="AA30" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE30" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="AF30" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG30" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH30" s="48">
-        <v>148.83000000000001</v>
-      </c>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="14"/>
       <c r="AI30" s="14"/>
       <c r="AJ30" s="14"/>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
       <c r="C31" s="14"/>
@@ -3437,7 +2876,7 @@
       <c r="F31" s="14"/>
       <c r="G31" s="41"/>
       <c r="H31" s="56" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="I31" s="42"/>
       <c r="J31" s="54">
@@ -3460,48 +2899,28 @@
       <c r="P31" s="41"/>
       <c r="R31" s="45"/>
       <c r="S31" s="45">
-        <v>1505</v>
+        <v>24</v>
       </c>
       <c r="T31" s="72">
-        <v>45421</v>
-      </c>
-      <c r="U31" t="s">
-        <v>74</v>
-      </c>
-      <c r="W31" t="s">
-        <v>22</v>
+        <v>45424</v>
+      </c>
+      <c r="U31" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="W31" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="Y31" s="70">
-        <v>180.94</v>
+        <v>158.27</v>
       </c>
       <c r="Z31" s="45"/>
-      <c r="AA31" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="AE31" s="47"/>
-      <c r="AF31" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG31" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH31" s="48">
-        <v>60.89</v>
-      </c>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="14"/>
       <c r="AI31" s="14"/>
       <c r="AJ31" s="14"/>
       <c r="AR31" s="28"/>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="32">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
       <c r="C32" s="14"/>
@@ -3529,47 +2948,27 @@
       <c r="P32" s="41"/>
       <c r="R32" s="45"/>
       <c r="S32" s="45">
-        <v>1506</v>
+        <v>25</v>
       </c>
       <c r="T32" s="72">
-        <v>45421</v>
-      </c>
-      <c r="U32" t="s">
-        <v>74</v>
-      </c>
-      <c r="W32" t="s">
-        <v>22</v>
+        <v>45424</v>
+      </c>
+      <c r="U32" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="W32" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="Y32" s="70">
-        <v>4.7300000000000004</v>
+        <v>7.48</v>
       </c>
       <c r="Z32" s="45"/>
-      <c r="AA32" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE32" s="47"/>
-      <c r="AF32" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG32" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH32" s="48">
-        <v>58.51</v>
-      </c>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="14"/>
       <c r="AI32" s="14"/>
       <c r="AJ32" s="14"/>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="33">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="14"/>
@@ -3597,47 +2996,27 @@
       <c r="P33" s="41"/>
       <c r="R33" s="45"/>
       <c r="S33" s="45">
-        <v>1507</v>
+        <v>26</v>
       </c>
       <c r="T33" s="72">
-        <v>45421</v>
-      </c>
-      <c r="U33" t="s">
-        <v>130</v>
-      </c>
-      <c r="W33" t="s">
-        <v>22</v>
+        <v>45422</v>
+      </c>
+      <c r="U33" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="W33" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="Y33" s="70">
-        <v>32.22</v>
+        <v>14.35</v>
       </c>
       <c r="Z33" s="45"/>
-      <c r="AA33" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE33" s="47"/>
-      <c r="AF33" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG33" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH33" s="48">
-        <v>5.51</v>
-      </c>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="14"/>
       <c r="AI33" s="14"/>
       <c r="AJ33" s="14"/>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
       <c r="C34" s="14"/>
@@ -3656,47 +3035,27 @@
       <c r="P34" s="41"/>
       <c r="R34" s="45"/>
       <c r="S34" s="45">
-        <v>1508</v>
+        <v>27</v>
       </c>
       <c r="T34" s="72">
         <v>45421</v>
       </c>
-      <c r="U34" t="s">
-        <v>131</v>
-      </c>
-      <c r="W34" t="s">
-        <v>22</v>
+      <c r="U34" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="W34" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="Y34" s="70">
-        <v>780.78</v>
+        <v>180.94</v>
       </c>
       <c r="Z34" s="45"/>
-      <c r="AA34" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="47" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE34" s="47"/>
-      <c r="AF34" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG34" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH34" s="48">
-        <v>29.07</v>
-      </c>
+      <c r="AA34" s="14"/>
+      <c r="AB34" s="14"/>
       <c r="AI34" s="14"/>
       <c r="AJ34" s="14"/>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
       <c r="C35" s="14"/>
@@ -3708,7 +3067,7 @@
       <c r="I35" s="42"/>
       <c r="J35" s="54"/>
       <c r="K35" s="42">
-        <f t="shared" ref="K35:K58" si="7">J35</f>
+        <f ref="K35:K58" t="shared" si="7">J35</f>
         <v>0</v>
       </c>
       <c r="L35" s="42">
@@ -3716,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="42">
-        <f t="shared" ref="M35:M58" si="8">K35-L35</f>
+        <f ref="M35:M58" t="shared" si="8">K35-L35</f>
         <v>0</v>
       </c>
       <c r="N35" s="44"/>
@@ -3724,48 +3083,28 @@
       <c r="P35" s="41"/>
       <c r="R35" s="45"/>
       <c r="S35" s="45">
-        <v>1509</v>
+        <v>28</v>
       </c>
       <c r="T35" s="72">
         <v>45421</v>
       </c>
-      <c r="U35" t="s">
-        <v>132</v>
-      </c>
-      <c r="W35" t="s">
-        <v>22</v>
+      <c r="U35" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="W35" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="Y35" s="70">
-        <v>-3.42</v>
+        <v>4.73</v>
       </c>
       <c r="Z35" s="45"/>
-      <c r="AA35" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="47" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE35" s="47"/>
-      <c r="AF35" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG35" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH35" s="48">
-        <v>133.9</v>
-      </c>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="14"/>
       <c r="AI35" s="14"/>
       <c r="AJ35" s="14"/>
       <c r="AR35" s="28"/>
     </row>
-    <row r="36" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" ht="15.75">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
       <c r="C36" s="14"/>
@@ -3793,47 +3132,27 @@
       <c r="P36" s="41"/>
       <c r="R36" s="45"/>
       <c r="S36" s="45">
-        <v>1510</v>
+        <v>29</v>
       </c>
       <c r="T36" s="72">
         <v>45421</v>
       </c>
-      <c r="U36" t="s">
-        <v>132</v>
-      </c>
-      <c r="W36" t="s">
-        <v>22</v>
+      <c r="U36" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="W36" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="Y36" s="70">
-        <v>26</v>
+        <v>32.22</v>
       </c>
       <c r="Z36" s="45"/>
-      <c r="AA36" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="AE36" s="47"/>
-      <c r="AF36" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG36" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH36" s="48">
-        <v>60.61</v>
-      </c>
+      <c r="AA36" s="14"/>
+      <c r="AB36" s="14"/>
       <c r="AI36" s="14"/>
       <c r="AJ36" s="14"/>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="14"/>
@@ -3852,47 +3171,27 @@
       <c r="P37" s="41"/>
       <c r="R37" s="45"/>
       <c r="S37" s="45">
-        <v>1511</v>
+        <v>30</v>
       </c>
       <c r="T37" s="72">
-        <v>45420</v>
-      </c>
-      <c r="U37" t="s">
-        <v>31</v>
-      </c>
-      <c r="W37" t="s">
-        <v>22</v>
+        <v>45421</v>
+      </c>
+      <c r="U37" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="W37" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="Y37" s="70">
-        <v>18.53</v>
+        <v>780.78</v>
       </c>
       <c r="Z37" s="45"/>
-      <c r="AA37" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE37" s="47"/>
-      <c r="AF37" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG37" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH37" s="48">
-        <v>21.67</v>
-      </c>
+      <c r="AA37" s="14"/>
+      <c r="AB37" s="14"/>
       <c r="AI37" s="14"/>
       <c r="AJ37" s="14"/>
     </row>
-    <row r="38" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" ht="15.75">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
@@ -3901,7 +3200,7 @@
       <c r="F38" s="14"/>
       <c r="G38" s="41"/>
       <c r="H38" s="67" t="s">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="I38" s="42"/>
       <c r="J38" s="54"/>
@@ -3922,47 +3221,27 @@
       <c r="P38" s="41"/>
       <c r="R38" s="45"/>
       <c r="S38" s="45">
-        <v>1512</v>
+        <v>31</v>
       </c>
       <c r="T38" s="72">
-        <v>45420</v>
-      </c>
-      <c r="U38" t="s">
-        <v>36</v>
-      </c>
-      <c r="W38" t="s">
-        <v>22</v>
+        <v>45421</v>
+      </c>
+      <c r="U38" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="W38" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="Y38" s="70">
-        <v>27.45</v>
+        <v>-3.42</v>
       </c>
       <c r="Z38" s="45"/>
-      <c r="AA38" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE38" s="47"/>
-      <c r="AF38" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG38" s="47" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH38" s="48">
-        <v>76.67</v>
-      </c>
+      <c r="AA38" s="14"/>
+      <c r="AB38" s="14"/>
       <c r="AI38" s="14"/>
       <c r="AJ38" s="14"/>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -3971,7 +3250,7 @@
       <c r="F39" s="14"/>
       <c r="G39" s="41"/>
       <c r="H39" s="56" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="I39" s="42"/>
       <c r="J39" s="54">
@@ -3994,48 +3273,28 @@
       <c r="P39" s="41"/>
       <c r="R39" s="45"/>
       <c r="S39" s="45">
-        <v>1513</v>
+        <v>32</v>
       </c>
       <c r="T39" s="72">
-        <v>45420</v>
-      </c>
-      <c r="U39" t="s">
-        <v>46</v>
-      </c>
-      <c r="W39" t="s">
-        <v>22</v>
+        <v>45421</v>
+      </c>
+      <c r="U39" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="W39" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="Y39" s="70">
-        <v>12.84</v>
+        <v>26</v>
       </c>
       <c r="Z39" s="45"/>
-      <c r="AA39" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC39" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="AE39" s="47"/>
-      <c r="AF39" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG39" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH39" s="48">
-        <v>59.95</v>
-      </c>
+      <c r="AA39" s="14"/>
+      <c r="AB39" s="14"/>
       <c r="AI39" s="14"/>
       <c r="AJ39" s="14"/>
       <c r="AR39" s="28"/>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="40">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
@@ -4044,7 +3303,7 @@
       <c r="F40" s="14"/>
       <c r="G40" s="41"/>
       <c r="H40" s="56" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="I40" s="42"/>
       <c r="J40" s="54">
@@ -4067,45 +3326,27 @@
       <c r="P40" s="41"/>
       <c r="R40" s="45"/>
       <c r="S40" s="45">
-        <v>1514</v>
+        <v>33</v>
       </c>
       <c r="T40" s="72">
-        <v>45419</v>
-      </c>
-      <c r="U40" t="s">
-        <v>53</v>
-      </c>
-      <c r="W40" t="s">
-        <v>22</v>
+        <v>45420</v>
+      </c>
+      <c r="U40" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="W40" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="Y40" s="70">
-        <v>69.56</v>
+        <v>18.53</v>
       </c>
       <c r="Z40" s="45"/>
-      <c r="AA40" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC40" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD40" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE40" s="47"/>
-      <c r="AF40" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG40" s="47"/>
-      <c r="AH40" s="48">
-        <v>13.73</v>
-      </c>
+      <c r="AA40" s="14"/>
+      <c r="AB40" s="14"/>
       <c r="AI40" s="14"/>
       <c r="AJ40" s="14"/>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -4114,7 +3355,7 @@
       <c r="F41" s="14"/>
       <c r="G41" s="41"/>
       <c r="H41" s="56" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="I41" s="42"/>
       <c r="J41" s="54">
@@ -4137,49 +3378,27 @@
       <c r="P41" s="41"/>
       <c r="R41" s="45"/>
       <c r="S41" s="45">
-        <v>1515</v>
+        <v>34</v>
       </c>
       <c r="T41" s="72">
-        <v>45417</v>
-      </c>
-      <c r="U41" t="s">
-        <v>60</v>
-      </c>
-      <c r="W41" t="s">
-        <v>22</v>
+        <v>45420</v>
+      </c>
+      <c r="U41" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="W41" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="Y41" s="70">
-        <v>21.76</v>
+        <v>27.45</v>
       </c>
       <c r="Z41" s="45"/>
-      <c r="AA41" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE41" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF41" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG41" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH41" s="48">
-        <v>95.58</v>
-      </c>
+      <c r="AA41" s="14"/>
+      <c r="AB41" s="14"/>
       <c r="AI41" s="14"/>
       <c r="AJ41" s="14"/>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="42">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -4188,7 +3407,7 @@
       <c r="F42" s="14"/>
       <c r="G42" s="41"/>
       <c r="H42" s="56" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="I42" s="42"/>
       <c r="J42" s="54">
@@ -4211,45 +3430,27 @@
       <c r="P42" s="41"/>
       <c r="R42" s="45"/>
       <c r="S42" s="45">
-        <v>1516</v>
+        <v>35</v>
       </c>
       <c r="T42" s="72">
-        <v>45417</v>
-      </c>
-      <c r="U42" t="s">
-        <v>66</v>
-      </c>
-      <c r="W42" t="s">
-        <v>22</v>
+        <v>45420</v>
+      </c>
+      <c r="U42" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="W42" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="Y42" s="70">
-        <v>3.22</v>
+        <v>12.84</v>
       </c>
       <c r="Z42" s="45"/>
-      <c r="AA42" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="AE42" s="47"/>
-      <c r="AF42" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG42" s="47"/>
-      <c r="AH42" s="48">
-        <v>3.22</v>
-      </c>
+      <c r="AA42" s="14"/>
+      <c r="AB42" s="14"/>
       <c r="AI42" s="14"/>
       <c r="AJ42" s="14"/>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
       <c r="C43" s="14"/>
@@ -4258,7 +3459,7 @@
       <c r="F43" s="14"/>
       <c r="G43" s="41"/>
       <c r="H43" s="56" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="I43" s="42"/>
       <c r="J43" s="54">
@@ -4281,46 +3482,28 @@
       <c r="P43" s="41"/>
       <c r="R43" s="45"/>
       <c r="S43" s="45">
-        <v>1517</v>
+        <v>36</v>
       </c>
       <c r="T43" s="72">
-        <v>45417</v>
-      </c>
-      <c r="U43" t="s">
-        <v>75</v>
-      </c>
-      <c r="W43" t="s">
-        <v>22</v>
+        <v>45419</v>
+      </c>
+      <c r="U43" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="W43" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="Y43" s="70">
-        <v>58</v>
+        <v>69.56</v>
       </c>
       <c r="Z43" s="45"/>
-      <c r="AA43" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD43" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE43" s="47"/>
-      <c r="AF43" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG43" s="47"/>
-      <c r="AH43" s="48">
-        <v>86.38</v>
-      </c>
+      <c r="AA43" s="14"/>
+      <c r="AB43" s="14"/>
       <c r="AI43" s="14"/>
       <c r="AJ43" s="14"/>
       <c r="AR43" s="28"/>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="44">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
       <c r="C44" s="14"/>
@@ -4329,7 +3512,7 @@
       <c r="F44" s="14"/>
       <c r="G44" s="41"/>
       <c r="H44" s="56" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="I44" s="42"/>
       <c r="J44" s="54">
@@ -4352,47 +3535,27 @@
       <c r="P44" s="41"/>
       <c r="R44" s="45"/>
       <c r="S44" s="45">
-        <v>1518</v>
+        <v>37</v>
       </c>
       <c r="T44" s="72">
         <v>45417</v>
       </c>
-      <c r="U44" t="s">
-        <v>28</v>
-      </c>
-      <c r="W44" t="s">
-        <v>22</v>
+      <c r="U44" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="W44" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="Y44" s="70">
-        <v>47.1</v>
+        <v>21.76</v>
       </c>
       <c r="Z44" s="45"/>
-      <c r="AA44" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD44" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE44" s="47"/>
-      <c r="AF44" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG44" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH44" s="48">
-        <v>158.27000000000001</v>
-      </c>
+      <c r="AA44" s="14"/>
+      <c r="AB44" s="14"/>
       <c r="AI44" s="14"/>
       <c r="AJ44" s="14"/>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
       <c r="C45" s="14"/>
@@ -4420,49 +3583,27 @@
       <c r="P45" s="41"/>
       <c r="R45" s="45"/>
       <c r="S45" s="45">
-        <v>1519</v>
+        <v>38</v>
       </c>
       <c r="T45" s="72">
         <v>45417</v>
       </c>
-      <c r="U45" t="s">
-        <v>79</v>
-      </c>
-      <c r="W45" t="s">
-        <v>22</v>
+      <c r="U45" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="W45" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="Y45" s="70">
-        <v>-1647.72</v>
+        <v>3.22</v>
       </c>
       <c r="Z45" s="45"/>
-      <c r="AA45" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE45" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="AF45" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG45" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH45" s="48">
-        <v>7.48</v>
-      </c>
+      <c r="AA45" s="14"/>
+      <c r="AB45" s="14"/>
       <c r="AI45" s="14"/>
       <c r="AJ45" s="14"/>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="46">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
       <c r="C46" s="14"/>
@@ -4490,49 +3631,27 @@
       <c r="P46" s="41"/>
       <c r="R46" s="45"/>
       <c r="S46" s="45">
-        <v>1520</v>
+        <v>39</v>
       </c>
       <c r="T46" s="72">
-        <v>45416</v>
-      </c>
-      <c r="U46" t="s">
-        <v>28</v>
-      </c>
-      <c r="W46" t="s">
-        <v>22</v>
+        <v>45417</v>
+      </c>
+      <c r="U46" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="W46" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="Y46" s="70">
-        <v>10.35</v>
+        <v>58</v>
       </c>
       <c r="Z46" s="45"/>
-      <c r="AA46" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB46" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD46" s="47" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE46" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="AF46" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG46" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH46" s="48">
-        <v>14.35</v>
-      </c>
+      <c r="AA46" s="14"/>
+      <c r="AB46" s="14"/>
       <c r="AI46" s="14"/>
       <c r="AJ46" s="14"/>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
       <c r="C47" s="14"/>
@@ -4560,48 +3679,28 @@
       <c r="P47" s="41"/>
       <c r="R47" s="45"/>
       <c r="S47" s="45">
-        <v>1521</v>
+        <v>40</v>
       </c>
       <c r="T47" s="72">
-        <v>45416</v>
-      </c>
-      <c r="U47" t="s">
-        <v>28</v>
-      </c>
-      <c r="W47" t="s">
-        <v>22</v>
+        <v>45417</v>
+      </c>
+      <c r="U47" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="W47" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="Y47" s="70">
-        <v>17.11</v>
+        <v>47.1</v>
       </c>
       <c r="Z47" s="45"/>
-      <c r="AA47" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB47" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD47" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE47" s="47"/>
-      <c r="AF47" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG47" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH47" s="48">
-        <v>180.94</v>
-      </c>
+      <c r="AA47" s="14"/>
+      <c r="AB47" s="14"/>
       <c r="AI47" s="14"/>
       <c r="AJ47" s="14"/>
       <c r="AR47" s="28"/>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="48">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -4629,47 +3728,27 @@
       <c r="P48" s="41"/>
       <c r="R48" s="45"/>
       <c r="S48" s="45">
-        <v>1522</v>
+        <v>41</v>
       </c>
       <c r="T48" s="72">
-        <v>45416</v>
-      </c>
-      <c r="U48" t="s">
-        <v>90</v>
-      </c>
-      <c r="W48" t="s">
-        <v>22</v>
+        <v>45417</v>
+      </c>
+      <c r="U48" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="W48" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="Y48" s="70">
-        <v>904.99</v>
+        <v>-1647.72</v>
       </c>
       <c r="Z48" s="45"/>
-      <c r="AA48" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB48" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC48" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD48" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE48" s="47"/>
-      <c r="AF48" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG48" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH48" s="48">
-        <v>4.7300000000000004</v>
-      </c>
+      <c r="AA48" s="14"/>
+      <c r="AB48" s="14"/>
       <c r="AI48" s="14"/>
       <c r="AJ48" s="14"/>
     </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
       <c r="C49" s="14"/>
@@ -4697,45 +3776,27 @@
       <c r="P49" s="41"/>
       <c r="R49" s="45"/>
       <c r="S49" s="45">
-        <v>1523</v>
+        <v>42</v>
       </c>
       <c r="T49" s="72">
-        <v>45415</v>
-      </c>
-      <c r="U49" t="s">
-        <v>95</v>
-      </c>
-      <c r="W49" t="s">
-        <v>22</v>
+        <v>45416</v>
+      </c>
+      <c r="U49" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="W49" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="Y49" s="70">
-        <v>24.71</v>
+        <v>10.35</v>
       </c>
       <c r="Z49" s="45"/>
-      <c r="AA49" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD49" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE49" s="47"/>
-      <c r="AF49" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG49" s="47"/>
-      <c r="AH49" s="48">
-        <v>32.22</v>
-      </c>
+      <c r="AA49" s="14"/>
+      <c r="AB49" s="14"/>
       <c r="AI49" s="14"/>
       <c r="AJ49" s="14"/>
     </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
       <c r="C50" s="14"/>
@@ -4763,47 +3824,27 @@
       <c r="P50" s="41"/>
       <c r="R50" s="45"/>
       <c r="S50" s="45">
-        <v>1524</v>
+        <v>43</v>
       </c>
       <c r="T50" s="72">
-        <v>45415</v>
-      </c>
-      <c r="U50" t="s">
-        <v>74</v>
-      </c>
-      <c r="W50" t="s">
-        <v>22</v>
+        <v>45416</v>
+      </c>
+      <c r="U50" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="W50" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="Y50" s="70">
-        <v>48.18</v>
+        <v>17.11</v>
       </c>
       <c r="Z50" s="45"/>
-      <c r="AA50" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB50" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC50" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD50" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="AE50" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF50" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG50" s="47"/>
-      <c r="AH50" s="48">
-        <v>780.78</v>
-      </c>
+      <c r="AA50" s="14"/>
+      <c r="AB50" s="14"/>
       <c r="AI50" s="14"/>
       <c r="AJ50" s="14"/>
     </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
       <c r="C51" s="14"/>
@@ -4831,45 +3872,27 @@
       <c r="P51" s="41"/>
       <c r="R51" s="45"/>
       <c r="S51" s="45">
-        <v>1525</v>
+        <v>44</v>
       </c>
       <c r="T51" s="72">
-        <v>45415</v>
-      </c>
-      <c r="U51" t="s">
-        <v>28</v>
-      </c>
-      <c r="W51" t="s">
-        <v>22</v>
+        <v>45416</v>
+      </c>
+      <c r="U51" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="W51" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="Y51" s="70">
-        <v>18.16</v>
+        <v>904.99</v>
       </c>
       <c r="Z51" s="45"/>
-      <c r="AA51" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB51" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC51" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD51" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE51" s="47"/>
-      <c r="AF51" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG51" s="47"/>
-      <c r="AH51" s="48">
-        <v>-3.42</v>
-      </c>
+      <c r="AA51" s="14"/>
+      <c r="AB51" s="14"/>
       <c r="AI51" s="14"/>
       <c r="AJ51" s="14"/>
     </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
       <c r="C52" s="14"/>
@@ -4897,45 +3920,27 @@
       <c r="P52" s="41"/>
       <c r="R52" s="45"/>
       <c r="S52" s="45">
-        <v>1526</v>
+        <v>45</v>
       </c>
       <c r="T52" s="72">
-        <v>45414</v>
-      </c>
-      <c r="U52" t="s">
-        <v>110</v>
-      </c>
-      <c r="W52" t="s">
-        <v>22</v>
+        <v>45415</v>
+      </c>
+      <c r="U52" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="W52" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="Y52" s="70">
-        <v>0.06</v>
+        <v>24.71</v>
       </c>
       <c r="Z52" s="45"/>
-      <c r="AA52" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB52" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD52" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="AE52" s="47"/>
-      <c r="AF52" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG52" s="47"/>
-      <c r="AH52" s="48">
-        <v>26</v>
-      </c>
+      <c r="AA52" s="14"/>
+      <c r="AB52" s="14"/>
       <c r="AI52" s="14"/>
       <c r="AJ52" s="14"/>
     </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="53">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -4963,49 +3968,27 @@
       <c r="P53" s="41"/>
       <c r="R53" s="45"/>
       <c r="S53" s="45">
-        <v>1527</v>
+        <v>46</v>
       </c>
       <c r="T53" s="72">
-        <v>45414</v>
-      </c>
-      <c r="U53" t="s">
-        <v>113</v>
-      </c>
-      <c r="W53" t="s">
-        <v>22</v>
+        <v>45415</v>
+      </c>
+      <c r="U53" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="W53" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="Y53" s="70">
-        <v>10</v>
+        <v>48.18</v>
       </c>
       <c r="Z53" s="45"/>
-      <c r="AA53" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB53" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC53" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD53" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE53" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF53" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG53" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH53" s="48">
-        <v>50</v>
-      </c>
+      <c r="AA53" s="14"/>
+      <c r="AB53" s="14"/>
       <c r="AI53" s="14"/>
       <c r="AJ53" s="14"/>
     </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="54">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
       <c r="C54" s="14"/>
@@ -5033,41 +4016,29 @@
       <c r="P54" s="41"/>
       <c r="R54" s="45"/>
       <c r="S54" s="45">
-        <v>1528</v>
+        <v>47</v>
       </c>
       <c r="T54" s="46">
-        <v>45414</v>
+        <v>45415</v>
       </c>
       <c r="U54" s="47" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="V54" s="47"/>
       <c r="W54" s="47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X54" s="47"/>
       <c r="Y54" s="48">
-        <v>32.090000000000003</v>
+        <v>18.16</v>
       </c>
       <c r="Z54" s="45"/>
-      <c r="AA54" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB54" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC54" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD54" s="14"/>
-      <c r="AE54" s="14"/>
-      <c r="AF54" s="14"/>
-      <c r="AG54" s="14"/>
-      <c r="AH54" s="14"/>
+      <c r="AA54" s="14"/>
+      <c r="AB54" s="14"/>
       <c r="AI54" s="14"/>
       <c r="AJ54" s="14"/>
     </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="55">
       <c r="A55" s="14"/>
       <c r="B55" s="14"/>
       <c r="C55" s="14"/>
@@ -5095,41 +4066,29 @@
       <c r="P55" s="41"/>
       <c r="R55" s="45"/>
       <c r="S55" s="45">
-        <v>1529</v>
+        <v>48</v>
       </c>
       <c r="T55" s="46">
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="U55" s="47" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="V55" s="47"/>
       <c r="W55" s="47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X55" s="47"/>
       <c r="Y55" s="48">
-        <v>129</v>
+        <v>0.06</v>
       </c>
       <c r="Z55" s="45"/>
-      <c r="AA55" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB55" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC55" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD55" s="14"/>
-      <c r="AE55" s="14"/>
-      <c r="AF55" s="14"/>
-      <c r="AG55" s="14"/>
-      <c r="AH55" s="14"/>
+      <c r="AA55" s="14"/>
+      <c r="AB55" s="14"/>
       <c r="AI55" s="14"/>
       <c r="AJ55" s="14"/>
     </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="56">
       <c r="A56" s="14"/>
       <c r="B56" s="14"/>
       <c r="C56" s="14"/>
@@ -5157,41 +4116,29 @@
       <c r="P56" s="41"/>
       <c r="R56" s="45"/>
       <c r="S56" s="45">
-        <v>1530</v>
+        <v>49</v>
       </c>
       <c r="T56" s="46">
-        <v>45413</v>
+        <v>45414</v>
       </c>
       <c r="U56" s="47" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="V56" s="47"/>
       <c r="W56" s="47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X56" s="47"/>
       <c r="Y56" s="48">
-        <v>134.84</v>
+        <v>10</v>
       </c>
       <c r="Z56" s="45"/>
-      <c r="AA56" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB56" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC56" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD56" s="14"/>
-      <c r="AE56" s="14"/>
-      <c r="AF56" s="14"/>
-      <c r="AG56" s="14"/>
-      <c r="AH56" s="14"/>
+      <c r="AA56" s="14"/>
+      <c r="AB56" s="14"/>
       <c r="AI56" s="14"/>
       <c r="AJ56" s="14"/>
     </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="57">
       <c r="A57" s="14"/>
       <c r="B57" s="14"/>
       <c r="C57" s="14"/>
@@ -5219,41 +4166,29 @@
       <c r="P57" s="41"/>
       <c r="R57" s="45"/>
       <c r="S57" s="45">
-        <v>1593</v>
+        <v>50</v>
       </c>
       <c r="T57" s="46">
-        <v>45438</v>
+        <v>45414</v>
       </c>
       <c r="U57" s="47" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="V57" s="47"/>
       <c r="W57" s="47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X57" s="47"/>
       <c r="Y57" s="48">
-        <v>17.14</v>
+        <v>32.09</v>
       </c>
       <c r="Z57" s="45"/>
-      <c r="AA57" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB57" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC57" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD57" s="14"/>
-      <c r="AE57" s="14"/>
-      <c r="AF57" s="14"/>
-      <c r="AG57" s="14"/>
-      <c r="AH57" s="14"/>
+      <c r="AA57" s="14"/>
+      <c r="AB57" s="14"/>
       <c r="AI57" s="14"/>
       <c r="AJ57" s="14"/>
     </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="58">
       <c r="A58" s="14"/>
       <c r="B58" s="14"/>
       <c r="C58" s="14"/>
@@ -5281,41 +4216,29 @@
       <c r="P58" s="41"/>
       <c r="R58" s="45"/>
       <c r="S58" s="45">
-        <v>1594</v>
+        <v>51</v>
       </c>
       <c r="T58" s="46">
-        <v>45438</v>
+        <v>45413</v>
       </c>
       <c r="U58" s="47" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="V58" s="47"/>
       <c r="W58" s="47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X58" s="47"/>
       <c r="Y58" s="48">
-        <v>10.69</v>
+        <v>129</v>
       </c>
       <c r="Z58" s="45"/>
-      <c r="AA58" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB58" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC58" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD58" s="14"/>
-      <c r="AE58" s="14"/>
-      <c r="AF58" s="14"/>
-      <c r="AG58" s="14"/>
-      <c r="AH58" s="14"/>
+      <c r="AA58" s="14"/>
+      <c r="AB58" s="14"/>
       <c r="AI58" s="14"/>
       <c r="AJ58" s="14"/>
     </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="59">
       <c r="A59" s="14"/>
       <c r="B59" s="14"/>
       <c r="C59" s="14"/>
@@ -5334,41 +4257,29 @@
       <c r="P59" s="1"/>
       <c r="R59" s="45"/>
       <c r="S59" s="45">
-        <v>1595</v>
+        <v>52</v>
       </c>
       <c r="T59" s="46">
-        <v>45438</v>
+        <v>45413</v>
       </c>
       <c r="U59" s="47" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="V59" s="47"/>
       <c r="W59" s="47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X59" s="47"/>
       <c r="Y59" s="48">
-        <v>50.73</v>
+        <v>134.84</v>
       </c>
       <c r="Z59" s="45"/>
-      <c r="AA59" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB59" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC59" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD59" s="14"/>
-      <c r="AE59" s="14"/>
-      <c r="AF59" s="14"/>
-      <c r="AG59" s="14"/>
-      <c r="AH59" s="14"/>
+      <c r="AA59" s="14"/>
+      <c r="AB59" s="14"/>
       <c r="AI59" s="14"/>
       <c r="AJ59" s="14"/>
     </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="60">
       <c r="A60" s="14"/>
       <c r="B60" s="14"/>
       <c r="C60" s="14"/>
@@ -5393,35 +4304,23 @@
         <v>45438</v>
       </c>
       <c r="U60" s="47" t="s">
-        <v>142</v>
+        <v>36</v>
       </c>
       <c r="V60" s="47"/>
       <c r="W60" s="47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X60" s="47"/>
       <c r="Y60" s="48">
-        <v>264.02999999999997</v>
+        <v>264.03</v>
       </c>
       <c r="Z60" s="45"/>
-      <c r="AA60" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB60" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC60" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD60" s="14"/>
-      <c r="AE60" s="14"/>
-      <c r="AF60" s="14"/>
-      <c r="AG60" s="14"/>
-      <c r="AH60" s="14"/>
+      <c r="AA60" s="14"/>
+      <c r="AB60" s="14"/>
       <c r="AI60" s="14"/>
       <c r="AJ60" s="14"/>
     </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="61">
       <c r="A61" s="14"/>
       <c r="B61" s="14"/>
       <c r="C61" s="14"/>
@@ -5446,35 +4345,23 @@
         <v>45437</v>
       </c>
       <c r="U61" s="47" t="s">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="V61" s="47"/>
       <c r="W61" s="47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="X61" s="47"/>
       <c r="Y61" s="48">
         <v>24.34</v>
       </c>
       <c r="Z61" s="45"/>
-      <c r="AA61" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB61" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC61" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD61" s="14"/>
-      <c r="AE61" s="14"/>
-      <c r="AF61" s="14"/>
-      <c r="AG61" s="14"/>
-      <c r="AH61" s="14"/>
+      <c r="AA61" s="14"/>
+      <c r="AB61" s="14"/>
       <c r="AI61" s="14"/>
       <c r="AJ61" s="14"/>
     </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="62">
       <c r="A62" s="14"/>
       <c r="B62" s="14"/>
       <c r="C62" s="14"/>
@@ -5492,42 +4379,20 @@
       <c r="O62" s="2"/>
       <c r="P62" s="1"/>
       <c r="R62" s="45"/>
-      <c r="S62" s="45">
-        <v>1535</v>
-      </c>
-      <c r="T62" s="46">
-        <v>45407</v>
-      </c>
-      <c r="U62" s="47" t="s">
-        <v>112</v>
-      </c>
+      <c r="S62" s="45"/>
+      <c r="T62" s="46"/>
+      <c r="U62" s="47"/>
       <c r="V62" s="47"/>
-      <c r="W62" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W62" s="47"/>
       <c r="X62" s="47"/>
-      <c r="Y62" s="48">
-        <v>32.07</v>
-      </c>
+      <c r="Y62" s="48"/>
       <c r="Z62" s="45"/>
-      <c r="AA62" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB62" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC62" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD62" s="14"/>
-      <c r="AE62" s="14"/>
-      <c r="AF62" s="14"/>
-      <c r="AG62" s="14"/>
-      <c r="AH62" s="14"/>
+      <c r="AA62" s="14"/>
+      <c r="AB62" s="14"/>
       <c r="AI62" s="14"/>
       <c r="AJ62" s="14"/>
     </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="63">
       <c r="A63" s="14"/>
       <c r="B63" s="14"/>
       <c r="C63" s="14"/>
@@ -5545,42 +4410,20 @@
       <c r="O63" s="2"/>
       <c r="P63" s="1"/>
       <c r="R63" s="45"/>
-      <c r="S63" s="45">
-        <v>1536</v>
-      </c>
-      <c r="T63" s="46">
-        <v>45407</v>
-      </c>
-      <c r="U63" s="47" t="s">
-        <v>112</v>
-      </c>
+      <c r="S63" s="45"/>
+      <c r="T63" s="46"/>
+      <c r="U63" s="47"/>
       <c r="V63" s="47"/>
-      <c r="W63" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W63" s="47"/>
       <c r="X63" s="47"/>
-      <c r="Y63" s="48">
-        <v>-9.02</v>
-      </c>
+      <c r="Y63" s="48"/>
       <c r="Z63" s="45"/>
-      <c r="AA63" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB63" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC63" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD63" s="14"/>
-      <c r="AE63" s="14"/>
-      <c r="AF63" s="14"/>
-      <c r="AG63" s="14"/>
-      <c r="AH63" s="14"/>
+      <c r="AA63" s="14"/>
+      <c r="AB63" s="14"/>
       <c r="AI63" s="14"/>
       <c r="AJ63" s="14"/>
     </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="64">
       <c r="A64" s="14"/>
       <c r="B64" s="14"/>
       <c r="C64" s="14"/>
@@ -5598,42 +4441,20 @@
       <c r="O64" s="2"/>
       <c r="P64" s="1"/>
       <c r="R64" s="45"/>
-      <c r="S64" s="45">
-        <v>1537</v>
-      </c>
-      <c r="T64" s="46">
-        <v>45406</v>
-      </c>
-      <c r="U64" s="47" t="s">
-        <v>112</v>
-      </c>
+      <c r="S64" s="45"/>
+      <c r="T64" s="46"/>
+      <c r="U64" s="47"/>
       <c r="V64" s="47"/>
-      <c r="W64" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W64" s="47"/>
       <c r="X64" s="47"/>
-      <c r="Y64" s="48">
-        <v>9.02</v>
-      </c>
+      <c r="Y64" s="48"/>
       <c r="Z64" s="45"/>
-      <c r="AA64" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB64" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC64" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD64" s="14"/>
-      <c r="AE64" s="14"/>
-      <c r="AF64" s="14"/>
-      <c r="AG64" s="14"/>
-      <c r="AH64" s="14"/>
+      <c r="AA64" s="14"/>
+      <c r="AB64" s="14"/>
       <c r="AI64" s="14"/>
       <c r="AJ64" s="14"/>
     </row>
-    <row r="65" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="65">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" s="14"/>
@@ -5651,42 +4472,20 @@
       <c r="O65" s="2"/>
       <c r="P65" s="1"/>
       <c r="R65" s="45"/>
-      <c r="S65" s="45">
-        <v>1538</v>
-      </c>
-      <c r="T65" s="46">
-        <v>45406</v>
-      </c>
-      <c r="U65" s="47" t="s">
-        <v>28</v>
-      </c>
+      <c r="S65" s="45"/>
+      <c r="T65" s="46"/>
+      <c r="U65" s="47"/>
       <c r="V65" s="47"/>
-      <c r="W65" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W65" s="47"/>
       <c r="X65" s="47"/>
-      <c r="Y65" s="48">
-        <v>13.9</v>
-      </c>
+      <c r="Y65" s="48"/>
       <c r="Z65" s="45"/>
-      <c r="AA65" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB65" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC65" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD65" s="14"/>
-      <c r="AE65" s="14"/>
-      <c r="AF65" s="14"/>
-      <c r="AG65" s="14"/>
-      <c r="AH65" s="14"/>
+      <c r="AA65" s="14"/>
+      <c r="AB65" s="14"/>
       <c r="AI65" s="14"/>
       <c r="AJ65" s="14"/>
     </row>
-    <row r="66" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="66">
       <c r="A66" s="14"/>
       <c r="B66" s="14"/>
       <c r="C66" s="14"/>
@@ -5704,42 +4503,20 @@
       <c r="O66" s="2"/>
       <c r="P66" s="1"/>
       <c r="R66" s="45"/>
-      <c r="S66" s="45">
-        <v>1539</v>
-      </c>
-      <c r="T66" s="46">
-        <v>45405</v>
-      </c>
-      <c r="U66" s="47" t="s">
-        <v>144</v>
-      </c>
+      <c r="S66" s="45"/>
+      <c r="T66" s="46"/>
+      <c r="U66" s="47"/>
       <c r="V66" s="47"/>
-      <c r="W66" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W66" s="47"/>
       <c r="X66" s="47"/>
-      <c r="Y66" s="48">
-        <v>20.6</v>
-      </c>
+      <c r="Y66" s="48"/>
       <c r="Z66" s="45"/>
-      <c r="AA66" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB66" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC66" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD66" s="14"/>
-      <c r="AE66" s="14"/>
-      <c r="AF66" s="14"/>
-      <c r="AG66" s="14"/>
-      <c r="AH66" s="14"/>
+      <c r="AA66" s="14"/>
+      <c r="AB66" s="14"/>
       <c r="AI66" s="14"/>
       <c r="AJ66" s="14"/>
     </row>
-    <row r="67" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="67">
       <c r="A67" s="14"/>
       <c r="B67" s="14"/>
       <c r="C67" s="14"/>
@@ -5757,42 +4534,20 @@
       <c r="O67" s="2"/>
       <c r="P67" s="1"/>
       <c r="R67" s="45"/>
-      <c r="S67" s="45">
-        <v>1540</v>
-      </c>
-      <c r="T67" s="46">
-        <v>45405</v>
-      </c>
-      <c r="U67" s="47" t="s">
-        <v>79</v>
-      </c>
+      <c r="S67" s="45"/>
+      <c r="T67" s="46"/>
+      <c r="U67" s="47"/>
       <c r="V67" s="47"/>
-      <c r="W67" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W67" s="47"/>
       <c r="X67" s="47"/>
-      <c r="Y67" s="48">
-        <v>-1288.77</v>
-      </c>
+      <c r="Y67" s="48"/>
       <c r="Z67" s="45"/>
-      <c r="AA67" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB67" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC67" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD67" s="14"/>
-      <c r="AE67" s="14"/>
-      <c r="AF67" s="14"/>
-      <c r="AG67" s="14"/>
-      <c r="AH67" s="14"/>
+      <c r="AA67" s="14"/>
+      <c r="AB67" s="14"/>
       <c r="AI67" s="14"/>
       <c r="AJ67" s="14"/>
     </row>
-    <row r="68" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="68">
       <c r="A68" s="14"/>
       <c r="B68" s="14"/>
       <c r="C68" s="14"/>
@@ -5810,42 +4565,20 @@
       <c r="O68" s="2"/>
       <c r="P68" s="1"/>
       <c r="R68" s="45"/>
-      <c r="S68" s="45">
-        <v>1541</v>
-      </c>
-      <c r="T68" s="46">
-        <v>45404</v>
-      </c>
-      <c r="U68" s="47" t="s">
-        <v>28</v>
-      </c>
+      <c r="S68" s="45"/>
+      <c r="T68" s="46"/>
+      <c r="U68" s="47"/>
       <c r="V68" s="47"/>
-      <c r="W68" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W68" s="47"/>
       <c r="X68" s="47"/>
-      <c r="Y68" s="48">
-        <v>32.090000000000003</v>
-      </c>
+      <c r="Y68" s="48"/>
       <c r="Z68" s="45"/>
-      <c r="AA68" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB68" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC68" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD68" s="14"/>
-      <c r="AE68" s="14"/>
-      <c r="AF68" s="14"/>
-      <c r="AG68" s="14"/>
-      <c r="AH68" s="14"/>
+      <c r="AA68" s="14"/>
+      <c r="AB68" s="14"/>
       <c r="AI68" s="14"/>
       <c r="AJ68" s="14"/>
     </row>
-    <row r="69" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="69">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="14"/>
@@ -5863,42 +4596,20 @@
       <c r="O69" s="2"/>
       <c r="P69" s="1"/>
       <c r="R69" s="45"/>
-      <c r="S69" s="45">
-        <v>1542</v>
-      </c>
-      <c r="T69" s="46">
-        <v>45403</v>
-      </c>
-      <c r="U69" s="47" t="s">
-        <v>145</v>
-      </c>
+      <c r="S69" s="45"/>
+      <c r="T69" s="46"/>
+      <c r="U69" s="47"/>
       <c r="V69" s="47"/>
-      <c r="W69" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W69" s="47"/>
       <c r="X69" s="47"/>
-      <c r="Y69" s="48">
-        <v>64.459999999999994</v>
-      </c>
+      <c r="Y69" s="48"/>
       <c r="Z69" s="45"/>
-      <c r="AA69" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB69" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC69" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD69" s="14"/>
-      <c r="AE69" s="14"/>
-      <c r="AF69" s="14"/>
-      <c r="AG69" s="14"/>
-      <c r="AH69" s="14"/>
+      <c r="AA69" s="14"/>
+      <c r="AB69" s="14"/>
       <c r="AI69" s="14"/>
       <c r="AJ69" s="14"/>
     </row>
-    <row r="70" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="70">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="14"/>
@@ -5916,42 +4627,20 @@
       <c r="O70" s="2"/>
       <c r="P70" s="1"/>
       <c r="R70" s="45"/>
-      <c r="S70" s="45">
-        <v>1543</v>
-      </c>
-      <c r="T70" s="46">
-        <v>45403</v>
-      </c>
-      <c r="U70" s="47" t="s">
-        <v>146</v>
-      </c>
+      <c r="S70" s="45"/>
+      <c r="T70" s="46"/>
+      <c r="U70" s="47"/>
       <c r="V70" s="47"/>
-      <c r="W70" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W70" s="47"/>
       <c r="X70" s="47"/>
-      <c r="Y70" s="48">
-        <v>0.64</v>
-      </c>
+      <c r="Y70" s="48"/>
       <c r="Z70" s="45"/>
-      <c r="AA70" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB70" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC70" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD70" s="14"/>
-      <c r="AE70" s="14"/>
-      <c r="AF70" s="14"/>
-      <c r="AG70" s="14"/>
-      <c r="AH70" s="14"/>
+      <c r="AA70" s="14"/>
+      <c r="AB70" s="14"/>
       <c r="AI70" s="14"/>
       <c r="AJ70" s="14"/>
     </row>
-    <row r="71" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="71">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="14"/>
@@ -5969,42 +4658,20 @@
       <c r="O71" s="2"/>
       <c r="P71" s="1"/>
       <c r="R71" s="45"/>
-      <c r="S71" s="45">
-        <v>1544</v>
-      </c>
-      <c r="T71" s="46">
-        <v>45403</v>
-      </c>
-      <c r="U71" s="47" t="s">
-        <v>74</v>
-      </c>
+      <c r="S71" s="45"/>
+      <c r="T71" s="46"/>
+      <c r="U71" s="47"/>
       <c r="V71" s="47"/>
-      <c r="W71" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W71" s="47"/>
       <c r="X71" s="47"/>
-      <c r="Y71" s="48">
-        <v>4.13</v>
-      </c>
+      <c r="Y71" s="48"/>
       <c r="Z71" s="45"/>
-      <c r="AA71" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB71" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC71" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD71" s="14"/>
-      <c r="AE71" s="14"/>
-      <c r="AF71" s="14"/>
-      <c r="AG71" s="14"/>
-      <c r="AH71" s="14"/>
+      <c r="AA71" s="14"/>
+      <c r="AB71" s="14"/>
       <c r="AI71" s="14"/>
       <c r="AJ71" s="14"/>
     </row>
-    <row r="72" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="72">
       <c r="A72" s="14"/>
       <c r="B72" s="14"/>
       <c r="C72" s="14"/>
@@ -6022,42 +4689,20 @@
       <c r="O72" s="2"/>
       <c r="P72" s="1"/>
       <c r="R72" s="45"/>
-      <c r="S72" s="45">
-        <v>1545</v>
-      </c>
-      <c r="T72" s="46">
-        <v>45403</v>
-      </c>
-      <c r="U72" s="47" t="s">
-        <v>74</v>
-      </c>
+      <c r="S72" s="45"/>
+      <c r="T72" s="46"/>
+      <c r="U72" s="47"/>
       <c r="V72" s="47"/>
-      <c r="W72" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W72" s="47"/>
       <c r="X72" s="47"/>
-      <c r="Y72" s="48">
-        <v>96.29</v>
-      </c>
+      <c r="Y72" s="48"/>
       <c r="Z72" s="45"/>
-      <c r="AA72" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB72" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC72" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD72" s="14"/>
-      <c r="AE72" s="14"/>
-      <c r="AF72" s="14"/>
-      <c r="AG72" s="14"/>
-      <c r="AH72" s="14"/>
+      <c r="AA72" s="14"/>
+      <c r="AB72" s="14"/>
       <c r="AI72" s="14"/>
       <c r="AJ72" s="14"/>
     </row>
-    <row r="73" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="73">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" s="14"/>
@@ -6075,42 +4720,20 @@
       <c r="O73" s="2"/>
       <c r="P73" s="1"/>
       <c r="R73" s="45"/>
-      <c r="S73" s="45">
-        <v>1546</v>
-      </c>
-      <c r="T73" s="46">
-        <v>45402</v>
-      </c>
-      <c r="U73" s="47" t="s">
-        <v>28</v>
-      </c>
+      <c r="S73" s="45"/>
+      <c r="T73" s="46"/>
+      <c r="U73" s="47"/>
       <c r="V73" s="47"/>
-      <c r="W73" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W73" s="47"/>
       <c r="X73" s="47"/>
-      <c r="Y73" s="48">
-        <v>6.94</v>
-      </c>
+      <c r="Y73" s="48"/>
       <c r="Z73" s="45"/>
-      <c r="AA73" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB73" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC73" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD73" s="14"/>
-      <c r="AE73" s="14"/>
-      <c r="AF73" s="14"/>
-      <c r="AG73" s="14"/>
-      <c r="AH73" s="14"/>
+      <c r="AA73" s="14"/>
+      <c r="AB73" s="14"/>
       <c r="AI73" s="14"/>
       <c r="AJ73" s="14"/>
     </row>
-    <row r="74" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="74">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="14"/>
@@ -6128,42 +4751,20 @@
       <c r="O74" s="2"/>
       <c r="P74" s="1"/>
       <c r="R74" s="45"/>
-      <c r="S74" s="45">
-        <v>1547</v>
-      </c>
-      <c r="T74" s="46">
-        <v>45400</v>
-      </c>
-      <c r="U74" s="47" t="s">
-        <v>132</v>
-      </c>
+      <c r="S74" s="45"/>
+      <c r="T74" s="46"/>
+      <c r="U74" s="47"/>
       <c r="V74" s="47"/>
-      <c r="W74" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W74" s="47"/>
       <c r="X74" s="47"/>
-      <c r="Y74" s="48">
-        <v>3.2</v>
-      </c>
+      <c r="Y74" s="48"/>
       <c r="Z74" s="45"/>
-      <c r="AA74" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB74" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC74" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD74" s="14"/>
-      <c r="AE74" s="14"/>
-      <c r="AF74" s="14"/>
-      <c r="AG74" s="14"/>
-      <c r="AH74" s="14"/>
+      <c r="AA74" s="14"/>
+      <c r="AB74" s="14"/>
       <c r="AI74" s="14"/>
       <c r="AJ74" s="14"/>
     </row>
-    <row r="75" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="75">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="14"/>
@@ -6181,42 +4782,20 @@
       <c r="O75" s="2"/>
       <c r="P75" s="1"/>
       <c r="R75" s="45"/>
-      <c r="S75" s="45">
-        <v>1548</v>
-      </c>
-      <c r="T75" s="46">
-        <v>45400</v>
-      </c>
-      <c r="U75" s="47" t="s">
-        <v>132</v>
-      </c>
+      <c r="S75" s="45"/>
+      <c r="T75" s="46"/>
+      <c r="U75" s="47"/>
       <c r="V75" s="47"/>
-      <c r="W75" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W75" s="47"/>
       <c r="X75" s="47"/>
-      <c r="Y75" s="48">
-        <v>37.85</v>
-      </c>
+      <c r="Y75" s="48"/>
       <c r="Z75" s="45"/>
-      <c r="AA75" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB75" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC75" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD75" s="14"/>
-      <c r="AE75" s="14"/>
-      <c r="AF75" s="14"/>
-      <c r="AG75" s="14"/>
-      <c r="AH75" s="14"/>
+      <c r="AA75" s="14"/>
+      <c r="AB75" s="14"/>
       <c r="AI75" s="14"/>
       <c r="AJ75" s="14"/>
     </row>
-    <row r="76" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="76">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="14"/>
@@ -6234,42 +4813,20 @@
       <c r="O76" s="2"/>
       <c r="P76" s="1"/>
       <c r="R76" s="45"/>
-      <c r="S76" s="45">
-        <v>1549</v>
-      </c>
-      <c r="T76" s="46">
-        <v>45400</v>
-      </c>
-      <c r="U76" s="47" t="s">
-        <v>28</v>
-      </c>
+      <c r="S76" s="45"/>
+      <c r="T76" s="46"/>
+      <c r="U76" s="47"/>
       <c r="V76" s="47"/>
-      <c r="W76" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W76" s="47"/>
       <c r="X76" s="47"/>
-      <c r="Y76" s="48">
-        <v>-155.13999999999999</v>
-      </c>
+      <c r="Y76" s="48"/>
       <c r="Z76" s="45"/>
-      <c r="AA76" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB76" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC76" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD76" s="14"/>
-      <c r="AE76" s="14"/>
-      <c r="AF76" s="14"/>
-      <c r="AG76" s="14"/>
-      <c r="AH76" s="14"/>
+      <c r="AA76" s="14"/>
+      <c r="AB76" s="14"/>
       <c r="AI76" s="14"/>
       <c r="AJ76" s="14"/>
     </row>
-    <row r="77" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="77">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="14"/>
@@ -6287,42 +4844,20 @@
       <c r="O77" s="2"/>
       <c r="P77" s="1"/>
       <c r="R77" s="45"/>
-      <c r="S77" s="45">
-        <v>1550</v>
-      </c>
-      <c r="T77" s="46">
-        <v>45400</v>
-      </c>
-      <c r="U77" s="47" t="s">
-        <v>28</v>
-      </c>
+      <c r="S77" s="45"/>
+      <c r="T77" s="46"/>
+      <c r="U77" s="47"/>
       <c r="V77" s="47"/>
-      <c r="W77" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W77" s="47"/>
       <c r="X77" s="47"/>
-      <c r="Y77" s="48">
-        <v>10.59</v>
-      </c>
+      <c r="Y77" s="48"/>
       <c r="Z77" s="45"/>
-      <c r="AA77" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB77" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC77" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD77" s="14"/>
-      <c r="AE77" s="14"/>
-      <c r="AF77" s="14"/>
-      <c r="AG77" s="14"/>
-      <c r="AH77" s="14"/>
+      <c r="AA77" s="14"/>
+      <c r="AB77" s="14"/>
       <c r="AI77" s="14"/>
       <c r="AJ77" s="14"/>
     </row>
-    <row r="78" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="78">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="14"/>
@@ -6340,42 +4875,20 @@
       <c r="O78" s="2"/>
       <c r="P78" s="1"/>
       <c r="R78" s="45"/>
-      <c r="S78" s="45">
-        <v>1551</v>
-      </c>
-      <c r="T78" s="46">
-        <v>45399</v>
-      </c>
-      <c r="U78" s="47" t="s">
-        <v>74</v>
-      </c>
+      <c r="S78" s="45"/>
+      <c r="T78" s="46"/>
+      <c r="U78" s="47"/>
       <c r="V78" s="47"/>
-      <c r="W78" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W78" s="47"/>
       <c r="X78" s="47"/>
-      <c r="Y78" s="48">
-        <v>99.96</v>
-      </c>
+      <c r="Y78" s="48"/>
       <c r="Z78" s="45"/>
-      <c r="AA78" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB78" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC78" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD78" s="14"/>
-      <c r="AE78" s="14"/>
-      <c r="AF78" s="14"/>
-      <c r="AG78" s="14"/>
-      <c r="AH78" s="14"/>
+      <c r="AA78" s="14"/>
+      <c r="AB78" s="14"/>
       <c r="AI78" s="14"/>
       <c r="AJ78" s="14"/>
     </row>
-    <row r="79" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="79">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="14"/>
@@ -6393,42 +4906,20 @@
       <c r="O79" s="2"/>
       <c r="P79" s="1"/>
       <c r="R79" s="45"/>
-      <c r="S79" s="45">
-        <v>1552</v>
-      </c>
-      <c r="T79" s="46">
-        <v>45399</v>
-      </c>
-      <c r="U79" s="47" t="s">
-        <v>147</v>
-      </c>
+      <c r="S79" s="45"/>
+      <c r="T79" s="46"/>
+      <c r="U79" s="47"/>
       <c r="V79" s="47"/>
-      <c r="W79" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W79" s="47"/>
       <c r="X79" s="47"/>
-      <c r="Y79" s="48">
-        <v>66.59</v>
-      </c>
+      <c r="Y79" s="48"/>
       <c r="Z79" s="45"/>
-      <c r="AA79" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB79" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC79" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD79" s="14"/>
-      <c r="AE79" s="14"/>
-      <c r="AF79" s="14"/>
-      <c r="AG79" s="14"/>
-      <c r="AH79" s="14"/>
+      <c r="AA79" s="14"/>
+      <c r="AB79" s="14"/>
       <c r="AI79" s="14"/>
       <c r="AJ79" s="14"/>
     </row>
-    <row r="80" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="80">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="14"/>
@@ -6446,42 +4937,20 @@
       <c r="O80" s="2"/>
       <c r="P80" s="1"/>
       <c r="R80" s="45"/>
-      <c r="S80" s="45">
-        <v>1553</v>
-      </c>
-      <c r="T80" s="46">
-        <v>45398</v>
-      </c>
-      <c r="U80" s="47" t="s">
-        <v>108</v>
-      </c>
+      <c r="S80" s="45"/>
+      <c r="T80" s="46"/>
+      <c r="U80" s="47"/>
       <c r="V80" s="47"/>
-      <c r="W80" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W80" s="47"/>
       <c r="X80" s="47"/>
-      <c r="Y80" s="48">
-        <v>59.95</v>
-      </c>
+      <c r="Y80" s="48"/>
       <c r="Z80" s="45"/>
-      <c r="AA80" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB80" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC80" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD80" s="14"/>
-      <c r="AE80" s="14"/>
-      <c r="AF80" s="14"/>
-      <c r="AG80" s="14"/>
-      <c r="AH80" s="14"/>
+      <c r="AA80" s="14"/>
+      <c r="AB80" s="14"/>
       <c r="AI80" s="14"/>
       <c r="AJ80" s="14"/>
     </row>
-    <row r="81" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="81">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="14"/>
@@ -6499,42 +4968,20 @@
       <c r="O81" s="2"/>
       <c r="P81" s="1"/>
       <c r="R81" s="45"/>
-      <c r="S81" s="45">
-        <v>1554</v>
-      </c>
-      <c r="T81" s="46">
-        <v>45398</v>
-      </c>
-      <c r="U81" s="47" t="s">
-        <v>28</v>
-      </c>
+      <c r="S81" s="45"/>
+      <c r="T81" s="46"/>
+      <c r="U81" s="47"/>
       <c r="V81" s="47"/>
-      <c r="W81" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W81" s="47"/>
       <c r="X81" s="47"/>
-      <c r="Y81" s="48">
-        <v>75.86</v>
-      </c>
+      <c r="Y81" s="48"/>
       <c r="Z81" s="45"/>
-      <c r="AA81" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB81" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC81" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD81" s="14"/>
-      <c r="AE81" s="14"/>
-      <c r="AF81" s="14"/>
-      <c r="AG81" s="14"/>
-      <c r="AH81" s="14"/>
+      <c r="AA81" s="14"/>
+      <c r="AB81" s="14"/>
       <c r="AI81" s="14"/>
       <c r="AJ81" s="14"/>
     </row>
-    <row r="82" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="82">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="14"/>
@@ -6552,42 +4999,20 @@
       <c r="O82" s="2"/>
       <c r="P82" s="1"/>
       <c r="R82" s="45"/>
-      <c r="S82" s="45">
-        <v>1555</v>
-      </c>
-      <c r="T82" s="46">
-        <v>45396</v>
-      </c>
-      <c r="U82" s="47" t="s">
-        <v>148</v>
-      </c>
+      <c r="S82" s="45"/>
+      <c r="T82" s="46"/>
+      <c r="U82" s="47"/>
       <c r="V82" s="47"/>
-      <c r="W82" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W82" s="47"/>
       <c r="X82" s="47"/>
-      <c r="Y82" s="48">
-        <v>4.34</v>
-      </c>
+      <c r="Y82" s="48"/>
       <c r="Z82" s="45"/>
-      <c r="AA82" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB82" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC82" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD82" s="14"/>
-      <c r="AE82" s="14"/>
-      <c r="AF82" s="14"/>
-      <c r="AG82" s="14"/>
-      <c r="AH82" s="14"/>
+      <c r="AA82" s="14"/>
+      <c r="AB82" s="14"/>
       <c r="AI82" s="14"/>
       <c r="AJ82" s="14"/>
     </row>
-    <row r="83" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="83">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
@@ -6605,42 +5030,20 @@
       <c r="O83" s="2"/>
       <c r="P83" s="1"/>
       <c r="R83" s="45"/>
-      <c r="S83" s="45">
-        <v>1556</v>
-      </c>
-      <c r="T83" s="46">
-        <v>45395</v>
-      </c>
-      <c r="U83" s="47" t="s">
-        <v>149</v>
-      </c>
+      <c r="S83" s="45"/>
+      <c r="T83" s="46"/>
+      <c r="U83" s="47"/>
       <c r="V83" s="47"/>
-      <c r="W83" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W83" s="47"/>
       <c r="X83" s="47"/>
-      <c r="Y83" s="48">
-        <v>54.05</v>
-      </c>
+      <c r="Y83" s="48"/>
       <c r="Z83" s="45"/>
-      <c r="AA83" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB83" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC83" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD83" s="14"/>
-      <c r="AE83" s="14"/>
-      <c r="AF83" s="14"/>
-      <c r="AG83" s="14"/>
-      <c r="AH83" s="14"/>
+      <c r="AA83" s="14"/>
+      <c r="AB83" s="14"/>
       <c r="AI83" s="14"/>
       <c r="AJ83" s="14"/>
     </row>
-    <row r="84" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="84">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -6656,42 +5059,20 @@
       <c r="O84" s="2"/>
       <c r="P84" s="1"/>
       <c r="R84" s="45"/>
-      <c r="S84" s="45">
-        <v>1557</v>
-      </c>
-      <c r="T84" s="46">
-        <v>45395</v>
-      </c>
-      <c r="U84" s="47" t="s">
-        <v>150</v>
-      </c>
+      <c r="S84" s="45"/>
+      <c r="T84" s="46"/>
+      <c r="U84" s="47"/>
       <c r="V84" s="47"/>
-      <c r="W84" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W84" s="47"/>
       <c r="X84" s="47"/>
-      <c r="Y84" s="48">
-        <v>15.17</v>
-      </c>
+      <c r="Y84" s="48"/>
       <c r="Z84" s="45"/>
-      <c r="AA84" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB84" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC84" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD84" s="14"/>
-      <c r="AE84" s="14"/>
-      <c r="AF84" s="14"/>
-      <c r="AG84" s="14"/>
-      <c r="AH84" s="14"/>
+      <c r="AA84" s="14"/>
+      <c r="AB84" s="14"/>
       <c r="AI84" s="14"/>
       <c r="AJ84" s="14"/>
     </row>
-    <row r="85" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="85">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -6707,42 +5088,20 @@
       <c r="O85" s="2"/>
       <c r="P85" s="1"/>
       <c r="R85" s="45"/>
-      <c r="S85" s="45">
-        <v>1558</v>
-      </c>
-      <c r="T85" s="46">
-        <v>45395</v>
-      </c>
-      <c r="U85" s="47" t="s">
-        <v>89</v>
-      </c>
+      <c r="S85" s="45"/>
+      <c r="T85" s="46"/>
+      <c r="U85" s="47"/>
       <c r="V85" s="47"/>
-      <c r="W85" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W85" s="47"/>
       <c r="X85" s="47"/>
-      <c r="Y85" s="48">
-        <v>59.73</v>
-      </c>
+      <c r="Y85" s="48"/>
       <c r="Z85" s="45"/>
-      <c r="AA85" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB85" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC85" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD85" s="14"/>
-      <c r="AE85" s="14"/>
-      <c r="AF85" s="14"/>
-      <c r="AG85" s="14"/>
-      <c r="AH85" s="14"/>
+      <c r="AA85" s="14"/>
+      <c r="AB85" s="14"/>
       <c r="AI85" s="14"/>
       <c r="AJ85" s="14"/>
     </row>
-    <row r="86" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="86">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -6758,42 +5117,20 @@
       <c r="O86" s="2"/>
       <c r="P86" s="1"/>
       <c r="R86" s="45"/>
-      <c r="S86" s="45">
-        <v>1559</v>
-      </c>
-      <c r="T86" s="46">
-        <v>45394</v>
-      </c>
-      <c r="U86" s="47" t="s">
-        <v>74</v>
-      </c>
+      <c r="S86" s="45"/>
+      <c r="T86" s="46"/>
+      <c r="U86" s="47"/>
       <c r="V86" s="47"/>
-      <c r="W86" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W86" s="47"/>
       <c r="X86" s="47"/>
-      <c r="Y86" s="48">
-        <v>43.34</v>
-      </c>
+      <c r="Y86" s="48"/>
       <c r="Z86" s="45"/>
-      <c r="AA86" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB86" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC86" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD86" s="14"/>
-      <c r="AE86" s="14"/>
-      <c r="AF86" s="14"/>
-      <c r="AG86" s="14"/>
-      <c r="AH86" s="14"/>
+      <c r="AA86" s="14"/>
+      <c r="AB86" s="14"/>
       <c r="AI86" s="14"/>
       <c r="AJ86" s="14"/>
     </row>
-    <row r="87" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="87">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -6809,42 +5146,20 @@
       <c r="O87" s="2"/>
       <c r="P87" s="1"/>
       <c r="R87" s="45"/>
-      <c r="S87" s="45">
-        <v>1560</v>
-      </c>
-      <c r="T87" s="46">
-        <v>45394</v>
-      </c>
-      <c r="U87" s="47" t="s">
-        <v>74</v>
-      </c>
+      <c r="S87" s="45"/>
+      <c r="T87" s="46"/>
+      <c r="U87" s="47"/>
       <c r="V87" s="47"/>
-      <c r="W87" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W87" s="47"/>
       <c r="X87" s="47"/>
-      <c r="Y87" s="48">
-        <v>72.150000000000006</v>
-      </c>
+      <c r="Y87" s="48"/>
       <c r="Z87" s="45"/>
-      <c r="AA87" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB87" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC87" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD87" s="14"/>
-      <c r="AE87" s="14"/>
-      <c r="AF87" s="14"/>
-      <c r="AG87" s="14"/>
-      <c r="AH87" s="14"/>
+      <c r="AA87" s="14"/>
+      <c r="AB87" s="14"/>
       <c r="AI87" s="14"/>
       <c r="AJ87" s="14"/>
     </row>
-    <row r="88" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="88">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -6860,42 +5175,20 @@
       <c r="O88" s="2"/>
       <c r="P88" s="1"/>
       <c r="R88" s="45"/>
-      <c r="S88" s="45">
-        <v>1561</v>
-      </c>
-      <c r="T88" s="46">
-        <v>45393</v>
-      </c>
-      <c r="U88" s="47" t="s">
-        <v>74</v>
-      </c>
+      <c r="S88" s="45"/>
+      <c r="T88" s="46"/>
+      <c r="U88" s="47"/>
       <c r="V88" s="47"/>
-      <c r="W88" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W88" s="47"/>
       <c r="X88" s="47"/>
-      <c r="Y88" s="48">
-        <v>72.09</v>
-      </c>
+      <c r="Y88" s="48"/>
       <c r="Z88" s="45"/>
-      <c r="AA88" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB88" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC88" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD88" s="14"/>
-      <c r="AE88" s="14"/>
-      <c r="AF88" s="14"/>
-      <c r="AG88" s="14"/>
-      <c r="AH88" s="14"/>
+      <c r="AA88" s="14"/>
+      <c r="AB88" s="14"/>
       <c r="AI88" s="14"/>
       <c r="AJ88" s="14"/>
     </row>
-    <row r="89" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="89">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -6911,42 +5204,20 @@
       <c r="O89" s="2"/>
       <c r="P89" s="1"/>
       <c r="R89" s="45"/>
-      <c r="S89" s="45">
-        <v>1562</v>
-      </c>
-      <c r="T89" s="46">
-        <v>45393</v>
-      </c>
-      <c r="U89" s="47" t="s">
-        <v>112</v>
-      </c>
+      <c r="S89" s="45"/>
+      <c r="T89" s="46"/>
+      <c r="U89" s="47"/>
       <c r="V89" s="47"/>
-      <c r="W89" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W89" s="47"/>
       <c r="X89" s="47"/>
-      <c r="Y89" s="48">
-        <v>10.68</v>
-      </c>
+      <c r="Y89" s="48"/>
       <c r="Z89" s="45"/>
-      <c r="AA89" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB89" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC89" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD89" s="14"/>
-      <c r="AE89" s="14"/>
-      <c r="AF89" s="14"/>
-      <c r="AG89" s="14"/>
-      <c r="AH89" s="14"/>
+      <c r="AA89" s="14"/>
+      <c r="AB89" s="14"/>
       <c r="AI89" s="14"/>
       <c r="AJ89" s="14"/>
     </row>
-    <row r="90" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="90">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -6962,42 +5233,20 @@
       <c r="O90" s="2"/>
       <c r="P90" s="1"/>
       <c r="R90" s="45"/>
-      <c r="S90" s="45">
-        <v>1563</v>
-      </c>
-      <c r="T90" s="46">
-        <v>45393</v>
-      </c>
-      <c r="U90" s="47" t="s">
-        <v>151</v>
-      </c>
+      <c r="S90" s="45"/>
+      <c r="T90" s="46"/>
+      <c r="U90" s="47"/>
       <c r="V90" s="47"/>
-      <c r="W90" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W90" s="47"/>
       <c r="X90" s="47"/>
-      <c r="Y90" s="48">
-        <v>41.67</v>
-      </c>
+      <c r="Y90" s="48"/>
       <c r="Z90" s="45"/>
-      <c r="AA90" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB90" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC90" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD90" s="14"/>
-      <c r="AE90" s="14"/>
-      <c r="AF90" s="14"/>
-      <c r="AG90" s="14"/>
-      <c r="AH90" s="14"/>
+      <c r="AA90" s="14"/>
+      <c r="AB90" s="14"/>
       <c r="AI90" s="14"/>
       <c r="AJ90" s="14"/>
     </row>
-    <row r="91" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="91">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -7013,42 +5262,20 @@
       <c r="O91" s="2"/>
       <c r="P91" s="1"/>
       <c r="R91" s="45"/>
-      <c r="S91" s="45">
-        <v>1564</v>
-      </c>
-      <c r="T91" s="46">
-        <v>45392</v>
-      </c>
-      <c r="U91" s="47" t="s">
-        <v>74</v>
-      </c>
+      <c r="S91" s="45"/>
+      <c r="T91" s="46"/>
+      <c r="U91" s="47"/>
       <c r="V91" s="47"/>
-      <c r="W91" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W91" s="47"/>
       <c r="X91" s="47"/>
-      <c r="Y91" s="48">
-        <v>16.02</v>
-      </c>
+      <c r="Y91" s="48"/>
       <c r="Z91" s="45"/>
-      <c r="AA91" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB91" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC91" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD91" s="14"/>
-      <c r="AE91" s="14"/>
-      <c r="AF91" s="14"/>
-      <c r="AG91" s="14"/>
-      <c r="AH91" s="14"/>
+      <c r="AA91" s="14"/>
+      <c r="AB91" s="14"/>
       <c r="AI91" s="14"/>
       <c r="AJ91" s="14"/>
     </row>
-    <row r="92" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="92">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -7064,42 +5291,20 @@
       <c r="O92" s="2"/>
       <c r="P92" s="1"/>
       <c r="R92" s="45"/>
-      <c r="S92" s="45">
-        <v>1565</v>
-      </c>
-      <c r="T92" s="46">
-        <v>45392</v>
-      </c>
-      <c r="U92" s="47" t="s">
-        <v>152</v>
-      </c>
+      <c r="S92" s="45"/>
+      <c r="T92" s="46"/>
+      <c r="U92" s="47"/>
       <c r="V92" s="47"/>
-      <c r="W92" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W92" s="47"/>
       <c r="X92" s="47"/>
-      <c r="Y92" s="48">
-        <v>22.17</v>
-      </c>
+      <c r="Y92" s="48"/>
       <c r="Z92" s="45"/>
-      <c r="AA92" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB92" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC92" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD92" s="14"/>
-      <c r="AE92" s="14"/>
-      <c r="AF92" s="14"/>
-      <c r="AG92" s="14"/>
-      <c r="AH92" s="14"/>
+      <c r="AA92" s="14"/>
+      <c r="AB92" s="14"/>
       <c r="AI92" s="14"/>
       <c r="AJ92" s="14"/>
     </row>
-    <row r="93" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="93">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -7115,42 +5320,20 @@
       <c r="O93" s="2"/>
       <c r="P93" s="1"/>
       <c r="R93" s="45"/>
-      <c r="S93" s="45">
-        <v>1566</v>
-      </c>
-      <c r="T93" s="46">
-        <v>45392</v>
-      </c>
-      <c r="U93" s="47" t="s">
-        <v>153</v>
-      </c>
+      <c r="S93" s="45"/>
+      <c r="T93" s="46"/>
+      <c r="U93" s="47"/>
       <c r="V93" s="47"/>
-      <c r="W93" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W93" s="47"/>
       <c r="X93" s="47"/>
-      <c r="Y93" s="48">
-        <v>15.44</v>
-      </c>
+      <c r="Y93" s="48"/>
       <c r="Z93" s="45"/>
-      <c r="AA93" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB93" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC93" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD93" s="14"/>
-      <c r="AE93" s="14"/>
-      <c r="AF93" s="14"/>
-      <c r="AG93" s="14"/>
-      <c r="AH93" s="14"/>
+      <c r="AA93" s="14"/>
+      <c r="AB93" s="14"/>
       <c r="AI93" s="14"/>
       <c r="AJ93" s="14"/>
     </row>
-    <row r="94" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="94">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -7166,42 +5349,20 @@
       <c r="O94" s="2"/>
       <c r="P94" s="1"/>
       <c r="R94" s="45"/>
-      <c r="S94" s="45">
-        <v>1567</v>
-      </c>
-      <c r="T94" s="46">
-        <v>45391</v>
-      </c>
-      <c r="U94" s="47" t="s">
-        <v>154</v>
-      </c>
+      <c r="S94" s="45"/>
+      <c r="T94" s="46"/>
+      <c r="U94" s="47"/>
       <c r="V94" s="47"/>
-      <c r="W94" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W94" s="47"/>
       <c r="X94" s="47"/>
-      <c r="Y94" s="48">
-        <v>2.8</v>
-      </c>
+      <c r="Y94" s="48"/>
       <c r="Z94" s="45"/>
-      <c r="AA94" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB94" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC94" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD94" s="14"/>
-      <c r="AE94" s="14"/>
-      <c r="AF94" s="14"/>
-      <c r="AG94" s="14"/>
-      <c r="AH94" s="14"/>
+      <c r="AA94" s="14"/>
+      <c r="AB94" s="14"/>
       <c r="AI94" s="14"/>
       <c r="AJ94" s="14"/>
     </row>
-    <row r="95" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="95">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -7217,42 +5378,20 @@
       <c r="O95" s="2"/>
       <c r="P95" s="1"/>
       <c r="R95" s="45"/>
-      <c r="S95" s="45">
-        <v>1568</v>
-      </c>
-      <c r="T95" s="46">
-        <v>45390</v>
-      </c>
-      <c r="U95" s="47" t="s">
-        <v>28</v>
-      </c>
+      <c r="S95" s="45"/>
+      <c r="T95" s="46"/>
+      <c r="U95" s="47"/>
       <c r="V95" s="47"/>
-      <c r="W95" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W95" s="47"/>
       <c r="X95" s="47"/>
-      <c r="Y95" s="48">
-        <v>155.13999999999999</v>
-      </c>
+      <c r="Y95" s="48"/>
       <c r="Z95" s="45"/>
-      <c r="AA95" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB95" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC95" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD95" s="14"/>
-      <c r="AE95" s="14"/>
-      <c r="AF95" s="14"/>
-      <c r="AG95" s="14"/>
-      <c r="AH95" s="14"/>
+      <c r="AA95" s="14"/>
+      <c r="AB95" s="14"/>
       <c r="AI95" s="14"/>
       <c r="AJ95" s="14"/>
     </row>
-    <row r="96" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="96">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -7268,42 +5407,20 @@
       <c r="O96" s="2"/>
       <c r="P96" s="1"/>
       <c r="R96" s="45"/>
-      <c r="S96" s="45">
-        <v>1569</v>
-      </c>
-      <c r="T96" s="46">
-        <v>45389</v>
-      </c>
-      <c r="U96" s="47" t="s">
-        <v>28</v>
-      </c>
+      <c r="S96" s="45"/>
+      <c r="T96" s="46"/>
+      <c r="U96" s="47"/>
       <c r="V96" s="47"/>
-      <c r="W96" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W96" s="47"/>
       <c r="X96" s="47"/>
-      <c r="Y96" s="48">
-        <v>36.369999999999997</v>
-      </c>
+      <c r="Y96" s="48"/>
       <c r="Z96" s="45"/>
-      <c r="AA96" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB96" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC96" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD96" s="14"/>
-      <c r="AE96" s="14"/>
-      <c r="AF96" s="14"/>
-      <c r="AG96" s="14"/>
-      <c r="AH96" s="14"/>
+      <c r="AA96" s="14"/>
+      <c r="AB96" s="14"/>
       <c r="AI96" s="14"/>
       <c r="AJ96" s="14"/>
     </row>
-    <row r="97" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="97">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -7319,42 +5436,20 @@
       <c r="O97" s="2"/>
       <c r="P97" s="1"/>
       <c r="R97" s="45"/>
-      <c r="S97" s="45">
-        <v>1570</v>
-      </c>
-      <c r="T97" s="46">
-        <v>45389</v>
-      </c>
-      <c r="U97" s="47" t="s">
-        <v>28</v>
-      </c>
+      <c r="S97" s="45"/>
+      <c r="T97" s="46"/>
+      <c r="U97" s="47"/>
       <c r="V97" s="47"/>
-      <c r="W97" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W97" s="47"/>
       <c r="X97" s="47"/>
-      <c r="Y97" s="48">
-        <v>10.43</v>
-      </c>
+      <c r="Y97" s="48"/>
       <c r="Z97" s="45"/>
-      <c r="AA97" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB97" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC97" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD97" s="14"/>
-      <c r="AE97" s="14"/>
-      <c r="AF97" s="14"/>
-      <c r="AG97" s="14"/>
-      <c r="AH97" s="14"/>
+      <c r="AA97" s="14"/>
+      <c r="AB97" s="14"/>
       <c r="AI97" s="14"/>
       <c r="AJ97" s="14"/>
     </row>
-    <row r="98" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="98">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -7370,42 +5465,20 @@
       <c r="O98" s="2"/>
       <c r="P98" s="1"/>
       <c r="R98" s="45"/>
-      <c r="S98" s="45">
-        <v>1571</v>
-      </c>
-      <c r="T98" s="46">
-        <v>45389</v>
-      </c>
-      <c r="U98" s="47" t="s">
-        <v>112</v>
-      </c>
+      <c r="S98" s="45"/>
+      <c r="T98" s="46"/>
+      <c r="U98" s="47"/>
       <c r="V98" s="47"/>
-      <c r="W98" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W98" s="47"/>
       <c r="X98" s="47"/>
-      <c r="Y98" s="48">
-        <v>11.75</v>
-      </c>
+      <c r="Y98" s="48"/>
       <c r="Z98" s="45"/>
-      <c r="AA98" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB98" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC98" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD98" s="14"/>
-      <c r="AE98" s="14"/>
-      <c r="AF98" s="14"/>
-      <c r="AG98" s="14"/>
-      <c r="AH98" s="14"/>
+      <c r="AA98" s="14"/>
+      <c r="AB98" s="14"/>
       <c r="AI98" s="14"/>
       <c r="AJ98" s="14"/>
     </row>
-    <row r="99" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="99">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -7421,42 +5494,20 @@
       <c r="O99" s="2"/>
       <c r="P99" s="1"/>
       <c r="R99" s="45"/>
-      <c r="S99" s="45">
-        <v>1572</v>
-      </c>
-      <c r="T99" s="46">
-        <v>45389</v>
-      </c>
-      <c r="U99" s="47" t="s">
-        <v>155</v>
-      </c>
+      <c r="S99" s="45"/>
+      <c r="T99" s="46"/>
+      <c r="U99" s="47"/>
       <c r="V99" s="47"/>
-      <c r="W99" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W99" s="47"/>
       <c r="X99" s="47"/>
-      <c r="Y99" s="48">
-        <v>15.44</v>
-      </c>
+      <c r="Y99" s="48"/>
       <c r="Z99" s="45"/>
-      <c r="AA99" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB99" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC99" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD99" s="14"/>
-      <c r="AE99" s="14"/>
-      <c r="AF99" s="14"/>
-      <c r="AG99" s="14"/>
-      <c r="AH99" s="14"/>
+      <c r="AA99" s="14"/>
+      <c r="AB99" s="14"/>
       <c r="AI99" s="14"/>
       <c r="AJ99" s="14"/>
     </row>
-    <row r="100" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="100">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -7472,42 +5523,20 @@
       <c r="O100" s="2"/>
       <c r="P100" s="1"/>
       <c r="R100" s="45"/>
-      <c r="S100" s="45">
-        <v>1573</v>
-      </c>
-      <c r="T100" s="46">
-        <v>45388</v>
-      </c>
-      <c r="U100" s="47" t="s">
-        <v>74</v>
-      </c>
+      <c r="S100" s="45"/>
+      <c r="T100" s="46"/>
+      <c r="U100" s="47"/>
       <c r="V100" s="47"/>
-      <c r="W100" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W100" s="47"/>
       <c r="X100" s="47"/>
-      <c r="Y100" s="48">
-        <v>6.41</v>
-      </c>
+      <c r="Y100" s="48"/>
       <c r="Z100" s="45"/>
-      <c r="AA100" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB100" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC100" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD100" s="14"/>
-      <c r="AE100" s="14"/>
-      <c r="AF100" s="14"/>
-      <c r="AG100" s="14"/>
-      <c r="AH100" s="14"/>
+      <c r="AA100" s="14"/>
+      <c r="AB100" s="14"/>
       <c r="AI100" s="14"/>
       <c r="AJ100" s="14"/>
     </row>
-    <row r="101" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="101">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -7523,42 +5552,20 @@
       <c r="O101" s="2"/>
       <c r="P101" s="1"/>
       <c r="R101" s="45"/>
-      <c r="S101" s="45">
-        <v>1574</v>
-      </c>
-      <c r="T101" s="46">
-        <v>45388</v>
-      </c>
-      <c r="U101" s="47" t="s">
-        <v>74</v>
-      </c>
+      <c r="S101" s="45"/>
+      <c r="T101" s="46"/>
+      <c r="U101" s="47"/>
       <c r="V101" s="47"/>
-      <c r="W101" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W101" s="47"/>
       <c r="X101" s="47"/>
-      <c r="Y101" s="48">
-        <v>79.42</v>
-      </c>
+      <c r="Y101" s="48"/>
       <c r="Z101" s="45"/>
-      <c r="AA101" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB101" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC101" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD101" s="14"/>
-      <c r="AE101" s="14"/>
-      <c r="AF101" s="14"/>
-      <c r="AG101" s="14"/>
-      <c r="AH101" s="14"/>
+      <c r="AA101" s="14"/>
+      <c r="AB101" s="14"/>
       <c r="AI101" s="14"/>
       <c r="AJ101" s="14"/>
     </row>
-    <row r="102" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="102">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -7574,42 +5581,20 @@
       <c r="O102" s="2"/>
       <c r="P102" s="1"/>
       <c r="R102" s="45"/>
-      <c r="S102" s="45">
-        <v>1575</v>
-      </c>
-      <c r="T102" s="46">
-        <v>45388</v>
-      </c>
-      <c r="U102" s="47" t="s">
-        <v>74</v>
-      </c>
+      <c r="S102" s="45"/>
+      <c r="T102" s="46"/>
+      <c r="U102" s="47"/>
       <c r="V102" s="47"/>
-      <c r="W102" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W102" s="47"/>
       <c r="X102" s="47"/>
-      <c r="Y102" s="48">
-        <v>3.29</v>
-      </c>
+      <c r="Y102" s="48"/>
       <c r="Z102" s="45"/>
-      <c r="AA102" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB102" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC102" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD102" s="14"/>
-      <c r="AE102" s="14"/>
-      <c r="AF102" s="14"/>
-      <c r="AG102" s="14"/>
-      <c r="AH102" s="14"/>
+      <c r="AA102" s="14"/>
+      <c r="AB102" s="14"/>
       <c r="AI102" s="14"/>
       <c r="AJ102" s="14"/>
     </row>
-    <row r="103" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="103">
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -7625,42 +5610,20 @@
       <c r="O103" s="2"/>
       <c r="P103" s="1"/>
       <c r="R103" s="45"/>
-      <c r="S103" s="45">
-        <v>1576</v>
-      </c>
-      <c r="T103" s="46">
-        <v>45387</v>
-      </c>
-      <c r="U103" s="47" t="s">
-        <v>75</v>
-      </c>
+      <c r="S103" s="45"/>
+      <c r="T103" s="46"/>
+      <c r="U103" s="47"/>
       <c r="V103" s="47"/>
-      <c r="W103" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W103" s="47"/>
       <c r="X103" s="47"/>
-      <c r="Y103" s="48">
-        <v>51.25</v>
-      </c>
+      <c r="Y103" s="48"/>
       <c r="Z103" s="45"/>
-      <c r="AA103" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB103" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC103" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD103" s="14"/>
-      <c r="AE103" s="14"/>
-      <c r="AF103" s="14"/>
-      <c r="AG103" s="14"/>
-      <c r="AH103" s="14"/>
+      <c r="AA103" s="14"/>
+      <c r="AB103" s="14"/>
       <c r="AI103" s="14"/>
       <c r="AJ103" s="14"/>
     </row>
-    <row r="104" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="104">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -7676,42 +5639,20 @@
       <c r="O104" s="2"/>
       <c r="P104" s="1"/>
       <c r="R104" s="45"/>
-      <c r="S104" s="45">
-        <v>1577</v>
-      </c>
-      <c r="T104" s="46">
-        <v>45387</v>
-      </c>
-      <c r="U104" s="47" t="s">
-        <v>28</v>
-      </c>
+      <c r="S104" s="45"/>
+      <c r="T104" s="46"/>
+      <c r="U104" s="47"/>
       <c r="V104" s="47"/>
-      <c r="W104" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W104" s="47"/>
       <c r="X104" s="47"/>
-      <c r="Y104" s="48">
-        <v>181.89</v>
-      </c>
+      <c r="Y104" s="48"/>
       <c r="Z104" s="45"/>
-      <c r="AA104" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB104" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC104" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD104" s="14"/>
-      <c r="AE104" s="14"/>
-      <c r="AF104" s="14"/>
-      <c r="AG104" s="14"/>
-      <c r="AH104" s="14"/>
+      <c r="AA104" s="14"/>
+      <c r="AB104" s="14"/>
       <c r="AI104" s="14"/>
       <c r="AJ104" s="14"/>
     </row>
-    <row r="105" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="105">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -7727,42 +5668,20 @@
       <c r="O105" s="2"/>
       <c r="P105" s="1"/>
       <c r="R105" s="45"/>
-      <c r="S105" s="45">
-        <v>1578</v>
-      </c>
-      <c r="T105" s="46">
-        <v>45387</v>
-      </c>
-      <c r="U105" s="47" t="s">
-        <v>110</v>
-      </c>
+      <c r="S105" s="45"/>
+      <c r="T105" s="46"/>
+      <c r="U105" s="47"/>
       <c r="V105" s="47"/>
-      <c r="W105" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W105" s="47"/>
       <c r="X105" s="47"/>
-      <c r="Y105" s="48">
-        <v>-1.4</v>
-      </c>
+      <c r="Y105" s="48"/>
       <c r="Z105" s="45"/>
-      <c r="AA105" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB105" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC105" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD105" s="14"/>
-      <c r="AE105" s="14"/>
-      <c r="AF105" s="14"/>
-      <c r="AG105" s="14"/>
-      <c r="AH105" s="14"/>
+      <c r="AA105" s="14"/>
+      <c r="AB105" s="14"/>
       <c r="AI105" s="14"/>
       <c r="AJ105" s="14"/>
     </row>
-    <row r="106" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="106">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -7778,42 +5697,20 @@
       <c r="O106" s="2"/>
       <c r="P106" s="1"/>
       <c r="R106" s="45"/>
-      <c r="S106" s="45">
-        <v>1579</v>
-      </c>
-      <c r="T106" s="46">
-        <v>45387</v>
-      </c>
-      <c r="U106" s="47" t="s">
-        <v>110</v>
-      </c>
+      <c r="S106" s="45"/>
+      <c r="T106" s="46"/>
+      <c r="U106" s="47"/>
       <c r="V106" s="47"/>
-      <c r="W106" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W106" s="47"/>
       <c r="X106" s="47"/>
-      <c r="Y106" s="48">
-        <v>-98.6</v>
-      </c>
+      <c r="Y106" s="48"/>
       <c r="Z106" s="45"/>
-      <c r="AA106" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB106" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC106" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD106" s="14"/>
-      <c r="AE106" s="14"/>
-      <c r="AF106" s="14"/>
-      <c r="AG106" s="14"/>
-      <c r="AH106" s="14"/>
+      <c r="AA106" s="14"/>
+      <c r="AB106" s="14"/>
       <c r="AI106" s="14"/>
       <c r="AJ106" s="14"/>
     </row>
-    <row r="107" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="107">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -7829,42 +5726,20 @@
       <c r="O107" s="2"/>
       <c r="P107" s="1"/>
       <c r="R107" s="45"/>
-      <c r="S107" s="45">
-        <v>1580</v>
-      </c>
-      <c r="T107" s="46">
-        <v>45387</v>
-      </c>
-      <c r="U107" s="47" t="s">
-        <v>60</v>
-      </c>
+      <c r="S107" s="45"/>
+      <c r="T107" s="46"/>
+      <c r="U107" s="47"/>
       <c r="V107" s="47"/>
-      <c r="W107" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W107" s="47"/>
       <c r="X107" s="47"/>
-      <c r="Y107" s="48">
-        <v>4.32</v>
-      </c>
+      <c r="Y107" s="48"/>
       <c r="Z107" s="45"/>
-      <c r="AA107" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB107" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC107" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD107" s="14"/>
-      <c r="AE107" s="14"/>
-      <c r="AF107" s="14"/>
-      <c r="AG107" s="14"/>
-      <c r="AH107" s="14"/>
+      <c r="AA107" s="14"/>
+      <c r="AB107" s="14"/>
       <c r="AI107" s="14"/>
       <c r="AJ107" s="14"/>
     </row>
-    <row r="108" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="108">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -7880,42 +5755,20 @@
       <c r="O108" s="2"/>
       <c r="P108" s="1"/>
       <c r="R108" s="45"/>
-      <c r="S108" s="45">
-        <v>1581</v>
-      </c>
-      <c r="T108" s="46">
-        <v>45387</v>
-      </c>
-      <c r="U108" s="47" t="s">
-        <v>79</v>
-      </c>
+      <c r="S108" s="45"/>
+      <c r="T108" s="46"/>
+      <c r="U108" s="47"/>
       <c r="V108" s="47"/>
-      <c r="W108" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W108" s="47"/>
       <c r="X108" s="47"/>
-      <c r="Y108" s="48">
-        <v>-1400.07</v>
-      </c>
+      <c r="Y108" s="48"/>
       <c r="Z108" s="45"/>
-      <c r="AA108" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB108" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC108" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD108" s="14"/>
-      <c r="AE108" s="14"/>
-      <c r="AF108" s="14"/>
-      <c r="AG108" s="14"/>
-      <c r="AH108" s="14"/>
+      <c r="AA108" s="14"/>
+      <c r="AB108" s="14"/>
       <c r="AI108" s="14"/>
       <c r="AJ108" s="14"/>
     </row>
-    <row r="109" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="109">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -7931,42 +5784,20 @@
       <c r="O109" s="2"/>
       <c r="P109" s="1"/>
       <c r="R109" s="45"/>
-      <c r="S109" s="45">
-        <v>1582</v>
-      </c>
-      <c r="T109" s="46">
-        <v>45386</v>
-      </c>
-      <c r="U109" s="47" t="s">
-        <v>112</v>
-      </c>
+      <c r="S109" s="45"/>
+      <c r="T109" s="46"/>
+      <c r="U109" s="47"/>
       <c r="V109" s="47"/>
-      <c r="W109" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W109" s="47"/>
       <c r="X109" s="47"/>
-      <c r="Y109" s="48">
-        <v>26.15</v>
-      </c>
+      <c r="Y109" s="48"/>
       <c r="Z109" s="45"/>
-      <c r="AA109" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB109" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC109" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD109" s="14"/>
-      <c r="AE109" s="14"/>
-      <c r="AF109" s="14"/>
-      <c r="AG109" s="14"/>
-      <c r="AH109" s="14"/>
+      <c r="AA109" s="14"/>
+      <c r="AB109" s="14"/>
       <c r="AI109" s="14"/>
       <c r="AJ109" s="14"/>
     </row>
-    <row r="110" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="110">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -7982,42 +5813,20 @@
       <c r="O110" s="2"/>
       <c r="P110" s="1"/>
       <c r="R110" s="45"/>
-      <c r="S110" s="45">
-        <v>1583</v>
-      </c>
-      <c r="T110" s="46">
-        <v>45386</v>
-      </c>
-      <c r="U110" s="47" t="s">
-        <v>74</v>
-      </c>
+      <c r="S110" s="45"/>
+      <c r="T110" s="46"/>
+      <c r="U110" s="47"/>
       <c r="V110" s="47"/>
-      <c r="W110" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W110" s="47"/>
       <c r="X110" s="47"/>
-      <c r="Y110" s="48">
-        <v>-3.17</v>
-      </c>
+      <c r="Y110" s="48"/>
       <c r="Z110" s="45"/>
-      <c r="AA110" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB110" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC110" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD110" s="14"/>
-      <c r="AE110" s="14"/>
-      <c r="AF110" s="14"/>
-      <c r="AG110" s="14"/>
-      <c r="AH110" s="14"/>
+      <c r="AA110" s="14"/>
+      <c r="AB110" s="14"/>
       <c r="AI110" s="14"/>
       <c r="AJ110" s="14"/>
     </row>
-    <row r="111" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="111">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -8033,42 +5842,20 @@
       <c r="O111" s="2"/>
       <c r="P111" s="1"/>
       <c r="R111" s="45"/>
-      <c r="S111" s="45">
-        <v>1584</v>
-      </c>
-      <c r="T111" s="46">
-        <v>45386</v>
-      </c>
-      <c r="U111" s="47" t="s">
-        <v>28</v>
-      </c>
+      <c r="S111" s="45"/>
+      <c r="T111" s="46"/>
+      <c r="U111" s="47"/>
       <c r="V111" s="47"/>
-      <c r="W111" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W111" s="47"/>
       <c r="X111" s="47"/>
-      <c r="Y111" s="48">
-        <v>37.44</v>
-      </c>
+      <c r="Y111" s="48"/>
       <c r="Z111" s="45"/>
-      <c r="AA111" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB111" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC111" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD111" s="14"/>
-      <c r="AE111" s="14"/>
-      <c r="AF111" s="14"/>
-      <c r="AG111" s="14"/>
-      <c r="AH111" s="14"/>
+      <c r="AA111" s="14"/>
+      <c r="AB111" s="14"/>
       <c r="AI111" s="14"/>
       <c r="AJ111" s="14"/>
     </row>
-    <row r="112" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="112">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -8084,42 +5871,20 @@
       <c r="O112" s="2"/>
       <c r="P112" s="1"/>
       <c r="R112" s="45"/>
-      <c r="S112" s="45">
-        <v>1585</v>
-      </c>
-      <c r="T112" s="46">
-        <v>45385</v>
-      </c>
-      <c r="U112" s="47" t="s">
-        <v>156</v>
-      </c>
+      <c r="S112" s="45"/>
+      <c r="T112" s="46"/>
+      <c r="U112" s="47"/>
       <c r="V112" s="47"/>
-      <c r="W112" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W112" s="47"/>
       <c r="X112" s="47"/>
-      <c r="Y112" s="48">
-        <v>19.2</v>
-      </c>
+      <c r="Y112" s="48"/>
       <c r="Z112" s="45"/>
-      <c r="AA112" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB112" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC112" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD112" s="14"/>
-      <c r="AE112" s="14"/>
-      <c r="AF112" s="14"/>
-      <c r="AG112" s="14"/>
-      <c r="AH112" s="14"/>
+      <c r="AA112" s="14"/>
+      <c r="AB112" s="14"/>
       <c r="AI112" s="14"/>
       <c r="AJ112" s="14"/>
     </row>
-    <row r="113" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="113">
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -8135,42 +5900,20 @@
       <c r="O113" s="2"/>
       <c r="P113" s="1"/>
       <c r="R113" s="45"/>
-      <c r="S113" s="45">
-        <v>1586</v>
-      </c>
-      <c r="T113" s="46">
-        <v>45385</v>
-      </c>
-      <c r="U113" s="47" t="s">
-        <v>28</v>
-      </c>
+      <c r="S113" s="45"/>
+      <c r="T113" s="46"/>
+      <c r="U113" s="47"/>
       <c r="V113" s="47"/>
-      <c r="W113" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W113" s="47"/>
       <c r="X113" s="47"/>
-      <c r="Y113" s="48">
-        <v>9.6199999999999992</v>
-      </c>
+      <c r="Y113" s="48"/>
       <c r="Z113" s="45"/>
-      <c r="AA113" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB113" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC113" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD113" s="14"/>
-      <c r="AE113" s="14"/>
-      <c r="AF113" s="14"/>
-      <c r="AG113" s="14"/>
-      <c r="AH113" s="14"/>
+      <c r="AA113" s="14"/>
+      <c r="AB113" s="14"/>
       <c r="AI113" s="14"/>
       <c r="AJ113" s="14"/>
     </row>
-    <row r="114" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="114">
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -8186,42 +5929,20 @@
       <c r="O114" s="2"/>
       <c r="P114" s="1"/>
       <c r="R114" s="45"/>
-      <c r="S114" s="45">
-        <v>1587</v>
-      </c>
-      <c r="T114" s="46">
-        <v>45385</v>
-      </c>
-      <c r="U114" s="47" t="s">
-        <v>28</v>
-      </c>
+      <c r="S114" s="45"/>
+      <c r="T114" s="46"/>
+      <c r="U114" s="47"/>
       <c r="V114" s="47"/>
-      <c r="W114" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W114" s="47"/>
       <c r="X114" s="47"/>
-      <c r="Y114" s="48">
-        <v>31.77</v>
-      </c>
+      <c r="Y114" s="48"/>
       <c r="Z114" s="45"/>
-      <c r="AA114" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB114" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC114" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD114" s="14"/>
-      <c r="AE114" s="14"/>
-      <c r="AF114" s="14"/>
-      <c r="AG114" s="14"/>
-      <c r="AH114" s="14"/>
+      <c r="AA114" s="14"/>
+      <c r="AB114" s="14"/>
       <c r="AI114" s="14"/>
       <c r="AJ114" s="14"/>
     </row>
-    <row r="115" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="115">
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -8237,42 +5958,20 @@
       <c r="O115" s="2"/>
       <c r="P115" s="1"/>
       <c r="R115" s="45"/>
-      <c r="S115" s="45">
-        <v>1588</v>
-      </c>
-      <c r="T115" s="46">
-        <v>45385</v>
-      </c>
-      <c r="U115" s="47" t="s">
-        <v>74</v>
-      </c>
+      <c r="S115" s="45"/>
+      <c r="T115" s="46"/>
+      <c r="U115" s="47"/>
       <c r="V115" s="47"/>
-      <c r="W115" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W115" s="47"/>
       <c r="X115" s="47"/>
-      <c r="Y115" s="48">
-        <v>173.5</v>
-      </c>
+      <c r="Y115" s="48"/>
       <c r="Z115" s="45"/>
-      <c r="AA115" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB115" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC115" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD115" s="14"/>
-      <c r="AE115" s="14"/>
-      <c r="AF115" s="14"/>
-      <c r="AG115" s="14"/>
-      <c r="AH115" s="14"/>
+      <c r="AA115" s="14"/>
+      <c r="AB115" s="14"/>
       <c r="AI115" s="14"/>
       <c r="AJ115" s="14"/>
     </row>
-    <row r="116" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="116">
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -8288,42 +5987,20 @@
       <c r="O116" s="2"/>
       <c r="P116" s="1"/>
       <c r="R116" s="45"/>
-      <c r="S116" s="45">
-        <v>1589</v>
-      </c>
-      <c r="T116" s="46">
-        <v>45385</v>
-      </c>
-      <c r="U116" s="47" t="s">
-        <v>74</v>
-      </c>
+      <c r="S116" s="45"/>
+      <c r="T116" s="46"/>
+      <c r="U116" s="47"/>
       <c r="V116" s="47"/>
-      <c r="W116" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W116" s="47"/>
       <c r="X116" s="47"/>
-      <c r="Y116" s="48">
-        <v>-0.02</v>
-      </c>
+      <c r="Y116" s="48"/>
       <c r="Z116" s="45"/>
-      <c r="AA116" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB116" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC116" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD116" s="14"/>
-      <c r="AE116" s="14"/>
-      <c r="AF116" s="14"/>
-      <c r="AG116" s="14"/>
-      <c r="AH116" s="14"/>
+      <c r="AA116" s="14"/>
+      <c r="AB116" s="14"/>
       <c r="AI116" s="14"/>
       <c r="AJ116" s="14"/>
     </row>
-    <row r="117" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="117">
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -8339,42 +6016,20 @@
       <c r="O117" s="2"/>
       <c r="P117" s="1"/>
       <c r="R117" s="45"/>
-      <c r="S117" s="45">
-        <v>1590</v>
-      </c>
-      <c r="T117" s="46">
-        <v>45385</v>
-      </c>
-      <c r="U117" s="47" t="s">
-        <v>95</v>
-      </c>
+      <c r="S117" s="45"/>
+      <c r="T117" s="46"/>
+      <c r="U117" s="47"/>
       <c r="V117" s="47"/>
-      <c r="W117" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W117" s="47"/>
       <c r="X117" s="47"/>
-      <c r="Y117" s="48">
-        <v>24.71</v>
-      </c>
+      <c r="Y117" s="48"/>
       <c r="Z117" s="45"/>
-      <c r="AA117" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB117" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC117" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD117" s="14"/>
-      <c r="AE117" s="14"/>
-      <c r="AF117" s="14"/>
-      <c r="AG117" s="14"/>
-      <c r="AH117" s="14"/>
+      <c r="AA117" s="14"/>
+      <c r="AB117" s="14"/>
       <c r="AI117" s="14"/>
       <c r="AJ117" s="14"/>
     </row>
-    <row r="118" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="118">
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -8390,42 +6045,20 @@
       <c r="O118" s="2"/>
       <c r="P118" s="1"/>
       <c r="R118" s="45"/>
-      <c r="S118" s="45">
-        <v>1591</v>
-      </c>
-      <c r="T118" s="46">
-        <v>45384</v>
-      </c>
-      <c r="U118" s="47" t="s">
-        <v>110</v>
-      </c>
+      <c r="S118" s="45"/>
+      <c r="T118" s="46"/>
+      <c r="U118" s="47"/>
       <c r="V118" s="47"/>
-      <c r="W118" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W118" s="47"/>
       <c r="X118" s="47"/>
-      <c r="Y118" s="48">
-        <v>1.4</v>
-      </c>
+      <c r="Y118" s="48"/>
       <c r="Z118" s="45"/>
-      <c r="AA118" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB118" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC118" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD118" s="14"/>
-      <c r="AE118" s="14"/>
-      <c r="AF118" s="14"/>
-      <c r="AG118" s="14"/>
-      <c r="AH118" s="14"/>
+      <c r="AA118" s="14"/>
+      <c r="AB118" s="14"/>
       <c r="AI118" s="14"/>
       <c r="AJ118" s="14"/>
     </row>
-    <row r="119" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="119">
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -8441,42 +6074,20 @@
       <c r="O119" s="2"/>
       <c r="P119" s="1"/>
       <c r="R119" s="45"/>
-      <c r="S119" s="45">
-        <v>1592</v>
-      </c>
-      <c r="T119" s="46">
-        <v>45384</v>
-      </c>
-      <c r="U119" s="47" t="s">
-        <v>89</v>
-      </c>
+      <c r="S119" s="45"/>
+      <c r="T119" s="46"/>
+      <c r="U119" s="47"/>
       <c r="V119" s="47"/>
-      <c r="W119" s="47" t="s">
-        <v>22</v>
-      </c>
+      <c r="W119" s="47"/>
       <c r="X119" s="47"/>
-      <c r="Y119" s="48">
-        <v>381.86</v>
-      </c>
+      <c r="Y119" s="48"/>
       <c r="Z119" s="45"/>
-      <c r="AA119" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB119" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC119" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD119" s="14"/>
-      <c r="AE119" s="14"/>
-      <c r="AF119" s="14"/>
-      <c r="AG119" s="14"/>
-      <c r="AH119" s="14"/>
+      <c r="AA119" s="14"/>
+      <c r="AB119" s="14"/>
       <c r="AI119" s="14"/>
       <c r="AJ119" s="14"/>
     </row>
-    <row r="120" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="120">
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -8502,16 +6113,10 @@
       <c r="Z120" s="45"/>
       <c r="AA120" s="14"/>
       <c r="AB120" s="14"/>
-      <c r="AC120" s="14"/>
-      <c r="AD120" s="14"/>
-      <c r="AE120" s="14"/>
-      <c r="AF120" s="14"/>
-      <c r="AG120" s="14"/>
-      <c r="AH120" s="14"/>
       <c r="AI120" s="14"/>
       <c r="AJ120" s="14"/>
     </row>
-    <row r="121" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="121">
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -8537,16 +6142,10 @@
       <c r="Z121" s="45"/>
       <c r="AA121" s="14"/>
       <c r="AB121" s="14"/>
-      <c r="AC121" s="14"/>
-      <c r="AD121" s="14"/>
-      <c r="AE121" s="14"/>
-      <c r="AF121" s="14"/>
-      <c r="AG121" s="14"/>
-      <c r="AH121" s="14"/>
       <c r="AI121" s="14"/>
       <c r="AJ121" s="14"/>
     </row>
-    <row r="122" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="122">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -8572,16 +6171,10 @@
       <c r="Z122" s="45"/>
       <c r="AA122" s="14"/>
       <c r="AB122" s="14"/>
-      <c r="AC122" s="14"/>
-      <c r="AD122" s="14"/>
-      <c r="AE122" s="14"/>
-      <c r="AF122" s="14"/>
-      <c r="AG122" s="14"/>
-      <c r="AH122" s="14"/>
       <c r="AI122" s="14"/>
       <c r="AJ122" s="14"/>
     </row>
-    <row r="123" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="123">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -8607,16 +6200,10 @@
       <c r="Z123" s="45"/>
       <c r="AA123" s="14"/>
       <c r="AB123" s="14"/>
-      <c r="AC123" s="14"/>
-      <c r="AD123" s="14"/>
-      <c r="AE123" s="14"/>
-      <c r="AF123" s="14"/>
-      <c r="AG123" s="14"/>
-      <c r="AH123" s="14"/>
       <c r="AI123" s="14"/>
       <c r="AJ123" s="14"/>
     </row>
-    <row r="124" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="124">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -8642,16 +6229,10 @@
       <c r="Z124" s="45"/>
       <c r="AA124" s="14"/>
       <c r="AB124" s="14"/>
-      <c r="AC124" s="14"/>
-      <c r="AD124" s="14"/>
-      <c r="AE124" s="14"/>
-      <c r="AF124" s="14"/>
-      <c r="AG124" s="14"/>
-      <c r="AH124" s="14"/>
       <c r="AI124" s="14"/>
       <c r="AJ124" s="14"/>
     </row>
-    <row r="125" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="125">
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -8677,16 +6258,10 @@
       <c r="Z125" s="45"/>
       <c r="AA125" s="14"/>
       <c r="AB125" s="14"/>
-      <c r="AC125" s="14"/>
-      <c r="AD125" s="14"/>
-      <c r="AE125" s="14"/>
-      <c r="AF125" s="14"/>
-      <c r="AG125" s="14"/>
-      <c r="AH125" s="14"/>
       <c r="AI125" s="14"/>
       <c r="AJ125" s="14"/>
     </row>
-    <row r="126" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="126">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -8712,16 +6287,10 @@
       <c r="Z126" s="45"/>
       <c r="AA126" s="14"/>
       <c r="AB126" s="14"/>
-      <c r="AC126" s="14"/>
-      <c r="AD126" s="14"/>
-      <c r="AE126" s="14"/>
-      <c r="AF126" s="14"/>
-      <c r="AG126" s="14"/>
-      <c r="AH126" s="14"/>
       <c r="AI126" s="14"/>
       <c r="AJ126" s="14"/>
     </row>
-    <row r="127" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="127">
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -8747,16 +6316,10 @@
       <c r="Z127" s="45"/>
       <c r="AA127" s="14"/>
       <c r="AB127" s="14"/>
-      <c r="AC127" s="14"/>
-      <c r="AD127" s="14"/>
-      <c r="AE127" s="14"/>
-      <c r="AF127" s="14"/>
-      <c r="AG127" s="14"/>
-      <c r="AH127" s="14"/>
       <c r="AI127" s="14"/>
       <c r="AJ127" s="14"/>
     </row>
-    <row r="128" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="128">
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -8782,16 +6345,10 @@
       <c r="Z128" s="45"/>
       <c r="AA128" s="14"/>
       <c r="AB128" s="14"/>
-      <c r="AC128" s="14"/>
-      <c r="AD128" s="14"/>
-      <c r="AE128" s="14"/>
-      <c r="AF128" s="14"/>
-      <c r="AG128" s="14"/>
-      <c r="AH128" s="14"/>
       <c r="AI128" s="14"/>
       <c r="AJ128" s="14"/>
     </row>
-    <row r="129" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="129">
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -8817,16 +6374,10 @@
       <c r="Z129" s="45"/>
       <c r="AA129" s="14"/>
       <c r="AB129" s="14"/>
-      <c r="AC129" s="14"/>
-      <c r="AD129" s="14"/>
-      <c r="AE129" s="14"/>
-      <c r="AF129" s="14"/>
-      <c r="AG129" s="14"/>
-      <c r="AH129" s="14"/>
       <c r="AI129" s="14"/>
       <c r="AJ129" s="14"/>
     </row>
-    <row r="130" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="130">
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -8852,16 +6403,10 @@
       <c r="Z130" s="45"/>
       <c r="AA130" s="14"/>
       <c r="AB130" s="14"/>
-      <c r="AC130" s="14"/>
-      <c r="AD130" s="14"/>
-      <c r="AE130" s="14"/>
-      <c r="AF130" s="14"/>
-      <c r="AG130" s="14"/>
-      <c r="AH130" s="14"/>
       <c r="AI130" s="14"/>
       <c r="AJ130" s="14"/>
     </row>
-    <row r="131" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="131">
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -8887,16 +6432,10 @@
       <c r="Z131" s="45"/>
       <c r="AA131" s="14"/>
       <c r="AB131" s="14"/>
-      <c r="AC131" s="14"/>
-      <c r="AD131" s="14"/>
-      <c r="AE131" s="14"/>
-      <c r="AF131" s="14"/>
-      <c r="AG131" s="14"/>
-      <c r="AH131" s="14"/>
       <c r="AI131" s="14"/>
       <c r="AJ131" s="14"/>
     </row>
-    <row r="132" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="132">
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -8922,16 +6461,10 @@
       <c r="Z132" s="45"/>
       <c r="AA132" s="14"/>
       <c r="AB132" s="14"/>
-      <c r="AC132" s="14"/>
-      <c r="AD132" s="14"/>
-      <c r="AE132" s="14"/>
-      <c r="AF132" s="14"/>
-      <c r="AG132" s="14"/>
-      <c r="AH132" s="14"/>
       <c r="AI132" s="14"/>
       <c r="AJ132" s="14"/>
     </row>
-    <row r="133" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="133">
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -8957,16 +6490,10 @@
       <c r="Z133" s="45"/>
       <c r="AA133" s="14"/>
       <c r="AB133" s="14"/>
-      <c r="AC133" s="14"/>
-      <c r="AD133" s="14"/>
-      <c r="AE133" s="14"/>
-      <c r="AF133" s="14"/>
-      <c r="AG133" s="14"/>
-      <c r="AH133" s="14"/>
       <c r="AI133" s="14"/>
       <c r="AJ133" s="14"/>
     </row>
-    <row r="134" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="134">
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -8992,16 +6519,10 @@
       <c r="Z134" s="45"/>
       <c r="AA134" s="14"/>
       <c r="AB134" s="14"/>
-      <c r="AC134" s="14"/>
-      <c r="AD134" s="14"/>
-      <c r="AE134" s="14"/>
-      <c r="AF134" s="14"/>
-      <c r="AG134" s="14"/>
-      <c r="AH134" s="14"/>
       <c r="AI134" s="14"/>
       <c r="AJ134" s="14"/>
     </row>
-    <row r="135" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="135">
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -9027,16 +6548,10 @@
       <c r="Z135" s="45"/>
       <c r="AA135" s="14"/>
       <c r="AB135" s="14"/>
-      <c r="AC135" s="14"/>
-      <c r="AD135" s="14"/>
-      <c r="AE135" s="14"/>
-      <c r="AF135" s="14"/>
-      <c r="AG135" s="14"/>
-      <c r="AH135" s="14"/>
       <c r="AI135" s="14"/>
       <c r="AJ135" s="14"/>
     </row>
-    <row r="136" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="136">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -9062,16 +6577,10 @@
       <c r="Z136" s="45"/>
       <c r="AA136" s="14"/>
       <c r="AB136" s="14"/>
-      <c r="AC136" s="14"/>
-      <c r="AD136" s="14"/>
-      <c r="AE136" s="14"/>
-      <c r="AF136" s="14"/>
-      <c r="AG136" s="14"/>
-      <c r="AH136" s="14"/>
       <c r="AI136" s="14"/>
       <c r="AJ136" s="14"/>
     </row>
-    <row r="137" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="137">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -9097,16 +6606,10 @@
       <c r="Z137" s="45"/>
       <c r="AA137" s="14"/>
       <c r="AB137" s="14"/>
-      <c r="AC137" s="14"/>
-      <c r="AD137" s="14"/>
-      <c r="AE137" s="14"/>
-      <c r="AF137" s="14"/>
-      <c r="AG137" s="14"/>
-      <c r="AH137" s="14"/>
       <c r="AI137" s="14"/>
       <c r="AJ137" s="14"/>
     </row>
-    <row r="138" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="138">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -9132,16 +6635,10 @@
       <c r="Z138" s="45"/>
       <c r="AA138" s="14"/>
       <c r="AB138" s="14"/>
-      <c r="AC138" s="14"/>
-      <c r="AD138" s="14"/>
-      <c r="AE138" s="14"/>
-      <c r="AF138" s="14"/>
-      <c r="AG138" s="14"/>
-      <c r="AH138" s="14"/>
       <c r="AI138" s="14"/>
       <c r="AJ138" s="14"/>
     </row>
-    <row r="139" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="139">
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -9167,16 +6664,10 @@
       <c r="Z139" s="45"/>
       <c r="AA139" s="14"/>
       <c r="AB139" s="14"/>
-      <c r="AC139" s="14"/>
-      <c r="AD139" s="14"/>
-      <c r="AE139" s="14"/>
-      <c r="AF139" s="14"/>
-      <c r="AG139" s="14"/>
-      <c r="AH139" s="14"/>
       <c r="AI139" s="14"/>
       <c r="AJ139" s="14"/>
     </row>
-    <row r="140" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="140">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -9202,16 +6693,10 @@
       <c r="Z140" s="45"/>
       <c r="AA140" s="14"/>
       <c r="AB140" s="14"/>
-      <c r="AC140" s="14"/>
-      <c r="AD140" s="14"/>
-      <c r="AE140" s="14"/>
-      <c r="AF140" s="14"/>
-      <c r="AG140" s="14"/>
-      <c r="AH140" s="14"/>
       <c r="AI140" s="14"/>
       <c r="AJ140" s="14"/>
     </row>
-    <row r="141" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="141">
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -9237,16 +6722,10 @@
       <c r="Z141" s="45"/>
       <c r="AA141" s="14"/>
       <c r="AB141" s="14"/>
-      <c r="AC141" s="14"/>
-      <c r="AD141" s="14"/>
-      <c r="AE141" s="14"/>
-      <c r="AF141" s="14"/>
-      <c r="AG141" s="14"/>
-      <c r="AH141" s="14"/>
       <c r="AI141" s="14"/>
       <c r="AJ141" s="14"/>
     </row>
-    <row r="142" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="142">
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -9272,16 +6751,10 @@
       <c r="Z142" s="45"/>
       <c r="AA142" s="14"/>
       <c r="AB142" s="14"/>
-      <c r="AC142" s="14"/>
-      <c r="AD142" s="14"/>
-      <c r="AE142" s="14"/>
-      <c r="AF142" s="14"/>
-      <c r="AG142" s="14"/>
-      <c r="AH142" s="14"/>
       <c r="AI142" s="14"/>
       <c r="AJ142" s="14"/>
     </row>
-    <row r="143" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="143">
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -9307,16 +6780,10 @@
       <c r="Z143" s="45"/>
       <c r="AA143" s="14"/>
       <c r="AB143" s="14"/>
-      <c r="AC143" s="14"/>
-      <c r="AD143" s="14"/>
-      <c r="AE143" s="14"/>
-      <c r="AF143" s="14"/>
-      <c r="AG143" s="14"/>
-      <c r="AH143" s="14"/>
       <c r="AI143" s="14"/>
       <c r="AJ143" s="14"/>
     </row>
-    <row r="144" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="144">
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -9342,16 +6809,10 @@
       <c r="Z144" s="45"/>
       <c r="AA144" s="14"/>
       <c r="AB144" s="14"/>
-      <c r="AC144" s="14"/>
-      <c r="AD144" s="14"/>
-      <c r="AE144" s="14"/>
-      <c r="AF144" s="14"/>
-      <c r="AG144" s="14"/>
-      <c r="AH144" s="14"/>
       <c r="AI144" s="14"/>
       <c r="AJ144" s="14"/>
     </row>
-    <row r="145" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="145">
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -9377,16 +6838,10 @@
       <c r="Z145" s="45"/>
       <c r="AA145" s="14"/>
       <c r="AB145" s="14"/>
-      <c r="AC145" s="14"/>
-      <c r="AD145" s="14"/>
-      <c r="AE145" s="14"/>
-      <c r="AF145" s="14"/>
-      <c r="AG145" s="14"/>
-      <c r="AH145" s="14"/>
       <c r="AI145" s="14"/>
       <c r="AJ145" s="14"/>
     </row>
-    <row r="146" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="146">
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -9412,16 +6867,10 @@
       <c r="Z146" s="45"/>
       <c r="AA146" s="14"/>
       <c r="AB146" s="14"/>
-      <c r="AC146" s="14"/>
-      <c r="AD146" s="14"/>
-      <c r="AE146" s="14"/>
-      <c r="AF146" s="14"/>
-      <c r="AG146" s="14"/>
-      <c r="AH146" s="14"/>
       <c r="AI146" s="14"/>
       <c r="AJ146" s="14"/>
     </row>
-    <row r="147" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="147">
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -9447,16 +6896,10 @@
       <c r="Z147" s="45"/>
       <c r="AA147" s="14"/>
       <c r="AB147" s="14"/>
-      <c r="AC147" s="14"/>
-      <c r="AD147" s="14"/>
-      <c r="AE147" s="14"/>
-      <c r="AF147" s="14"/>
-      <c r="AG147" s="14"/>
-      <c r="AH147" s="14"/>
       <c r="AI147" s="14"/>
       <c r="AJ147" s="14"/>
     </row>
-    <row r="148" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="148">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -9482,16 +6925,10 @@
       <c r="Z148" s="45"/>
       <c r="AA148" s="14"/>
       <c r="AB148" s="14"/>
-      <c r="AC148" s="14"/>
-      <c r="AD148" s="14"/>
-      <c r="AE148" s="14"/>
-      <c r="AF148" s="14"/>
-      <c r="AG148" s="14"/>
-      <c r="AH148" s="14"/>
       <c r="AI148" s="14"/>
       <c r="AJ148" s="14"/>
     </row>
-    <row r="149" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="149">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -9517,16 +6954,10 @@
       <c r="Z149" s="45"/>
       <c r="AA149" s="14"/>
       <c r="AB149" s="14"/>
-      <c r="AC149" s="14"/>
-      <c r="AD149" s="14"/>
-      <c r="AE149" s="14"/>
-      <c r="AF149" s="14"/>
-      <c r="AG149" s="14"/>
-      <c r="AH149" s="14"/>
       <c r="AI149" s="14"/>
       <c r="AJ149" s="14"/>
     </row>
-    <row r="150" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="150">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -9552,16 +6983,10 @@
       <c r="Z150" s="45"/>
       <c r="AA150" s="14"/>
       <c r="AB150" s="14"/>
-      <c r="AC150" s="14"/>
-      <c r="AD150" s="14"/>
-      <c r="AE150" s="14"/>
-      <c r="AF150" s="14"/>
-      <c r="AG150" s="14"/>
-      <c r="AH150" s="14"/>
       <c r="AI150" s="14"/>
       <c r="AJ150" s="14"/>
     </row>
-    <row r="151" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="151">
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -9587,16 +7012,10 @@
       <c r="Z151" s="45"/>
       <c r="AA151" s="14"/>
       <c r="AB151" s="14"/>
-      <c r="AC151" s="14"/>
-      <c r="AD151" s="14"/>
-      <c r="AE151" s="14"/>
-      <c r="AF151" s="14"/>
-      <c r="AG151" s="14"/>
-      <c r="AH151" s="14"/>
       <c r="AI151" s="14"/>
       <c r="AJ151" s="14"/>
     </row>
-    <row r="152" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="152">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -9622,16 +7041,10 @@
       <c r="Z152" s="45"/>
       <c r="AA152" s="14"/>
       <c r="AB152" s="14"/>
-      <c r="AC152" s="14"/>
-      <c r="AD152" s="14"/>
-      <c r="AE152" s="14"/>
-      <c r="AF152" s="14"/>
-      <c r="AG152" s="14"/>
-      <c r="AH152" s="14"/>
       <c r="AI152" s="14"/>
       <c r="AJ152" s="14"/>
     </row>
-    <row r="153" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="153">
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -9657,16 +7070,10 @@
       <c r="Z153" s="45"/>
       <c r="AA153" s="14"/>
       <c r="AB153" s="14"/>
-      <c r="AC153" s="14"/>
-      <c r="AD153" s="14"/>
-      <c r="AE153" s="14"/>
-      <c r="AF153" s="14"/>
-      <c r="AG153" s="14"/>
-      <c r="AH153" s="14"/>
       <c r="AI153" s="14"/>
       <c r="AJ153" s="14"/>
     </row>
-    <row r="154" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="154">
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -9692,16 +7099,10 @@
       <c r="Z154" s="45"/>
       <c r="AA154" s="14"/>
       <c r="AB154" s="14"/>
-      <c r="AC154" s="14"/>
-      <c r="AD154" s="14"/>
-      <c r="AE154" s="14"/>
-      <c r="AF154" s="14"/>
-      <c r="AG154" s="14"/>
-      <c r="AH154" s="14"/>
       <c r="AI154" s="14"/>
       <c r="AJ154" s="14"/>
     </row>
-    <row r="155" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="155">
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -9727,16 +7128,10 @@
       <c r="Z155" s="45"/>
       <c r="AA155" s="14"/>
       <c r="AB155" s="14"/>
-      <c r="AC155" s="14"/>
-      <c r="AD155" s="14"/>
-      <c r="AE155" s="14"/>
-      <c r="AF155" s="14"/>
-      <c r="AG155" s="14"/>
-      <c r="AH155" s="14"/>
       <c r="AI155" s="14"/>
       <c r="AJ155" s="14"/>
     </row>
-    <row r="156" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="156">
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -9762,16 +7157,10 @@
       <c r="Z156" s="45"/>
       <c r="AA156" s="14"/>
       <c r="AB156" s="14"/>
-      <c r="AC156" s="14"/>
-      <c r="AD156" s="14"/>
-      <c r="AE156" s="14"/>
-      <c r="AF156" s="14"/>
-      <c r="AG156" s="14"/>
-      <c r="AH156" s="14"/>
       <c r="AI156" s="14"/>
       <c r="AJ156" s="14"/>
     </row>
-    <row r="157" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="157">
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -9797,16 +7186,10 @@
       <c r="Z157" s="45"/>
       <c r="AA157" s="14"/>
       <c r="AB157" s="14"/>
-      <c r="AC157" s="14"/>
-      <c r="AD157" s="14"/>
-      <c r="AE157" s="14"/>
-      <c r="AF157" s="14"/>
-      <c r="AG157" s="14"/>
-      <c r="AH157" s="14"/>
       <c r="AI157" s="14"/>
       <c r="AJ157" s="14"/>
     </row>
-    <row r="158" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="158">
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -9832,16 +7215,10 @@
       <c r="Z158" s="45"/>
       <c r="AA158" s="14"/>
       <c r="AB158" s="14"/>
-      <c r="AC158" s="14"/>
-      <c r="AD158" s="14"/>
-      <c r="AE158" s="14"/>
-      <c r="AF158" s="14"/>
-      <c r="AG158" s="14"/>
-      <c r="AH158" s="14"/>
       <c r="AI158" s="14"/>
       <c r="AJ158" s="14"/>
     </row>
-    <row r="159" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="159">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -9867,16 +7244,10 @@
       <c r="Z159" s="45"/>
       <c r="AA159" s="14"/>
       <c r="AB159" s="14"/>
-      <c r="AC159" s="14"/>
-      <c r="AD159" s="14"/>
-      <c r="AE159" s="14"/>
-      <c r="AF159" s="14"/>
-      <c r="AG159" s="14"/>
-      <c r="AH159" s="14"/>
       <c r="AI159" s="14"/>
       <c r="AJ159" s="14"/>
     </row>
-    <row r="160" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="160">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -9902,16 +7273,10 @@
       <c r="Z160" s="45"/>
       <c r="AA160" s="14"/>
       <c r="AB160" s="14"/>
-      <c r="AC160" s="14"/>
-      <c r="AD160" s="14"/>
-      <c r="AE160" s="14"/>
-      <c r="AF160" s="14"/>
-      <c r="AG160" s="14"/>
-      <c r="AH160" s="14"/>
       <c r="AI160" s="14"/>
       <c r="AJ160" s="14"/>
     </row>
-    <row r="161" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="161">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -9937,16 +7302,10 @@
       <c r="Z161" s="45"/>
       <c r="AA161" s="14"/>
       <c r="AB161" s="14"/>
-      <c r="AC161" s="14"/>
-      <c r="AD161" s="14"/>
-      <c r="AE161" s="14"/>
-      <c r="AF161" s="14"/>
-      <c r="AG161" s="14"/>
-      <c r="AH161" s="14"/>
       <c r="AI161" s="14"/>
       <c r="AJ161" s="14"/>
     </row>
-    <row r="162" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="162">
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -9972,16 +7331,10 @@
       <c r="Z162" s="45"/>
       <c r="AA162" s="14"/>
       <c r="AB162" s="14"/>
-      <c r="AC162" s="14"/>
-      <c r="AD162" s="14"/>
-      <c r="AE162" s="14"/>
-      <c r="AF162" s="14"/>
-      <c r="AG162" s="14"/>
-      <c r="AH162" s="14"/>
       <c r="AI162" s="14"/>
       <c r="AJ162" s="14"/>
     </row>
-    <row r="163" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="163">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -10007,16 +7360,10 @@
       <c r="Z163" s="45"/>
       <c r="AA163" s="14"/>
       <c r="AB163" s="14"/>
-      <c r="AC163" s="14"/>
-      <c r="AD163" s="14"/>
-      <c r="AE163" s="14"/>
-      <c r="AF163" s="14"/>
-      <c r="AG163" s="14"/>
-      <c r="AH163" s="14"/>
       <c r="AI163" s="14"/>
       <c r="AJ163" s="14"/>
     </row>
-    <row r="164" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="164">
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -10042,16 +7389,10 @@
       <c r="Z164" s="45"/>
       <c r="AA164" s="14"/>
       <c r="AB164" s="14"/>
-      <c r="AC164" s="14"/>
-      <c r="AD164" s="14"/>
-      <c r="AE164" s="14"/>
-      <c r="AF164" s="14"/>
-      <c r="AG164" s="14"/>
-      <c r="AH164" s="14"/>
       <c r="AI164" s="14"/>
       <c r="AJ164" s="14"/>
     </row>
-    <row r="165" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="165">
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -10077,16 +7418,10 @@
       <c r="Z165" s="45"/>
       <c r="AA165" s="14"/>
       <c r="AB165" s="14"/>
-      <c r="AC165" s="14"/>
-      <c r="AD165" s="14"/>
-      <c r="AE165" s="14"/>
-      <c r="AF165" s="14"/>
-      <c r="AG165" s="14"/>
-      <c r="AH165" s="14"/>
       <c r="AI165" s="14"/>
       <c r="AJ165" s="14"/>
     </row>
-    <row r="166" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="166">
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -10112,16 +7447,10 @@
       <c r="Z166" s="45"/>
       <c r="AA166" s="14"/>
       <c r="AB166" s="14"/>
-      <c r="AC166" s="14"/>
-      <c r="AD166" s="14"/>
-      <c r="AE166" s="14"/>
-      <c r="AF166" s="14"/>
-      <c r="AG166" s="14"/>
-      <c r="AH166" s="14"/>
       <c r="AI166" s="14"/>
       <c r="AJ166" s="14"/>
     </row>
-    <row r="167" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="167">
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -10147,16 +7476,10 @@
       <c r="Z167" s="45"/>
       <c r="AA167" s="14"/>
       <c r="AB167" s="14"/>
-      <c r="AC167" s="14"/>
-      <c r="AD167" s="14"/>
-      <c r="AE167" s="14"/>
-      <c r="AF167" s="14"/>
-      <c r="AG167" s="14"/>
-      <c r="AH167" s="14"/>
       <c r="AI167" s="14"/>
       <c r="AJ167" s="14"/>
     </row>
-    <row r="168" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="168">
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -10182,16 +7505,10 @@
       <c r="Z168" s="45"/>
       <c r="AA168" s="14"/>
       <c r="AB168" s="14"/>
-      <c r="AC168" s="14"/>
-      <c r="AD168" s="14"/>
-      <c r="AE168" s="14"/>
-      <c r="AF168" s="14"/>
-      <c r="AG168" s="14"/>
-      <c r="AH168" s="14"/>
       <c r="AI168" s="14"/>
       <c r="AJ168" s="14"/>
     </row>
-    <row r="169" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="169">
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -10217,16 +7534,10 @@
       <c r="Z169" s="45"/>
       <c r="AA169" s="14"/>
       <c r="AB169" s="14"/>
-      <c r="AC169" s="14"/>
-      <c r="AD169" s="14"/>
-      <c r="AE169" s="14"/>
-      <c r="AF169" s="14"/>
-      <c r="AG169" s="14"/>
-      <c r="AH169" s="14"/>
       <c r="AI169" s="14"/>
       <c r="AJ169" s="14"/>
     </row>
-    <row r="170" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="170">
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -10252,16 +7563,10 @@
       <c r="Z170" s="45"/>
       <c r="AA170" s="14"/>
       <c r="AB170" s="14"/>
-      <c r="AC170" s="14"/>
-      <c r="AD170" s="14"/>
-      <c r="AE170" s="14"/>
-      <c r="AF170" s="14"/>
-      <c r="AG170" s="14"/>
-      <c r="AH170" s="14"/>
       <c r="AI170" s="14"/>
       <c r="AJ170" s="14"/>
     </row>
-    <row r="171" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="171">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -10287,16 +7592,10 @@
       <c r="Z171" s="45"/>
       <c r="AA171" s="14"/>
       <c r="AB171" s="14"/>
-      <c r="AC171" s="14"/>
-      <c r="AD171" s="14"/>
-      <c r="AE171" s="14"/>
-      <c r="AF171" s="14"/>
-      <c r="AG171" s="14"/>
-      <c r="AH171" s="14"/>
       <c r="AI171" s="14"/>
       <c r="AJ171" s="14"/>
     </row>
-    <row r="172" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="172">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -10322,16 +7621,10 @@
       <c r="Z172" s="45"/>
       <c r="AA172" s="14"/>
       <c r="AB172" s="14"/>
-      <c r="AC172" s="14"/>
-      <c r="AD172" s="14"/>
-      <c r="AE172" s="14"/>
-      <c r="AF172" s="14"/>
-      <c r="AG172" s="14"/>
-      <c r="AH172" s="14"/>
       <c r="AI172" s="14"/>
       <c r="AJ172" s="14"/>
     </row>
-    <row r="173" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="173">
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -10357,16 +7650,10 @@
       <c r="Z173" s="45"/>
       <c r="AA173" s="14"/>
       <c r="AB173" s="14"/>
-      <c r="AC173" s="14"/>
-      <c r="AD173" s="14"/>
-      <c r="AE173" s="14"/>
-      <c r="AF173" s="14"/>
-      <c r="AG173" s="14"/>
-      <c r="AH173" s="14"/>
       <c r="AI173" s="14"/>
       <c r="AJ173" s="14"/>
     </row>
-    <row r="174" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="174">
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -10392,16 +7679,10 @@
       <c r="Z174" s="45"/>
       <c r="AA174" s="14"/>
       <c r="AB174" s="14"/>
-      <c r="AC174" s="14"/>
-      <c r="AD174" s="14"/>
-      <c r="AE174" s="14"/>
-      <c r="AF174" s="14"/>
-      <c r="AG174" s="14"/>
-      <c r="AH174" s="14"/>
       <c r="AI174" s="14"/>
       <c r="AJ174" s="14"/>
     </row>
-    <row r="175" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="175">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -10427,16 +7708,10 @@
       <c r="Z175" s="45"/>
       <c r="AA175" s="14"/>
       <c r="AB175" s="14"/>
-      <c r="AC175" s="14"/>
-      <c r="AD175" s="14"/>
-      <c r="AE175" s="14"/>
-      <c r="AF175" s="14"/>
-      <c r="AG175" s="14"/>
-      <c r="AH175" s="14"/>
       <c r="AI175" s="14"/>
       <c r="AJ175" s="14"/>
     </row>
-    <row r="176" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="176">
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -10462,16 +7737,10 @@
       <c r="Z176" s="45"/>
       <c r="AA176" s="14"/>
       <c r="AB176" s="14"/>
-      <c r="AC176" s="14"/>
-      <c r="AD176" s="14"/>
-      <c r="AE176" s="14"/>
-      <c r="AF176" s="14"/>
-      <c r="AG176" s="14"/>
-      <c r="AH176" s="14"/>
       <c r="AI176" s="14"/>
       <c r="AJ176" s="14"/>
     </row>
-    <row r="177" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="177">
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -10497,16 +7766,10 @@
       <c r="Z177" s="45"/>
       <c r="AA177" s="14"/>
       <c r="AB177" s="14"/>
-      <c r="AC177" s="14"/>
-      <c r="AD177" s="14"/>
-      <c r="AE177" s="14"/>
-      <c r="AF177" s="14"/>
-      <c r="AG177" s="14"/>
-      <c r="AH177" s="14"/>
       <c r="AI177" s="14"/>
       <c r="AJ177" s="14"/>
     </row>
-    <row r="178" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="178">
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -10532,16 +7795,10 @@
       <c r="Z178" s="45"/>
       <c r="AA178" s="14"/>
       <c r="AB178" s="14"/>
-      <c r="AC178" s="14"/>
-      <c r="AD178" s="14"/>
-      <c r="AE178" s="14"/>
-      <c r="AF178" s="14"/>
-      <c r="AG178" s="14"/>
-      <c r="AH178" s="14"/>
       <c r="AI178" s="14"/>
       <c r="AJ178" s="14"/>
     </row>
-    <row r="179" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="179">
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -10567,16 +7824,10 @@
       <c r="Z179" s="45"/>
       <c r="AA179" s="14"/>
       <c r="AB179" s="14"/>
-      <c r="AC179" s="14"/>
-      <c r="AD179" s="14"/>
-      <c r="AE179" s="14"/>
-      <c r="AF179" s="14"/>
-      <c r="AG179" s="14"/>
-      <c r="AH179" s="14"/>
       <c r="AI179" s="14"/>
       <c r="AJ179" s="14"/>
     </row>
-    <row r="180" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="180">
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -10602,16 +7853,10 @@
       <c r="Z180" s="45"/>
       <c r="AA180" s="14"/>
       <c r="AB180" s="14"/>
-      <c r="AC180" s="14"/>
-      <c r="AD180" s="14"/>
-      <c r="AE180" s="14"/>
-      <c r="AF180" s="14"/>
-      <c r="AG180" s="14"/>
-      <c r="AH180" s="14"/>
       <c r="AI180" s="14"/>
       <c r="AJ180" s="14"/>
     </row>
-    <row r="181" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="181">
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -10637,16 +7882,10 @@
       <c r="Z181" s="45"/>
       <c r="AA181" s="14"/>
       <c r="AB181" s="14"/>
-      <c r="AC181" s="14"/>
-      <c r="AD181" s="14"/>
-      <c r="AE181" s="14"/>
-      <c r="AF181" s="14"/>
-      <c r="AG181" s="14"/>
-      <c r="AH181" s="14"/>
       <c r="AI181" s="14"/>
       <c r="AJ181" s="14"/>
     </row>
-    <row r="182" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="182">
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -10672,16 +7911,10 @@
       <c r="Z182" s="45"/>
       <c r="AA182" s="14"/>
       <c r="AB182" s="14"/>
-      <c r="AC182" s="14"/>
-      <c r="AD182" s="14"/>
-      <c r="AE182" s="14"/>
-      <c r="AF182" s="14"/>
-      <c r="AG182" s="14"/>
-      <c r="AH182" s="14"/>
       <c r="AI182" s="14"/>
       <c r="AJ182" s="14"/>
     </row>
-    <row r="183" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="183">
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -10707,16 +7940,10 @@
       <c r="Z183" s="45"/>
       <c r="AA183" s="14"/>
       <c r="AB183" s="14"/>
-      <c r="AC183" s="14"/>
-      <c r="AD183" s="14"/>
-      <c r="AE183" s="14"/>
-      <c r="AF183" s="14"/>
-      <c r="AG183" s="14"/>
-      <c r="AH183" s="14"/>
       <c r="AI183" s="14"/>
       <c r="AJ183" s="14"/>
     </row>
-    <row r="184" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="184">
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -10742,16 +7969,10 @@
       <c r="Z184" s="45"/>
       <c r="AA184" s="14"/>
       <c r="AB184" s="14"/>
-      <c r="AC184" s="14"/>
-      <c r="AD184" s="14"/>
-      <c r="AE184" s="14"/>
-      <c r="AF184" s="14"/>
-      <c r="AG184" s="14"/>
-      <c r="AH184" s="14"/>
       <c r="AI184" s="14"/>
       <c r="AJ184" s="14"/>
     </row>
-    <row r="185" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="185">
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -10777,16 +7998,10 @@
       <c r="Z185" s="45"/>
       <c r="AA185" s="14"/>
       <c r="AB185" s="14"/>
-      <c r="AC185" s="14"/>
-      <c r="AD185" s="14"/>
-      <c r="AE185" s="14"/>
-      <c r="AF185" s="14"/>
-      <c r="AG185" s="14"/>
-      <c r="AH185" s="14"/>
       <c r="AI185" s="14"/>
       <c r="AJ185" s="14"/>
     </row>
-    <row r="186" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="186">
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -10812,16 +8027,10 @@
       <c r="Z186" s="45"/>
       <c r="AA186" s="14"/>
       <c r="AB186" s="14"/>
-      <c r="AC186" s="14"/>
-      <c r="AD186" s="14"/>
-      <c r="AE186" s="14"/>
-      <c r="AF186" s="14"/>
-      <c r="AG186" s="14"/>
-      <c r="AH186" s="14"/>
       <c r="AI186" s="14"/>
       <c r="AJ186" s="14"/>
     </row>
-    <row r="187" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="187">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -10847,16 +8056,10 @@
       <c r="Z187" s="45"/>
       <c r="AA187" s="14"/>
       <c r="AB187" s="14"/>
-      <c r="AC187" s="14"/>
-      <c r="AD187" s="14"/>
-      <c r="AE187" s="14"/>
-      <c r="AF187" s="14"/>
-      <c r="AG187" s="14"/>
-      <c r="AH187" s="14"/>
       <c r="AI187" s="14"/>
       <c r="AJ187" s="14"/>
     </row>
-    <row r="188" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="188">
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -10882,16 +8085,10 @@
       <c r="Z188" s="45"/>
       <c r="AA188" s="14"/>
       <c r="AB188" s="14"/>
-      <c r="AC188" s="14"/>
-      <c r="AD188" s="14"/>
-      <c r="AE188" s="14"/>
-      <c r="AF188" s="14"/>
-      <c r="AG188" s="14"/>
-      <c r="AH188" s="14"/>
       <c r="AI188" s="14"/>
       <c r="AJ188" s="14"/>
     </row>
-    <row r="189" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="189">
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -10917,16 +8114,10 @@
       <c r="Z189" s="45"/>
       <c r="AA189" s="14"/>
       <c r="AB189" s="14"/>
-      <c r="AC189" s="14"/>
-      <c r="AD189" s="14"/>
-      <c r="AE189" s="14"/>
-      <c r="AF189" s="14"/>
-      <c r="AG189" s="14"/>
-      <c r="AH189" s="14"/>
       <c r="AI189" s="14"/>
       <c r="AJ189" s="14"/>
     </row>
-    <row r="190" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="190">
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -10952,16 +8143,10 @@
       <c r="Z190" s="45"/>
       <c r="AA190" s="14"/>
       <c r="AB190" s="14"/>
-      <c r="AC190" s="14"/>
-      <c r="AD190" s="14"/>
-      <c r="AE190" s="14"/>
-      <c r="AF190" s="14"/>
-      <c r="AG190" s="14"/>
-      <c r="AH190" s="14"/>
       <c r="AI190" s="14"/>
       <c r="AJ190" s="14"/>
     </row>
-    <row r="191" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="191">
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -10987,16 +8172,10 @@
       <c r="Z191" s="45"/>
       <c r="AA191" s="14"/>
       <c r="AB191" s="14"/>
-      <c r="AC191" s="14"/>
-      <c r="AD191" s="14"/>
-      <c r="AE191" s="14"/>
-      <c r="AF191" s="14"/>
-      <c r="AG191" s="14"/>
-      <c r="AH191" s="14"/>
       <c r="AI191" s="14"/>
       <c r="AJ191" s="14"/>
     </row>
-    <row r="192" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="192">
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -11022,16 +8201,10 @@
       <c r="Z192" s="45"/>
       <c r="AA192" s="14"/>
       <c r="AB192" s="14"/>
-      <c r="AC192" s="14"/>
-      <c r="AD192" s="14"/>
-      <c r="AE192" s="14"/>
-      <c r="AF192" s="14"/>
-      <c r="AG192" s="14"/>
-      <c r="AH192" s="14"/>
       <c r="AI192" s="14"/>
       <c r="AJ192" s="14"/>
     </row>
-    <row r="193" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="193">
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -11057,16 +8230,10 @@
       <c r="Z193" s="45"/>
       <c r="AA193" s="14"/>
       <c r="AB193" s="14"/>
-      <c r="AC193" s="14"/>
-      <c r="AD193" s="14"/>
-      <c r="AE193" s="14"/>
-      <c r="AF193" s="14"/>
-      <c r="AG193" s="14"/>
-      <c r="AH193" s="14"/>
       <c r="AI193" s="14"/>
       <c r="AJ193" s="14"/>
     </row>
-    <row r="194" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="194">
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -11092,16 +8259,10 @@
       <c r="Z194" s="45"/>
       <c r="AA194" s="14"/>
       <c r="AB194" s="14"/>
-      <c r="AC194" s="14"/>
-      <c r="AD194" s="14"/>
-      <c r="AE194" s="14"/>
-      <c r="AF194" s="14"/>
-      <c r="AG194" s="14"/>
-      <c r="AH194" s="14"/>
       <c r="AI194" s="14"/>
       <c r="AJ194" s="14"/>
     </row>
-    <row r="195" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="195">
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -11127,16 +8288,10 @@
       <c r="Z195" s="45"/>
       <c r="AA195" s="14"/>
       <c r="AB195" s="14"/>
-      <c r="AC195" s="14"/>
-      <c r="AD195" s="14"/>
-      <c r="AE195" s="14"/>
-      <c r="AF195" s="14"/>
-      <c r="AG195" s="14"/>
-      <c r="AH195" s="14"/>
       <c r="AI195" s="14"/>
       <c r="AJ195" s="14"/>
     </row>
-    <row r="196" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="196">
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -11162,16 +8317,10 @@
       <c r="Z196" s="45"/>
       <c r="AA196" s="14"/>
       <c r="AB196" s="14"/>
-      <c r="AC196" s="14"/>
-      <c r="AD196" s="14"/>
-      <c r="AE196" s="14"/>
-      <c r="AF196" s="14"/>
-      <c r="AG196" s="14"/>
-      <c r="AH196" s="14"/>
       <c r="AI196" s="14"/>
       <c r="AJ196" s="14"/>
     </row>
-    <row r="197" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="197">
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -11197,16 +8346,10 @@
       <c r="Z197" s="45"/>
       <c r="AA197" s="14"/>
       <c r="AB197" s="14"/>
-      <c r="AC197" s="14"/>
-      <c r="AD197" s="14"/>
-      <c r="AE197" s="14"/>
-      <c r="AF197" s="14"/>
-      <c r="AG197" s="14"/>
-      <c r="AH197" s="14"/>
       <c r="AI197" s="14"/>
       <c r="AJ197" s="14"/>
     </row>
-    <row r="198" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="198">
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -11232,16 +8375,10 @@
       <c r="Z198" s="45"/>
       <c r="AA198" s="14"/>
       <c r="AB198" s="14"/>
-      <c r="AC198" s="14"/>
-      <c r="AD198" s="14"/>
-      <c r="AE198" s="14"/>
-      <c r="AF198" s="14"/>
-      <c r="AG198" s="14"/>
-      <c r="AH198" s="14"/>
       <c r="AI198" s="14"/>
       <c r="AJ198" s="14"/>
     </row>
-    <row r="199" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="199">
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -11267,16 +8404,10 @@
       <c r="Z199" s="45"/>
       <c r="AA199" s="14"/>
       <c r="AB199" s="14"/>
-      <c r="AC199" s="14"/>
-      <c r="AD199" s="14"/>
-      <c r="AE199" s="14"/>
-      <c r="AF199" s="14"/>
-      <c r="AG199" s="14"/>
-      <c r="AH199" s="14"/>
       <c r="AI199" s="14"/>
       <c r="AJ199" s="14"/>
     </row>
-    <row r="200" spans="2:36" x14ac:dyDescent="0.25">
+    <row r="200">
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -11312,12 +8443,12 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A331E5F6-21CB-43B3-ACD6-0CD72E3DB9B9}">
-  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O8" sqref="O8"/>
@@ -11326,6 +8457,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -11339,24 +8471,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="7" width="9.140625" style="59" customWidth="1"/>
+    <col min="3" max="7" width="9.140625" customWidth="1" style="59"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="C2" s="73"/>
       <c r="D2" s="73"/>
       <c r="E2" s="73"/>
       <c r="F2" s="73"/>
       <c r="G2" s="73"/>
     </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="C3" s="73"/>
       <c r="D3" s="73"/>
       <c r="E3" s="73"/>
       <c r="F3" s="73"/>
       <c r="G3" s="73"/>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="C4" s="73" t="s">
         <v>13</v>
       </c>
@@ -11373,111 +8505,111 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="C5" s="73" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="D5" s="73" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="E5" s="73">
         <v>50.4</v>
       </c>
       <c r="F5" s="73" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="G5" s="73" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="C6" s="73" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="D6" s="73" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="E6" s="73">
         <v>87.53</v>
       </c>
       <c r="F6" s="73" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G6" s="73" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="C7" s="73"/>
       <c r="D7" s="73"/>
       <c r="E7" s="73"/>
       <c r="F7" s="73"/>
       <c r="G7" s="73"/>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="C8" s="73"/>
       <c r="D8" s="73"/>
       <c r="E8" s="73"/>
       <c r="F8" s="73"/>
       <c r="G8" s="73"/>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="C9" s="73"/>
       <c r="D9" s="73"/>
       <c r="E9" s="73"/>
       <c r="F9" s="73"/>
       <c r="G9" s="73"/>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="C10" s="73"/>
       <c r="D10" s="73"/>
       <c r="E10" s="73"/>
       <c r="F10" s="73"/>
       <c r="G10" s="73"/>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="C11" s="73"/>
       <c r="D11" s="73"/>
       <c r="E11" s="73"/>
       <c r="F11" s="73"/>
       <c r="G11" s="73"/>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="C12" s="73"/>
       <c r="D12" s="73"/>
       <c r="E12" s="73"/>
       <c r="F12" s="73"/>
       <c r="G12" s="73"/>
     </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="C13" s="73"/>
       <c r="D13" s="73"/>
       <c r="E13" s="73"/>
       <c r="F13" s="73"/>
       <c r="G13" s="73"/>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="C14" s="73"/>
       <c r="D14" s="73"/>
       <c r="E14" s="73"/>
       <c r="F14" s="73"/>
       <c r="G14" s="73"/>
     </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="C15" s="73"/>
       <c r="D15" s="73"/>
       <c r="E15" s="73"/>
       <c r="F15" s="73"/>
       <c r="G15" s="73"/>
     </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="C16" s="73"/>
       <c r="D16" s="73"/>
       <c r="E16" s="73"/>
       <c r="F16" s="73"/>
       <c r="G16" s="73"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="C17" s="73"/>
       <c r="D17" s="73"/>
       <c r="E17" s="73"/>
@@ -11486,5 +8618,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/TestBudget.xlsx
+++ b/TestBudget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PersonalMyCode\BudgetUpdator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E059BD1F-0ECC-4656-B348-A5C084B88084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F24B8B-D937-4730-BE05-C5D2EAE2A855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="0" windowWidth="28770" windowHeight="15465" activeTab="1" xr2:uid="{AF956A61-A15A-4A6E-9A9E-CFD1D374AF1F}"/>
+    <workbookView xWindow="-23595" yWindow="1890" windowWidth="22755" windowHeight="10125" activeTab="1" xr2:uid="{AF956A61-A15A-4A6E-9A9E-CFD1D374AF1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Income" sheetId="2" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>May</t>
   </si>
@@ -126,9 +126,15 @@
     <t>Walmart</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>Rewards</t>
   </si>
   <si>
+    <t>Groceries</t>
+  </si>
+  <si>
     <t>Checking</t>
   </si>
   <si>
@@ -147,9 +153,6 @@
     <t>Citi</t>
   </si>
   <si>
-    <t>Groceries</t>
-  </si>
-  <si>
     <t>Venmo</t>
   </si>
   <si>
@@ -415,6 +418,9 @@
   </si>
   <si>
     <t>Xfinity Mobile</t>
+  </si>
+  <si>
+    <t>Newpark Resort Park City Ut Visa</t>
   </si>
   <si>
     <t>123</t>
@@ -1200,8 +1206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46617975-4435-450D-8E4F-CA1A567C5B3E}">
   <dimension ref="A1:AR200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L23" workbookViewId="0">
-      <selection activeCell="AC44" sqref="AC44"/>
+    <sheetView tabSelected="1" topLeftCell="L5" workbookViewId="0">
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1376,7 +1382,7 @@
       <c r="X6" s="26"/>
       <c r="Y6" s="25">
         <f>SUM(Y8:Y199)</f>
-        <v>809.3600000000002</v>
+        <v>517.6299999999999</v>
       </c>
       <c r="Z6" s="26"/>
       <c r="AA6" s="27"/>
@@ -1493,11 +1499,15 @@
       <c r="U8" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="V8" s="47"/>
+      <c r="V8" s="47" t="s">
+        <v>21</v>
+      </c>
       <c r="W8" s="47" t="s">
-        <v>21</v>
-      </c>
-      <c r="X8" s="47"/>
+        <v>22</v>
+      </c>
+      <c r="X8" s="47" t="s">
+        <v>23</v>
+      </c>
       <c r="Y8" s="48">
         <v>17.14</v>
       </c>
@@ -1507,10 +1517,10 @@
       <c r="AI8" s="14"/>
       <c r="AJ8" s="14"/>
       <c r="AK8" s="49" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AM8" s="50" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AN8" s="51" t="str">
         <f>VLOOKUP(AN7,AN11:AO22,2,FALSE)</f>
@@ -1520,7 +1530,7 @@
     <row r="9" ht="15.75">
       <c r="B9" s="40"/>
       <c r="C9" s="40" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" s="52" cm="1">
         <f ref="D9:D9" t="array" aca="1" ca="1">INDIRECT("Income!"&amp;AN8)</f>
@@ -1529,7 +1539,7 @@
       <c r="E9" s="40"/>
       <c r="G9" s="41"/>
       <c r="H9" s="53" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I9" s="42"/>
       <c r="J9" s="54"/>
@@ -1547,10 +1557,10 @@
         <v>45438</v>
       </c>
       <c r="U9" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="W9" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y9" s="70">
         <v>10.69</v>
@@ -1561,7 +1571,7 @@
       <c r="AI9" s="14"/>
       <c r="AJ9" s="14"/>
       <c r="AK9" s="49" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10">
@@ -1576,7 +1586,7 @@
       <c r="E10" s="40"/>
       <c r="G10" s="41"/>
       <c r="H10" s="56" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I10" s="10" t="e" cm="1">
         <f ref="I10:I10" t="array" aca="1" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O10")</f>
@@ -1608,10 +1618,10 @@
         <v>45438</v>
       </c>
       <c r="U10" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="W10" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y10" s="70">
         <v>50.73</v>
@@ -1622,31 +1632,31 @@
       <c r="AI10" s="14"/>
       <c r="AJ10" s="14"/>
       <c r="AK10" s="49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM10" s="50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AN10" s="50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AO10" s="50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="40"/>
       <c r="C11" s="40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" s="58">
         <f>Y6</f>
-        <v>809.3600000000002</v>
+        <v>517.6299999999999</v>
       </c>
       <c r="E11" s="40"/>
       <c r="G11" s="41"/>
       <c r="H11" s="56" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I11" s="10" t="e" cm="1">
         <f ref="I11:I11" t="array" aca="1" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O11")</f>
@@ -1668,7 +1678,7 @@
         <v>#REF!</v>
       </c>
       <c r="N11" s="57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O11" s="10" t="e">
         <f>IF(N11="y",M11,)</f>
@@ -1683,10 +1693,10 @@
         <v>45438</v>
       </c>
       <c r="U11" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="W11" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y11" s="70">
         <v>264.03</v>
@@ -1697,16 +1707,16 @@
       <c r="AI11" s="14"/>
       <c r="AJ11" s="14"/>
       <c r="AK11" s="49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AM11" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AN11" s="59" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AO11" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AR11" s="28"/>
     </row>
@@ -1717,7 +1727,7 @@
       <c r="E12" s="40"/>
       <c r="G12" s="41"/>
       <c r="H12" s="56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I12" s="10" t="e" cm="1">
         <f ref="I12:I12" t="array" aca="1" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O12")</f>
@@ -1739,7 +1749,7 @@
         <v>#REF!</v>
       </c>
       <c r="N12" s="57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="10" t="e">
         <f ref="O12:O21" t="shared" si="3" ca="1">IF(N12="y",M12,)</f>
@@ -1754,10 +1764,10 @@
         <v>45437</v>
       </c>
       <c r="U12" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W12" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y12" s="70">
         <v>24.34</v>
@@ -1768,30 +1778,30 @@
       <c r="AI12" s="14"/>
       <c r="AJ12" s="14"/>
       <c r="AK12" s="49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AM12" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AN12" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AO12" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="14"/>
       <c r="B13" s="40"/>
       <c r="C13" s="40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D13" s="40"/>
       <c r="E13" s="40"/>
       <c r="F13" s="14"/>
       <c r="G13" s="41"/>
       <c r="H13" s="56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" s="10" t="e" cm="1">
         <f ref="I13:I13" t="array" aca="1" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O13")</f>
@@ -1813,7 +1823,7 @@
         <v>#REF!</v>
       </c>
       <c r="N13" s="57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O13" s="10" t="e">
         <f t="shared" si="3" ca="1"/>
@@ -1830,8 +1840,14 @@
       <c r="U13" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="V13" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="W13" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="X13" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="Y13" s="70">
         <v>150.7</v>
@@ -1842,23 +1858,23 @@
       <c r="AI13" s="14"/>
       <c r="AJ13" s="14"/>
       <c r="AK13" s="49" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM13" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AN13" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AO13" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="14"/>
       <c r="B14" s="61"/>
       <c r="C14" s="62" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14" s="48">
         <v>-454.02</v>
@@ -1867,7 +1883,7 @@
       <c r="F14" s="14"/>
       <c r="G14" s="41"/>
       <c r="H14" s="56" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I14" s="10" t="e" cm="1">
         <f ref="I14:I14" t="array" aca="1" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O14")</f>
@@ -1889,7 +1905,7 @@
         <v>#REF!</v>
       </c>
       <c r="N14" s="57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O14" s="10" t="e">
         <f t="shared" si="3" ca="1"/>
@@ -1906,8 +1922,14 @@
       <c r="U14" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="V14" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="W14" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="X14" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="Y14" s="70">
         <v>140.8</v>
@@ -1918,33 +1940,33 @@
       <c r="AI14" s="14"/>
       <c r="AJ14" s="14"/>
       <c r="AK14" s="49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AM14" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AN14" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AO14" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="14"/>
       <c r="B15" s="61"/>
       <c r="C15" s="40" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D15" s="60">
         <f>D9-D11</f>
-        <v>-809.3600000000002</v>
+        <v>-517.6299999999999</v>
       </c>
       <c r="E15" s="61"/>
       <c r="F15" s="14"/>
       <c r="G15" s="41"/>
       <c r="H15" s="56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I15" s="10" t="e" cm="1">
         <f ref="I15:I15" t="array" aca="1" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O15")</f>
@@ -1966,7 +1988,7 @@
         <v>#REF!</v>
       </c>
       <c r="N15" s="57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O15" s="10" t="e">
         <f t="shared" si="3" ca="1"/>
@@ -1981,10 +2003,10 @@
         <v>45434</v>
       </c>
       <c r="U15" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W15" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y15" s="70">
         <v>66.3</v>
@@ -1998,10 +2020,10 @@
         <v>0</v>
       </c>
       <c r="AN15" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AO15" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AR15" s="28"/>
     </row>
@@ -2014,7 +2036,7 @@
       <c r="F16" s="14"/>
       <c r="G16" s="41"/>
       <c r="H16" s="56" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I16" s="10" t="e" cm="1">
         <f ref="I16:I16" t="array" aca="1" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O16")</f>
@@ -2049,10 +2071,10 @@
         <v>45434</v>
       </c>
       <c r="U16" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W16" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y16" s="70">
         <v>8.53</v>
@@ -2063,13 +2085,13 @@
       <c r="AI16" s="14"/>
       <c r="AJ16" s="14"/>
       <c r="AM16" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AN16" s="0" t="s">
         <v>0</v>
       </c>
       <c r="AO16" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17">
@@ -2081,7 +2103,7 @@
       <c r="F17" s="14"/>
       <c r="G17" s="41"/>
       <c r="H17" s="56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I17" s="10" t="e" cm="1">
         <f ref="I17:I17" t="array" aca="1" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O17")</f>
@@ -2103,7 +2125,7 @@
         <v>#REF!</v>
       </c>
       <c r="N17" s="57" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O17" s="10" t="e">
         <f t="shared" si="3" ca="1"/>
@@ -2118,10 +2140,10 @@
         <v>45433</v>
       </c>
       <c r="U17" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="W17" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y17" s="70">
         <v>47.45</v>
@@ -2132,13 +2154,13 @@
       <c r="AI17" s="14"/>
       <c r="AJ17" s="14"/>
       <c r="AM17" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AN17" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AO17" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18">
@@ -2183,8 +2205,14 @@
       <c r="U18" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="V18" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="W18" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="X18" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="Y18" s="70">
         <v>58.51</v>
@@ -2195,13 +2223,13 @@
       <c r="AI18" s="14"/>
       <c r="AJ18" s="14"/>
       <c r="AM18" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AN18" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AO18" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19">
@@ -2244,10 +2272,10 @@
         <v>45431</v>
       </c>
       <c r="U19" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="W19" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y19" s="70">
         <v>-2046.1</v>
@@ -2258,13 +2286,13 @@
       <c r="AI19" s="14"/>
       <c r="AJ19" s="14"/>
       <c r="AM19" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AN19" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AO19" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AR19" s="28"/>
     </row>
@@ -2310,8 +2338,14 @@
       <c r="U20" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="V20" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="W20" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="X20" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="Y20" s="70">
         <v>5.51</v>
@@ -2322,13 +2356,13 @@
       <c r="AI20" s="14"/>
       <c r="AJ20" s="14"/>
       <c r="AM20" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AN20" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AO20" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21">
@@ -2371,10 +2405,10 @@
         <v>45430</v>
       </c>
       <c r="U21" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W21" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y21" s="70">
         <v>29.07</v>
@@ -2385,13 +2419,13 @@
       <c r="AI21" s="14"/>
       <c r="AJ21" s="14"/>
       <c r="AM21" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AN21" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AO21" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AP21" s="66"/>
     </row>
@@ -2404,7 +2438,7 @@
       <c r="F22" s="14"/>
       <c r="G22" s="41"/>
       <c r="H22" s="67" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I22" s="42"/>
       <c r="J22" s="54"/>
@@ -2425,10 +2459,10 @@
         <v>45429</v>
       </c>
       <c r="U22" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W22" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y22" s="70">
         <v>133.9</v>
@@ -2439,13 +2473,13 @@
       <c r="AI22" s="14"/>
       <c r="AJ22" s="14"/>
       <c r="AM22" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AN22" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AO22" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AP22" s="66"/>
     </row>
@@ -2458,7 +2492,7 @@
       <c r="F23" s="14"/>
       <c r="G23" s="41"/>
       <c r="H23" s="56" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I23" s="42"/>
       <c r="J23" s="54">
@@ -2487,10 +2521,10 @@
         <v>45429</v>
       </c>
       <c r="U23" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="W23" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y23" s="70">
         <v>60.61</v>
@@ -2511,7 +2545,7 @@
       <c r="F24" s="14"/>
       <c r="G24" s="41"/>
       <c r="H24" s="56" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I24" s="42"/>
       <c r="J24" s="54">
@@ -2540,10 +2574,10 @@
         <v>45429</v>
       </c>
       <c r="U24" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W24" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y24" s="70">
         <v>21.67</v>
@@ -2563,7 +2597,7 @@
       <c r="F25" s="14"/>
       <c r="G25" s="41"/>
       <c r="H25" s="56" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I25" s="42"/>
       <c r="J25" s="54">
@@ -2592,10 +2626,10 @@
         <v>45428</v>
       </c>
       <c r="U25" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="W25" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y25" s="70">
         <v>76.67</v>
@@ -2615,7 +2649,7 @@
       <c r="F26" s="14"/>
       <c r="G26" s="41"/>
       <c r="H26" s="56" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I26" s="42"/>
       <c r="J26" s="54">
@@ -2644,10 +2678,10 @@
         <v>45428</v>
       </c>
       <c r="U26" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W26" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y26" s="70">
         <v>59.95</v>
@@ -2667,7 +2701,7 @@
       <c r="F27" s="14"/>
       <c r="G27" s="41"/>
       <c r="H27" s="56" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I27" s="42"/>
       <c r="J27" s="54">
@@ -2696,10 +2730,10 @@
         <v>45428</v>
       </c>
       <c r="U27" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="W27" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y27" s="70">
         <v>13.73</v>
@@ -2720,7 +2754,7 @@
       <c r="F28" s="14"/>
       <c r="G28" s="41"/>
       <c r="H28" s="56" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I28" s="42"/>
       <c r="J28" s="54">
@@ -2749,10 +2783,10 @@
         <v>45427</v>
       </c>
       <c r="U28" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W28" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y28" s="70">
         <v>95.58</v>
@@ -2772,7 +2806,7 @@
       <c r="F29" s="14"/>
       <c r="G29" s="41"/>
       <c r="H29" s="56" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I29" s="42"/>
       <c r="J29" s="54">
@@ -2801,10 +2835,10 @@
         <v>45426</v>
       </c>
       <c r="U29" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="W29" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y29" s="70">
         <v>3.22</v>
@@ -2824,7 +2858,7 @@
       <c r="F30" s="14"/>
       <c r="G30" s="41"/>
       <c r="H30" s="56" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I30" s="42"/>
       <c r="J30" s="54">
@@ -2853,10 +2887,10 @@
         <v>45425</v>
       </c>
       <c r="U30" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="W30" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y30" s="70">
         <v>86.38</v>
@@ -2876,7 +2910,7 @@
       <c r="F31" s="14"/>
       <c r="G31" s="41"/>
       <c r="H31" s="56" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I31" s="42"/>
       <c r="J31" s="54">
@@ -2907,8 +2941,14 @@
       <c r="U31" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="V31" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="W31" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="X31" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="Y31" s="70">
         <v>158.27</v>
@@ -2954,10 +2994,10 @@
         <v>45424</v>
       </c>
       <c r="U32" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W32" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y32" s="70">
         <v>7.48</v>
@@ -3002,10 +3042,10 @@
         <v>45422</v>
       </c>
       <c r="U33" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="W33" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y33" s="70">
         <v>14.35</v>
@@ -3043,8 +3083,14 @@
       <c r="U34" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="V34" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="W34" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="X34" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="Y34" s="70">
         <v>180.94</v>
@@ -3091,8 +3137,14 @@
       <c r="U35" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="V35" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="W35" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="X35" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="Y35" s="70">
         <v>4.73</v>
@@ -3138,10 +3190,10 @@
         <v>45421</v>
       </c>
       <c r="U36" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="W36" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y36" s="70">
         <v>32.22</v>
@@ -3177,10 +3229,10 @@
         <v>45421</v>
       </c>
       <c r="U37" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="W37" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y37" s="70">
         <v>780.78</v>
@@ -3200,7 +3252,7 @@
       <c r="F38" s="14"/>
       <c r="G38" s="41"/>
       <c r="H38" s="67" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I38" s="42"/>
       <c r="J38" s="54"/>
@@ -3227,10 +3279,10 @@
         <v>45421</v>
       </c>
       <c r="U38" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="W38" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y38" s="70">
         <v>-3.42</v>
@@ -3250,7 +3302,7 @@
       <c r="F39" s="14"/>
       <c r="G39" s="41"/>
       <c r="H39" s="56" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I39" s="42"/>
       <c r="J39" s="54">
@@ -3279,10 +3331,10 @@
         <v>45421</v>
       </c>
       <c r="U39" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="W39" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y39" s="70">
         <v>26</v>
@@ -3303,7 +3355,7 @@
       <c r="F40" s="14"/>
       <c r="G40" s="41"/>
       <c r="H40" s="56" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="I40" s="42"/>
       <c r="J40" s="54">
@@ -3332,10 +3384,10 @@
         <v>45420</v>
       </c>
       <c r="U40" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="W40" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y40" s="70">
         <v>18.53</v>
@@ -3355,7 +3407,7 @@
       <c r="F41" s="14"/>
       <c r="G41" s="41"/>
       <c r="H41" s="56" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I41" s="42"/>
       <c r="J41" s="54">
@@ -3384,10 +3436,10 @@
         <v>45420</v>
       </c>
       <c r="U41" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="W41" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y41" s="70">
         <v>27.45</v>
@@ -3407,7 +3459,7 @@
       <c r="F42" s="14"/>
       <c r="G42" s="41"/>
       <c r="H42" s="56" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I42" s="42"/>
       <c r="J42" s="54">
@@ -3436,10 +3488,10 @@
         <v>45420</v>
       </c>
       <c r="U42" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="W42" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y42" s="70">
         <v>12.84</v>
@@ -3459,7 +3511,7 @@
       <c r="F43" s="14"/>
       <c r="G43" s="41"/>
       <c r="H43" s="56" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I43" s="42"/>
       <c r="J43" s="54">
@@ -3488,10 +3540,10 @@
         <v>45419</v>
       </c>
       <c r="U43" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="W43" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y43" s="70">
         <v>69.56</v>
@@ -3512,7 +3564,7 @@
       <c r="F44" s="14"/>
       <c r="G44" s="41"/>
       <c r="H44" s="56" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I44" s="42"/>
       <c r="J44" s="54">
@@ -3541,10 +3593,10 @@
         <v>45417</v>
       </c>
       <c r="U44" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W44" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y44" s="70">
         <v>21.76</v>
@@ -3589,10 +3641,10 @@
         <v>45417</v>
       </c>
       <c r="U45" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="W45" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y45" s="70">
         <v>3.22</v>
@@ -3637,10 +3689,10 @@
         <v>45417</v>
       </c>
       <c r="U46" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="W46" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y46" s="70">
         <v>58</v>
@@ -3685,10 +3737,10 @@
         <v>45417</v>
       </c>
       <c r="U47" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W47" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y47" s="70">
         <v>47.1</v>
@@ -3734,10 +3786,10 @@
         <v>45417</v>
       </c>
       <c r="U48" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="W48" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y48" s="70">
         <v>-1647.72</v>
@@ -3782,10 +3834,10 @@
         <v>45416</v>
       </c>
       <c r="U49" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W49" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y49" s="70">
         <v>10.35</v>
@@ -3830,10 +3882,10 @@
         <v>45416</v>
       </c>
       <c r="U50" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W50" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y50" s="70">
         <v>17.11</v>
@@ -3878,10 +3930,10 @@
         <v>45416</v>
       </c>
       <c r="U51" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="W51" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y51" s="70">
         <v>904.99</v>
@@ -3926,10 +3978,10 @@
         <v>45415</v>
       </c>
       <c r="U52" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="W52" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y52" s="70">
         <v>24.71</v>
@@ -3976,8 +4028,14 @@
       <c r="U53" s="0" t="s">
         <v>20</v>
       </c>
+      <c r="V53" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="W53" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="X53" s="0" t="s">
+        <v>23</v>
       </c>
       <c r="Y53" s="70">
         <v>48.18</v>
@@ -4022,11 +4080,11 @@
         <v>45415</v>
       </c>
       <c r="U54" s="47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V54" s="47"/>
       <c r="W54" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X54" s="47"/>
       <c r="Y54" s="48">
@@ -4072,11 +4130,11 @@
         <v>45414</v>
       </c>
       <c r="U55" s="47" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="V55" s="47"/>
       <c r="W55" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X55" s="47"/>
       <c r="Y55" s="48">
@@ -4122,11 +4180,11 @@
         <v>45414</v>
       </c>
       <c r="U56" s="47" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="V56" s="47"/>
       <c r="W56" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X56" s="47"/>
       <c r="Y56" s="48">
@@ -4172,11 +4230,11 @@
         <v>45414</v>
       </c>
       <c r="U57" s="47" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V57" s="47"/>
       <c r="W57" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X57" s="47"/>
       <c r="Y57" s="48">
@@ -4222,11 +4280,11 @@
         <v>45413</v>
       </c>
       <c r="U58" s="47" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="V58" s="47"/>
       <c r="W58" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X58" s="47"/>
       <c r="Y58" s="48">
@@ -4263,11 +4321,11 @@
         <v>45413</v>
       </c>
       <c r="U59" s="47" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="V59" s="47"/>
       <c r="W59" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X59" s="47"/>
       <c r="Y59" s="48">
@@ -4298,21 +4356,21 @@
       <c r="P60" s="1"/>
       <c r="R60" s="45"/>
       <c r="S60" s="45">
-        <v>1596</v>
+        <v>116</v>
       </c>
       <c r="T60" s="46">
-        <v>45438</v>
+        <v>45441</v>
       </c>
       <c r="U60" s="47" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="V60" s="47"/>
       <c r="W60" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X60" s="47"/>
       <c r="Y60" s="48">
-        <v>264.03</v>
+        <v>10.69</v>
       </c>
       <c r="Z60" s="45"/>
       <c r="AA60" s="14"/>
@@ -4339,21 +4397,21 @@
       <c r="P61" s="1"/>
       <c r="R61" s="45"/>
       <c r="S61" s="45">
-        <v>1597</v>
+        <v>117</v>
       </c>
       <c r="T61" s="46">
-        <v>45437</v>
+        <v>45441</v>
       </c>
       <c r="U61" s="47" t="s">
-        <v>42</v>
+        <v>119</v>
       </c>
       <c r="V61" s="47"/>
       <c r="W61" s="47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="X61" s="47"/>
       <c r="Y61" s="48">
-        <v>24.34</v>
+        <v>334.43</v>
       </c>
       <c r="Z61" s="45"/>
       <c r="AA61" s="14"/>
@@ -4379,13 +4437,23 @@
       <c r="O62" s="2"/>
       <c r="P62" s="1"/>
       <c r="R62" s="45"/>
-      <c r="S62" s="45"/>
-      <c r="T62" s="46"/>
-      <c r="U62" s="47"/>
+      <c r="S62" s="45">
+        <v>118</v>
+      </c>
+      <c r="T62" s="46">
+        <v>45439</v>
+      </c>
+      <c r="U62" s="47" t="s">
+        <v>90</v>
+      </c>
       <c r="V62" s="47"/>
-      <c r="W62" s="47"/>
+      <c r="W62" s="47" t="s">
+        <v>22</v>
+      </c>
       <c r="X62" s="47"/>
-      <c r="Y62" s="48"/>
+      <c r="Y62" s="48">
+        <v>12.96</v>
+      </c>
       <c r="Z62" s="45"/>
       <c r="AA62" s="14"/>
       <c r="AB62" s="14"/>
@@ -8507,36 +8575,36 @@
     </row>
     <row r="5">
       <c r="C5" s="73" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D5" s="73" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E5" s="73">
         <v>50.4</v>
       </c>
       <c r="F5" s="73" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G5" s="73" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="C6" s="73" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D6" s="73" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E6" s="73">
         <v>87.53</v>
       </c>
       <c r="F6" s="73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G6" s="73" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7">

--- a/TestBudget.xlsx
+++ b/TestBudget.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PersonalMyCode\BudgetUpdator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F24B8B-D937-4730-BE05-C5D2EAE2A855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C3CDDC-C703-4843-8ADD-3A888EC8B317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23595" yWindow="1890" windowWidth="22755" windowHeight="10125" activeTab="1" xr2:uid="{AF956A61-A15A-4A6E-9A9E-CFD1D374AF1F}"/>
+    <workbookView xWindow="-30795" yWindow="1650" windowWidth="29010" windowHeight="15345" activeTab="2" xr2:uid="{AF956A61-A15A-4A6E-9A9E-CFD1D374AF1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Income" sheetId="2" r:id="rId1"/>
     <sheet name="May" sheetId="1" r:id="rId2"/>
-    <sheet name="ScratchSheet" sheetId="3" r:id="rId3"/>
-    <sheet name="ScratchSheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Jun" sheetId="5" r:id="rId3"/>
+    <sheet name="ScratchSheet" sheetId="3" r:id="rId4"/>
+    <sheet name="ScratchSheet2" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
   <extLst>
@@ -61,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <si>
     <t>May</t>
   </si>
@@ -423,6 +424,51 @@
     <t>Newpark Resort Park City Ut Visa</t>
   </si>
   <si>
+    <t>loanDepot</t>
+  </si>
+  <si>
+    <t>Internet Transfer From Xxxxxxxx2900</t>
+  </si>
+  <si>
+    <t>Donation</t>
+  </si>
+  <si>
+    <t>Allstate</t>
+  </si>
+  <si>
+    <t>Rocky Mountain Power</t>
+  </si>
+  <si>
+    <t>ParkMobile</t>
+  </si>
+  <si>
+    <t>Maverik</t>
+  </si>
+  <si>
+    <t>Javacow Cafe Park City Ut Visa</t>
+  </si>
+  <si>
+    <t>Park City Gem Park City, Ut (</t>
+  </si>
+  <si>
+    <t>Smith's</t>
+  </si>
+  <si>
+    <t>Bartolos Park City Ut Visa</t>
+  </si>
+  <si>
+    <t>YouTube</t>
+  </si>
+  <si>
+    <t>Name Your Cone Tooele Ut Visa</t>
+  </si>
+  <si>
+    <t>Github.com</t>
+  </si>
+  <si>
+    <t>Airport Parking</t>
+  </si>
+  <si>
     <t>123</t>
   </si>
   <si>
@@ -780,7 +826,40 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{C820A353-82D5-43AE-A20D-5B8850793862}"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <gradientFill degree="270">
+          <stop position="0">
+            <color rgb="FFFF4343"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="9" tint="0.79998168889431442"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color auto="1"/>
@@ -1206,7 +1285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46617975-4435-450D-8E4F-CA1A567C5B3E}">
   <dimension ref="A1:AR200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L5" workbookViewId="0">
+    <sheetView topLeftCell="L5" workbookViewId="0">
       <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
@@ -1366,7 +1445,7 @@
       <c r="K6" s="24"/>
       <c r="L6" s="25">
         <f>SUM(L9:L58)</f>
-        <v>0</v>
+        <v>764.7799999999999</v>
       </c>
       <c r="M6" s="23"/>
       <c r="N6" s="23"/>
@@ -1382,7 +1461,7 @@
       <c r="X6" s="26"/>
       <c r="Y6" s="25">
         <f>SUM(Y8:Y199)</f>
-        <v>517.6299999999999</v>
+        <v>879.0700000000004</v>
       </c>
       <c r="Z6" s="26"/>
       <c r="AA6" s="27"/>
@@ -1601,7 +1680,7 @@
       </c>
       <c r="L10" s="42">
         <f ref="L10:L58" t="shared" si="1">SUMIF(X:X, H10, Y:Y)</f>
-        <v>0</v>
+        <v>764.7799999999999</v>
       </c>
       <c r="M10" s="42" t="e">
         <f ref="M10:M12" t="shared" si="2" ca="1">K10-L10</f>
@@ -1651,7 +1730,7 @@
       </c>
       <c r="D11" s="58">
         <f>Y6</f>
-        <v>517.6299999999999</v>
+        <v>879.0700000000004</v>
       </c>
       <c r="E11" s="40"/>
       <c r="G11" s="41"/>
@@ -1960,7 +2039,7 @@
       </c>
       <c r="D15" s="60">
         <f>D9-D11</f>
-        <v>-517.6299999999999</v>
+        <v>-879.0700000000004</v>
       </c>
       <c r="E15" s="61"/>
       <c r="F15" s="14"/>
@@ -8516,6 +8595,7157 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D6F3A2-4B92-490D-BBBD-5B84A7BE7200}">
+  <dimension ref="A1:AR200"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8:Y47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1" style="1"/>
+    <col min="2" max="2" width="2.42578125" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="20.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="2.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1" style="1"/>
+    <col min="7" max="7" width="2.5703125" customWidth="1"/>
+    <col min="8" max="8" bestFit="1" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" hidden="1" width="11.42578125" customWidth="1" style="70"/>
+    <col min="10" max="13" width="11.42578125" customWidth="1" style="70"/>
+    <col min="14" max="14" hidden="1" width="6.5703125" customWidth="1" style="71"/>
+    <col min="15" max="15" hidden="1" width="11.42578125" customWidth="1" style="70"/>
+    <col min="16" max="16" width="2.5703125" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" customWidth="1" style="1"/>
+    <col min="18" max="18" width="2.5703125" customWidth="1"/>
+    <col min="19" max="19" width="7.28515625" customWidth="1"/>
+    <col min="20" max="20" width="10.28515625" customWidth="1" style="72"/>
+    <col min="21" max="22" width="31.42578125" customWidth="1"/>
+    <col min="23" max="23" width="11.85546875" customWidth="1"/>
+    <col min="24" max="24" width="30.42578125" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" customWidth="1" style="70"/>
+    <col min="26" max="26" width="2.5703125" customWidth="1"/>
+    <col min="27" max="36" width="9.140625" customWidth="1" style="1"/>
+    <col min="39" max="39" bestFit="1" width="15.85546875" customWidth="1"/>
+    <col min="40" max="40" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="2"/>
+      <c r="T1" s="4"/>
+      <c r="Y1" s="2"/>
+    </row>
+    <row r="2" ht="46.5" s="1" customFormat="1">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="T2" s="4"/>
+      <c r="Y2" s="2"/>
+    </row>
+    <row r="3" ht="26.25" s="1" customFormat="1">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="T3" s="4"/>
+      <c r="Y3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="9"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AI4" s="14"/>
+      <c r="AJ4" s="14"/>
+    </row>
+    <row r="5" ht="24">
+      <c r="B5" s="8"/>
+      <c r="C5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="P5" s="9"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="11"/>
+      <c r="X5" s="11"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AI5" s="14"/>
+      <c r="AJ5" s="14"/>
+    </row>
+    <row r="6" ht="24" s="28" customFormat="1">
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="24">
+        <f>SUM(J9:J58)</f>
+        <v>7865</v>
+      </c>
+      <c r="K6" s="24"/>
+      <c r="L6" s="25">
+        <f>SUM(L9:L58)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="25">
+        <f>SUM(Y8:Y199)</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="26"/>
+      <c r="AA6" s="27"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="27"/>
+      <c r="AJ6" s="27"/>
+    </row>
+    <row r="7" s="28" customFormat="1">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="M7" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="T7" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="U7" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="V7" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="W7" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="X7" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y7" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="27"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="27"/>
+      <c r="AJ7" s="27"/>
+      <c r="AK7" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM7" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN7" s="39" t="str">
+        <f>VLOOKUP(B2,AM11:AN22,2,FALSE)</f>
+        <v>Apr</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="41"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45">
+        <v>916</v>
+      </c>
+      <c r="T8" s="46">
+        <v>45448</v>
+      </c>
+      <c r="U8" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="V8" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="W8" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="X8" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y8" s="48">
+        <v>3010.09</v>
+      </c>
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AI8" s="14"/>
+      <c r="AJ8" s="14"/>
+      <c r="AK8" s="49" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM8" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN8" s="51" t="str">
+        <f>VLOOKUP(AN7,AN11:AO22,2,FALSE)</f>
+        <v>G50</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75">
+      <c r="B9" s="40"/>
+      <c r="C9" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="52" cm="1">
+        <f ref="D9:D9" t="array" aca="1" ca="1">INDIRECT("Income!"&amp;AN8)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="40"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="42"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="41"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45">
+        <v>917</v>
+      </c>
+      <c r="T9" s="72">
+        <v>45447</v>
+      </c>
+      <c r="U9" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="W9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y9" s="70">
+        <v>-1200</v>
+      </c>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="14"/>
+      <c r="AK9" s="49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="40"/>
+      <c r="C10" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="55">
+        <f>J6</f>
+        <v>7865</v>
+      </c>
+      <c r="E10" s="40"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="10" t="e" cm="1">
+        <f ref="I10:I10" t="array" aca="1" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O10")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J10" s="54">
+        <v>1000</v>
+      </c>
+      <c r="K10" s="42" t="e">
+        <f ref="K10:K21" t="shared" si="0" ca="1">SUM(I10:J10)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L10" s="42">
+        <f ref="L10:L58" t="shared" si="1">SUMIF(X:X, H10, Y:Y)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="42" t="e">
+        <f ref="M10:M12" t="shared" si="2" ca="1">K10-L10</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N10" s="57"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="41"/>
+      <c r="R10" s="45"/>
+      <c r="S10" s="45">
+        <v>918</v>
+      </c>
+      <c r="T10" s="72">
+        <v>45447</v>
+      </c>
+      <c r="U10" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="W10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y10" s="70">
+        <v>1608.35</v>
+      </c>
+      <c r="Z10" s="45"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AI10" s="14"/>
+      <c r="AJ10" s="14"/>
+      <c r="AK10" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM10" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN10" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO10" s="50" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="40"/>
+      <c r="C11" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="58">
+        <f>Y6</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="40"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="10" t="e" cm="1">
+        <f ref="I11:I11" t="array" aca="1" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O11")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J11" s="54">
+        <v>100</v>
+      </c>
+      <c r="K11" s="42" t="e">
+        <f t="shared" si="0" ca="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L11" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="42" t="e">
+        <f t="shared" si="2" ca="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="N11" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" s="10" t="e">
+        <f>IF(N11="y",M11,)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P11" s="41"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45">
+        <v>919</v>
+      </c>
+      <c r="T11" s="72">
+        <v>45447</v>
+      </c>
+      <c r="U11" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="W11" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y11" s="70">
+        <v>166.81</v>
+      </c>
+      <c r="Z11" s="45"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AI11" s="14"/>
+      <c r="AJ11" s="14"/>
+      <c r="AK11" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM11" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN11" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO11" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR11" s="28"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="40"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="10" t="e" cm="1">
+        <f ref="I12:I12" t="array" aca="1" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O12")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J12" s="54">
+        <v>100</v>
+      </c>
+      <c r="K12" s="42" t="e">
+        <f t="shared" si="0" ca="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L12" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="42" t="e">
+        <f t="shared" si="2" ca="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="N12" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="O12" s="10" t="e">
+        <f ref="O12:O21" t="shared" si="3" ca="1">IF(N12="y",M12,)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P12" s="41"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45">
+        <v>920</v>
+      </c>
+      <c r="T12" s="72">
+        <v>45447</v>
+      </c>
+      <c r="U12" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="W12" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y12" s="70">
+        <v>100</v>
+      </c>
+      <c r="Z12" s="45"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AI12" s="14"/>
+      <c r="AJ12" s="14"/>
+      <c r="AK12" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM12" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AN12" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO12" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="14"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="10" t="e" cm="1">
+        <f ref="I13:I13" t="array" aca="1" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O13")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J13" s="54">
+        <v>100</v>
+      </c>
+      <c r="K13" s="42" t="e">
+        <f t="shared" si="0" ca="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L13" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="42" t="e">
+        <f>K13-L13</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N13" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" s="10" t="e">
+        <f t="shared" si="3" ca="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P13" s="41"/>
+      <c r="R13" s="45"/>
+      <c r="S13" s="45">
+        <v>921</v>
+      </c>
+      <c r="T13" s="72">
+        <v>45446</v>
+      </c>
+      <c r="U13" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="W13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y13" s="70">
+        <v>65.76</v>
+      </c>
+      <c r="Z13" s="45"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AI13" s="14"/>
+      <c r="AJ13" s="14"/>
+      <c r="AK13" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM13" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN13" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO13" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="14"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="48">
+        <v>-454.02</v>
+      </c>
+      <c r="E14" s="61"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="10" t="e" cm="1">
+        <f ref="I14:I14" t="array" aca="1" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O14")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J14" s="54">
+        <v>51</v>
+      </c>
+      <c r="K14" s="42" t="e">
+        <f t="shared" si="0" ca="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L14" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="42" t="e">
+        <f ref="M14:M21" t="shared" si="4" ca="1">K14-L14</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N14" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="O14" s="10" t="e">
+        <f t="shared" si="3" ca="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P14" s="41"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45">
+        <v>933</v>
+      </c>
+      <c r="T14" s="72">
+        <v>45453</v>
+      </c>
+      <c r="U14" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="W14" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y14" s="70">
+        <v>12.9</v>
+      </c>
+      <c r="Z14" s="45"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AI14" s="14"/>
+      <c r="AJ14" s="14"/>
+      <c r="AK14" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM14" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN14" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO14" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="14"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="60">
+        <f>D9-D11</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="61"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="10" t="e" cm="1">
+        <f ref="I15:I15" t="array" aca="1" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O15")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J15" s="54">
+        <v>150</v>
+      </c>
+      <c r="K15" s="42" t="e">
+        <f t="shared" si="0" ca="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L15" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="42" t="e">
+        <f t="shared" si="4" ca="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="N15" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="O15" s="10" t="e">
+        <f t="shared" si="3" ca="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P15" s="41"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45">
+        <v>934</v>
+      </c>
+      <c r="T15" s="72">
+        <v>45453</v>
+      </c>
+      <c r="U15" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="W15" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y15" s="70">
+        <v>58.51</v>
+      </c>
+      <c r="Z15" s="45"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AI15" s="14"/>
+      <c r="AJ15" s="14"/>
+      <c r="AM15" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO15" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR15" s="28"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="14"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="10" t="e" cm="1">
+        <f ref="I16:I16" t="array" aca="1" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O16")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J16" s="54">
+        <v>200</v>
+      </c>
+      <c r="K16" s="42" t="e">
+        <f t="shared" si="0" ca="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L16" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="42" t="e">
+        <f t="shared" si="4" ca="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="N16" s="57"/>
+      <c r="O16" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P16" s="41"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45">
+        <v>935</v>
+      </c>
+      <c r="T16" s="72">
+        <v>45453</v>
+      </c>
+      <c r="U16" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="W16" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y16" s="70">
+        <v>186.04</v>
+      </c>
+      <c r="Z16" s="45"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AI16" s="14"/>
+      <c r="AJ16" s="14"/>
+      <c r="AM16" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AN16" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="56" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" s="10" t="e" cm="1">
+        <f ref="I17:I17" t="array" aca="1" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O17")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J17" s="54">
+        <v>350</v>
+      </c>
+      <c r="K17" s="42" t="e">
+        <f t="shared" si="0" ca="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L17" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="42" t="e">
+        <f t="shared" si="4" ca="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="N17" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="O17" s="10" t="e">
+        <f t="shared" si="3" ca="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="P17" s="41"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45">
+        <v>936</v>
+      </c>
+      <c r="T17" s="72">
+        <v>45453</v>
+      </c>
+      <c r="U17" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="W17" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y17" s="70">
+        <v>26.74</v>
+      </c>
+      <c r="Z17" s="45"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AI17" s="14"/>
+      <c r="AJ17" s="14"/>
+      <c r="AM17" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="AN17" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO17" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="10" t="e" cm="1">
+        <f ref="I18:I18" t="array" aca="1" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O18")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J18" s="54"/>
+      <c r="K18" s="42" t="e">
+        <f t="shared" si="0" ca="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L18" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="42" t="e">
+        <f t="shared" si="4" ca="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="N18" s="57"/>
+      <c r="O18" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="41"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45">
+        <v>937</v>
+      </c>
+      <c r="T18" s="72">
+        <v>45453</v>
+      </c>
+      <c r="U18" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="W18" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y18" s="70">
+        <v>25.7</v>
+      </c>
+      <c r="Z18" s="45"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AI18" s="14"/>
+      <c r="AJ18" s="14"/>
+      <c r="AM18" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="AN18" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="AO18" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="10" t="e" cm="1">
+        <f ref="I19:I19" t="array" aca="1" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O19")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J19" s="54"/>
+      <c r="K19" s="42" t="e">
+        <f t="shared" si="0" ca="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L19" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="42" t="e">
+        <f t="shared" si="4" ca="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="N19" s="57"/>
+      <c r="O19" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="41"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45">
+        <v>938</v>
+      </c>
+      <c r="T19" s="72">
+        <v>45452</v>
+      </c>
+      <c r="U19" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="W19" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y19" s="70">
+        <v>11.01</v>
+      </c>
+      <c r="Z19" s="45"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AI19" s="14"/>
+      <c r="AJ19" s="14"/>
+      <c r="AM19" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN19" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="AO19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="AR19" s="28"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="10" t="e" cm="1">
+        <f ref="I20:I20" t="array" aca="1" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O20")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J20" s="54"/>
+      <c r="K20" s="42" t="e">
+        <f t="shared" si="0" ca="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L20" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="42" t="e">
+        <f t="shared" si="4" ca="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="N20" s="57"/>
+      <c r="O20" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="41"/>
+      <c r="R20" s="45"/>
+      <c r="S20" s="45">
+        <v>939</v>
+      </c>
+      <c r="T20" s="72">
+        <v>45452</v>
+      </c>
+      <c r="U20" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="W20" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y20" s="70">
+        <v>10.65</v>
+      </c>
+      <c r="Z20" s="45"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AI20" s="14"/>
+      <c r="AJ20" s="14"/>
+      <c r="AM20" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="AN20" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO20" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="10" t="e" cm="1">
+        <f ref="I21:I21" t="array" aca="1" ca="1">INDIRECT($AN$7&amp;"!"&amp;"O21")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J21" s="54"/>
+      <c r="K21" s="42" t="e">
+        <f t="shared" si="0" ca="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L21" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="42" t="e">
+        <f t="shared" si="4" ca="1"/>
+        <v>#REF!</v>
+      </c>
+      <c r="N21" s="57"/>
+      <c r="O21" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="41"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45">
+        <v>940</v>
+      </c>
+      <c r="T21" s="72">
+        <v>45452</v>
+      </c>
+      <c r="U21" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="W21" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y21" s="70">
+        <v>65.43</v>
+      </c>
+      <c r="Z21" s="45"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AI21" s="14"/>
+      <c r="AJ21" s="14"/>
+      <c r="AM21" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN21" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO21" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP21" s="66"/>
+    </row>
+    <row r="22" ht="15.75">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="67" t="s">
+        <v>77</v>
+      </c>
+      <c r="I22" s="42"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="42"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="41"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45">
+        <v>941</v>
+      </c>
+      <c r="T22" s="72">
+        <v>45452</v>
+      </c>
+      <c r="U22" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="W22" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y22" s="70">
+        <v>27.14</v>
+      </c>
+      <c r="Z22" s="45"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
+      <c r="AI22" s="14"/>
+      <c r="AJ22" s="14"/>
+      <c r="AM22" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="AN22" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO22" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="AP22" s="66"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="I23" s="42"/>
+      <c r="J23" s="54">
+        <v>3050</v>
+      </c>
+      <c r="K23" s="42">
+        <f>J23</f>
+        <v>3050</v>
+      </c>
+      <c r="L23" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="42">
+        <f>K23-L23</f>
+        <v>3050</v>
+      </c>
+      <c r="N23" s="44"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="41"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45">
+        <v>942</v>
+      </c>
+      <c r="T23" s="72">
+        <v>45452</v>
+      </c>
+      <c r="U23" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="V23" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="W23" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="X23" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y23" s="70">
+        <v>64.97</v>
+      </c>
+      <c r="Z23" s="45"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AI23" s="14"/>
+      <c r="AJ23" s="14"/>
+      <c r="AR23" s="28"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" s="42"/>
+      <c r="J24" s="54">
+        <v>73</v>
+      </c>
+      <c r="K24" s="42">
+        <f>J24</f>
+        <v>73</v>
+      </c>
+      <c r="L24" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="42">
+        <f ref="M24:M32" t="shared" si="5">K24-L24</f>
+        <v>73</v>
+      </c>
+      <c r="N24" s="44"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="41"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="45">
+        <v>943</v>
+      </c>
+      <c r="T24" s="72">
+        <v>45452</v>
+      </c>
+      <c r="U24" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="W24" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y24" s="70">
+        <v>63.99</v>
+      </c>
+      <c r="Z24" s="45"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
+      <c r="AI24" s="14"/>
+      <c r="AJ24" s="14"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" s="42"/>
+      <c r="J25" s="54">
+        <v>244</v>
+      </c>
+      <c r="K25" s="42">
+        <f>J25</f>
+        <v>244</v>
+      </c>
+      <c r="L25" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="42">
+        <f t="shared" si="5"/>
+        <v>244</v>
+      </c>
+      <c r="N25" s="44"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="41"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45">
+        <v>944</v>
+      </c>
+      <c r="T25" s="72">
+        <v>45452</v>
+      </c>
+      <c r="U25" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="W25" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y25" s="70">
+        <v>4.28</v>
+      </c>
+      <c r="Z25" s="45"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
+      <c r="AI25" s="14"/>
+      <c r="AJ25" s="14"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="56" t="s">
+        <v>87</v>
+      </c>
+      <c r="I26" s="42"/>
+      <c r="J26" s="54">
+        <v>100</v>
+      </c>
+      <c r="K26" s="42">
+        <f ref="K26:K32" t="shared" si="6">J26</f>
+        <v>100</v>
+      </c>
+      <c r="L26" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="42">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="N26" s="44"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="41"/>
+      <c r="R26" s="45"/>
+      <c r="S26" s="45">
+        <v>945</v>
+      </c>
+      <c r="T26" s="72">
+        <v>45451</v>
+      </c>
+      <c r="U26" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="W26" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y26" s="70">
+        <v>40.39</v>
+      </c>
+      <c r="Z26" s="45"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AI26" s="14"/>
+      <c r="AJ26" s="14"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="I27" s="42"/>
+      <c r="J27" s="54">
+        <v>150</v>
+      </c>
+      <c r="K27" s="42">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="L27" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="42">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+      <c r="N27" s="44"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="41"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="45">
+        <v>946</v>
+      </c>
+      <c r="T27" s="72">
+        <v>45451</v>
+      </c>
+      <c r="U27" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="W27" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y27" s="70">
+        <v>334.43</v>
+      </c>
+      <c r="Z27" s="45"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14"/>
+      <c r="AI27" s="14"/>
+      <c r="AJ27" s="14"/>
+      <c r="AR27" s="28"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="I28" s="42"/>
+      <c r="J28" s="54">
+        <v>60</v>
+      </c>
+      <c r="K28" s="42">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="L28" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="42">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="N28" s="44"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="41"/>
+      <c r="R28" s="45"/>
+      <c r="S28" s="45">
+        <v>947</v>
+      </c>
+      <c r="T28" s="72">
+        <v>45450</v>
+      </c>
+      <c r="U28" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="W28" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y28" s="70">
+        <v>8.25</v>
+      </c>
+      <c r="Z28" s="45"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="14"/>
+      <c r="AI28" s="14"/>
+      <c r="AJ28" s="14"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="I29" s="42"/>
+      <c r="J29" s="54">
+        <v>140</v>
+      </c>
+      <c r="K29" s="42">
+        <f t="shared" si="6"/>
+        <v>140</v>
+      </c>
+      <c r="L29" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M29" s="42">
+        <f t="shared" si="5"/>
+        <v>140</v>
+      </c>
+      <c r="N29" s="44"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="41"/>
+      <c r="R29" s="45"/>
+      <c r="S29" s="45">
+        <v>948</v>
+      </c>
+      <c r="T29" s="72">
+        <v>45448</v>
+      </c>
+      <c r="U29" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="W29" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y29" s="70">
+        <v>97.33</v>
+      </c>
+      <c r="Z29" s="45"/>
+      <c r="AA29" s="14"/>
+      <c r="AB29" s="14"/>
+      <c r="AI29" s="14"/>
+      <c r="AJ29" s="14"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="I30" s="42"/>
+      <c r="J30" s="54">
+        <v>25</v>
+      </c>
+      <c r="K30" s="42">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="L30" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M30" s="42">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="N30" s="44"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="41"/>
+      <c r="R30" s="45"/>
+      <c r="S30" s="45">
+        <v>949</v>
+      </c>
+      <c r="T30" s="72">
+        <v>45448</v>
+      </c>
+      <c r="U30" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="W30" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y30" s="70">
+        <v>10.65</v>
+      </c>
+      <c r="Z30" s="45"/>
+      <c r="AA30" s="14"/>
+      <c r="AB30" s="14"/>
+      <c r="AI30" s="14"/>
+      <c r="AJ30" s="14"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="I31" s="42"/>
+      <c r="J31" s="54">
+        <v>200</v>
+      </c>
+      <c r="K31" s="42">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="L31" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="42">
+        <f t="shared" si="5"/>
+        <v>200</v>
+      </c>
+      <c r="N31" s="44"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="41"/>
+      <c r="R31" s="45"/>
+      <c r="S31" s="45">
+        <v>950</v>
+      </c>
+      <c r="T31" s="72">
+        <v>45448</v>
+      </c>
+      <c r="U31" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="V31" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="W31" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="X31" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y31" s="70">
+        <v>4</v>
+      </c>
+      <c r="Z31" s="45"/>
+      <c r="AA31" s="14"/>
+      <c r="AB31" s="14"/>
+      <c r="AI31" s="14"/>
+      <c r="AJ31" s="14"/>
+      <c r="AR31" s="28"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="42">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="44"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="41"/>
+      <c r="R32" s="45"/>
+      <c r="S32" s="45">
+        <v>951</v>
+      </c>
+      <c r="T32" s="72">
+        <v>45448</v>
+      </c>
+      <c r="U32" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="V32" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="W32" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="X32" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y32" s="70">
+        <v>116.62</v>
+      </c>
+      <c r="Z32" s="45"/>
+      <c r="AA32" s="14"/>
+      <c r="AB32" s="14"/>
+      <c r="AI32" s="14"/>
+      <c r="AJ32" s="14"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="42">
+        <f>J33</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="42">
+        <f>SUMIF(X:X, H33, Y:Y)</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="42">
+        <f>K33-L33</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="44"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="41"/>
+      <c r="R33" s="45"/>
+      <c r="S33" s="45">
+        <v>952</v>
+      </c>
+      <c r="T33" s="72">
+        <v>45448</v>
+      </c>
+      <c r="U33" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="W33" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y33" s="70">
+        <v>10</v>
+      </c>
+      <c r="Z33" s="45"/>
+      <c r="AA33" s="14"/>
+      <c r="AB33" s="14"/>
+      <c r="AI33" s="14"/>
+      <c r="AJ33" s="14"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="44"/>
+      <c r="O34" s="42"/>
+      <c r="P34" s="41"/>
+      <c r="R34" s="45"/>
+      <c r="S34" s="45">
+        <v>953</v>
+      </c>
+      <c r="T34" s="72">
+        <v>45448</v>
+      </c>
+      <c r="U34" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="V34" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="W34" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="X34" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y34" s="70">
+        <v>-9.42</v>
+      </c>
+      <c r="Z34" s="45"/>
+      <c r="AA34" s="14"/>
+      <c r="AB34" s="14"/>
+      <c r="AI34" s="14"/>
+      <c r="AJ34" s="14"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="42">
+        <f ref="K35:K58" t="shared" si="7">J35</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="42">
+        <f ref="M35:M58" t="shared" si="8">K35-L35</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="44"/>
+      <c r="O35" s="42"/>
+      <c r="P35" s="41"/>
+      <c r="R35" s="45"/>
+      <c r="S35" s="45">
+        <v>954</v>
+      </c>
+      <c r="T35" s="72">
+        <v>45448</v>
+      </c>
+      <c r="U35" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="V35" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="W35" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="X35" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y35" s="70">
+        <v>79.5</v>
+      </c>
+      <c r="Z35" s="45"/>
+      <c r="AA35" s="14"/>
+      <c r="AB35" s="14"/>
+      <c r="AI35" s="14"/>
+      <c r="AJ35" s="14"/>
+      <c r="AR35" s="28"/>
+    </row>
+    <row r="36" ht="15.75">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="67"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="44"/>
+      <c r="O36" s="42"/>
+      <c r="P36" s="41"/>
+      <c r="R36" s="45"/>
+      <c r="S36" s="45">
+        <v>955</v>
+      </c>
+      <c r="T36" s="72">
+        <v>45447</v>
+      </c>
+      <c r="U36" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="V36" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="W36" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="X36" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y36" s="70">
+        <v>-6.65</v>
+      </c>
+      <c r="Z36" s="45"/>
+      <c r="AA36" s="14"/>
+      <c r="AB36" s="14"/>
+      <c r="AI36" s="14"/>
+      <c r="AJ36" s="14"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="56"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="44"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="41"/>
+      <c r="R37" s="45"/>
+      <c r="S37" s="45">
+        <v>956</v>
+      </c>
+      <c r="T37" s="72">
+        <v>45447</v>
+      </c>
+      <c r="U37" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="W37" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y37" s="70">
+        <v>105.76</v>
+      </c>
+      <c r="Z37" s="45"/>
+      <c r="AA37" s="14"/>
+      <c r="AB37" s="14"/>
+      <c r="AI37" s="14"/>
+      <c r="AJ37" s="14"/>
+    </row>
+    <row r="38" ht="15.75">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="I38" s="42"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="44"/>
+      <c r="O38" s="42"/>
+      <c r="P38" s="41"/>
+      <c r="R38" s="45"/>
+      <c r="S38" s="45">
+        <v>957</v>
+      </c>
+      <c r="T38" s="72">
+        <v>45446</v>
+      </c>
+      <c r="U38" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="W38" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y38" s="70">
+        <v>66.31</v>
+      </c>
+      <c r="Z38" s="45"/>
+      <c r="AA38" s="14"/>
+      <c r="AB38" s="14"/>
+      <c r="AI38" s="14"/>
+      <c r="AJ38" s="14"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="56" t="s">
+        <v>102</v>
+      </c>
+      <c r="I39" s="42"/>
+      <c r="J39" s="54">
+        <v>950</v>
+      </c>
+      <c r="K39" s="42">
+        <f t="shared" si="7"/>
+        <v>950</v>
+      </c>
+      <c r="L39" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="42">
+        <f t="shared" si="8"/>
+        <v>950</v>
+      </c>
+      <c r="N39" s="44"/>
+      <c r="O39" s="42"/>
+      <c r="P39" s="41"/>
+      <c r="R39" s="45"/>
+      <c r="S39" s="45">
+        <v>958</v>
+      </c>
+      <c r="T39" s="72">
+        <v>45446</v>
+      </c>
+      <c r="U39" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="W39" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y39" s="70">
+        <v>17</v>
+      </c>
+      <c r="Z39" s="45"/>
+      <c r="AA39" s="14"/>
+      <c r="AB39" s="14"/>
+      <c r="AI39" s="14"/>
+      <c r="AJ39" s="14"/>
+      <c r="AR39" s="28"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="I40" s="42"/>
+      <c r="J40" s="54">
+        <v>100</v>
+      </c>
+      <c r="K40" s="42">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="L40" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="42">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="N40" s="44"/>
+      <c r="O40" s="42"/>
+      <c r="P40" s="41"/>
+      <c r="R40" s="45"/>
+      <c r="S40" s="45">
+        <v>959</v>
+      </c>
+      <c r="T40" s="72">
+        <v>45446</v>
+      </c>
+      <c r="U40" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="W40" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y40" s="70">
+        <v>24.71</v>
+      </c>
+      <c r="Z40" s="45"/>
+      <c r="AA40" s="14"/>
+      <c r="AB40" s="14"/>
+      <c r="AI40" s="14"/>
+      <c r="AJ40" s="14"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="I41" s="42"/>
+      <c r="J41" s="54">
+        <v>42</v>
+      </c>
+      <c r="K41" s="42">
+        <f t="shared" si="7"/>
+        <v>42</v>
+      </c>
+      <c r="L41" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="42">
+        <f t="shared" si="8"/>
+        <v>42</v>
+      </c>
+      <c r="N41" s="44"/>
+      <c r="O41" s="42"/>
+      <c r="P41" s="41"/>
+      <c r="R41" s="45"/>
+      <c r="S41" s="45">
+        <v>960</v>
+      </c>
+      <c r="T41" s="72">
+        <v>45445</v>
+      </c>
+      <c r="U41" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="W41" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y41" s="70">
+        <v>2</v>
+      </c>
+      <c r="Z41" s="45"/>
+      <c r="AA41" s="14"/>
+      <c r="AB41" s="14"/>
+      <c r="AI41" s="14"/>
+      <c r="AJ41" s="14"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="56" t="s">
+        <v>107</v>
+      </c>
+      <c r="I42" s="42"/>
+      <c r="J42" s="54">
+        <v>50</v>
+      </c>
+      <c r="K42" s="42">
+        <f t="shared" si="7"/>
+        <v>50</v>
+      </c>
+      <c r="L42" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="42">
+        <f t="shared" si="8"/>
+        <v>50</v>
+      </c>
+      <c r="N42" s="44"/>
+      <c r="O42" s="42"/>
+      <c r="P42" s="41"/>
+      <c r="R42" s="45"/>
+      <c r="S42" s="45">
+        <v>961</v>
+      </c>
+      <c r="T42" s="72">
+        <v>45445</v>
+      </c>
+      <c r="U42" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="V42" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="W42" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="X42" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y42" s="70">
+        <v>57.92</v>
+      </c>
+      <c r="Z42" s="45"/>
+      <c r="AA42" s="14"/>
+      <c r="AB42" s="14"/>
+      <c r="AI42" s="14"/>
+      <c r="AJ42" s="14"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="I43" s="42"/>
+      <c r="J43" s="54">
+        <v>500</v>
+      </c>
+      <c r="K43" s="42">
+        <f t="shared" si="7"/>
+        <v>500</v>
+      </c>
+      <c r="L43" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="42">
+        <f t="shared" si="8"/>
+        <v>500</v>
+      </c>
+      <c r="N43" s="44"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="41"/>
+      <c r="R43" s="45"/>
+      <c r="S43" s="45">
+        <v>962</v>
+      </c>
+      <c r="T43" s="72">
+        <v>45445</v>
+      </c>
+      <c r="U43" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="V43" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="W43" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="X43" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y43" s="70">
+        <v>52.94</v>
+      </c>
+      <c r="Z43" s="45"/>
+      <c r="AA43" s="14"/>
+      <c r="AB43" s="14"/>
+      <c r="AI43" s="14"/>
+      <c r="AJ43" s="14"/>
+      <c r="AR43" s="28"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="I44" s="42"/>
+      <c r="J44" s="54">
+        <v>130</v>
+      </c>
+      <c r="K44" s="42">
+        <f t="shared" si="7"/>
+        <v>130</v>
+      </c>
+      <c r="L44" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="42">
+        <f t="shared" si="8"/>
+        <v>130</v>
+      </c>
+      <c r="N44" s="44"/>
+      <c r="O44" s="42"/>
+      <c r="P44" s="41"/>
+      <c r="R44" s="45"/>
+      <c r="S44" s="45">
+        <v>963</v>
+      </c>
+      <c r="T44" s="72">
+        <v>45444</v>
+      </c>
+      <c r="U44" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="V44" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="W44" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="X44" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y44" s="70">
+        <v>98.08</v>
+      </c>
+      <c r="Z44" s="45"/>
+      <c r="AA44" s="14"/>
+      <c r="AB44" s="14"/>
+      <c r="AI44" s="14"/>
+      <c r="AJ44" s="14"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N45" s="44"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="41"/>
+      <c r="R45" s="45"/>
+      <c r="S45" s="45">
+        <v>964</v>
+      </c>
+      <c r="T45" s="72">
+        <v>45444</v>
+      </c>
+      <c r="U45" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="W45" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y45" s="70">
+        <v>12.04</v>
+      </c>
+      <c r="Z45" s="45"/>
+      <c r="AA45" s="14"/>
+      <c r="AB45" s="14"/>
+      <c r="AI45" s="14"/>
+      <c r="AJ45" s="14"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L46" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N46" s="44"/>
+      <c r="O46" s="42"/>
+      <c r="P46" s="41"/>
+      <c r="R46" s="45"/>
+      <c r="S46" s="45">
+        <v>965</v>
+      </c>
+      <c r="T46" s="72">
+        <v>45444</v>
+      </c>
+      <c r="U46" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="V46" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="W46" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="X46" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y46" s="70">
+        <v>3</v>
+      </c>
+      <c r="Z46" s="45"/>
+      <c r="AA46" s="14"/>
+      <c r="AB46" s="14"/>
+      <c r="AI46" s="14"/>
+      <c r="AJ46" s="14"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L47" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N47" s="44"/>
+      <c r="O47" s="42"/>
+      <c r="P47" s="41"/>
+      <c r="R47" s="45"/>
+      <c r="S47" s="45">
+        <v>966</v>
+      </c>
+      <c r="T47" s="72">
+        <v>45444</v>
+      </c>
+      <c r="U47" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="W47" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y47" s="70">
+        <v>134.84</v>
+      </c>
+      <c r="Z47" s="45"/>
+      <c r="AA47" s="14"/>
+      <c r="AB47" s="14"/>
+      <c r="AI47" s="14"/>
+      <c r="AJ47" s="14"/>
+      <c r="AR47" s="28"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L48" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N48" s="44"/>
+      <c r="O48" s="42"/>
+      <c r="P48" s="41"/>
+      <c r="R48" s="45"/>
+      <c r="S48" s="45"/>
+      <c r="Z48" s="45"/>
+      <c r="AA48" s="14"/>
+      <c r="AB48" s="14"/>
+      <c r="AI48" s="14"/>
+      <c r="AJ48" s="14"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L49" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N49" s="44"/>
+      <c r="O49" s="42"/>
+      <c r="P49" s="41"/>
+      <c r="R49" s="45"/>
+      <c r="S49" s="45"/>
+      <c r="Z49" s="45"/>
+      <c r="AA49" s="14"/>
+      <c r="AB49" s="14"/>
+      <c r="AI49" s="14"/>
+      <c r="AJ49" s="14"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="54"/>
+      <c r="K50" s="42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N50" s="44"/>
+      <c r="O50" s="42"/>
+      <c r="P50" s="41"/>
+      <c r="R50" s="45"/>
+      <c r="S50" s="45"/>
+      <c r="Z50" s="45"/>
+      <c r="AA50" s="14"/>
+      <c r="AB50" s="14"/>
+      <c r="AI50" s="14"/>
+      <c r="AJ50" s="14"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="54"/>
+      <c r="K51" s="42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L51" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N51" s="44"/>
+      <c r="O51" s="42"/>
+      <c r="P51" s="41"/>
+      <c r="R51" s="45"/>
+      <c r="S51" s="45"/>
+      <c r="Z51" s="45"/>
+      <c r="AA51" s="14"/>
+      <c r="AB51" s="14"/>
+      <c r="AI51" s="14"/>
+      <c r="AJ51" s="14"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="54"/>
+      <c r="K52" s="42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L52" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="44"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="41"/>
+      <c r="R52" s="45"/>
+      <c r="S52" s="45"/>
+      <c r="Z52" s="45"/>
+      <c r="AA52" s="14"/>
+      <c r="AB52" s="14"/>
+      <c r="AI52" s="14"/>
+      <c r="AJ52" s="14"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="54"/>
+      <c r="K53" s="42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L53" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M53" s="42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N53" s="44"/>
+      <c r="O53" s="42"/>
+      <c r="P53" s="41"/>
+      <c r="R53" s="45"/>
+      <c r="S53" s="45"/>
+      <c r="Z53" s="45"/>
+      <c r="AA53" s="14"/>
+      <c r="AB53" s="14"/>
+      <c r="AI53" s="14"/>
+      <c r="AJ53" s="14"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="54"/>
+      <c r="K54" s="42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L54" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N54" s="44"/>
+      <c r="O54" s="42"/>
+      <c r="P54" s="41"/>
+      <c r="R54" s="45"/>
+      <c r="S54" s="45"/>
+      <c r="T54" s="46"/>
+      <c r="U54" s="47"/>
+      <c r="V54" s="47"/>
+      <c r="W54" s="47"/>
+      <c r="X54" s="47"/>
+      <c r="Y54" s="48"/>
+      <c r="Z54" s="45"/>
+      <c r="AA54" s="14"/>
+      <c r="AB54" s="14"/>
+      <c r="AI54" s="14"/>
+      <c r="AJ54" s="14"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="54"/>
+      <c r="K55" s="42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L55" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N55" s="44"/>
+      <c r="O55" s="42"/>
+      <c r="P55" s="41"/>
+      <c r="R55" s="45"/>
+      <c r="S55" s="45"/>
+      <c r="T55" s="46"/>
+      <c r="U55" s="47"/>
+      <c r="V55" s="47"/>
+      <c r="W55" s="47"/>
+      <c r="X55" s="47"/>
+      <c r="Y55" s="48"/>
+      <c r="Z55" s="45"/>
+      <c r="AA55" s="14"/>
+      <c r="AB55" s="14"/>
+      <c r="AI55" s="14"/>
+      <c r="AJ55" s="14"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="56"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="54"/>
+      <c r="K56" s="42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L56" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N56" s="44"/>
+      <c r="O56" s="42"/>
+      <c r="P56" s="41"/>
+      <c r="R56" s="45"/>
+      <c r="S56" s="45"/>
+      <c r="T56" s="46"/>
+      <c r="U56" s="47"/>
+      <c r="V56" s="47"/>
+      <c r="W56" s="47"/>
+      <c r="X56" s="47"/>
+      <c r="Y56" s="48"/>
+      <c r="Z56" s="45"/>
+      <c r="AA56" s="14"/>
+      <c r="AB56" s="14"/>
+      <c r="AI56" s="14"/>
+      <c r="AJ56" s="14"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="54"/>
+      <c r="K57" s="42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L57" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N57" s="44"/>
+      <c r="O57" s="42"/>
+      <c r="P57" s="41"/>
+      <c r="R57" s="45"/>
+      <c r="S57" s="45"/>
+      <c r="T57" s="46"/>
+      <c r="U57" s="47"/>
+      <c r="V57" s="47"/>
+      <c r="W57" s="47"/>
+      <c r="X57" s="47"/>
+      <c r="Y57" s="48"/>
+      <c r="Z57" s="45"/>
+      <c r="AA57" s="14"/>
+      <c r="AB57" s="14"/>
+      <c r="AI57" s="14"/>
+      <c r="AJ57" s="14"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="56"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="54"/>
+      <c r="K58" s="42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L58" s="42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="42">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N58" s="44"/>
+      <c r="O58" s="42"/>
+      <c r="P58" s="41"/>
+      <c r="R58" s="45"/>
+      <c r="S58" s="45"/>
+      <c r="T58" s="46"/>
+      <c r="U58" s="47"/>
+      <c r="V58" s="47"/>
+      <c r="W58" s="47"/>
+      <c r="X58" s="47"/>
+      <c r="Y58" s="48"/>
+      <c r="Z58" s="45"/>
+      <c r="AA58" s="14"/>
+      <c r="AB58" s="14"/>
+      <c r="AI58" s="14"/>
+      <c r="AJ58" s="14"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="14"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="1"/>
+      <c r="R59" s="45"/>
+      <c r="S59" s="45"/>
+      <c r="T59" s="46"/>
+      <c r="U59" s="47"/>
+      <c r="V59" s="47"/>
+      <c r="W59" s="47"/>
+      <c r="X59" s="47"/>
+      <c r="Y59" s="48"/>
+      <c r="Z59" s="45"/>
+      <c r="AA59" s="14"/>
+      <c r="AB59" s="14"/>
+      <c r="AI59" s="14"/>
+      <c r="AJ59" s="14"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="14"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="3"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="1"/>
+      <c r="R60" s="45"/>
+      <c r="S60" s="45"/>
+      <c r="T60" s="46"/>
+      <c r="U60" s="47"/>
+      <c r="V60" s="47"/>
+      <c r="W60" s="47"/>
+      <c r="X60" s="47"/>
+      <c r="Y60" s="48"/>
+      <c r="Z60" s="45"/>
+      <c r="AA60" s="14"/>
+      <c r="AB60" s="14"/>
+      <c r="AI60" s="14"/>
+      <c r="AJ60" s="14"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="14"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="1"/>
+      <c r="R61" s="45"/>
+      <c r="S61" s="45"/>
+      <c r="T61" s="46"/>
+      <c r="U61" s="47"/>
+      <c r="V61" s="47"/>
+      <c r="W61" s="47"/>
+      <c r="X61" s="47"/>
+      <c r="Y61" s="48"/>
+      <c r="Z61" s="45"/>
+      <c r="AA61" s="14"/>
+      <c r="AB61" s="14"/>
+      <c r="AI61" s="14"/>
+      <c r="AJ61" s="14"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="14"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="1"/>
+      <c r="R62" s="45"/>
+      <c r="S62" s="45"/>
+      <c r="T62" s="46"/>
+      <c r="U62" s="47"/>
+      <c r="V62" s="47"/>
+      <c r="W62" s="47"/>
+      <c r="X62" s="47"/>
+      <c r="Y62" s="48"/>
+      <c r="Z62" s="45"/>
+      <c r="AA62" s="14"/>
+      <c r="AB62" s="14"/>
+      <c r="AI62" s="14"/>
+      <c r="AJ62" s="14"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="1"/>
+      <c r="R63" s="45"/>
+      <c r="S63" s="45"/>
+      <c r="T63" s="46"/>
+      <c r="U63" s="47"/>
+      <c r="V63" s="47"/>
+      <c r="W63" s="47"/>
+      <c r="X63" s="47"/>
+      <c r="Y63" s="48"/>
+      <c r="Z63" s="45"/>
+      <c r="AA63" s="14"/>
+      <c r="AB63" s="14"/>
+      <c r="AI63" s="14"/>
+      <c r="AJ63" s="14"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="3"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="1"/>
+      <c r="R64" s="45"/>
+      <c r="S64" s="45"/>
+      <c r="T64" s="46"/>
+      <c r="U64" s="47"/>
+      <c r="V64" s="47"/>
+      <c r="W64" s="47"/>
+      <c r="X64" s="47"/>
+      <c r="Y64" s="48"/>
+      <c r="Z64" s="45"/>
+      <c r="AA64" s="14"/>
+      <c r="AB64" s="14"/>
+      <c r="AI64" s="14"/>
+      <c r="AJ64" s="14"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="14"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="3"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="1"/>
+      <c r="R65" s="45"/>
+      <c r="S65" s="45"/>
+      <c r="T65" s="46"/>
+      <c r="U65" s="47"/>
+      <c r="V65" s="47"/>
+      <c r="W65" s="47"/>
+      <c r="X65" s="47"/>
+      <c r="Y65" s="48"/>
+      <c r="Z65" s="45"/>
+      <c r="AA65" s="14"/>
+      <c r="AB65" s="14"/>
+      <c r="AI65" s="14"/>
+      <c r="AJ65" s="14"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="14"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="3"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="1"/>
+      <c r="R66" s="45"/>
+      <c r="S66" s="45"/>
+      <c r="T66" s="46"/>
+      <c r="U66" s="47"/>
+      <c r="V66" s="47"/>
+      <c r="W66" s="47"/>
+      <c r="X66" s="47"/>
+      <c r="Y66" s="48"/>
+      <c r="Z66" s="45"/>
+      <c r="AA66" s="14"/>
+      <c r="AB66" s="14"/>
+      <c r="AI66" s="14"/>
+      <c r="AJ66" s="14"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="14"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="1"/>
+      <c r="R67" s="45"/>
+      <c r="S67" s="45"/>
+      <c r="T67" s="46"/>
+      <c r="U67" s="47"/>
+      <c r="V67" s="47"/>
+      <c r="W67" s="47"/>
+      <c r="X67" s="47"/>
+      <c r="Y67" s="48"/>
+      <c r="Z67" s="45"/>
+      <c r="AA67" s="14"/>
+      <c r="AB67" s="14"/>
+      <c r="AI67" s="14"/>
+      <c r="AJ67" s="14"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="14"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="1"/>
+      <c r="R68" s="45"/>
+      <c r="S68" s="45"/>
+      <c r="T68" s="46"/>
+      <c r="U68" s="47"/>
+      <c r="V68" s="47"/>
+      <c r="W68" s="47"/>
+      <c r="X68" s="47"/>
+      <c r="Y68" s="48"/>
+      <c r="Z68" s="45"/>
+      <c r="AA68" s="14"/>
+      <c r="AB68" s="14"/>
+      <c r="AI68" s="14"/>
+      <c r="AJ68" s="14"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="14"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="14"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="1"/>
+      <c r="R69" s="45"/>
+      <c r="S69" s="45"/>
+      <c r="T69" s="46"/>
+      <c r="U69" s="47"/>
+      <c r="V69" s="47"/>
+      <c r="W69" s="47"/>
+      <c r="X69" s="47"/>
+      <c r="Y69" s="48"/>
+      <c r="Z69" s="45"/>
+      <c r="AA69" s="14"/>
+      <c r="AB69" s="14"/>
+      <c r="AI69" s="14"/>
+      <c r="AJ69" s="14"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="14"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="14"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="1"/>
+      <c r="R70" s="45"/>
+      <c r="S70" s="45"/>
+      <c r="T70" s="46"/>
+      <c r="U70" s="47"/>
+      <c r="V70" s="47"/>
+      <c r="W70" s="47"/>
+      <c r="X70" s="47"/>
+      <c r="Y70" s="48"/>
+      <c r="Z70" s="45"/>
+      <c r="AA70" s="14"/>
+      <c r="AB70" s="14"/>
+      <c r="AI70" s="14"/>
+      <c r="AJ70" s="14"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="14"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="1"/>
+      <c r="R71" s="45"/>
+      <c r="S71" s="45"/>
+      <c r="T71" s="46"/>
+      <c r="U71" s="47"/>
+      <c r="V71" s="47"/>
+      <c r="W71" s="47"/>
+      <c r="X71" s="47"/>
+      <c r="Y71" s="48"/>
+      <c r="Z71" s="45"/>
+      <c r="AA71" s="14"/>
+      <c r="AB71" s="14"/>
+      <c r="AI71" s="14"/>
+      <c r="AJ71" s="14"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="14"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="14"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="1"/>
+      <c r="R72" s="45"/>
+      <c r="S72" s="45"/>
+      <c r="T72" s="46"/>
+      <c r="U72" s="47"/>
+      <c r="V72" s="47"/>
+      <c r="W72" s="47"/>
+      <c r="X72" s="47"/>
+      <c r="Y72" s="48"/>
+      <c r="Z72" s="45"/>
+      <c r="AA72" s="14"/>
+      <c r="AB72" s="14"/>
+      <c r="AI72" s="14"/>
+      <c r="AJ72" s="14"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="14"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="14"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="1"/>
+      <c r="R73" s="45"/>
+      <c r="S73" s="45"/>
+      <c r="T73" s="46"/>
+      <c r="U73" s="47"/>
+      <c r="V73" s="47"/>
+      <c r="W73" s="47"/>
+      <c r="X73" s="47"/>
+      <c r="Y73" s="48"/>
+      <c r="Z73" s="45"/>
+      <c r="AA73" s="14"/>
+      <c r="AB73" s="14"/>
+      <c r="AI73" s="14"/>
+      <c r="AJ73" s="14"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="14"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="14"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="1"/>
+      <c r="R74" s="45"/>
+      <c r="S74" s="45"/>
+      <c r="T74" s="46"/>
+      <c r="U74" s="47"/>
+      <c r="V74" s="47"/>
+      <c r="W74" s="47"/>
+      <c r="X74" s="47"/>
+      <c r="Y74" s="48"/>
+      <c r="Z74" s="45"/>
+      <c r="AA74" s="14"/>
+      <c r="AB74" s="14"/>
+      <c r="AI74" s="14"/>
+      <c r="AJ74" s="14"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="14"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="14"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="1"/>
+      <c r="R75" s="45"/>
+      <c r="S75" s="45"/>
+      <c r="T75" s="46"/>
+      <c r="U75" s="47"/>
+      <c r="V75" s="47"/>
+      <c r="W75" s="47"/>
+      <c r="X75" s="47"/>
+      <c r="Y75" s="48"/>
+      <c r="Z75" s="45"/>
+      <c r="AA75" s="14"/>
+      <c r="AB75" s="14"/>
+      <c r="AI75" s="14"/>
+      <c r="AJ75" s="14"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="14"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="3"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="1"/>
+      <c r="R76" s="45"/>
+      <c r="S76" s="45"/>
+      <c r="T76" s="46"/>
+      <c r="U76" s="47"/>
+      <c r="V76" s="47"/>
+      <c r="W76" s="47"/>
+      <c r="X76" s="47"/>
+      <c r="Y76" s="48"/>
+      <c r="Z76" s="45"/>
+      <c r="AA76" s="14"/>
+      <c r="AB76" s="14"/>
+      <c r="AI76" s="14"/>
+      <c r="AJ76" s="14"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="14"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="14"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="3"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="1"/>
+      <c r="R77" s="45"/>
+      <c r="S77" s="45"/>
+      <c r="T77" s="46"/>
+      <c r="U77" s="47"/>
+      <c r="V77" s="47"/>
+      <c r="W77" s="47"/>
+      <c r="X77" s="47"/>
+      <c r="Y77" s="48"/>
+      <c r="Z77" s="45"/>
+      <c r="AA77" s="14"/>
+      <c r="AB77" s="14"/>
+      <c r="AI77" s="14"/>
+      <c r="AJ77" s="14"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="14"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="14"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="3"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="1"/>
+      <c r="R78" s="45"/>
+      <c r="S78" s="45"/>
+      <c r="T78" s="46"/>
+      <c r="U78" s="47"/>
+      <c r="V78" s="47"/>
+      <c r="W78" s="47"/>
+      <c r="X78" s="47"/>
+      <c r="Y78" s="48"/>
+      <c r="Z78" s="45"/>
+      <c r="AA78" s="14"/>
+      <c r="AB78" s="14"/>
+      <c r="AI78" s="14"/>
+      <c r="AJ78" s="14"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="14"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="14"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="1"/>
+      <c r="R79" s="45"/>
+      <c r="S79" s="45"/>
+      <c r="T79" s="46"/>
+      <c r="U79" s="47"/>
+      <c r="V79" s="47"/>
+      <c r="W79" s="47"/>
+      <c r="X79" s="47"/>
+      <c r="Y79" s="48"/>
+      <c r="Z79" s="45"/>
+      <c r="AA79" s="14"/>
+      <c r="AB79" s="14"/>
+      <c r="AI79" s="14"/>
+      <c r="AJ79" s="14"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="14"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="3"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="1"/>
+      <c r="R80" s="45"/>
+      <c r="S80" s="45"/>
+      <c r="T80" s="46"/>
+      <c r="U80" s="47"/>
+      <c r="V80" s="47"/>
+      <c r="W80" s="47"/>
+      <c r="X80" s="47"/>
+      <c r="Y80" s="48"/>
+      <c r="Z80" s="45"/>
+      <c r="AA80" s="14"/>
+      <c r="AB80" s="14"/>
+      <c r="AI80" s="14"/>
+      <c r="AJ80" s="14"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="14"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="3"/>
+      <c r="O81" s="2"/>
+      <c r="P81" s="1"/>
+      <c r="R81" s="45"/>
+      <c r="S81" s="45"/>
+      <c r="T81" s="46"/>
+      <c r="U81" s="47"/>
+      <c r="V81" s="47"/>
+      <c r="W81" s="47"/>
+      <c r="X81" s="47"/>
+      <c r="Y81" s="48"/>
+      <c r="Z81" s="45"/>
+      <c r="AA81" s="14"/>
+      <c r="AB81" s="14"/>
+      <c r="AI81" s="14"/>
+      <c r="AJ81" s="14"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="14"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="14"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="2"/>
+      <c r="P82" s="1"/>
+      <c r="R82" s="45"/>
+      <c r="S82" s="45"/>
+      <c r="T82" s="46"/>
+      <c r="U82" s="47"/>
+      <c r="V82" s="47"/>
+      <c r="W82" s="47"/>
+      <c r="X82" s="47"/>
+      <c r="Y82" s="48"/>
+      <c r="Z82" s="45"/>
+      <c r="AA82" s="14"/>
+      <c r="AB82" s="14"/>
+      <c r="AI82" s="14"/>
+      <c r="AJ82" s="14"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="14"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="14"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="1"/>
+      <c r="R83" s="45"/>
+      <c r="S83" s="45"/>
+      <c r="T83" s="46"/>
+      <c r="U83" s="47"/>
+      <c r="V83" s="47"/>
+      <c r="W83" s="47"/>
+      <c r="X83" s="47"/>
+      <c r="Y83" s="48"/>
+      <c r="Z83" s="45"/>
+      <c r="AA83" s="14"/>
+      <c r="AB83" s="14"/>
+      <c r="AI83" s="14"/>
+      <c r="AJ83" s="14"/>
+    </row>
+    <row r="84">
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="3"/>
+      <c r="O84" s="2"/>
+      <c r="P84" s="1"/>
+      <c r="R84" s="45"/>
+      <c r="S84" s="45"/>
+      <c r="T84" s="46"/>
+      <c r="U84" s="47"/>
+      <c r="V84" s="47"/>
+      <c r="W84" s="47"/>
+      <c r="X84" s="47"/>
+      <c r="Y84" s="48"/>
+      <c r="Z84" s="45"/>
+      <c r="AA84" s="14"/>
+      <c r="AB84" s="14"/>
+      <c r="AI84" s="14"/>
+      <c r="AJ84" s="14"/>
+    </row>
+    <row r="85">
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="3"/>
+      <c r="O85" s="2"/>
+      <c r="P85" s="1"/>
+      <c r="R85" s="45"/>
+      <c r="S85" s="45"/>
+      <c r="T85" s="46"/>
+      <c r="U85" s="47"/>
+      <c r="V85" s="47"/>
+      <c r="W85" s="47"/>
+      <c r="X85" s="47"/>
+      <c r="Y85" s="48"/>
+      <c r="Z85" s="45"/>
+      <c r="AA85" s="14"/>
+      <c r="AB85" s="14"/>
+      <c r="AI85" s="14"/>
+      <c r="AJ85" s="14"/>
+    </row>
+    <row r="86">
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="3"/>
+      <c r="O86" s="2"/>
+      <c r="P86" s="1"/>
+      <c r="R86" s="45"/>
+      <c r="S86" s="45"/>
+      <c r="T86" s="46"/>
+      <c r="U86" s="47"/>
+      <c r="V86" s="47"/>
+      <c r="W86" s="47"/>
+      <c r="X86" s="47"/>
+      <c r="Y86" s="48"/>
+      <c r="Z86" s="45"/>
+      <c r="AA86" s="14"/>
+      <c r="AB86" s="14"/>
+      <c r="AI86" s="14"/>
+      <c r="AJ86" s="14"/>
+    </row>
+    <row r="87">
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="3"/>
+      <c r="O87" s="2"/>
+      <c r="P87" s="1"/>
+      <c r="R87" s="45"/>
+      <c r="S87" s="45"/>
+      <c r="T87" s="46"/>
+      <c r="U87" s="47"/>
+      <c r="V87" s="47"/>
+      <c r="W87" s="47"/>
+      <c r="X87" s="47"/>
+      <c r="Y87" s="48"/>
+      <c r="Z87" s="45"/>
+      <c r="AA87" s="14"/>
+      <c r="AB87" s="14"/>
+      <c r="AI87" s="14"/>
+      <c r="AJ87" s="14"/>
+    </row>
+    <row r="88">
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="3"/>
+      <c r="O88" s="2"/>
+      <c r="P88" s="1"/>
+      <c r="R88" s="45"/>
+      <c r="S88" s="45"/>
+      <c r="T88" s="46"/>
+      <c r="U88" s="47"/>
+      <c r="V88" s="47"/>
+      <c r="W88" s="47"/>
+      <c r="X88" s="47"/>
+      <c r="Y88" s="48"/>
+      <c r="Z88" s="45"/>
+      <c r="AA88" s="14"/>
+      <c r="AB88" s="14"/>
+      <c r="AI88" s="14"/>
+      <c r="AJ88" s="14"/>
+    </row>
+    <row r="89">
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="3"/>
+      <c r="O89" s="2"/>
+      <c r="P89" s="1"/>
+      <c r="R89" s="45"/>
+      <c r="S89" s="45"/>
+      <c r="T89" s="46"/>
+      <c r="U89" s="47"/>
+      <c r="V89" s="47"/>
+      <c r="W89" s="47"/>
+      <c r="X89" s="47"/>
+      <c r="Y89" s="48"/>
+      <c r="Z89" s="45"/>
+      <c r="AA89" s="14"/>
+      <c r="AB89" s="14"/>
+      <c r="AI89" s="14"/>
+      <c r="AJ89" s="14"/>
+    </row>
+    <row r="90">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="2"/>
+      <c r="P90" s="1"/>
+      <c r="R90" s="45"/>
+      <c r="S90" s="45"/>
+      <c r="T90" s="46"/>
+      <c r="U90" s="47"/>
+      <c r="V90" s="47"/>
+      <c r="W90" s="47"/>
+      <c r="X90" s="47"/>
+      <c r="Y90" s="48"/>
+      <c r="Z90" s="45"/>
+      <c r="AA90" s="14"/>
+      <c r="AB90" s="14"/>
+      <c r="AI90" s="14"/>
+      <c r="AJ90" s="14"/>
+    </row>
+    <row r="91">
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="3"/>
+      <c r="O91" s="2"/>
+      <c r="P91" s="1"/>
+      <c r="R91" s="45"/>
+      <c r="S91" s="45"/>
+      <c r="T91" s="46"/>
+      <c r="U91" s="47"/>
+      <c r="V91" s="47"/>
+      <c r="W91" s="47"/>
+      <c r="X91" s="47"/>
+      <c r="Y91" s="48"/>
+      <c r="Z91" s="45"/>
+      <c r="AA91" s="14"/>
+      <c r="AB91" s="14"/>
+      <c r="AI91" s="14"/>
+      <c r="AJ91" s="14"/>
+    </row>
+    <row r="92">
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="3"/>
+      <c r="O92" s="2"/>
+      <c r="P92" s="1"/>
+      <c r="R92" s="45"/>
+      <c r="S92" s="45"/>
+      <c r="T92" s="46"/>
+      <c r="U92" s="47"/>
+      <c r="V92" s="47"/>
+      <c r="W92" s="47"/>
+      <c r="X92" s="47"/>
+      <c r="Y92" s="48"/>
+      <c r="Z92" s="45"/>
+      <c r="AA92" s="14"/>
+      <c r="AB92" s="14"/>
+      <c r="AI92" s="14"/>
+      <c r="AJ92" s="14"/>
+    </row>
+    <row r="93">
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="3"/>
+      <c r="O93" s="2"/>
+      <c r="P93" s="1"/>
+      <c r="R93" s="45"/>
+      <c r="S93" s="45"/>
+      <c r="T93" s="46"/>
+      <c r="U93" s="47"/>
+      <c r="V93" s="47"/>
+      <c r="W93" s="47"/>
+      <c r="X93" s="47"/>
+      <c r="Y93" s="48"/>
+      <c r="Z93" s="45"/>
+      <c r="AA93" s="14"/>
+      <c r="AB93" s="14"/>
+      <c r="AI93" s="14"/>
+      <c r="AJ93" s="14"/>
+    </row>
+    <row r="94">
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="3"/>
+      <c r="O94" s="2"/>
+      <c r="P94" s="1"/>
+      <c r="R94" s="45"/>
+      <c r="S94" s="45"/>
+      <c r="T94" s="46"/>
+      <c r="U94" s="47"/>
+      <c r="V94" s="47"/>
+      <c r="W94" s="47"/>
+      <c r="X94" s="47"/>
+      <c r="Y94" s="48"/>
+      <c r="Z94" s="45"/>
+      <c r="AA94" s="14"/>
+      <c r="AB94" s="14"/>
+      <c r="AI94" s="14"/>
+      <c r="AJ94" s="14"/>
+    </row>
+    <row r="95">
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="2"/>
+      <c r="P95" s="1"/>
+      <c r="R95" s="45"/>
+      <c r="S95" s="45"/>
+      <c r="T95" s="46"/>
+      <c r="U95" s="47"/>
+      <c r="V95" s="47"/>
+      <c r="W95" s="47"/>
+      <c r="X95" s="47"/>
+      <c r="Y95" s="48"/>
+      <c r="Z95" s="45"/>
+      <c r="AA95" s="14"/>
+      <c r="AB95" s="14"/>
+      <c r="AI95" s="14"/>
+      <c r="AJ95" s="14"/>
+    </row>
+    <row r="96">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="3"/>
+      <c r="O96" s="2"/>
+      <c r="P96" s="1"/>
+      <c r="R96" s="45"/>
+      <c r="S96" s="45"/>
+      <c r="T96" s="46"/>
+      <c r="U96" s="47"/>
+      <c r="V96" s="47"/>
+      <c r="W96" s="47"/>
+      <c r="X96" s="47"/>
+      <c r="Y96" s="48"/>
+      <c r="Z96" s="45"/>
+      <c r="AA96" s="14"/>
+      <c r="AB96" s="14"/>
+      <c r="AI96" s="14"/>
+      <c r="AJ96" s="14"/>
+    </row>
+    <row r="97">
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="3"/>
+      <c r="O97" s="2"/>
+      <c r="P97" s="1"/>
+      <c r="R97" s="45"/>
+      <c r="S97" s="45"/>
+      <c r="T97" s="46"/>
+      <c r="U97" s="47"/>
+      <c r="V97" s="47"/>
+      <c r="W97" s="47"/>
+      <c r="X97" s="47"/>
+      <c r="Y97" s="48"/>
+      <c r="Z97" s="45"/>
+      <c r="AA97" s="14"/>
+      <c r="AB97" s="14"/>
+      <c r="AI97" s="14"/>
+      <c r="AJ97" s="14"/>
+    </row>
+    <row r="98">
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
+      <c r="N98" s="3"/>
+      <c r="O98" s="2"/>
+      <c r="P98" s="1"/>
+      <c r="R98" s="45"/>
+      <c r="S98" s="45"/>
+      <c r="T98" s="46"/>
+      <c r="U98" s="47"/>
+      <c r="V98" s="47"/>
+      <c r="W98" s="47"/>
+      <c r="X98" s="47"/>
+      <c r="Y98" s="48"/>
+      <c r="Z98" s="45"/>
+      <c r="AA98" s="14"/>
+      <c r="AB98" s="14"/>
+      <c r="AI98" s="14"/>
+      <c r="AJ98" s="14"/>
+    </row>
+    <row r="99">
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="2"/>
+      <c r="P99" s="1"/>
+      <c r="R99" s="45"/>
+      <c r="S99" s="45"/>
+      <c r="T99" s="46"/>
+      <c r="U99" s="47"/>
+      <c r="V99" s="47"/>
+      <c r="W99" s="47"/>
+      <c r="X99" s="47"/>
+      <c r="Y99" s="48"/>
+      <c r="Z99" s="45"/>
+      <c r="AA99" s="14"/>
+      <c r="AB99" s="14"/>
+      <c r="AI99" s="14"/>
+      <c r="AJ99" s="14"/>
+    </row>
+    <row r="100">
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
+      <c r="N100" s="3"/>
+      <c r="O100" s="2"/>
+      <c r="P100" s="1"/>
+      <c r="R100" s="45"/>
+      <c r="S100" s="45"/>
+      <c r="T100" s="46"/>
+      <c r="U100" s="47"/>
+      <c r="V100" s="47"/>
+      <c r="W100" s="47"/>
+      <c r="X100" s="47"/>
+      <c r="Y100" s="48"/>
+      <c r="Z100" s="45"/>
+      <c r="AA100" s="14"/>
+      <c r="AB100" s="14"/>
+      <c r="AI100" s="14"/>
+      <c r="AJ100" s="14"/>
+    </row>
+    <row r="101">
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
+      <c r="N101" s="3"/>
+      <c r="O101" s="2"/>
+      <c r="P101" s="1"/>
+      <c r="R101" s="45"/>
+      <c r="S101" s="45"/>
+      <c r="T101" s="46"/>
+      <c r="U101" s="47"/>
+      <c r="V101" s="47"/>
+      <c r="W101" s="47"/>
+      <c r="X101" s="47"/>
+      <c r="Y101" s="48"/>
+      <c r="Z101" s="45"/>
+      <c r="AA101" s="14"/>
+      <c r="AB101" s="14"/>
+      <c r="AI101" s="14"/>
+      <c r="AJ101" s="14"/>
+    </row>
+    <row r="102">
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="G102" s="1"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="3"/>
+      <c r="O102" s="2"/>
+      <c r="P102" s="1"/>
+      <c r="R102" s="45"/>
+      <c r="S102" s="45"/>
+      <c r="T102" s="46"/>
+      <c r="U102" s="47"/>
+      <c r="V102" s="47"/>
+      <c r="W102" s="47"/>
+      <c r="X102" s="47"/>
+      <c r="Y102" s="48"/>
+      <c r="Z102" s="45"/>
+      <c r="AA102" s="14"/>
+      <c r="AB102" s="14"/>
+      <c r="AI102" s="14"/>
+      <c r="AJ102" s="14"/>
+    </row>
+    <row r="103">
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="3"/>
+      <c r="O103" s="2"/>
+      <c r="P103" s="1"/>
+      <c r="R103" s="45"/>
+      <c r="S103" s="45"/>
+      <c r="T103" s="46"/>
+      <c r="U103" s="47"/>
+      <c r="V103" s="47"/>
+      <c r="W103" s="47"/>
+      <c r="X103" s="47"/>
+      <c r="Y103" s="48"/>
+      <c r="Z103" s="45"/>
+      <c r="AA103" s="14"/>
+      <c r="AB103" s="14"/>
+      <c r="AI103" s="14"/>
+      <c r="AJ103" s="14"/>
+    </row>
+    <row r="104">
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+      <c r="M104" s="2"/>
+      <c r="N104" s="3"/>
+      <c r="O104" s="2"/>
+      <c r="P104" s="1"/>
+      <c r="R104" s="45"/>
+      <c r="S104" s="45"/>
+      <c r="T104" s="46"/>
+      <c r="U104" s="47"/>
+      <c r="V104" s="47"/>
+      <c r="W104" s="47"/>
+      <c r="X104" s="47"/>
+      <c r="Y104" s="48"/>
+      <c r="Z104" s="45"/>
+      <c r="AA104" s="14"/>
+      <c r="AB104" s="14"/>
+      <c r="AI104" s="14"/>
+      <c r="AJ104" s="14"/>
+    </row>
+    <row r="105">
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="G105" s="1"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
+      <c r="N105" s="3"/>
+      <c r="O105" s="2"/>
+      <c r="P105" s="1"/>
+      <c r="R105" s="45"/>
+      <c r="S105" s="45"/>
+      <c r="T105" s="46"/>
+      <c r="U105" s="47"/>
+      <c r="V105" s="47"/>
+      <c r="W105" s="47"/>
+      <c r="X105" s="47"/>
+      <c r="Y105" s="48"/>
+      <c r="Z105" s="45"/>
+      <c r="AA105" s="14"/>
+      <c r="AB105" s="14"/>
+      <c r="AI105" s="14"/>
+      <c r="AJ105" s="14"/>
+    </row>
+    <row r="106">
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="3"/>
+      <c r="O106" s="2"/>
+      <c r="P106" s="1"/>
+      <c r="R106" s="45"/>
+      <c r="S106" s="45"/>
+      <c r="T106" s="46"/>
+      <c r="U106" s="47"/>
+      <c r="V106" s="47"/>
+      <c r="W106" s="47"/>
+      <c r="X106" s="47"/>
+      <c r="Y106" s="48"/>
+      <c r="Z106" s="45"/>
+      <c r="AA106" s="14"/>
+      <c r="AB106" s="14"/>
+      <c r="AI106" s="14"/>
+      <c r="AJ106" s="14"/>
+    </row>
+    <row r="107">
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="14"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
+      <c r="N107" s="3"/>
+      <c r="O107" s="2"/>
+      <c r="P107" s="1"/>
+      <c r="R107" s="45"/>
+      <c r="S107" s="45"/>
+      <c r="T107" s="46"/>
+      <c r="U107" s="47"/>
+      <c r="V107" s="47"/>
+      <c r="W107" s="47"/>
+      <c r="X107" s="47"/>
+      <c r="Y107" s="48"/>
+      <c r="Z107" s="45"/>
+      <c r="AA107" s="14"/>
+      <c r="AB107" s="14"/>
+      <c r="AI107" s="14"/>
+      <c r="AJ107" s="14"/>
+    </row>
+    <row r="108">
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="14"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="3"/>
+      <c r="O108" s="2"/>
+      <c r="P108" s="1"/>
+      <c r="R108" s="45"/>
+      <c r="S108" s="45"/>
+      <c r="T108" s="46"/>
+      <c r="U108" s="47"/>
+      <c r="V108" s="47"/>
+      <c r="W108" s="47"/>
+      <c r="X108" s="47"/>
+      <c r="Y108" s="48"/>
+      <c r="Z108" s="45"/>
+      <c r="AA108" s="14"/>
+      <c r="AB108" s="14"/>
+      <c r="AI108" s="14"/>
+      <c r="AJ108" s="14"/>
+    </row>
+    <row r="109">
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="N109" s="3"/>
+      <c r="O109" s="2"/>
+      <c r="P109" s="1"/>
+      <c r="R109" s="45"/>
+      <c r="S109" s="45"/>
+      <c r="T109" s="46"/>
+      <c r="U109" s="47"/>
+      <c r="V109" s="47"/>
+      <c r="W109" s="47"/>
+      <c r="X109" s="47"/>
+      <c r="Y109" s="48"/>
+      <c r="Z109" s="45"/>
+      <c r="AA109" s="14"/>
+      <c r="AB109" s="14"/>
+      <c r="AI109" s="14"/>
+      <c r="AJ109" s="14"/>
+    </row>
+    <row r="110">
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="14"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
+      <c r="N110" s="3"/>
+      <c r="O110" s="2"/>
+      <c r="P110" s="1"/>
+      <c r="R110" s="45"/>
+      <c r="S110" s="45"/>
+      <c r="T110" s="46"/>
+      <c r="U110" s="47"/>
+      <c r="V110" s="47"/>
+      <c r="W110" s="47"/>
+      <c r="X110" s="47"/>
+      <c r="Y110" s="48"/>
+      <c r="Z110" s="45"/>
+      <c r="AA110" s="14"/>
+      <c r="AB110" s="14"/>
+      <c r="AI110" s="14"/>
+      <c r="AJ110" s="14"/>
+    </row>
+    <row r="111">
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
+      <c r="N111" s="3"/>
+      <c r="O111" s="2"/>
+      <c r="P111" s="1"/>
+      <c r="R111" s="45"/>
+      <c r="S111" s="45"/>
+      <c r="T111" s="46"/>
+      <c r="U111" s="47"/>
+      <c r="V111" s="47"/>
+      <c r="W111" s="47"/>
+      <c r="X111" s="47"/>
+      <c r="Y111" s="48"/>
+      <c r="Z111" s="45"/>
+      <c r="AA111" s="14"/>
+      <c r="AB111" s="14"/>
+      <c r="AI111" s="14"/>
+      <c r="AJ111" s="14"/>
+    </row>
+    <row r="112">
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="14"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="3"/>
+      <c r="O112" s="2"/>
+      <c r="P112" s="1"/>
+      <c r="R112" s="45"/>
+      <c r="S112" s="45"/>
+      <c r="T112" s="46"/>
+      <c r="U112" s="47"/>
+      <c r="V112" s="47"/>
+      <c r="W112" s="47"/>
+      <c r="X112" s="47"/>
+      <c r="Y112" s="48"/>
+      <c r="Z112" s="45"/>
+      <c r="AA112" s="14"/>
+      <c r="AB112" s="14"/>
+      <c r="AI112" s="14"/>
+      <c r="AJ112" s="14"/>
+    </row>
+    <row r="113">
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="14"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
+      <c r="N113" s="3"/>
+      <c r="O113" s="2"/>
+      <c r="P113" s="1"/>
+      <c r="R113" s="45"/>
+      <c r="S113" s="45"/>
+      <c r="T113" s="46"/>
+      <c r="U113" s="47"/>
+      <c r="V113" s="47"/>
+      <c r="W113" s="47"/>
+      <c r="X113" s="47"/>
+      <c r="Y113" s="48"/>
+      <c r="Z113" s="45"/>
+      <c r="AA113" s="14"/>
+      <c r="AB113" s="14"/>
+      <c r="AI113" s="14"/>
+      <c r="AJ113" s="14"/>
+    </row>
+    <row r="114">
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="14"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
+      <c r="M114" s="2"/>
+      <c r="N114" s="3"/>
+      <c r="O114" s="2"/>
+      <c r="P114" s="1"/>
+      <c r="R114" s="45"/>
+      <c r="S114" s="45"/>
+      <c r="T114" s="46"/>
+      <c r="U114" s="47"/>
+      <c r="V114" s="47"/>
+      <c r="W114" s="47"/>
+      <c r="X114" s="47"/>
+      <c r="Y114" s="48"/>
+      <c r="Z114" s="45"/>
+      <c r="AA114" s="14"/>
+      <c r="AB114" s="14"/>
+      <c r="AI114" s="14"/>
+      <c r="AJ114" s="14"/>
+    </row>
+    <row r="115">
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="14"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2"/>
+      <c r="N115" s="3"/>
+      <c r="O115" s="2"/>
+      <c r="P115" s="1"/>
+      <c r="R115" s="45"/>
+      <c r="S115" s="45"/>
+      <c r="T115" s="46"/>
+      <c r="U115" s="47"/>
+      <c r="V115" s="47"/>
+      <c r="W115" s="47"/>
+      <c r="X115" s="47"/>
+      <c r="Y115" s="48"/>
+      <c r="Z115" s="45"/>
+      <c r="AA115" s="14"/>
+      <c r="AB115" s="14"/>
+      <c r="AI115" s="14"/>
+      <c r="AJ115" s="14"/>
+    </row>
+    <row r="116">
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="14"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
+      <c r="N116" s="3"/>
+      <c r="O116" s="2"/>
+      <c r="P116" s="1"/>
+      <c r="R116" s="45"/>
+      <c r="S116" s="45"/>
+      <c r="T116" s="46"/>
+      <c r="U116" s="47"/>
+      <c r="V116" s="47"/>
+      <c r="W116" s="47"/>
+      <c r="X116" s="47"/>
+      <c r="Y116" s="48"/>
+      <c r="Z116" s="45"/>
+      <c r="AA116" s="14"/>
+      <c r="AB116" s="14"/>
+      <c r="AI116" s="14"/>
+      <c r="AJ116" s="14"/>
+    </row>
+    <row r="117">
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="14"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
+      <c r="N117" s="3"/>
+      <c r="O117" s="2"/>
+      <c r="P117" s="1"/>
+      <c r="R117" s="45"/>
+      <c r="S117" s="45"/>
+      <c r="T117" s="46"/>
+      <c r="U117" s="47"/>
+      <c r="V117" s="47"/>
+      <c r="W117" s="47"/>
+      <c r="X117" s="47"/>
+      <c r="Y117" s="48"/>
+      <c r="Z117" s="45"/>
+      <c r="AA117" s="14"/>
+      <c r="AB117" s="14"/>
+      <c r="AI117" s="14"/>
+      <c r="AJ117" s="14"/>
+    </row>
+    <row r="118">
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="14"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
+      <c r="M118" s="2"/>
+      <c r="N118" s="3"/>
+      <c r="O118" s="2"/>
+      <c r="P118" s="1"/>
+      <c r="R118" s="45"/>
+      <c r="S118" s="45"/>
+      <c r="T118" s="46"/>
+      <c r="U118" s="47"/>
+      <c r="V118" s="47"/>
+      <c r="W118" s="47"/>
+      <c r="X118" s="47"/>
+      <c r="Y118" s="48"/>
+      <c r="Z118" s="45"/>
+      <c r="AA118" s="14"/>
+      <c r="AB118" s="14"/>
+      <c r="AI118" s="14"/>
+      <c r="AJ118" s="14"/>
+    </row>
+    <row r="119">
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="14"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
+      <c r="M119" s="2"/>
+      <c r="N119" s="3"/>
+      <c r="O119" s="2"/>
+      <c r="P119" s="1"/>
+      <c r="R119" s="45"/>
+      <c r="S119" s="45"/>
+      <c r="T119" s="46"/>
+      <c r="U119" s="47"/>
+      <c r="V119" s="47"/>
+      <c r="W119" s="47"/>
+      <c r="X119" s="47"/>
+      <c r="Y119" s="48"/>
+      <c r="Z119" s="45"/>
+      <c r="AA119" s="14"/>
+      <c r="AB119" s="14"/>
+      <c r="AI119" s="14"/>
+      <c r="AJ119" s="14"/>
+    </row>
+    <row r="120">
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="14"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="2"/>
+      <c r="M120" s="2"/>
+      <c r="N120" s="3"/>
+      <c r="O120" s="2"/>
+      <c r="P120" s="1"/>
+      <c r="R120" s="45"/>
+      <c r="S120" s="45"/>
+      <c r="T120" s="46"/>
+      <c r="U120" s="47"/>
+      <c r="V120" s="47"/>
+      <c r="W120" s="47"/>
+      <c r="X120" s="47"/>
+      <c r="Y120" s="48"/>
+      <c r="Z120" s="45"/>
+      <c r="AA120" s="14"/>
+      <c r="AB120" s="14"/>
+      <c r="AI120" s="14"/>
+      <c r="AJ120" s="14"/>
+    </row>
+    <row r="121">
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="14"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2"/>
+      <c r="K121" s="2"/>
+      <c r="L121" s="2"/>
+      <c r="M121" s="2"/>
+      <c r="N121" s="3"/>
+      <c r="O121" s="2"/>
+      <c r="P121" s="1"/>
+      <c r="R121" s="45"/>
+      <c r="S121" s="45"/>
+      <c r="T121" s="46"/>
+      <c r="U121" s="47"/>
+      <c r="V121" s="47"/>
+      <c r="W121" s="47"/>
+      <c r="X121" s="47"/>
+      <c r="Y121" s="48"/>
+      <c r="Z121" s="45"/>
+      <c r="AA121" s="14"/>
+      <c r="AB121" s="14"/>
+      <c r="AI121" s="14"/>
+      <c r="AJ121" s="14"/>
+    </row>
+    <row r="122">
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="14"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2"/>
+      <c r="K122" s="2"/>
+      <c r="L122" s="2"/>
+      <c r="M122" s="2"/>
+      <c r="N122" s="3"/>
+      <c r="O122" s="2"/>
+      <c r="P122" s="1"/>
+      <c r="R122" s="45"/>
+      <c r="S122" s="45"/>
+      <c r="T122" s="46"/>
+      <c r="U122" s="47"/>
+      <c r="V122" s="47"/>
+      <c r="W122" s="47"/>
+      <c r="X122" s="47"/>
+      <c r="Y122" s="48"/>
+      <c r="Z122" s="45"/>
+      <c r="AA122" s="14"/>
+      <c r="AB122" s="14"/>
+      <c r="AI122" s="14"/>
+      <c r="AJ122" s="14"/>
+    </row>
+    <row r="123">
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="14"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2"/>
+      <c r="K123" s="2"/>
+      <c r="L123" s="2"/>
+      <c r="M123" s="2"/>
+      <c r="N123" s="3"/>
+      <c r="O123" s="2"/>
+      <c r="P123" s="1"/>
+      <c r="R123" s="45"/>
+      <c r="S123" s="45"/>
+      <c r="T123" s="46"/>
+      <c r="U123" s="47"/>
+      <c r="V123" s="47"/>
+      <c r="W123" s="47"/>
+      <c r="X123" s="47"/>
+      <c r="Y123" s="48"/>
+      <c r="Z123" s="45"/>
+      <c r="AA123" s="14"/>
+      <c r="AB123" s="14"/>
+      <c r="AI123" s="14"/>
+      <c r="AJ123" s="14"/>
+    </row>
+    <row r="124">
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="14"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
+      <c r="K124" s="2"/>
+      <c r="L124" s="2"/>
+      <c r="M124" s="2"/>
+      <c r="N124" s="3"/>
+      <c r="O124" s="2"/>
+      <c r="P124" s="1"/>
+      <c r="R124" s="45"/>
+      <c r="S124" s="45"/>
+      <c r="T124" s="46"/>
+      <c r="U124" s="47"/>
+      <c r="V124" s="47"/>
+      <c r="W124" s="47"/>
+      <c r="X124" s="47"/>
+      <c r="Y124" s="48"/>
+      <c r="Z124" s="45"/>
+      <c r="AA124" s="14"/>
+      <c r="AB124" s="14"/>
+      <c r="AI124" s="14"/>
+      <c r="AJ124" s="14"/>
+    </row>
+    <row r="125">
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="14"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
+      <c r="L125" s="2"/>
+      <c r="M125" s="2"/>
+      <c r="N125" s="3"/>
+      <c r="O125" s="2"/>
+      <c r="P125" s="1"/>
+      <c r="R125" s="45"/>
+      <c r="S125" s="45"/>
+      <c r="T125" s="46"/>
+      <c r="U125" s="47"/>
+      <c r="V125" s="47"/>
+      <c r="W125" s="47"/>
+      <c r="X125" s="47"/>
+      <c r="Y125" s="48"/>
+      <c r="Z125" s="45"/>
+      <c r="AA125" s="14"/>
+      <c r="AB125" s="14"/>
+      <c r="AI125" s="14"/>
+      <c r="AJ125" s="14"/>
+    </row>
+    <row r="126">
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="14"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="2"/>
+      <c r="L126" s="2"/>
+      <c r="M126" s="2"/>
+      <c r="N126" s="3"/>
+      <c r="O126" s="2"/>
+      <c r="P126" s="1"/>
+      <c r="R126" s="45"/>
+      <c r="S126" s="45"/>
+      <c r="T126" s="46"/>
+      <c r="U126" s="47"/>
+      <c r="V126" s="47"/>
+      <c r="W126" s="47"/>
+      <c r="X126" s="47"/>
+      <c r="Y126" s="48"/>
+      <c r="Z126" s="45"/>
+      <c r="AA126" s="14"/>
+      <c r="AB126" s="14"/>
+      <c r="AI126" s="14"/>
+      <c r="AJ126" s="14"/>
+    </row>
+    <row r="127">
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="14"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+      <c r="L127" s="2"/>
+      <c r="M127" s="2"/>
+      <c r="N127" s="3"/>
+      <c r="O127" s="2"/>
+      <c r="P127" s="1"/>
+      <c r="R127" s="45"/>
+      <c r="S127" s="45"/>
+      <c r="T127" s="46"/>
+      <c r="U127" s="47"/>
+      <c r="V127" s="47"/>
+      <c r="W127" s="47"/>
+      <c r="X127" s="47"/>
+      <c r="Y127" s="48"/>
+      <c r="Z127" s="45"/>
+      <c r="AA127" s="14"/>
+      <c r="AB127" s="14"/>
+      <c r="AI127" s="14"/>
+      <c r="AJ127" s="14"/>
+    </row>
+    <row r="128">
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="G128" s="1"/>
+      <c r="H128" s="14"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="2"/>
+      <c r="L128" s="2"/>
+      <c r="M128" s="2"/>
+      <c r="N128" s="3"/>
+      <c r="O128" s="2"/>
+      <c r="P128" s="1"/>
+      <c r="R128" s="45"/>
+      <c r="S128" s="45"/>
+      <c r="T128" s="46"/>
+      <c r="U128" s="47"/>
+      <c r="V128" s="47"/>
+      <c r="W128" s="47"/>
+      <c r="X128" s="47"/>
+      <c r="Y128" s="48"/>
+      <c r="Z128" s="45"/>
+      <c r="AA128" s="14"/>
+      <c r="AB128" s="14"/>
+      <c r="AI128" s="14"/>
+      <c r="AJ128" s="14"/>
+    </row>
+    <row r="129">
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="14"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2"/>
+      <c r="L129" s="2"/>
+      <c r="M129" s="2"/>
+      <c r="N129" s="3"/>
+      <c r="O129" s="2"/>
+      <c r="P129" s="1"/>
+      <c r="R129" s="45"/>
+      <c r="S129" s="45"/>
+      <c r="T129" s="46"/>
+      <c r="U129" s="47"/>
+      <c r="V129" s="47"/>
+      <c r="W129" s="47"/>
+      <c r="X129" s="47"/>
+      <c r="Y129" s="48"/>
+      <c r="Z129" s="45"/>
+      <c r="AA129" s="14"/>
+      <c r="AB129" s="14"/>
+      <c r="AI129" s="14"/>
+      <c r="AJ129" s="14"/>
+    </row>
+    <row r="130">
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="G130" s="1"/>
+      <c r="H130" s="14"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+      <c r="L130" s="2"/>
+      <c r="M130" s="2"/>
+      <c r="N130" s="3"/>
+      <c r="O130" s="2"/>
+      <c r="P130" s="1"/>
+      <c r="R130" s="45"/>
+      <c r="S130" s="45"/>
+      <c r="T130" s="46"/>
+      <c r="U130" s="47"/>
+      <c r="V130" s="47"/>
+      <c r="W130" s="47"/>
+      <c r="X130" s="47"/>
+      <c r="Y130" s="48"/>
+      <c r="Z130" s="45"/>
+      <c r="AA130" s="14"/>
+      <c r="AB130" s="14"/>
+      <c r="AI130" s="14"/>
+      <c r="AJ130" s="14"/>
+    </row>
+    <row r="131">
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="G131" s="1"/>
+      <c r="H131" s="14"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
+      <c r="K131" s="2"/>
+      <c r="L131" s="2"/>
+      <c r="M131" s="2"/>
+      <c r="N131" s="3"/>
+      <c r="O131" s="2"/>
+      <c r="P131" s="1"/>
+      <c r="R131" s="45"/>
+      <c r="S131" s="45"/>
+      <c r="T131" s="46"/>
+      <c r="U131" s="47"/>
+      <c r="V131" s="47"/>
+      <c r="W131" s="47"/>
+      <c r="X131" s="47"/>
+      <c r="Y131" s="48"/>
+      <c r="Z131" s="45"/>
+      <c r="AA131" s="14"/>
+      <c r="AB131" s="14"/>
+      <c r="AI131" s="14"/>
+      <c r="AJ131" s="14"/>
+    </row>
+    <row r="132">
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="14"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
+      <c r="K132" s="2"/>
+      <c r="L132" s="2"/>
+      <c r="M132" s="2"/>
+      <c r="N132" s="3"/>
+      <c r="O132" s="2"/>
+      <c r="P132" s="1"/>
+      <c r="R132" s="45"/>
+      <c r="S132" s="45"/>
+      <c r="T132" s="46"/>
+      <c r="U132" s="47"/>
+      <c r="V132" s="47"/>
+      <c r="W132" s="47"/>
+      <c r="X132" s="47"/>
+      <c r="Y132" s="48"/>
+      <c r="Z132" s="45"/>
+      <c r="AA132" s="14"/>
+      <c r="AB132" s="14"/>
+      <c r="AI132" s="14"/>
+      <c r="AJ132" s="14"/>
+    </row>
+    <row r="133">
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+      <c r="G133" s="1"/>
+      <c r="H133" s="14"/>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2"/>
+      <c r="K133" s="2"/>
+      <c r="L133" s="2"/>
+      <c r="M133" s="2"/>
+      <c r="N133" s="3"/>
+      <c r="O133" s="2"/>
+      <c r="P133" s="1"/>
+      <c r="R133" s="45"/>
+      <c r="S133" s="45"/>
+      <c r="T133" s="46"/>
+      <c r="U133" s="47"/>
+      <c r="V133" s="47"/>
+      <c r="W133" s="47"/>
+      <c r="X133" s="47"/>
+      <c r="Y133" s="48"/>
+      <c r="Z133" s="45"/>
+      <c r="AA133" s="14"/>
+      <c r="AB133" s="14"/>
+      <c r="AI133" s="14"/>
+      <c r="AJ133" s="14"/>
+    </row>
+    <row r="134">
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+      <c r="G134" s="1"/>
+      <c r="H134" s="14"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="2"/>
+      <c r="K134" s="2"/>
+      <c r="L134" s="2"/>
+      <c r="M134" s="2"/>
+      <c r="N134" s="3"/>
+      <c r="O134" s="2"/>
+      <c r="P134" s="1"/>
+      <c r="R134" s="45"/>
+      <c r="S134" s="45"/>
+      <c r="T134" s="46"/>
+      <c r="U134" s="47"/>
+      <c r="V134" s="47"/>
+      <c r="W134" s="47"/>
+      <c r="X134" s="47"/>
+      <c r="Y134" s="48"/>
+      <c r="Z134" s="45"/>
+      <c r="AA134" s="14"/>
+      <c r="AB134" s="14"/>
+      <c r="AI134" s="14"/>
+      <c r="AJ134" s="14"/>
+    </row>
+    <row r="135">
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="14"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2"/>
+      <c r="K135" s="2"/>
+      <c r="L135" s="2"/>
+      <c r="M135" s="2"/>
+      <c r="N135" s="3"/>
+      <c r="O135" s="2"/>
+      <c r="P135" s="1"/>
+      <c r="R135" s="45"/>
+      <c r="S135" s="45"/>
+      <c r="T135" s="46"/>
+      <c r="U135" s="47"/>
+      <c r="V135" s="47"/>
+      <c r="W135" s="47"/>
+      <c r="X135" s="47"/>
+      <c r="Y135" s="48"/>
+      <c r="Z135" s="45"/>
+      <c r="AA135" s="14"/>
+      <c r="AB135" s="14"/>
+      <c r="AI135" s="14"/>
+      <c r="AJ135" s="14"/>
+    </row>
+    <row r="136">
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="14"/>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2"/>
+      <c r="K136" s="2"/>
+      <c r="L136" s="2"/>
+      <c r="M136" s="2"/>
+      <c r="N136" s="3"/>
+      <c r="O136" s="2"/>
+      <c r="P136" s="1"/>
+      <c r="R136" s="45"/>
+      <c r="S136" s="45"/>
+      <c r="T136" s="46"/>
+      <c r="U136" s="47"/>
+      <c r="V136" s="47"/>
+      <c r="W136" s="47"/>
+      <c r="X136" s="47"/>
+      <c r="Y136" s="48"/>
+      <c r="Z136" s="45"/>
+      <c r="AA136" s="14"/>
+      <c r="AB136" s="14"/>
+      <c r="AI136" s="14"/>
+      <c r="AJ136" s="14"/>
+    </row>
+    <row r="137">
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+      <c r="G137" s="1"/>
+      <c r="H137" s="14"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2"/>
+      <c r="K137" s="2"/>
+      <c r="L137" s="2"/>
+      <c r="M137" s="2"/>
+      <c r="N137" s="3"/>
+      <c r="O137" s="2"/>
+      <c r="P137" s="1"/>
+      <c r="R137" s="45"/>
+      <c r="S137" s="45"/>
+      <c r="T137" s="46"/>
+      <c r="U137" s="47"/>
+      <c r="V137" s="47"/>
+      <c r="W137" s="47"/>
+      <c r="X137" s="47"/>
+      <c r="Y137" s="48"/>
+      <c r="Z137" s="45"/>
+      <c r="AA137" s="14"/>
+      <c r="AB137" s="14"/>
+      <c r="AI137" s="14"/>
+      <c r="AJ137" s="14"/>
+    </row>
+    <row r="138">
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="2"/>
+      <c r="J138" s="2"/>
+      <c r="K138" s="2"/>
+      <c r="L138" s="2"/>
+      <c r="M138" s="2"/>
+      <c r="N138" s="3"/>
+      <c r="O138" s="2"/>
+      <c r="P138" s="1"/>
+      <c r="R138" s="45"/>
+      <c r="S138" s="45"/>
+      <c r="T138" s="46"/>
+      <c r="U138" s="47"/>
+      <c r="V138" s="47"/>
+      <c r="W138" s="47"/>
+      <c r="X138" s="47"/>
+      <c r="Y138" s="48"/>
+      <c r="Z138" s="45"/>
+      <c r="AA138" s="14"/>
+      <c r="AB138" s="14"/>
+      <c r="AI138" s="14"/>
+      <c r="AJ138" s="14"/>
+    </row>
+    <row r="139">
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+      <c r="G139" s="1"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="2"/>
+      <c r="J139" s="2"/>
+      <c r="K139" s="2"/>
+      <c r="L139" s="2"/>
+      <c r="M139" s="2"/>
+      <c r="N139" s="3"/>
+      <c r="O139" s="2"/>
+      <c r="P139" s="1"/>
+      <c r="R139" s="45"/>
+      <c r="S139" s="45"/>
+      <c r="T139" s="46"/>
+      <c r="U139" s="47"/>
+      <c r="V139" s="47"/>
+      <c r="W139" s="47"/>
+      <c r="X139" s="47"/>
+      <c r="Y139" s="48"/>
+      <c r="Z139" s="45"/>
+      <c r="AA139" s="14"/>
+      <c r="AB139" s="14"/>
+      <c r="AI139" s="14"/>
+      <c r="AJ139" s="14"/>
+    </row>
+    <row r="140">
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+      <c r="G140" s="1"/>
+      <c r="H140" s="1"/>
+      <c r="I140" s="2"/>
+      <c r="J140" s="2"/>
+      <c r="K140" s="2"/>
+      <c r="L140" s="2"/>
+      <c r="M140" s="2"/>
+      <c r="N140" s="3"/>
+      <c r="O140" s="2"/>
+      <c r="P140" s="1"/>
+      <c r="R140" s="45"/>
+      <c r="S140" s="45"/>
+      <c r="T140" s="46"/>
+      <c r="U140" s="47"/>
+      <c r="V140" s="47"/>
+      <c r="W140" s="47"/>
+      <c r="X140" s="47"/>
+      <c r="Y140" s="48"/>
+      <c r="Z140" s="45"/>
+      <c r="AA140" s="14"/>
+      <c r="AB140" s="14"/>
+      <c r="AI140" s="14"/>
+      <c r="AJ140" s="14"/>
+    </row>
+    <row r="141">
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+      <c r="G141" s="1"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2"/>
+      <c r="K141" s="2"/>
+      <c r="L141" s="2"/>
+      <c r="M141" s="2"/>
+      <c r="N141" s="3"/>
+      <c r="O141" s="2"/>
+      <c r="P141" s="1"/>
+      <c r="R141" s="45"/>
+      <c r="S141" s="45"/>
+      <c r="T141" s="46"/>
+      <c r="U141" s="47"/>
+      <c r="V141" s="47"/>
+      <c r="W141" s="47"/>
+      <c r="X141" s="47"/>
+      <c r="Y141" s="48"/>
+      <c r="Z141" s="45"/>
+      <c r="AA141" s="14"/>
+      <c r="AB141" s="14"/>
+      <c r="AI141" s="14"/>
+      <c r="AJ141" s="14"/>
+    </row>
+    <row r="142">
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2"/>
+      <c r="K142" s="2"/>
+      <c r="L142" s="2"/>
+      <c r="M142" s="2"/>
+      <c r="N142" s="3"/>
+      <c r="O142" s="2"/>
+      <c r="P142" s="1"/>
+      <c r="R142" s="45"/>
+      <c r="S142" s="45"/>
+      <c r="T142" s="46"/>
+      <c r="U142" s="47"/>
+      <c r="V142" s="47"/>
+      <c r="W142" s="47"/>
+      <c r="X142" s="47"/>
+      <c r="Y142" s="48"/>
+      <c r="Z142" s="45"/>
+      <c r="AA142" s="14"/>
+      <c r="AB142" s="14"/>
+      <c r="AI142" s="14"/>
+      <c r="AJ142" s="14"/>
+    </row>
+    <row r="143">
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+      <c r="G143" s="1"/>
+      <c r="H143" s="1"/>
+      <c r="I143" s="2"/>
+      <c r="J143" s="2"/>
+      <c r="K143" s="2"/>
+      <c r="L143" s="2"/>
+      <c r="M143" s="2"/>
+      <c r="N143" s="3"/>
+      <c r="O143" s="2"/>
+      <c r="P143" s="1"/>
+      <c r="R143" s="45"/>
+      <c r="S143" s="45"/>
+      <c r="T143" s="46"/>
+      <c r="U143" s="47"/>
+      <c r="V143" s="47"/>
+      <c r="W143" s="47"/>
+      <c r="X143" s="47"/>
+      <c r="Y143" s="48"/>
+      <c r="Z143" s="45"/>
+      <c r="AA143" s="14"/>
+      <c r="AB143" s="14"/>
+      <c r="AI143" s="14"/>
+      <c r="AJ143" s="14"/>
+    </row>
+    <row r="144">
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2"/>
+      <c r="K144" s="2"/>
+      <c r="L144" s="2"/>
+      <c r="M144" s="2"/>
+      <c r="N144" s="3"/>
+      <c r="O144" s="2"/>
+      <c r="P144" s="1"/>
+      <c r="R144" s="45"/>
+      <c r="S144" s="45"/>
+      <c r="T144" s="46"/>
+      <c r="U144" s="47"/>
+      <c r="V144" s="47"/>
+      <c r="W144" s="47"/>
+      <c r="X144" s="47"/>
+      <c r="Y144" s="48"/>
+      <c r="Z144" s="45"/>
+      <c r="AA144" s="14"/>
+      <c r="AB144" s="14"/>
+      <c r="AI144" s="14"/>
+      <c r="AJ144" s="14"/>
+    </row>
+    <row r="145">
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+      <c r="G145" s="1"/>
+      <c r="H145" s="1"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2"/>
+      <c r="K145" s="2"/>
+      <c r="L145" s="2"/>
+      <c r="M145" s="2"/>
+      <c r="N145" s="3"/>
+      <c r="O145" s="2"/>
+      <c r="P145" s="1"/>
+      <c r="R145" s="45"/>
+      <c r="S145" s="45"/>
+      <c r="T145" s="46"/>
+      <c r="U145" s="47"/>
+      <c r="V145" s="47"/>
+      <c r="W145" s="47"/>
+      <c r="X145" s="47"/>
+      <c r="Y145" s="48"/>
+      <c r="Z145" s="45"/>
+      <c r="AA145" s="14"/>
+      <c r="AB145" s="14"/>
+      <c r="AI145" s="14"/>
+      <c r="AJ145" s="14"/>
+    </row>
+    <row r="146">
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2"/>
+      <c r="K146" s="2"/>
+      <c r="L146" s="2"/>
+      <c r="M146" s="2"/>
+      <c r="N146" s="3"/>
+      <c r="O146" s="2"/>
+      <c r="P146" s="1"/>
+      <c r="R146" s="45"/>
+      <c r="S146" s="45"/>
+      <c r="T146" s="46"/>
+      <c r="U146" s="47"/>
+      <c r="V146" s="47"/>
+      <c r="W146" s="47"/>
+      <c r="X146" s="47"/>
+      <c r="Y146" s="48"/>
+      <c r="Z146" s="45"/>
+      <c r="AA146" s="14"/>
+      <c r="AB146" s="14"/>
+      <c r="AI146" s="14"/>
+      <c r="AJ146" s="14"/>
+    </row>
+    <row r="147">
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+      <c r="G147" s="1"/>
+      <c r="H147" s="1"/>
+      <c r="I147" s="2"/>
+      <c r="J147" s="2"/>
+      <c r="K147" s="2"/>
+      <c r="L147" s="2"/>
+      <c r="M147" s="2"/>
+      <c r="N147" s="3"/>
+      <c r="O147" s="2"/>
+      <c r="P147" s="1"/>
+      <c r="R147" s="45"/>
+      <c r="S147" s="45"/>
+      <c r="T147" s="46"/>
+      <c r="U147" s="47"/>
+      <c r="V147" s="47"/>
+      <c r="W147" s="47"/>
+      <c r="X147" s="47"/>
+      <c r="Y147" s="48"/>
+      <c r="Z147" s="45"/>
+      <c r="AA147" s="14"/>
+      <c r="AB147" s="14"/>
+      <c r="AI147" s="14"/>
+      <c r="AJ147" s="14"/>
+    </row>
+    <row r="148">
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+      <c r="G148" s="1"/>
+      <c r="H148" s="1"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2"/>
+      <c r="K148" s="2"/>
+      <c r="L148" s="2"/>
+      <c r="M148" s="2"/>
+      <c r="N148" s="3"/>
+      <c r="O148" s="2"/>
+      <c r="P148" s="1"/>
+      <c r="R148" s="45"/>
+      <c r="S148" s="45"/>
+      <c r="T148" s="46"/>
+      <c r="U148" s="47"/>
+      <c r="V148" s="47"/>
+      <c r="W148" s="47"/>
+      <c r="X148" s="47"/>
+      <c r="Y148" s="48"/>
+      <c r="Z148" s="45"/>
+      <c r="AA148" s="14"/>
+      <c r="AB148" s="14"/>
+      <c r="AI148" s="14"/>
+      <c r="AJ148" s="14"/>
+    </row>
+    <row r="149">
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="2"/>
+      <c r="J149" s="2"/>
+      <c r="K149" s="2"/>
+      <c r="L149" s="2"/>
+      <c r="M149" s="2"/>
+      <c r="N149" s="3"/>
+      <c r="O149" s="2"/>
+      <c r="P149" s="1"/>
+      <c r="R149" s="45"/>
+      <c r="S149" s="45"/>
+      <c r="T149" s="46"/>
+      <c r="U149" s="47"/>
+      <c r="V149" s="47"/>
+      <c r="W149" s="47"/>
+      <c r="X149" s="47"/>
+      <c r="Y149" s="48"/>
+      <c r="Z149" s="45"/>
+      <c r="AA149" s="14"/>
+      <c r="AB149" s="14"/>
+      <c r="AI149" s="14"/>
+      <c r="AJ149" s="14"/>
+    </row>
+    <row r="150">
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="G150" s="1"/>
+      <c r="H150" s="1"/>
+      <c r="I150" s="2"/>
+      <c r="J150" s="2"/>
+      <c r="K150" s="2"/>
+      <c r="L150" s="2"/>
+      <c r="M150" s="2"/>
+      <c r="N150" s="3"/>
+      <c r="O150" s="2"/>
+      <c r="P150" s="1"/>
+      <c r="R150" s="45"/>
+      <c r="S150" s="45"/>
+      <c r="T150" s="46"/>
+      <c r="U150" s="47"/>
+      <c r="V150" s="47"/>
+      <c r="W150" s="47"/>
+      <c r="X150" s="47"/>
+      <c r="Y150" s="48"/>
+      <c r="Z150" s="45"/>
+      <c r="AA150" s="14"/>
+      <c r="AB150" s="14"/>
+      <c r="AI150" s="14"/>
+      <c r="AJ150" s="14"/>
+    </row>
+    <row r="151">
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+      <c r="G151" s="1"/>
+      <c r="H151" s="1"/>
+      <c r="I151" s="2"/>
+      <c r="J151" s="2"/>
+      <c r="K151" s="2"/>
+      <c r="L151" s="2"/>
+      <c r="M151" s="2"/>
+      <c r="N151" s="3"/>
+      <c r="O151" s="2"/>
+      <c r="P151" s="1"/>
+      <c r="R151" s="45"/>
+      <c r="S151" s="45"/>
+      <c r="T151" s="46"/>
+      <c r="U151" s="47"/>
+      <c r="V151" s="47"/>
+      <c r="W151" s="47"/>
+      <c r="X151" s="47"/>
+      <c r="Y151" s="48"/>
+      <c r="Z151" s="45"/>
+      <c r="AA151" s="14"/>
+      <c r="AB151" s="14"/>
+      <c r="AI151" s="14"/>
+      <c r="AJ151" s="14"/>
+    </row>
+    <row r="152">
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="2"/>
+      <c r="J152" s="2"/>
+      <c r="K152" s="2"/>
+      <c r="L152" s="2"/>
+      <c r="M152" s="2"/>
+      <c r="N152" s="3"/>
+      <c r="O152" s="2"/>
+      <c r="P152" s="1"/>
+      <c r="R152" s="45"/>
+      <c r="S152" s="45"/>
+      <c r="T152" s="46"/>
+      <c r="U152" s="47"/>
+      <c r="V152" s="47"/>
+      <c r="W152" s="47"/>
+      <c r="X152" s="47"/>
+      <c r="Y152" s="48"/>
+      <c r="Z152" s="45"/>
+      <c r="AA152" s="14"/>
+      <c r="AB152" s="14"/>
+      <c r="AI152" s="14"/>
+      <c r="AJ152" s="14"/>
+    </row>
+    <row r="153">
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+      <c r="G153" s="1"/>
+      <c r="H153" s="1"/>
+      <c r="I153" s="2"/>
+      <c r="J153" s="2"/>
+      <c r="K153" s="2"/>
+      <c r="L153" s="2"/>
+      <c r="M153" s="2"/>
+      <c r="N153" s="3"/>
+      <c r="O153" s="2"/>
+      <c r="P153" s="1"/>
+      <c r="R153" s="45"/>
+      <c r="S153" s="45"/>
+      <c r="T153" s="46"/>
+      <c r="U153" s="47"/>
+      <c r="V153" s="47"/>
+      <c r="W153" s="47"/>
+      <c r="X153" s="47"/>
+      <c r="Y153" s="48"/>
+      <c r="Z153" s="45"/>
+      <c r="AA153" s="14"/>
+      <c r="AB153" s="14"/>
+      <c r="AI153" s="14"/>
+      <c r="AJ153" s="14"/>
+    </row>
+    <row r="154">
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+      <c r="G154" s="1"/>
+      <c r="H154" s="1"/>
+      <c r="I154" s="2"/>
+      <c r="J154" s="2"/>
+      <c r="K154" s="2"/>
+      <c r="L154" s="2"/>
+      <c r="M154" s="2"/>
+      <c r="N154" s="3"/>
+      <c r="O154" s="2"/>
+      <c r="P154" s="1"/>
+      <c r="R154" s="45"/>
+      <c r="S154" s="45"/>
+      <c r="T154" s="46"/>
+      <c r="U154" s="47"/>
+      <c r="V154" s="47"/>
+      <c r="W154" s="47"/>
+      <c r="X154" s="47"/>
+      <c r="Y154" s="48"/>
+      <c r="Z154" s="45"/>
+      <c r="AA154" s="14"/>
+      <c r="AB154" s="14"/>
+      <c r="AI154" s="14"/>
+      <c r="AJ154" s="14"/>
+    </row>
+    <row r="155">
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+      <c r="G155" s="1"/>
+      <c r="H155" s="1"/>
+      <c r="I155" s="2"/>
+      <c r="J155" s="2"/>
+      <c r="K155" s="2"/>
+      <c r="L155" s="2"/>
+      <c r="M155" s="2"/>
+      <c r="N155" s="3"/>
+      <c r="O155" s="2"/>
+      <c r="P155" s="1"/>
+      <c r="R155" s="45"/>
+      <c r="S155" s="45"/>
+      <c r="T155" s="46"/>
+      <c r="U155" s="47"/>
+      <c r="V155" s="47"/>
+      <c r="W155" s="47"/>
+      <c r="X155" s="47"/>
+      <c r="Y155" s="48"/>
+      <c r="Z155" s="45"/>
+      <c r="AA155" s="14"/>
+      <c r="AB155" s="14"/>
+      <c r="AI155" s="14"/>
+      <c r="AJ155" s="14"/>
+    </row>
+    <row r="156">
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+      <c r="G156" s="1"/>
+      <c r="H156" s="1"/>
+      <c r="I156" s="2"/>
+      <c r="J156" s="2"/>
+      <c r="K156" s="2"/>
+      <c r="L156" s="2"/>
+      <c r="M156" s="2"/>
+      <c r="N156" s="3"/>
+      <c r="O156" s="2"/>
+      <c r="P156" s="1"/>
+      <c r="R156" s="45"/>
+      <c r="S156" s="45"/>
+      <c r="T156" s="46"/>
+      <c r="U156" s="47"/>
+      <c r="V156" s="47"/>
+      <c r="W156" s="47"/>
+      <c r="X156" s="47"/>
+      <c r="Y156" s="48"/>
+      <c r="Z156" s="45"/>
+      <c r="AA156" s="14"/>
+      <c r="AB156" s="14"/>
+      <c r="AI156" s="14"/>
+      <c r="AJ156" s="14"/>
+    </row>
+    <row r="157">
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+      <c r="G157" s="1"/>
+      <c r="H157" s="1"/>
+      <c r="I157" s="2"/>
+      <c r="J157" s="2"/>
+      <c r="K157" s="2"/>
+      <c r="L157" s="2"/>
+      <c r="M157" s="2"/>
+      <c r="N157" s="3"/>
+      <c r="O157" s="2"/>
+      <c r="P157" s="1"/>
+      <c r="R157" s="45"/>
+      <c r="S157" s="45"/>
+      <c r="T157" s="46"/>
+      <c r="U157" s="47"/>
+      <c r="V157" s="47"/>
+      <c r="W157" s="47"/>
+      <c r="X157" s="47"/>
+      <c r="Y157" s="48"/>
+      <c r="Z157" s="45"/>
+      <c r="AA157" s="14"/>
+      <c r="AB157" s="14"/>
+      <c r="AI157" s="14"/>
+      <c r="AJ157" s="14"/>
+    </row>
+    <row r="158">
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+      <c r="G158" s="1"/>
+      <c r="H158" s="1"/>
+      <c r="I158" s="2"/>
+      <c r="J158" s="2"/>
+      <c r="K158" s="2"/>
+      <c r="L158" s="2"/>
+      <c r="M158" s="2"/>
+      <c r="N158" s="3"/>
+      <c r="O158" s="2"/>
+      <c r="P158" s="1"/>
+      <c r="R158" s="45"/>
+      <c r="S158" s="45"/>
+      <c r="T158" s="46"/>
+      <c r="U158" s="47"/>
+      <c r="V158" s="47"/>
+      <c r="W158" s="47"/>
+      <c r="X158" s="47"/>
+      <c r="Y158" s="48"/>
+      <c r="Z158" s="45"/>
+      <c r="AA158" s="14"/>
+      <c r="AB158" s="14"/>
+      <c r="AI158" s="14"/>
+      <c r="AJ158" s="14"/>
+    </row>
+    <row r="159">
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+      <c r="G159" s="1"/>
+      <c r="H159" s="1"/>
+      <c r="I159" s="2"/>
+      <c r="J159" s="2"/>
+      <c r="K159" s="2"/>
+      <c r="L159" s="2"/>
+      <c r="M159" s="2"/>
+      <c r="N159" s="3"/>
+      <c r="O159" s="2"/>
+      <c r="P159" s="1"/>
+      <c r="R159" s="45"/>
+      <c r="S159" s="45"/>
+      <c r="T159" s="46"/>
+      <c r="U159" s="47"/>
+      <c r="V159" s="47"/>
+      <c r="W159" s="47"/>
+      <c r="X159" s="47"/>
+      <c r="Y159" s="48"/>
+      <c r="Z159" s="45"/>
+      <c r="AA159" s="14"/>
+      <c r="AB159" s="14"/>
+      <c r="AI159" s="14"/>
+      <c r="AJ159" s="14"/>
+    </row>
+    <row r="160">
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+      <c r="G160" s="1"/>
+      <c r="H160" s="1"/>
+      <c r="I160" s="2"/>
+      <c r="J160" s="2"/>
+      <c r="K160" s="2"/>
+      <c r="L160" s="2"/>
+      <c r="M160" s="2"/>
+      <c r="N160" s="3"/>
+      <c r="O160" s="2"/>
+      <c r="P160" s="1"/>
+      <c r="R160" s="45"/>
+      <c r="S160" s="45"/>
+      <c r="T160" s="46"/>
+      <c r="U160" s="47"/>
+      <c r="V160" s="47"/>
+      <c r="W160" s="47"/>
+      <c r="X160" s="47"/>
+      <c r="Y160" s="48"/>
+      <c r="Z160" s="45"/>
+      <c r="AA160" s="14"/>
+      <c r="AB160" s="14"/>
+      <c r="AI160" s="14"/>
+      <c r="AJ160" s="14"/>
+    </row>
+    <row r="161">
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+      <c r="I161" s="2"/>
+      <c r="J161" s="2"/>
+      <c r="K161" s="2"/>
+      <c r="L161" s="2"/>
+      <c r="M161" s="2"/>
+      <c r="N161" s="3"/>
+      <c r="O161" s="2"/>
+      <c r="P161" s="1"/>
+      <c r="R161" s="45"/>
+      <c r="S161" s="45"/>
+      <c r="T161" s="46"/>
+      <c r="U161" s="47"/>
+      <c r="V161" s="47"/>
+      <c r="W161" s="47"/>
+      <c r="X161" s="47"/>
+      <c r="Y161" s="48"/>
+      <c r="Z161" s="45"/>
+      <c r="AA161" s="14"/>
+      <c r="AB161" s="14"/>
+      <c r="AI161" s="14"/>
+      <c r="AJ161" s="14"/>
+    </row>
+    <row r="162">
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="2"/>
+      <c r="J162" s="2"/>
+      <c r="K162" s="2"/>
+      <c r="L162" s="2"/>
+      <c r="M162" s="2"/>
+      <c r="N162" s="3"/>
+      <c r="O162" s="2"/>
+      <c r="P162" s="1"/>
+      <c r="R162" s="45"/>
+      <c r="S162" s="45"/>
+      <c r="T162" s="46"/>
+      <c r="U162" s="47"/>
+      <c r="V162" s="47"/>
+      <c r="W162" s="47"/>
+      <c r="X162" s="47"/>
+      <c r="Y162" s="48"/>
+      <c r="Z162" s="45"/>
+      <c r="AA162" s="14"/>
+      <c r="AB162" s="14"/>
+      <c r="AI162" s="14"/>
+      <c r="AJ162" s="14"/>
+    </row>
+    <row r="163">
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+      <c r="G163" s="1"/>
+      <c r="H163" s="1"/>
+      <c r="I163" s="2"/>
+      <c r="J163" s="2"/>
+      <c r="K163" s="2"/>
+      <c r="L163" s="2"/>
+      <c r="M163" s="2"/>
+      <c r="N163" s="3"/>
+      <c r="O163" s="2"/>
+      <c r="P163" s="1"/>
+      <c r="R163" s="45"/>
+      <c r="S163" s="45"/>
+      <c r="T163" s="46"/>
+      <c r="U163" s="47"/>
+      <c r="V163" s="47"/>
+      <c r="W163" s="47"/>
+      <c r="X163" s="47"/>
+      <c r="Y163" s="48"/>
+      <c r="Z163" s="45"/>
+      <c r="AA163" s="14"/>
+      <c r="AB163" s="14"/>
+      <c r="AI163" s="14"/>
+      <c r="AJ163" s="14"/>
+    </row>
+    <row r="164">
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+      <c r="G164" s="1"/>
+      <c r="H164" s="1"/>
+      <c r="I164" s="2"/>
+      <c r="J164" s="2"/>
+      <c r="K164" s="2"/>
+      <c r="L164" s="2"/>
+      <c r="M164" s="2"/>
+      <c r="N164" s="3"/>
+      <c r="O164" s="2"/>
+      <c r="P164" s="1"/>
+      <c r="R164" s="45"/>
+      <c r="S164" s="45"/>
+      <c r="T164" s="46"/>
+      <c r="U164" s="47"/>
+      <c r="V164" s="47"/>
+      <c r="W164" s="47"/>
+      <c r="X164" s="47"/>
+      <c r="Y164" s="48"/>
+      <c r="Z164" s="45"/>
+      <c r="AA164" s="14"/>
+      <c r="AB164" s="14"/>
+      <c r="AI164" s="14"/>
+      <c r="AJ164" s="14"/>
+    </row>
+    <row r="165">
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="I165" s="2"/>
+      <c r="J165" s="2"/>
+      <c r="K165" s="2"/>
+      <c r="L165" s="2"/>
+      <c r="M165" s="2"/>
+      <c r="N165" s="3"/>
+      <c r="O165" s="2"/>
+      <c r="P165" s="1"/>
+      <c r="R165" s="45"/>
+      <c r="S165" s="45"/>
+      <c r="T165" s="46"/>
+      <c r="U165" s="47"/>
+      <c r="V165" s="47"/>
+      <c r="W165" s="47"/>
+      <c r="X165" s="47"/>
+      <c r="Y165" s="48"/>
+      <c r="Z165" s="45"/>
+      <c r="AA165" s="14"/>
+      <c r="AB165" s="14"/>
+      <c r="AI165" s="14"/>
+      <c r="AJ165" s="14"/>
+    </row>
+    <row r="166">
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+      <c r="G166" s="1"/>
+      <c r="H166" s="1"/>
+      <c r="I166" s="2"/>
+      <c r="J166" s="2"/>
+      <c r="K166" s="2"/>
+      <c r="L166" s="2"/>
+      <c r="M166" s="2"/>
+      <c r="N166" s="3"/>
+      <c r="O166" s="2"/>
+      <c r="P166" s="1"/>
+      <c r="R166" s="45"/>
+      <c r="S166" s="45"/>
+      <c r="T166" s="46"/>
+      <c r="U166" s="47"/>
+      <c r="V166" s="47"/>
+      <c r="W166" s="47"/>
+      <c r="X166" s="47"/>
+      <c r="Y166" s="48"/>
+      <c r="Z166" s="45"/>
+      <c r="AA166" s="14"/>
+      <c r="AB166" s="14"/>
+      <c r="AI166" s="14"/>
+      <c r="AJ166" s="14"/>
+    </row>
+    <row r="167">
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+      <c r="G167" s="1"/>
+      <c r="H167" s="1"/>
+      <c r="I167" s="2"/>
+      <c r="J167" s="2"/>
+      <c r="K167" s="2"/>
+      <c r="L167" s="2"/>
+      <c r="M167" s="2"/>
+      <c r="N167" s="3"/>
+      <c r="O167" s="2"/>
+      <c r="P167" s="1"/>
+      <c r="R167" s="45"/>
+      <c r="S167" s="45"/>
+      <c r="T167" s="46"/>
+      <c r="U167" s="47"/>
+      <c r="V167" s="47"/>
+      <c r="W167" s="47"/>
+      <c r="X167" s="47"/>
+      <c r="Y167" s="48"/>
+      <c r="Z167" s="45"/>
+      <c r="AA167" s="14"/>
+      <c r="AB167" s="14"/>
+      <c r="AI167" s="14"/>
+      <c r="AJ167" s="14"/>
+    </row>
+    <row r="168">
+      <c r="B168" s="1"/>
+      <c r="C168" s="1"/>
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+      <c r="G168" s="1"/>
+      <c r="H168" s="1"/>
+      <c r="I168" s="2"/>
+      <c r="J168" s="2"/>
+      <c r="K168" s="2"/>
+      <c r="L168" s="2"/>
+      <c r="M168" s="2"/>
+      <c r="N168" s="3"/>
+      <c r="O168" s="2"/>
+      <c r="P168" s="1"/>
+      <c r="R168" s="45"/>
+      <c r="S168" s="45"/>
+      <c r="T168" s="46"/>
+      <c r="U168" s="47"/>
+      <c r="V168" s="47"/>
+      <c r="W168" s="47"/>
+      <c r="X168" s="47"/>
+      <c r="Y168" s="48"/>
+      <c r="Z168" s="45"/>
+      <c r="AA168" s="14"/>
+      <c r="AB168" s="14"/>
+      <c r="AI168" s="14"/>
+      <c r="AJ168" s="14"/>
+    </row>
+    <row r="169">
+      <c r="B169" s="1"/>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+      <c r="G169" s="1"/>
+      <c r="H169" s="1"/>
+      <c r="I169" s="2"/>
+      <c r="J169" s="2"/>
+      <c r="K169" s="2"/>
+      <c r="L169" s="2"/>
+      <c r="M169" s="2"/>
+      <c r="N169" s="3"/>
+      <c r="O169" s="2"/>
+      <c r="P169" s="1"/>
+      <c r="R169" s="45"/>
+      <c r="S169" s="45"/>
+      <c r="T169" s="46"/>
+      <c r="U169" s="47"/>
+      <c r="V169" s="47"/>
+      <c r="W169" s="47"/>
+      <c r="X169" s="47"/>
+      <c r="Y169" s="48"/>
+      <c r="Z169" s="45"/>
+      <c r="AA169" s="14"/>
+      <c r="AB169" s="14"/>
+      <c r="AI169" s="14"/>
+      <c r="AJ169" s="14"/>
+    </row>
+    <row r="170">
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+      <c r="G170" s="1"/>
+      <c r="H170" s="1"/>
+      <c r="I170" s="2"/>
+      <c r="J170" s="2"/>
+      <c r="K170" s="2"/>
+      <c r="L170" s="2"/>
+      <c r="M170" s="2"/>
+      <c r="N170" s="3"/>
+      <c r="O170" s="2"/>
+      <c r="P170" s="1"/>
+      <c r="R170" s="45"/>
+      <c r="S170" s="45"/>
+      <c r="T170" s="46"/>
+      <c r="U170" s="47"/>
+      <c r="V170" s="47"/>
+      <c r="W170" s="47"/>
+      <c r="X170" s="47"/>
+      <c r="Y170" s="48"/>
+      <c r="Z170" s="45"/>
+      <c r="AA170" s="14"/>
+      <c r="AB170" s="14"/>
+      <c r="AI170" s="14"/>
+      <c r="AJ170" s="14"/>
+    </row>
+    <row r="171">
+      <c r="B171" s="1"/>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+      <c r="G171" s="1"/>
+      <c r="H171" s="1"/>
+      <c r="I171" s="2"/>
+      <c r="J171" s="2"/>
+      <c r="K171" s="2"/>
+      <c r="L171" s="2"/>
+      <c r="M171" s="2"/>
+      <c r="N171" s="3"/>
+      <c r="O171" s="2"/>
+      <c r="P171" s="1"/>
+      <c r="R171" s="45"/>
+      <c r="S171" s="45"/>
+      <c r="T171" s="46"/>
+      <c r="U171" s="47"/>
+      <c r="V171" s="47"/>
+      <c r="W171" s="47"/>
+      <c r="X171" s="47"/>
+      <c r="Y171" s="48"/>
+      <c r="Z171" s="45"/>
+      <c r="AA171" s="14"/>
+      <c r="AB171" s="14"/>
+      <c r="AI171" s="14"/>
+      <c r="AJ171" s="14"/>
+    </row>
+    <row r="172">
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+      <c r="G172" s="1"/>
+      <c r="H172" s="1"/>
+      <c r="I172" s="2"/>
+      <c r="J172" s="2"/>
+      <c r="K172" s="2"/>
+      <c r="L172" s="2"/>
+      <c r="M172" s="2"/>
+      <c r="N172" s="3"/>
+      <c r="O172" s="2"/>
+      <c r="P172" s="1"/>
+      <c r="R172" s="45"/>
+      <c r="S172" s="45"/>
+      <c r="T172" s="46"/>
+      <c r="U172" s="47"/>
+      <c r="V172" s="47"/>
+      <c r="W172" s="47"/>
+      <c r="X172" s="47"/>
+      <c r="Y172" s="48"/>
+      <c r="Z172" s="45"/>
+      <c r="AA172" s="14"/>
+      <c r="AB172" s="14"/>
+      <c r="AI172" s="14"/>
+      <c r="AJ172" s="14"/>
+    </row>
+    <row r="173">
+      <c r="B173" s="1"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="G173" s="1"/>
+      <c r="H173" s="1"/>
+      <c r="I173" s="2"/>
+      <c r="J173" s="2"/>
+      <c r="K173" s="2"/>
+      <c r="L173" s="2"/>
+      <c r="M173" s="2"/>
+      <c r="N173" s="3"/>
+      <c r="O173" s="2"/>
+      <c r="P173" s="1"/>
+      <c r="R173" s="45"/>
+      <c r="S173" s="45"/>
+      <c r="T173" s="46"/>
+      <c r="U173" s="47"/>
+      <c r="V173" s="47"/>
+      <c r="W173" s="47"/>
+      <c r="X173" s="47"/>
+      <c r="Y173" s="48"/>
+      <c r="Z173" s="45"/>
+      <c r="AA173" s="14"/>
+      <c r="AB173" s="14"/>
+      <c r="AI173" s="14"/>
+      <c r="AJ173" s="14"/>
+    </row>
+    <row r="174">
+      <c r="B174" s="1"/>
+      <c r="C174" s="1"/>
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+      <c r="G174" s="1"/>
+      <c r="H174" s="1"/>
+      <c r="I174" s="2"/>
+      <c r="J174" s="2"/>
+      <c r="K174" s="2"/>
+      <c r="L174" s="2"/>
+      <c r="M174" s="2"/>
+      <c r="N174" s="3"/>
+      <c r="O174" s="2"/>
+      <c r="P174" s="1"/>
+      <c r="R174" s="45"/>
+      <c r="S174" s="45"/>
+      <c r="T174" s="46"/>
+      <c r="U174" s="47"/>
+      <c r="V174" s="47"/>
+      <c r="W174" s="47"/>
+      <c r="X174" s="47"/>
+      <c r="Y174" s="48"/>
+      <c r="Z174" s="45"/>
+      <c r="AA174" s="14"/>
+      <c r="AB174" s="14"/>
+      <c r="AI174" s="14"/>
+      <c r="AJ174" s="14"/>
+    </row>
+    <row r="175">
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+      <c r="G175" s="1"/>
+      <c r="H175" s="1"/>
+      <c r="I175" s="2"/>
+      <c r="J175" s="2"/>
+      <c r="K175" s="2"/>
+      <c r="L175" s="2"/>
+      <c r="M175" s="2"/>
+      <c r="N175" s="3"/>
+      <c r="O175" s="2"/>
+      <c r="P175" s="1"/>
+      <c r="R175" s="45"/>
+      <c r="S175" s="45"/>
+      <c r="T175" s="46"/>
+      <c r="U175" s="47"/>
+      <c r="V175" s="47"/>
+      <c r="W175" s="47"/>
+      <c r="X175" s="47"/>
+      <c r="Y175" s="48"/>
+      <c r="Z175" s="45"/>
+      <c r="AA175" s="14"/>
+      <c r="AB175" s="14"/>
+      <c r="AI175" s="14"/>
+      <c r="AJ175" s="14"/>
+    </row>
+    <row r="176">
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="1"/>
+      <c r="I176" s="2"/>
+      <c r="J176" s="2"/>
+      <c r="K176" s="2"/>
+      <c r="L176" s="2"/>
+      <c r="M176" s="2"/>
+      <c r="N176" s="3"/>
+      <c r="O176" s="2"/>
+      <c r="P176" s="1"/>
+      <c r="R176" s="45"/>
+      <c r="S176" s="45"/>
+      <c r="T176" s="46"/>
+      <c r="U176" s="47"/>
+      <c r="V176" s="47"/>
+      <c r="W176" s="47"/>
+      <c r="X176" s="47"/>
+      <c r="Y176" s="48"/>
+      <c r="Z176" s="45"/>
+      <c r="AA176" s="14"/>
+      <c r="AB176" s="14"/>
+      <c r="AI176" s="14"/>
+      <c r="AJ176" s="14"/>
+    </row>
+    <row r="177">
+      <c r="B177" s="1"/>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+      <c r="G177" s="1"/>
+      <c r="H177" s="1"/>
+      <c r="I177" s="2"/>
+      <c r="J177" s="2"/>
+      <c r="K177" s="2"/>
+      <c r="L177" s="2"/>
+      <c r="M177" s="2"/>
+      <c r="N177" s="3"/>
+      <c r="O177" s="2"/>
+      <c r="P177" s="1"/>
+      <c r="R177" s="45"/>
+      <c r="S177" s="45"/>
+      <c r="T177" s="46"/>
+      <c r="U177" s="47"/>
+      <c r="V177" s="47"/>
+      <c r="W177" s="47"/>
+      <c r="X177" s="47"/>
+      <c r="Y177" s="48"/>
+      <c r="Z177" s="45"/>
+      <c r="AA177" s="14"/>
+      <c r="AB177" s="14"/>
+      <c r="AI177" s="14"/>
+      <c r="AJ177" s="14"/>
+    </row>
+    <row r="178">
+      <c r="B178" s="1"/>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+      <c r="G178" s="1"/>
+      <c r="H178" s="1"/>
+      <c r="I178" s="2"/>
+      <c r="J178" s="2"/>
+      <c r="K178" s="2"/>
+      <c r="L178" s="2"/>
+      <c r="M178" s="2"/>
+      <c r="N178" s="3"/>
+      <c r="O178" s="2"/>
+      <c r="P178" s="1"/>
+      <c r="R178" s="45"/>
+      <c r="S178" s="45"/>
+      <c r="T178" s="46"/>
+      <c r="U178" s="47"/>
+      <c r="V178" s="47"/>
+      <c r="W178" s="47"/>
+      <c r="X178" s="47"/>
+      <c r="Y178" s="48"/>
+      <c r="Z178" s="45"/>
+      <c r="AA178" s="14"/>
+      <c r="AB178" s="14"/>
+      <c r="AI178" s="14"/>
+      <c r="AJ178" s="14"/>
+    </row>
+    <row r="179">
+      <c r="B179" s="1"/>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+      <c r="G179" s="1"/>
+      <c r="H179" s="1"/>
+      <c r="I179" s="2"/>
+      <c r="J179" s="2"/>
+      <c r="K179" s="2"/>
+      <c r="L179" s="2"/>
+      <c r="M179" s="2"/>
+      <c r="N179" s="3"/>
+      <c r="O179" s="2"/>
+      <c r="P179" s="1"/>
+      <c r="R179" s="45"/>
+      <c r="S179" s="45"/>
+      <c r="T179" s="46"/>
+      <c r="U179" s="47"/>
+      <c r="V179" s="47"/>
+      <c r="W179" s="47"/>
+      <c r="X179" s="47"/>
+      <c r="Y179" s="48"/>
+      <c r="Z179" s="45"/>
+      <c r="AA179" s="14"/>
+      <c r="AB179" s="14"/>
+      <c r="AI179" s="14"/>
+      <c r="AJ179" s="14"/>
+    </row>
+    <row r="180">
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+      <c r="G180" s="1"/>
+      <c r="H180" s="1"/>
+      <c r="I180" s="2"/>
+      <c r="J180" s="2"/>
+      <c r="K180" s="2"/>
+      <c r="L180" s="2"/>
+      <c r="M180" s="2"/>
+      <c r="N180" s="3"/>
+      <c r="O180" s="2"/>
+      <c r="P180" s="1"/>
+      <c r="R180" s="45"/>
+      <c r="S180" s="45"/>
+      <c r="T180" s="46"/>
+      <c r="U180" s="47"/>
+      <c r="V180" s="47"/>
+      <c r="W180" s="47"/>
+      <c r="X180" s="47"/>
+      <c r="Y180" s="48"/>
+      <c r="Z180" s="45"/>
+      <c r="AA180" s="14"/>
+      <c r="AB180" s="14"/>
+      <c r="AI180" s="14"/>
+      <c r="AJ180" s="14"/>
+    </row>
+    <row r="181">
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+      <c r="G181" s="1"/>
+      <c r="H181" s="1"/>
+      <c r="I181" s="2"/>
+      <c r="J181" s="2"/>
+      <c r="K181" s="2"/>
+      <c r="L181" s="2"/>
+      <c r="M181" s="2"/>
+      <c r="N181" s="3"/>
+      <c r="O181" s="2"/>
+      <c r="P181" s="1"/>
+      <c r="R181" s="45"/>
+      <c r="S181" s="45"/>
+      <c r="T181" s="46"/>
+      <c r="U181" s="47"/>
+      <c r="V181" s="47"/>
+      <c r="W181" s="47"/>
+      <c r="X181" s="47"/>
+      <c r="Y181" s="48"/>
+      <c r="Z181" s="45"/>
+      <c r="AA181" s="14"/>
+      <c r="AB181" s="14"/>
+      <c r="AI181" s="14"/>
+      <c r="AJ181" s="14"/>
+    </row>
+    <row r="182">
+      <c r="B182" s="1"/>
+      <c r="C182" s="1"/>
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1"/>
+      <c r="I182" s="2"/>
+      <c r="J182" s="2"/>
+      <c r="K182" s="2"/>
+      <c r="L182" s="2"/>
+      <c r="M182" s="2"/>
+      <c r="N182" s="3"/>
+      <c r="O182" s="2"/>
+      <c r="P182" s="1"/>
+      <c r="R182" s="45"/>
+      <c r="S182" s="45"/>
+      <c r="T182" s="46"/>
+      <c r="U182" s="47"/>
+      <c r="V182" s="47"/>
+      <c r="W182" s="47"/>
+      <c r="X182" s="47"/>
+      <c r="Y182" s="48"/>
+      <c r="Z182" s="45"/>
+      <c r="AA182" s="14"/>
+      <c r="AB182" s="14"/>
+      <c r="AI182" s="14"/>
+      <c r="AJ182" s="14"/>
+    </row>
+    <row r="183">
+      <c r="B183" s="1"/>
+      <c r="C183" s="1"/>
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+      <c r="G183" s="1"/>
+      <c r="H183" s="1"/>
+      <c r="I183" s="2"/>
+      <c r="J183" s="2"/>
+      <c r="K183" s="2"/>
+      <c r="L183" s="2"/>
+      <c r="M183" s="2"/>
+      <c r="N183" s="3"/>
+      <c r="O183" s="2"/>
+      <c r="P183" s="1"/>
+      <c r="R183" s="45"/>
+      <c r="S183" s="45"/>
+      <c r="T183" s="46"/>
+      <c r="U183" s="47"/>
+      <c r="V183" s="47"/>
+      <c r="W183" s="47"/>
+      <c r="X183" s="47"/>
+      <c r="Y183" s="48"/>
+      <c r="Z183" s="45"/>
+      <c r="AA183" s="14"/>
+      <c r="AB183" s="14"/>
+      <c r="AI183" s="14"/>
+      <c r="AJ183" s="14"/>
+    </row>
+    <row r="184">
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+      <c r="G184" s="1"/>
+      <c r="H184" s="1"/>
+      <c r="I184" s="2"/>
+      <c r="J184" s="2"/>
+      <c r="K184" s="2"/>
+      <c r="L184" s="2"/>
+      <c r="M184" s="2"/>
+      <c r="N184" s="3"/>
+      <c r="O184" s="2"/>
+      <c r="P184" s="1"/>
+      <c r="R184" s="45"/>
+      <c r="S184" s="45"/>
+      <c r="T184" s="46"/>
+      <c r="U184" s="47"/>
+      <c r="V184" s="47"/>
+      <c r="W184" s="47"/>
+      <c r="X184" s="47"/>
+      <c r="Y184" s="48"/>
+      <c r="Z184" s="45"/>
+      <c r="AA184" s="14"/>
+      <c r="AB184" s="14"/>
+      <c r="AI184" s="14"/>
+      <c r="AJ184" s="14"/>
+    </row>
+    <row r="185">
+      <c r="B185" s="1"/>
+      <c r="C185" s="1"/>
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+      <c r="G185" s="1"/>
+      <c r="H185" s="1"/>
+      <c r="I185" s="2"/>
+      <c r="J185" s="2"/>
+      <c r="K185" s="2"/>
+      <c r="L185" s="2"/>
+      <c r="M185" s="2"/>
+      <c r="N185" s="3"/>
+      <c r="O185" s="2"/>
+      <c r="P185" s="1"/>
+      <c r="R185" s="45"/>
+      <c r="S185" s="45"/>
+      <c r="T185" s="46"/>
+      <c r="U185" s="47"/>
+      <c r="V185" s="47"/>
+      <c r="W185" s="47"/>
+      <c r="X185" s="47"/>
+      <c r="Y185" s="48"/>
+      <c r="Z185" s="45"/>
+      <c r="AA185" s="14"/>
+      <c r="AB185" s="14"/>
+      <c r="AI185" s="14"/>
+      <c r="AJ185" s="14"/>
+    </row>
+    <row r="186">
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+      <c r="G186" s="1"/>
+      <c r="H186" s="1"/>
+      <c r="I186" s="2"/>
+      <c r="J186" s="2"/>
+      <c r="K186" s="2"/>
+      <c r="L186" s="2"/>
+      <c r="M186" s="2"/>
+      <c r="N186" s="3"/>
+      <c r="O186" s="2"/>
+      <c r="P186" s="1"/>
+      <c r="R186" s="45"/>
+      <c r="S186" s="45"/>
+      <c r="T186" s="46"/>
+      <c r="U186" s="47"/>
+      <c r="V186" s="47"/>
+      <c r="W186" s="47"/>
+      <c r="X186" s="47"/>
+      <c r="Y186" s="48"/>
+      <c r="Z186" s="45"/>
+      <c r="AA186" s="14"/>
+      <c r="AB186" s="14"/>
+      <c r="AI186" s="14"/>
+      <c r="AJ186" s="14"/>
+    </row>
+    <row r="187">
+      <c r="B187" s="1"/>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+      <c r="G187" s="1"/>
+      <c r="H187" s="1"/>
+      <c r="I187" s="2"/>
+      <c r="J187" s="2"/>
+      <c r="K187" s="2"/>
+      <c r="L187" s="2"/>
+      <c r="M187" s="2"/>
+      <c r="N187" s="3"/>
+      <c r="O187" s="2"/>
+      <c r="P187" s="1"/>
+      <c r="R187" s="45"/>
+      <c r="S187" s="45"/>
+      <c r="T187" s="46"/>
+      <c r="U187" s="47"/>
+      <c r="V187" s="47"/>
+      <c r="W187" s="47"/>
+      <c r="X187" s="47"/>
+      <c r="Y187" s="48"/>
+      <c r="Z187" s="45"/>
+      <c r="AA187" s="14"/>
+      <c r="AB187" s="14"/>
+      <c r="AI187" s="14"/>
+      <c r="AJ187" s="14"/>
+    </row>
+    <row r="188">
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="G188" s="1"/>
+      <c r="H188" s="1"/>
+      <c r="I188" s="2"/>
+      <c r="J188" s="2"/>
+      <c r="K188" s="2"/>
+      <c r="L188" s="2"/>
+      <c r="M188" s="2"/>
+      <c r="N188" s="3"/>
+      <c r="O188" s="2"/>
+      <c r="P188" s="1"/>
+      <c r="R188" s="45"/>
+      <c r="S188" s="45"/>
+      <c r="T188" s="46"/>
+      <c r="U188" s="47"/>
+      <c r="V188" s="47"/>
+      <c r="W188" s="47"/>
+      <c r="X188" s="47"/>
+      <c r="Y188" s="48"/>
+      <c r="Z188" s="45"/>
+      <c r="AA188" s="14"/>
+      <c r="AB188" s="14"/>
+      <c r="AI188" s="14"/>
+      <c r="AJ188" s="14"/>
+    </row>
+    <row r="189">
+      <c r="B189" s="1"/>
+      <c r="C189" s="1"/>
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+      <c r="G189" s="1"/>
+      <c r="H189" s="1"/>
+      <c r="I189" s="2"/>
+      <c r="J189" s="2"/>
+      <c r="K189" s="2"/>
+      <c r="L189" s="2"/>
+      <c r="M189" s="2"/>
+      <c r="N189" s="3"/>
+      <c r="O189" s="2"/>
+      <c r="P189" s="1"/>
+      <c r="R189" s="45"/>
+      <c r="S189" s="45"/>
+      <c r="T189" s="46"/>
+      <c r="U189" s="47"/>
+      <c r="V189" s="47"/>
+      <c r="W189" s="47"/>
+      <c r="X189" s="47"/>
+      <c r="Y189" s="48"/>
+      <c r="Z189" s="45"/>
+      <c r="AA189" s="14"/>
+      <c r="AB189" s="14"/>
+      <c r="AI189" s="14"/>
+      <c r="AJ189" s="14"/>
+    </row>
+    <row r="190">
+      <c r="B190" s="1"/>
+      <c r="C190" s="1"/>
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+      <c r="G190" s="1"/>
+      <c r="H190" s="1"/>
+      <c r="I190" s="2"/>
+      <c r="J190" s="2"/>
+      <c r="K190" s="2"/>
+      <c r="L190" s="2"/>
+      <c r="M190" s="2"/>
+      <c r="N190" s="3"/>
+      <c r="O190" s="2"/>
+      <c r="P190" s="1"/>
+      <c r="R190" s="45"/>
+      <c r="S190" s="45"/>
+      <c r="T190" s="46"/>
+      <c r="U190" s="47"/>
+      <c r="V190" s="47"/>
+      <c r="W190" s="47"/>
+      <c r="X190" s="47"/>
+      <c r="Y190" s="48"/>
+      <c r="Z190" s="45"/>
+      <c r="AA190" s="14"/>
+      <c r="AB190" s="14"/>
+      <c r="AI190" s="14"/>
+      <c r="AJ190" s="14"/>
+    </row>
+    <row r="191">
+      <c r="B191" s="1"/>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+      <c r="G191" s="1"/>
+      <c r="H191" s="1"/>
+      <c r="I191" s="2"/>
+      <c r="J191" s="2"/>
+      <c r="K191" s="2"/>
+      <c r="L191" s="2"/>
+      <c r="M191" s="2"/>
+      <c r="N191" s="3"/>
+      <c r="O191" s="2"/>
+      <c r="P191" s="1"/>
+      <c r="R191" s="45"/>
+      <c r="S191" s="45"/>
+      <c r="T191" s="46"/>
+      <c r="U191" s="47"/>
+      <c r="V191" s="47"/>
+      <c r="W191" s="47"/>
+      <c r="X191" s="47"/>
+      <c r="Y191" s="48"/>
+      <c r="Z191" s="45"/>
+      <c r="AA191" s="14"/>
+      <c r="AB191" s="14"/>
+      <c r="AI191" s="14"/>
+      <c r="AJ191" s="14"/>
+    </row>
+    <row r="192">
+      <c r="B192" s="1"/>
+      <c r="C192" s="1"/>
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+      <c r="G192" s="1"/>
+      <c r="H192" s="1"/>
+      <c r="I192" s="2"/>
+      <c r="J192" s="2"/>
+      <c r="K192" s="2"/>
+      <c r="L192" s="2"/>
+      <c r="M192" s="2"/>
+      <c r="N192" s="3"/>
+      <c r="O192" s="2"/>
+      <c r="P192" s="1"/>
+      <c r="R192" s="45"/>
+      <c r="S192" s="45"/>
+      <c r="T192" s="46"/>
+      <c r="U192" s="47"/>
+      <c r="V192" s="47"/>
+      <c r="W192" s="47"/>
+      <c r="X192" s="47"/>
+      <c r="Y192" s="48"/>
+      <c r="Z192" s="45"/>
+      <c r="AA192" s="14"/>
+      <c r="AB192" s="14"/>
+      <c r="AI192" s="14"/>
+      <c r="AJ192" s="14"/>
+    </row>
+    <row r="193">
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="G193" s="1"/>
+      <c r="H193" s="1"/>
+      <c r="I193" s="2"/>
+      <c r="J193" s="2"/>
+      <c r="K193" s="2"/>
+      <c r="L193" s="2"/>
+      <c r="M193" s="2"/>
+      <c r="N193" s="3"/>
+      <c r="O193" s="2"/>
+      <c r="P193" s="1"/>
+      <c r="R193" s="45"/>
+      <c r="S193" s="45"/>
+      <c r="T193" s="46"/>
+      <c r="U193" s="47"/>
+      <c r="V193" s="47"/>
+      <c r="W193" s="47"/>
+      <c r="X193" s="47"/>
+      <c r="Y193" s="48"/>
+      <c r="Z193" s="45"/>
+      <c r="AA193" s="14"/>
+      <c r="AB193" s="14"/>
+      <c r="AI193" s="14"/>
+      <c r="AJ193" s="14"/>
+    </row>
+    <row r="194">
+      <c r="B194" s="1"/>
+      <c r="C194" s="1"/>
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+      <c r="G194" s="1"/>
+      <c r="H194" s="1"/>
+      <c r="I194" s="2"/>
+      <c r="J194" s="2"/>
+      <c r="K194" s="2"/>
+      <c r="L194" s="2"/>
+      <c r="M194" s="2"/>
+      <c r="N194" s="3"/>
+      <c r="O194" s="2"/>
+      <c r="P194" s="1"/>
+      <c r="R194" s="45"/>
+      <c r="S194" s="45"/>
+      <c r="T194" s="46"/>
+      <c r="U194" s="47"/>
+      <c r="V194" s="47"/>
+      <c r="W194" s="47"/>
+      <c r="X194" s="47"/>
+      <c r="Y194" s="48"/>
+      <c r="Z194" s="45"/>
+      <c r="AA194" s="14"/>
+      <c r="AB194" s="14"/>
+      <c r="AI194" s="14"/>
+      <c r="AJ194" s="14"/>
+    </row>
+    <row r="195">
+      <c r="B195" s="1"/>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+      <c r="G195" s="1"/>
+      <c r="H195" s="1"/>
+      <c r="I195" s="2"/>
+      <c r="J195" s="2"/>
+      <c r="K195" s="2"/>
+      <c r="L195" s="2"/>
+      <c r="M195" s="2"/>
+      <c r="N195" s="3"/>
+      <c r="O195" s="2"/>
+      <c r="P195" s="1"/>
+      <c r="R195" s="45"/>
+      <c r="S195" s="45"/>
+      <c r="T195" s="46"/>
+      <c r="U195" s="47"/>
+      <c r="V195" s="47"/>
+      <c r="W195" s="47"/>
+      <c r="X195" s="47"/>
+      <c r="Y195" s="48"/>
+      <c r="Z195" s="45"/>
+      <c r="AA195" s="14"/>
+      <c r="AB195" s="14"/>
+      <c r="AI195" s="14"/>
+      <c r="AJ195" s="14"/>
+    </row>
+    <row r="196">
+      <c r="B196" s="1"/>
+      <c r="C196" s="1"/>
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+      <c r="G196" s="1"/>
+      <c r="H196" s="1"/>
+      <c r="I196" s="2"/>
+      <c r="J196" s="2"/>
+      <c r="K196" s="2"/>
+      <c r="L196" s="2"/>
+      <c r="M196" s="2"/>
+      <c r="N196" s="3"/>
+      <c r="O196" s="2"/>
+      <c r="P196" s="1"/>
+      <c r="R196" s="45"/>
+      <c r="S196" s="45"/>
+      <c r="T196" s="46"/>
+      <c r="U196" s="47"/>
+      <c r="V196" s="47"/>
+      <c r="W196" s="47"/>
+      <c r="X196" s="47"/>
+      <c r="Y196" s="48"/>
+      <c r="Z196" s="45"/>
+      <c r="AA196" s="14"/>
+      <c r="AB196" s="14"/>
+      <c r="AI196" s="14"/>
+      <c r="AJ196" s="14"/>
+    </row>
+    <row r="197">
+      <c r="B197" s="1"/>
+      <c r="C197" s="1"/>
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+      <c r="G197" s="1"/>
+      <c r="H197" s="1"/>
+      <c r="I197" s="2"/>
+      <c r="J197" s="2"/>
+      <c r="K197" s="2"/>
+      <c r="L197" s="2"/>
+      <c r="M197" s="2"/>
+      <c r="N197" s="3"/>
+      <c r="O197" s="2"/>
+      <c r="P197" s="1"/>
+      <c r="R197" s="45"/>
+      <c r="S197" s="45"/>
+      <c r="T197" s="46"/>
+      <c r="U197" s="47"/>
+      <c r="V197" s="47"/>
+      <c r="W197" s="47"/>
+      <c r="X197" s="47"/>
+      <c r="Y197" s="48"/>
+      <c r="Z197" s="45"/>
+      <c r="AA197" s="14"/>
+      <c r="AB197" s="14"/>
+      <c r="AI197" s="14"/>
+      <c r="AJ197" s="14"/>
+    </row>
+    <row r="198">
+      <c r="B198" s="1"/>
+      <c r="C198" s="1"/>
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+      <c r="G198" s="1"/>
+      <c r="H198" s="1"/>
+      <c r="I198" s="2"/>
+      <c r="J198" s="2"/>
+      <c r="K198" s="2"/>
+      <c r="L198" s="2"/>
+      <c r="M198" s="2"/>
+      <c r="N198" s="3"/>
+      <c r="O198" s="2"/>
+      <c r="P198" s="1"/>
+      <c r="R198" s="45"/>
+      <c r="S198" s="45"/>
+      <c r="T198" s="46"/>
+      <c r="U198" s="47"/>
+      <c r="V198" s="47"/>
+      <c r="W198" s="47"/>
+      <c r="X198" s="47"/>
+      <c r="Y198" s="48"/>
+      <c r="Z198" s="45"/>
+      <c r="AA198" s="14"/>
+      <c r="AB198" s="14"/>
+      <c r="AI198" s="14"/>
+      <c r="AJ198" s="14"/>
+    </row>
+    <row r="199">
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+      <c r="G199" s="1"/>
+      <c r="H199" s="1"/>
+      <c r="I199" s="2"/>
+      <c r="J199" s="2"/>
+      <c r="K199" s="2"/>
+      <c r="L199" s="2"/>
+      <c r="M199" s="2"/>
+      <c r="N199" s="3"/>
+      <c r="O199" s="2"/>
+      <c r="P199" s="1"/>
+      <c r="R199" s="45"/>
+      <c r="S199" s="45"/>
+      <c r="T199" s="46"/>
+      <c r="U199" s="47"/>
+      <c r="V199" s="47"/>
+      <c r="W199" s="47"/>
+      <c r="X199" s="47"/>
+      <c r="Y199" s="48"/>
+      <c r="Z199" s="45"/>
+      <c r="AA199" s="14"/>
+      <c r="AB199" s="14"/>
+      <c r="AI199" s="14"/>
+      <c r="AJ199" s="14"/>
+    </row>
+    <row r="200">
+      <c r="B200" s="1"/>
+      <c r="C200" s="1"/>
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10:H21">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>N10="y"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:O58">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M10:M58">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="X54:X102 X8 AG9:AG53" xr:uid="{1944318E-A213-470E-B691-249196AF9507}">
+      <formula1>$H$9:$H$58</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="information" allowBlank="1" sqref="W1:W8 W54:W1048576 AF9:AF53" xr:uid="{A1298AB6-5572-4DFB-835D-E8F0B387BA06}">
+      <formula1>$AK$7:$AK$14</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A331E5F6-21CB-43B3-ACD6-0CD72E3DB9B9}">
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8529,7 +15759,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C2:G17"/>
   <sheetViews>
@@ -8575,10 +15805,10 @@
     </row>
     <row r="5">
       <c r="C5" s="73" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="D5" s="73" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="E5" s="73">
         <v>50.4</v>
@@ -8592,10 +15822,10 @@
     </row>
     <row r="6">
       <c r="C6" s="73" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="D6" s="73" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="E6" s="73">
         <v>87.53</v>

--- a/TestBudget.xlsx
+++ b/TestBudget.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <si>
     <t>May</t>
   </si>
@@ -467,6 +467,12 @@
   </si>
   <si>
     <t>Airport Parking</t>
+  </si>
+  <si>
+    <t>Credit Merchandisereturn Microsoft G Wa Visa</t>
+  </si>
+  <si>
+    <t>Cafe Rio</t>
   </si>
   <si>
     <t>123</t>
@@ -11189,7 +11195,21 @@
       <c r="O48" s="42"/>
       <c r="P48" s="41"/>
       <c r="R48" s="45"/>
-      <c r="S48" s="45"/>
+      <c r="S48" s="45">
+        <v>1025</v>
+      </c>
+      <c r="T48" s="72">
+        <v>45454</v>
+      </c>
+      <c r="U48" s="0" t="s">
+        <v>135</v>
+      </c>
+      <c r="W48" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y48" s="70">
+        <v>-186.04</v>
+      </c>
       <c r="Z48" s="45"/>
       <c r="AA48" s="14"/>
       <c r="AB48" s="14"/>
@@ -11223,7 +11243,21 @@
       <c r="O49" s="42"/>
       <c r="P49" s="41"/>
       <c r="R49" s="45"/>
-      <c r="S49" s="45"/>
+      <c r="S49" s="45">
+        <v>1026</v>
+      </c>
+      <c r="T49" s="72">
+        <v>45454</v>
+      </c>
+      <c r="U49" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="W49" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y49" s="70">
+        <v>28.92</v>
+      </c>
       <c r="Z49" s="45"/>
       <c r="AA49" s="14"/>
       <c r="AB49" s="14"/>
@@ -15805,10 +15839,10 @@
     </row>
     <row r="5">
       <c r="C5" s="73" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D5" s="73" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E5" s="73">
         <v>50.4</v>
@@ -15822,10 +15856,10 @@
     </row>
     <row r="6">
       <c r="C6" s="73" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D6" s="73" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E6" s="73">
         <v>87.53</v>

--- a/TestBudget.xlsx
+++ b/TestBudget.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PersonalMyCode\BudgetUpdator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C3CDDC-C703-4843-8ADD-3A888EC8B317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D38CF4-AA34-4726-9715-7168DD287CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30795" yWindow="1650" windowWidth="29010" windowHeight="15345" activeTab="2" xr2:uid="{AF956A61-A15A-4A6E-9A9E-CFD1D374AF1F}"/>
+    <workbookView xWindow="-28800" yWindow="270" windowWidth="29010" windowHeight="15345" activeTab="2" xr2:uid="{AF956A61-A15A-4A6E-9A9E-CFD1D374AF1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Income" sheetId="2" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <si>
     <t>May</t>
   </si>
@@ -430,6 +430,9 @@
     <t>Internet Transfer From Xxxxxxxx2900</t>
   </si>
   <si>
+    <t>asdf</t>
+  </si>
+  <si>
     <t>Donation</t>
   </si>
   <si>
@@ -437,6 +440,9 @@
   </si>
   <si>
     <t>Rocky Mountain Power</t>
+  </si>
+  <si>
+    <t>o</t>
   </si>
   <si>
     <t>ParkMobile</t>
@@ -8605,7 +8611,7 @@
   <dimension ref="A1:AR200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8:Y47"/>
+      <selection activeCell="AC10" sqref="AC10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8764,7 +8770,7 @@
       <c r="K6" s="24"/>
       <c r="L6" s="25">
         <f>SUM(L9:L58)</f>
-        <v>0</v>
+        <v>3471.05</v>
       </c>
       <c r="M6" s="23"/>
       <c r="N6" s="23"/>
@@ -8780,7 +8786,7 @@
       <c r="X6" s="26"/>
       <c r="Y6" s="25">
         <f>SUM(Y8:Y199)</f>
-        <v>0</v>
+        <v>5410.950000000002</v>
       </c>
       <c r="Z6" s="26"/>
       <c r="AA6" s="27"/>
@@ -8957,8 +8963,14 @@
       <c r="U9" s="0" t="s">
         <v>121</v>
       </c>
+      <c r="V9" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="W9" s="0" t="s">
         <v>24</v>
+      </c>
+      <c r="X9" s="0" t="s">
+        <v>122</v>
       </c>
       <c r="Y9" s="70">
         <v>-1200</v>
@@ -8999,7 +9011,7 @@
       </c>
       <c r="L10" s="42">
         <f ref="L10:L58" t="shared" si="1">SUMIF(X:X, H10, Y:Y)</f>
-        <v>0</v>
+        <v>460.96</v>
       </c>
       <c r="M10" s="42" t="e">
         <f ref="M10:M12" t="shared" si="2" ca="1">K10-L10</f>
@@ -9016,10 +9028,16 @@
         <v>45447</v>
       </c>
       <c r="U10" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="V10" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="W10" s="0" t="s">
         <v>24</v>
+      </c>
+      <c r="X10" s="0" t="s">
+        <v>122</v>
       </c>
       <c r="Y10" s="70">
         <v>1608.35</v>
@@ -9049,7 +9067,7 @@
       </c>
       <c r="D11" s="58">
         <f>Y6</f>
-        <v>0</v>
+        <v>5410.950000000002</v>
       </c>
       <c r="E11" s="40"/>
       <c r="G11" s="41"/>
@@ -9091,10 +9109,16 @@
         <v>45447</v>
       </c>
       <c r="U11" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="V11" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="W11" s="0" t="s">
         <v>24</v>
+      </c>
+      <c r="X11" s="0" t="s">
+        <v>122</v>
       </c>
       <c r="Y11" s="70">
         <v>166.81</v>
@@ -9162,10 +9186,16 @@
         <v>45447</v>
       </c>
       <c r="U12" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="V12" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="W12" s="0" t="s">
         <v>24</v>
+      </c>
+      <c r="X12" s="0" t="s">
+        <v>122</v>
       </c>
       <c r="Y12" s="70">
         <v>100</v>
@@ -9236,10 +9266,16 @@
         <v>45446</v>
       </c>
       <c r="U13" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="V13" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="W13" s="0" t="s">
         <v>24</v>
+      </c>
+      <c r="X13" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="Y13" s="70">
         <v>65.76</v>
@@ -9312,10 +9348,16 @@
         <v>45453</v>
       </c>
       <c r="U14" s="0" t="s">
-        <v>125</v>
+        <v>127</v>
+      </c>
+      <c r="V14" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="W14" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="X14" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="Y14" s="70">
         <v>12.9</v>
@@ -9346,7 +9388,7 @@
       </c>
       <c r="D15" s="60">
         <f>D9-D11</f>
-        <v>0</v>
+        <v>-5410.950000000002</v>
       </c>
       <c r="E15" s="61"/>
       <c r="F15" s="14"/>
@@ -9389,10 +9431,16 @@
         <v>45453</v>
       </c>
       <c r="U15" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
+      </c>
+      <c r="V15" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="W15" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="X15" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="Y15" s="70">
         <v>58.51</v>
@@ -9459,8 +9507,14 @@
       <c r="U16" s="0" t="s">
         <v>97</v>
       </c>
+      <c r="V16" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="W16" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="X16" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="Y16" s="70">
         <v>186.04</v>
@@ -9528,8 +9582,14 @@
       <c r="U17" s="0" t="s">
         <v>58</v>
       </c>
+      <c r="V17" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="W17" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="X17" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="Y17" s="70">
         <v>26.74</v>
@@ -9591,8 +9651,14 @@
       <c r="U18" s="0" t="s">
         <v>58</v>
       </c>
+      <c r="V18" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="W18" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="X18" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="Y18" s="70">
         <v>25.7</v>
@@ -9652,10 +9718,16 @@
         <v>45452</v>
       </c>
       <c r="U19" s="0" t="s">
-        <v>127</v>
+        <v>129</v>
+      </c>
+      <c r="V19" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="W19" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="X19" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="Y19" s="70">
         <v>11.01</v>
@@ -9718,8 +9790,14 @@
       <c r="U20" s="0" t="s">
         <v>58</v>
       </c>
+      <c r="V20" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="W20" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="X20" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="Y20" s="70">
         <v>10.65</v>
@@ -9779,10 +9857,16 @@
         <v>45452</v>
       </c>
       <c r="U21" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
+      </c>
+      <c r="V21" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="W21" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="X21" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="Y21" s="70">
         <v>65.43</v>
@@ -9833,10 +9917,16 @@
         <v>45452</v>
       </c>
       <c r="U22" s="0" t="s">
-        <v>129</v>
+        <v>131</v>
+      </c>
+      <c r="V22" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="W22" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="X22" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="Y22" s="70">
         <v>27.14</v>
@@ -9878,11 +9968,11 @@
       </c>
       <c r="L23" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3010.09</v>
       </c>
       <c r="M23" s="42">
         <f>K23-L23</f>
-        <v>3050</v>
+        <v>39.909999999999854</v>
       </c>
       <c r="N23" s="44"/>
       <c r="O23" s="42"/>
@@ -9954,10 +10044,16 @@
         <v>45452</v>
       </c>
       <c r="U24" s="0" t="s">
-        <v>130</v>
+        <v>132</v>
+      </c>
+      <c r="V24" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="W24" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="X24" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="Y24" s="70">
         <v>63.99</v>
@@ -10006,10 +10102,16 @@
         <v>45452</v>
       </c>
       <c r="U25" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
+      </c>
+      <c r="V25" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="W25" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="X25" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="Y25" s="70">
         <v>4.28</v>
@@ -10060,8 +10162,14 @@
       <c r="U26" s="0" t="s">
         <v>58</v>
       </c>
+      <c r="V26" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="W26" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="X26" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="Y26" s="70">
         <v>40.39</v>
@@ -10112,8 +10220,14 @@
       <c r="U27" s="0" t="s">
         <v>119</v>
       </c>
+      <c r="V27" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="W27" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="X27" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="Y27" s="70">
         <v>334.43</v>
@@ -10163,10 +10277,16 @@
         <v>45450</v>
       </c>
       <c r="U28" s="0" t="s">
-        <v>132</v>
+        <v>134</v>
+      </c>
+      <c r="V28" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="W28" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="X28" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="Y28" s="70">
         <v>8.25</v>
@@ -10217,8 +10337,14 @@
       <c r="U29" s="0" t="s">
         <v>113</v>
       </c>
+      <c r="V29" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="W29" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="X29" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="Y29" s="70">
         <v>97.33</v>
@@ -10269,8 +10395,14 @@
       <c r="U30" s="0" t="s">
         <v>58</v>
       </c>
+      <c r="V30" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="W30" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="X30" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="Y30" s="70">
         <v>10.65</v>
@@ -10428,10 +10560,16 @@
         <v>45448</v>
       </c>
       <c r="U33" s="0" t="s">
-        <v>133</v>
+        <v>135</v>
+      </c>
+      <c r="V33" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="W33" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="X33" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="Y33" s="70">
         <v>10</v>
@@ -10623,8 +10761,14 @@
       <c r="U37" s="0" t="s">
         <v>58</v>
       </c>
+      <c r="V37" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="W37" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="X37" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="Y37" s="70">
         <v>105.76</v>
@@ -10673,8 +10817,14 @@
       <c r="U38" s="0" t="s">
         <v>58</v>
       </c>
+      <c r="V38" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="W38" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="X38" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="Y38" s="70">
         <v>66.31</v>
@@ -10725,8 +10875,14 @@
       <c r="U39" s="0" t="s">
         <v>58</v>
       </c>
+      <c r="V39" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="W39" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="X39" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="Y39" s="70">
         <v>17</v>
@@ -10778,8 +10934,14 @@
       <c r="U40" s="0" t="s">
         <v>95</v>
       </c>
+      <c r="V40" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="W40" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="X40" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="Y40" s="70">
         <v>24.71</v>
@@ -10828,10 +10990,16 @@
         <v>45445</v>
       </c>
       <c r="U41" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
+      </c>
+      <c r="V41" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="W41" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="X41" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="Y41" s="70">
         <v>2</v>
@@ -11053,8 +11221,14 @@
       <c r="U45" s="0" t="s">
         <v>43</v>
       </c>
+      <c r="V45" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="W45" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="X45" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="Y45" s="70">
         <v>12.04</v>
@@ -11155,8 +11329,14 @@
       <c r="U47" s="0" t="s">
         <v>118</v>
       </c>
+      <c r="V47" s="0" t="s">
+        <v>21</v>
+      </c>
       <c r="W47" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="X47" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="Y47" s="70">
         <v>134.84</v>
@@ -11202,10 +11382,16 @@
         <v>45454</v>
       </c>
       <c r="U48" s="0" t="s">
-        <v>135</v>
+        <v>137</v>
+      </c>
+      <c r="V48" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="W48" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="X48" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="Y48" s="70">
         <v>-186.04</v>
@@ -11250,10 +11436,16 @@
         <v>45454</v>
       </c>
       <c r="U49" s="0" t="s">
-        <v>136</v>
+        <v>138</v>
+      </c>
+      <c r="V49" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="W49" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="X49" s="0" t="s">
+        <v>126</v>
       </c>
       <c r="Y49" s="70">
         <v>28.92</v>
@@ -15839,10 +16031,10 @@
     </row>
     <row r="5">
       <c r="C5" s="73" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D5" s="73" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E5" s="73">
         <v>50.4</v>
@@ -15856,10 +16048,10 @@
     </row>
     <row r="6">
       <c r="C6" s="73" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D6" s="73" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E6" s="73">
         <v>87.53</v>
